--- a/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
+++ b/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berkozdoruk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berkozdoruk/Desktop/GitHub/Elixir-Documentation/Test Reports and Test Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44C7FFE-8DC9-1245-BD1E-C5DD1FB42EF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6A4801-8B9F-BF4C-B71C-807A31F30900}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14080" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -288,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -320,6 +320,12 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2C363A"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -363,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -383,6 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,15 +707,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C81F5F-3812-4B44-AC60-4E873A1B1DD4}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="45.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="27.5" style="5" customWidth="1"/>
+    <col min="3" max="4" width="27.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="34.5" style="5" customWidth="1"/>
+    <col min="6" max="7" width="27.5" style="5" customWidth="1"/>
     <col min="8" max="14" width="16.33203125" style="5" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="5"/>
   </cols>
@@ -1044,7 +1053,7 @@
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1061,7 +1070,9 @@
     <row r="21" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="7"/>
+    </row>
     <row r="25" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
+++ b/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berkozdoruk/Desktop/GitHub/Elixir-Documentation/Test Reports and Test Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6A4801-8B9F-BF4C-B71C-807A31F30900}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FCF048-8742-B14A-A300-D91349CB3588}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14080" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
-    <sheet name="System Management" sheetId="2" r:id="rId2"/>
-    <sheet name="Admin Account Operations" sheetId="3" r:id="rId3"/>
-    <sheet name="User Account Operations" sheetId="4" r:id="rId4"/>
-    <sheet name="Account Operations" sheetId="5" r:id="rId5"/>
-    <sheet name="User Irrigation Operations" sheetId="6" r:id="rId6"/>
-    <sheet name="User Farm Operations" sheetId="7" r:id="rId7"/>
+    <sheet name="Admin Account Operations" sheetId="3" r:id="rId2"/>
+    <sheet name="User Account Operations" sheetId="4" r:id="rId3"/>
+    <sheet name="Account Operations" sheetId="5" r:id="rId4"/>
+    <sheet name="User Irrigation Operations" sheetId="6" r:id="rId5"/>
+    <sheet name="User Farm Operations" sheetId="7" r:id="rId6"/>
+    <sheet name="System Management" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="178">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -283,12 +283,333 @@
   <si>
     <t>User</t>
   </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Case Name</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Berk</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Tester's Name:</t>
+  </si>
+  <si>
+    <t>Date of Test:</t>
+  </si>
+  <si>
+    <t>S #</t>
+  </si>
+  <si>
+    <t>Test Data:</t>
+  </si>
+  <si>
+    <t>S#</t>
+  </si>
+  <si>
+    <t>Prerequisites:</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Assumptions and Constraints</t>
+  </si>
+  <si>
+    <t>First, device does not meet requirements, after update device meets requirements.</t>
+  </si>
+  <si>
+    <t>Verified Requirements:</t>
+  </si>
+  <si>
+    <t>Step #</t>
+  </si>
+  <si>
+    <t>Step Details</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>ELXR-SM-01</t>
+  </si>
+  <si>
+    <t>10 Mart 2021 Çarşamba</t>
+  </si>
+  <si>
+    <t>This case is formed to check if the device and browser meet requirements.</t>
+  </si>
+  <si>
+    <t>Using device must have an Internet connection.</t>
+  </si>
+  <si>
+    <t>Using device must have an browser.</t>
+  </si>
+  <si>
+    <t>Open browser and search elixirapp.live</t>
+  </si>
+  <si>
+    <t>Elixir home/login page should be displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update to specified version (Internet Explorer 9+). Try to search again. </t>
+  </si>
+  <si>
+    <t>Elixir home/login page cannot be displayed due to version support problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ---- Next Test Case ----</t>
+  </si>
+  <si>
+    <t>ELXIR-SM-02</t>
+  </si>
+  <si>
+    <t>Using device must have an Internet 9 or above.</t>
+  </si>
+  <si>
+    <t>First no internet connection, then connected to mobile or WIFI.</t>
+  </si>
+  <si>
+    <t>Elixir App running devices should have a Mobile Data or WIFI Connection.</t>
+  </si>
+  <si>
+    <t>Checking for Connection.</t>
+  </si>
+  <si>
+    <t>This test case is formed to check if the device can connect to the Internet.</t>
+  </si>
+  <si>
+    <t>Elixir page cannot be downloaded due to Internet connection error.</t>
+  </si>
+  <si>
+    <t>Connect WI-FI or mobile data.</t>
+  </si>
+  <si>
+    <t>ELXIR-SM-03</t>
+  </si>
+  <si>
+    <t>Elixir App running devices should have able to receive a mail during registering a user.</t>
+  </si>
+  <si>
+    <t>This test case is formed to check if the device can receive a mail during register process.</t>
+  </si>
+  <si>
+    <t>Checking device for receiving mails.</t>
+  </si>
+  <si>
+    <t>The Admin user should create a new user with uniquite identifiers.</t>
+  </si>
+  <si>
+    <t>Check for device &amp; browser for eligibility.</t>
+  </si>
+  <si>
+    <t>Admin user create user operation.</t>
+  </si>
+  <si>
+    <t>Admin is already logged in the system, and user status is admin.</t>
+  </si>
+  <si>
+    <t>Berk Ozdoruk, Farm Selection, berk et hotmail dot com, berkberk1234</t>
+  </si>
+  <si>
+    <t>Dropbox results showed. Create User-Farm/ Edit-Delete User / Edit-Delete Farm.</t>
+  </si>
+  <si>
+    <t>Name with 3 characters entered.</t>
+  </si>
+  <si>
+    <t>Open Admin Panel dropdown.</t>
+  </si>
+  <si>
+    <t>Email without @ entered.</t>
+  </si>
+  <si>
+    <t>Name cannot be shorter than 4 characters. Alert displayed.</t>
+  </si>
+  <si>
+    <t>Proper email entered.</t>
+  </si>
+  <si>
+    <t>Email alert displayed.</t>
+  </si>
+  <si>
+    <t>Farms are displayed.</t>
+  </si>
+  <si>
+    <t>Farm is selected.</t>
+  </si>
+  <si>
+    <t>Farm dropdown is selected.</t>
+  </si>
+  <si>
+    <t>Password with 3 characters entered.</t>
+  </si>
+  <si>
+    <t>Password cannot be shorter than 4 characters. Alert displayed.</t>
+  </si>
+  <si>
+    <t>Password cannot be longer than 32 characters. Alert displayed.</t>
+  </si>
+  <si>
+    <t>Password with 33 characters entered.</t>
+  </si>
+  <si>
+    <t>Password with 4-32 characters entered.</t>
+  </si>
+  <si>
+    <t>Generate password clicked.</t>
+  </si>
+  <si>
+    <t>Create user button clicked.</t>
+  </si>
+  <si>
+    <t>System automaticly fills password field with a random password.</t>
+  </si>
+  <si>
+    <t>User is created successfully and send a email that includes password to the user if admin clicked generate password.</t>
+  </si>
+  <si>
+    <t>Name has no problem. No alert displayed.</t>
+  </si>
+  <si>
+    <t>Email has no problem. No alert displayed.</t>
+  </si>
+  <si>
+    <t>Password has no problem. No alert displayed.</t>
+  </si>
+  <si>
+    <t>Name is entered (4-32 chars)</t>
+  </si>
+  <si>
+    <t>Name with 33 characters entered.</t>
+  </si>
+  <si>
+    <t>Name cannot be loger than 33 characters. Alert displayed.</t>
+  </si>
+  <si>
+    <t>The Admin user should delete a existing user from the system/database.</t>
+  </si>
+  <si>
+    <t>Admin user delete user operation.</t>
+  </si>
+  <si>
+    <t>Create user - farm button clicked.</t>
+  </si>
+  <si>
+    <t>Create user - farm page is showerd</t>
+  </si>
+  <si>
+    <t>Edit-Delete User page button clicked.</t>
+  </si>
+  <si>
+    <t>Edit-Delete user page showed.</t>
+  </si>
+  <si>
+    <t>User list dropdown clicked.</t>
+  </si>
+  <si>
+    <t>User list showed.</t>
+  </si>
+  <si>
+    <t>Edit button redirected to detailed edit-delete user page.</t>
+  </si>
+  <si>
+    <t>Spesific user selected and edit button clicked.</t>
+  </si>
+  <si>
+    <t>User details are showed and delete button clicked.</t>
+  </si>
+  <si>
+    <t>User deleted successfully from the system/database and alert displayed.</t>
+  </si>
+  <si>
+    <t>Existing user.</t>
+  </si>
+  <si>
+    <t>ELXR-SM-02</t>
+  </si>
+  <si>
+    <t>Admin user edit user operation.</t>
+  </si>
+  <si>
+    <t>The Admin user should be able to change user's name.</t>
+  </si>
+  <si>
+    <t>ELXR-SM-03</t>
+  </si>
+  <si>
+    <t>The Admin User should be able to select spesific user.</t>
+  </si>
+  <si>
+    <t>The Admin user should be able to change user's farm.</t>
+  </si>
+  <si>
+    <t>The Admin user should be able to change user's email address.</t>
+  </si>
+  <si>
+    <t>The Admin user should be able to role of the selected user.</t>
+  </si>
+  <si>
+    <t>Edit button redirected to detailed edit-delete user page. User details are dipslated.</t>
+  </si>
+  <si>
+    <t>Successful alert displayed. Role is changed.</t>
+  </si>
+  <si>
+    <t>Successful alert displayed. Name is changed.</t>
+  </si>
+  <si>
+    <t>Selected user's farm dropdown selected.</t>
+  </si>
+  <si>
+    <t>Existing farm list showed.</t>
+  </si>
+  <si>
+    <t>User's farm is changed to new selected farm. Successful alert is displayed.</t>
+  </si>
+  <si>
+    <t>Alarm displayed. Email could not changed.</t>
+  </si>
+  <si>
+    <t>Successful alarm displayed. Email updated.</t>
+  </si>
+  <si>
+    <t>Selected user's role is changed to admin from user. Click save button.</t>
+  </si>
+  <si>
+    <t>Selected user's name is changed (character count between 4 to 32) Click save button.</t>
+  </si>
+  <si>
+    <t>Another farm from the list selected.Click save button.</t>
+  </si>
+  <si>
+    <t>Selected user's email is changed (without proper email rules) Click save button.</t>
+  </si>
+  <si>
+    <t>Selected user's email is changed (with proper email rules) Click save button.</t>
+  </si>
+  <si>
+    <t>Selected user's role is changed to user from admin. Click save button.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,8 +648,53 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,8 +706,14 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -364,12 +736,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -390,6 +947,129 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C81F5F-3812-4B44-AC60-4E873A1B1DD4}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1096,32 +1776,1637 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB72114-158D-AC4B-9339-BCABDBF219D1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D5A933-5288-C94E-BF55-FF09BD47810B}">
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F3" s="44"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="G7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="G8" s="26">
+        <v>1</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="39">
+        <v>1</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="16"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="39">
+        <v>2</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="16"/>
+      <c r="G10" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="G11" s="26">
+        <v>1</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="37">
+        <v>1</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="37">
+        <v>2</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="37">
+        <v>3</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="37">
+        <v>4</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="37">
+        <v>5</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="37">
+        <v>6</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="37">
+        <v>7</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="37">
+        <v>8</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="37">
+        <v>9</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="37">
+        <v>10</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="37">
+        <v>11</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="37">
+        <v>12</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="37">
+        <v>13</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="37">
+        <v>14</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="49"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="52"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F44" s="44"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J46" s="16"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="G48" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="20"/>
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25"/>
+      <c r="G49" s="26">
+        <v>1</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="29"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="39">
+        <v>1</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="16"/>
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="39">
+        <v>2</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="16"/>
+      <c r="G51" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="20"/>
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="G52" s="26">
+        <v>1</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="29"/>
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="5"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="D56" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="35"/>
+      <c r="M56" s="5"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="5"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="37">
+        <v>1</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="37">
+        <v>2</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="37">
+        <v>3</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="37">
+        <v>4</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="37">
+        <v>5</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="49"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="50"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="52"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="M74" s="5"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="M75" s="5"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F76" s="44"/>
+      <c r="M76" s="5"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="5"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H78" s="14"/>
+      <c r="I78" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J78" s="16"/>
+      <c r="M78" s="5"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M79" s="5"/>
+    </row>
+    <row r="80" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="G80" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="20"/>
+      <c r="M80" s="5"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="22"/>
+      <c r="C81" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="25"/>
+      <c r="G81" s="26">
+        <v>1</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="29"/>
+      <c r="M81" s="5"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="39">
+        <v>1</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="16"/>
+      <c r="M82" s="5"/>
+    </row>
+    <row r="83" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="39">
+        <v>2</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="16"/>
+      <c r="G83" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="20"/>
+      <c r="M83" s="5"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="5"/>
+      <c r="G84" s="26">
+        <v>1</v>
+      </c>
+      <c r="H84" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="29"/>
+      <c r="M84" s="5"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="5"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="5"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="5"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="32"/>
+      <c r="D88" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="35"/>
+      <c r="M88" s="5"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="32"/>
+      <c r="D89" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="35"/>
+      <c r="M89" s="5"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="32"/>
+      <c r="D90" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="35"/>
+      <c r="M90" s="5"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="32"/>
+      <c r="D91" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="35"/>
+      <c r="M91" s="5"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="32"/>
+      <c r="D92" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="35"/>
+      <c r="M92" s="5"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" s="58"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="57"/>
+      <c r="K93" s="57"/>
+      <c r="M93" s="5"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="5"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="37">
+        <v>1</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="H97" s="38"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="38"/>
+      <c r="L97" s="38"/>
+      <c r="M97" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="37">
+        <v>2</v>
+      </c>
+      <c r="B98" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="38"/>
+      <c r="K98" s="38"/>
+      <c r="L98" s="38"/>
+      <c r="M98" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="37">
+        <v>3</v>
+      </c>
+      <c r="B99" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="H99" s="38"/>
+      <c r="I99" s="38"/>
+      <c r="J99" s="38"/>
+      <c r="K99" s="38"/>
+      <c r="L99" s="38"/>
+      <c r="M99" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" s="37">
+        <v>4</v>
+      </c>
+      <c r="B100" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="38"/>
+      <c r="K100" s="38"/>
+      <c r="L100" s="38"/>
+      <c r="M100" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" s="37">
+        <v>5</v>
+      </c>
+      <c r="B101" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="H101" s="38"/>
+      <c r="I101" s="38"/>
+      <c r="J101" s="38"/>
+      <c r="K101" s="38"/>
+      <c r="L101" s="38"/>
+      <c r="M101" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="37">
+        <v>6</v>
+      </c>
+      <c r="B102" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="H102" s="38"/>
+      <c r="I102" s="38"/>
+      <c r="J102" s="38"/>
+      <c r="K102" s="38"/>
+      <c r="L102" s="38"/>
+      <c r="M102" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="37">
+        <v>7</v>
+      </c>
+      <c r="B103" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="H103" s="38"/>
+      <c r="I103" s="38"/>
+      <c r="J103" s="38"/>
+      <c r="K103" s="38"/>
+      <c r="L103" s="38"/>
+      <c r="M103" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="37">
+        <v>8</v>
+      </c>
+      <c r="B104" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H104" s="38"/>
+      <c r="I104" s="38"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="38"/>
+      <c r="L104" s="38"/>
+      <c r="M104" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" s="37">
+        <v>9</v>
+      </c>
+      <c r="B105" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="H105" s="38"/>
+      <c r="I105" s="38"/>
+      <c r="J105" s="38"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" s="37">
+        <v>10</v>
+      </c>
+      <c r="B106" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="H106" s="38"/>
+      <c r="I106" s="38"/>
+      <c r="J106" s="38"/>
+      <c r="K106" s="38"/>
+      <c r="L106" s="38"/>
+      <c r="M106" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" s="37">
+        <v>11</v>
+      </c>
+      <c r="B107" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="H107" s="38"/>
+      <c r="I107" s="38"/>
+      <c r="J107" s="38"/>
+      <c r="K107" s="38"/>
+      <c r="L107" s="38"/>
+      <c r="M107" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="106">
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="G107:L107"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="G104:L104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="G105:L105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="G106:L106"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="G101:L101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="G103:L103"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="G100:L100"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:K89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:K91"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="G97:L97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="G98:L98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="G99:L99"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:K88"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:F96"/>
+    <mergeCell ref="G95:L96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:K92"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="A69:L70"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="G65:L65"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="G64:L64"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="A37:L38"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D5A933-5288-C94E-BF55-FF09BD47810B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD90F54-04F9-2948-B228-7AEC85B49338}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1139,7 +3424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4805ACE8-3721-304D-9C9A-16E244B30454}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1151,7 +3436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB14FEB4-33E8-D841-8B65-9CED955CEC0D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1169,7 +3454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C897490-27CA-B94E-89C9-9DC49B971AE2}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1187,4 +3472,946 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB72114-158D-AC4B-9339-BCABDBF219D1}">
+  <dimension ref="A1:M79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F3" s="44"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="G7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="G8" s="26">
+        <v>1</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="39">
+        <v>1</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="16"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="39">
+        <v>2</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="16"/>
+      <c r="G10" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="G11" s="26">
+        <v>1</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="37">
+        <v>1</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="37">
+        <v>2</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="49"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="52"/>
+    </row>
+    <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F32" s="44"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J34" s="16"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="G36" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="20"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="G37" s="26">
+        <v>1</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="29"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="45">
+        <v>1</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="46"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="G39" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="20"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="G40" s="26">
+        <v>1</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="29"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="35"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="37">
+        <v>1</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="37">
+        <v>2</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="49"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="50"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="52"/>
+    </row>
+    <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F61" s="44"/>
+      <c r="M61" s="5"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" s="14"/>
+      <c r="I63" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J63" s="16"/>
+      <c r="M63" s="5"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="5"/>
+    </row>
+    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="G65" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="20"/>
+      <c r="M65" s="5"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="25"/>
+      <c r="G66" s="26">
+        <v>1</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="29"/>
+      <c r="M66" s="5"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="45">
+        <v>1</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="54"/>
+      <c r="M67" s="5"/>
+    </row>
+    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="39">
+        <v>2</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="16"/>
+      <c r="G68" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="20"/>
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="G69" s="26">
+        <v>1</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="29"/>
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="5"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="5"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="D73" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="35"/>
+      <c r="M73" s="5"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="5"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="5"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="37">
+        <v>1</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="37">
+        <v>2</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="G79:L79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:F77"/>
+    <mergeCell ref="G76:L77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="F60:K60"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:K73"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:L49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="A54:L55"/>
+    <mergeCell ref="F59:K59"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:F48"/>
+    <mergeCell ref="G47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="A25:L26"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
+++ b/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berkozdoruk/Desktop/GitHub/Elixir-Documentation/Test Reports and Test Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FCF048-8742-B14A-A300-D91349CB3588}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A70E634-CC53-1147-A606-95F0A29070B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="270">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -437,9 +437,6 @@
     <t>Email without @ entered.</t>
   </si>
   <si>
-    <t>Name cannot be shorter than 4 characters. Alert displayed.</t>
-  </si>
-  <si>
     <t>Proper email entered.</t>
   </si>
   <si>
@@ -455,21 +452,6 @@
     <t>Farm dropdown is selected.</t>
   </si>
   <si>
-    <t>Password with 3 characters entered.</t>
-  </si>
-  <si>
-    <t>Password cannot be shorter than 4 characters. Alert displayed.</t>
-  </si>
-  <si>
-    <t>Password cannot be longer than 32 characters. Alert displayed.</t>
-  </si>
-  <si>
-    <t>Password with 33 characters entered.</t>
-  </si>
-  <si>
-    <t>Password with 4-32 characters entered.</t>
-  </si>
-  <si>
     <t>Generate password clicked.</t>
   </si>
   <si>
@@ -491,15 +473,9 @@
     <t>Password has no problem. No alert displayed.</t>
   </si>
   <si>
-    <t>Name is entered (4-32 chars)</t>
-  </si>
-  <si>
     <t>Name with 33 characters entered.</t>
   </si>
   <si>
-    <t>Name cannot be loger than 33 characters. Alert displayed.</t>
-  </si>
-  <si>
     <t>The Admin user should delete a existing user from the system/database.</t>
   </si>
   <si>
@@ -590,9 +566,6 @@
     <t>Selected user's role is changed to admin from user. Click save button.</t>
   </si>
   <si>
-    <t>Selected user's name is changed (character count between 4 to 32) Click save button.</t>
-  </si>
-  <si>
     <t>Another farm from the list selected.Click save button.</t>
   </si>
   <si>
@@ -603,13 +576,316 @@
   </si>
   <si>
     <t>Selected user's role is changed to user from admin. Click save button.</t>
+  </si>
+  <si>
+    <t>ELXR-SM-04</t>
+  </si>
+  <si>
+    <t>Admin user create farm operation.</t>
+  </si>
+  <si>
+    <t>The Admin user should be able to change/update user's details.</t>
+  </si>
+  <si>
+    <t>The Admin user should be able to create a farm.</t>
+  </si>
+  <si>
+    <t>The admin shall be able to create a unique farm with required inputs.</t>
+  </si>
+  <si>
+    <t>Create User-Farm is selected.</t>
+  </si>
+  <si>
+    <t>Create User-Farm page showed.</t>
+  </si>
+  <si>
+    <t>Farm details must be fully entered. Missing parameters gives error (Tested).</t>
+  </si>
+  <si>
+    <t>ELXR-SM-05</t>
+  </si>
+  <si>
+    <t>Admin user delete farm operation.</t>
+  </si>
+  <si>
+    <t>The Admin user should be able to delete a farm.</t>
+  </si>
+  <si>
+    <t>The Admin should be able to select spesific farm.</t>
+  </si>
+  <si>
+    <t>The Admin user should be able to delete a existing farm from the system/database.</t>
+  </si>
+  <si>
+    <t>Edit-Delete Farm is selected.</t>
+  </si>
+  <si>
+    <t>Edit-Delete page is showed.  Farm dropdown showed.</t>
+  </si>
+  <si>
+    <t>Farm list dropdown clicked.</t>
+  </si>
+  <si>
+    <t>Farm list showed.</t>
+  </si>
+  <si>
+    <t>Spesific farm selected and edit button clicked.</t>
+  </si>
+  <si>
+    <t>Edit button redirected to detailed edit-delete farm page. Farm details are displayed.</t>
+  </si>
+  <si>
+    <t>Delete farm button clicked.</t>
+  </si>
+  <si>
+    <t>Farm deleted successfully from the system/database and alert displayed.</t>
+  </si>
+  <si>
+    <t>Existing Farm.</t>
+  </si>
+  <si>
+    <t>Selected user's name is changed (character count between 4 to 256) Click save button.</t>
+  </si>
+  <si>
+    <t>Name cannot be loger than 256 characters. Alert displayed.</t>
+  </si>
+  <si>
+    <t>Name is entered (8-256 chars)</t>
+  </si>
+  <si>
+    <t>Name cannot be shorter than 8 characters. Alert displayed.</t>
+  </si>
+  <si>
+    <t>Password with 7 characters entered.</t>
+  </si>
+  <si>
+    <t>Password cannot be shorter than 8 characters. Alert displayed.</t>
+  </si>
+  <si>
+    <t>Password cannot be longer than 256 characters. Alert displayed.</t>
+  </si>
+  <si>
+    <t>Password with 8-256 characters entered.</t>
+  </si>
+  <si>
+    <t>Password with 255 characters entered.</t>
+  </si>
+  <si>
+    <t>Farm name is entered with 3 characters.</t>
+  </si>
+  <si>
+    <t>Alert displayed. Name cannot be shorter than 4 characters.</t>
+  </si>
+  <si>
+    <t>Farm name is entered with 33 characters.</t>
+  </si>
+  <si>
+    <t>Alert displayed. Name cannot be longer than 32 characters.</t>
+  </si>
+  <si>
+    <t>Farm details must be fully entered. Missing parameters gives error one by one (Tested).</t>
+  </si>
+  <si>
+    <t>Farm name is entered between 4 to 32 characters</t>
+  </si>
+  <si>
+    <t>Successful save. No alert displayed.</t>
+  </si>
+  <si>
+    <t>Province dropdown is clicked.</t>
+  </si>
+  <si>
+    <t>All provinces are listed.</t>
+  </si>
+  <si>
+    <t>Province selected.</t>
+  </si>
+  <si>
+    <t>Selected province is showing on the dropdown area.</t>
+  </si>
+  <si>
+    <t>District dropdown is clicked.</t>
+  </si>
+  <si>
+    <t>District selected.</t>
+  </si>
+  <si>
+    <t>All districts are listed.</t>
+  </si>
+  <si>
+    <t>Selected district is showing on the dropdown area.</t>
+  </si>
+  <si>
+    <t>Latitute entered wrong 1</t>
+  </si>
+  <si>
+    <t>Latitute entered wrong 2</t>
+  </si>
+  <si>
+    <t>Latitude is entered correct.</t>
+  </si>
+  <si>
+    <t>Alert displayed.</t>
+  </si>
+  <si>
+    <t>Longtitude entered wrong 1</t>
+  </si>
+  <si>
+    <t>Longtitude entered wrong 2</t>
+  </si>
+  <si>
+    <t>Longtitute is entered correct.</t>
+  </si>
+  <si>
+    <t>Daily Station no entered below 1</t>
+  </si>
+  <si>
+    <t>Daily station no cannot be lower than 1 alert displayed.</t>
+  </si>
+  <si>
+    <t>Daily Station no entered below 16</t>
+  </si>
+  <si>
+    <t>Daily station no cannot be more than 16 alert displayed.</t>
+  </si>
+  <si>
+    <t>Hourly station no cannot be lower than 1 alert displayed.</t>
+  </si>
+  <si>
+    <t>Hourly Station no entered below 1</t>
+  </si>
+  <si>
+    <t>Hourly Station no entered below 16</t>
+  </si>
+  <si>
+    <t>Proper daily station no is entered.</t>
+  </si>
+  <si>
+    <t>Proper hourly station no is entered.</t>
+  </si>
+  <si>
+    <t>Soil type selected.</t>
+  </si>
+  <si>
+    <t>Soil type  dropdown is clicked.</t>
+  </si>
+  <si>
+    <t>All soil types are listed.</t>
+  </si>
+  <si>
+    <t>Selected soil type is showing on the dropdown area.</t>
+  </si>
+  <si>
+    <t>Create farm button is clicked.</t>
+  </si>
+  <si>
+    <t>Successful save. Farm is created/added to the system.</t>
+  </si>
+  <si>
+    <t>ELXR-SM-06</t>
+  </si>
+  <si>
+    <t>Admin user edit/update farm operation.</t>
+  </si>
+  <si>
+    <t>The Admin user should be update or change farm details.</t>
+  </si>
+  <si>
+    <t>The Admin user should be able to select a farm to change.</t>
+  </si>
+  <si>
+    <t>The Admin user should be able to change all fields individually.</t>
+  </si>
+  <si>
+    <t>Farm data will be entered.</t>
+  </si>
+  <si>
+    <t>Edit-Delete Farm page button clicked.</t>
+  </si>
+  <si>
+    <t>Edit-Delete Farm page showed.</t>
+  </si>
+  <si>
+    <t>Spesific farm is selected and edit button clicked.</t>
+  </si>
+  <si>
+    <t>Edit button redirected to detailed edit-delete farm page. Farm details are dipslayed.</t>
+  </si>
+  <si>
+    <t>Successful save alert displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm name is changed between 8 to 32 characters. </t>
+  </si>
+  <si>
+    <t>Tester can test every individual change, and click save button.</t>
+  </si>
+  <si>
+    <t>Soil type dropdown is clicked.</t>
+  </si>
+  <si>
+    <t>Soil types are listed.</t>
+  </si>
+  <si>
+    <t>New soil type is selected.</t>
+  </si>
+  <si>
+    <t>Successful alert displayed. Soil type is changed.</t>
+  </si>
+  <si>
+    <t>New province is selected.</t>
+  </si>
+  <si>
+    <t>Successful alert displayed. Province is changed.</t>
+  </si>
+  <si>
+    <t>New district is selected.</t>
+  </si>
+  <si>
+    <t>Successful alert displayed. District is changed.</t>
+  </si>
+  <si>
+    <t>Latitude is changed with wrong input 1</t>
+  </si>
+  <si>
+    <t>Alert displayed. Latitude cannot be …</t>
+  </si>
+  <si>
+    <t>Latitude is changed with proper number.</t>
+  </si>
+  <si>
+    <t>Successful alert displayed. Latitute is changed.</t>
+  </si>
+  <si>
+    <t>Longtitude is changed with wrong input 1</t>
+  </si>
+  <si>
+    <t>Alert displayed. Longtitude cannot be …</t>
+  </si>
+  <si>
+    <t>Successful alert displayed. Longtitude is changed.</t>
+  </si>
+  <si>
+    <t>Longtitude is changed with proper number.</t>
+  </si>
+  <si>
+    <t>Successful alert displayed. Daily station no is changed.</t>
+  </si>
+  <si>
+    <t>Successful alert displayed. Hourly station no is changed.</t>
+  </si>
+  <si>
+    <t>Save farm button is clicked.</t>
+  </si>
+  <si>
+    <t>Successful save. Farm is changed/updated to the system.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -693,8 +969,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,6 +1002,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -922,11 +1219,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -950,12 +1249,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -964,15 +1257,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -986,16 +1270,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1015,30 +1319,28 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1058,22 +1360,52 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Kötü" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Not" xfId="1" builtinId="10"/>
+    <cellStyle name="Uyarı Metni" xfId="3" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1387,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C81F5F-3812-4B44-AC60-4E873A1B1DD4}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1777,10 +2109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D5A933-5288-C94E-BF55-FF09BD47810B}">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="A245" sqref="A245:L246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1799,14 +2131,14 @@
         <v>72</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1820,18 +2152,18 @@
         <v>75</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F3" s="44"/>
+      <c r="F3" s="26"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1844,96 +2176,96 @@
       <c r="B5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="16"/>
+      <c r="J5" s="14"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="G8" s="26">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="G8" s="21">
         <v>1</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="39">
+      <c r="A9" s="24">
         <v>1</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="16"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="14"/>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="39">
+      <c r="A10" s="24">
         <v>2</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="16"/>
-      <c r="G10" s="17" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="14"/>
+      <c r="G10" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="G11" s="26">
+      <c r="G11" s="21">
         <v>1</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1949,20 +2281,20 @@
       <c r="A15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1972,414 +2304,414 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36" t="s">
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="37">
+      <c r="A20" s="23">
         <v>1</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="39" t="s">
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="37">
+      <c r="A21" s="23">
         <v>2</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="39" t="s">
+      <c r="B21" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="37">
+      <c r="A22" s="23">
         <v>3</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <v>4</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
+        <v>5</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
+        <v>6</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23">
+        <v>7</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
+        <v>8</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23">
+        <v>9</v>
+      </c>
+      <c r="B28" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37">
-        <v>4</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37">
-        <v>5</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37">
-        <v>6</v>
-      </c>
-      <c r="B25" s="40" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="23">
+        <v>10</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
+        <v>11</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
+        <v>12</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
+        <v>13</v>
+      </c>
+      <c r="B32" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37">
-        <v>7</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="37">
-        <v>8</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37">
-        <v>9</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37">
-        <v>10</v>
-      </c>
-      <c r="B29" s="40" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
+        <v>14</v>
+      </c>
+      <c r="B33" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="37">
-        <v>11</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="40" t="s">
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37">
-        <v>12</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37">
-        <v>13</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37">
-        <v>14</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="55" t="s">
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="31" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="49"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="52"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="52"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="55"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
+      <c r="F42" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -2393,18 +2725,18 @@
         <v>75</v>
       </c>
       <c r="E43" s="10"/>
-      <c r="F43" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
+      <c r="F43" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F44" s="44"/>
+      <c r="F44" s="26"/>
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -2417,96 +2749,96 @@
       <c r="B46" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H46" s="14"/>
-      <c r="I46" s="15" t="s">
+      <c r="H46" s="12"/>
+      <c r="I46" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J46" s="16"/>
+      <c r="J46" s="14"/>
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="20"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="46"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23" t="s">
+      <c r="B49" s="17"/>
+      <c r="C49" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="25"/>
-      <c r="G49" s="26">
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="G49" s="21">
         <v>1</v>
       </c>
-      <c r="H49" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="29"/>
+      <c r="H49" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="49"/>
       <c r="M49" s="5"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="39">
+      <c r="A50" s="24">
         <v>1</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="16"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="14"/>
       <c r="M50" s="5"/>
     </row>
     <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="39">
+      <c r="A51" s="24">
         <v>2</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="16"/>
-      <c r="G51" s="17" t="s">
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="14"/>
+      <c r="G51" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="H51" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="20"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="46"/>
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
-      <c r="G52" s="26">
+      <c r="G52" s="21">
         <v>1</v>
       </c>
-      <c r="H52" s="27" t="s">
+      <c r="H52" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="29"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="49"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -2522,20 +2854,20 @@
       <c r="A56" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="35"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="40"/>
       <c r="M56" s="5"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -2545,207 +2877,207 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36" t="s">
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36" t="s">
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="36"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="37">
+      <c r="A61" s="23">
         <v>1</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38" t="s">
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="39" t="s">
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="37">
+      <c r="A62" s="23">
         <v>2</v>
       </c>
-      <c r="B62" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="39" t="s">
+      <c r="B62" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="37">
+      <c r="A63" s="23">
         <v>3</v>
       </c>
-      <c r="B63" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="39" t="s">
+      <c r="B63" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="37">
+      <c r="A64" s="23">
         <v>4</v>
       </c>
-      <c r="B64" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="39" t="s">
+      <c r="B64" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="37">
+      <c r="A65" s="23">
         <v>5</v>
       </c>
-      <c r="B65" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="39" t="s">
+      <c r="B65" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="47" t="s">
+      <c r="A69" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="49"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="52"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="50"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="52"/>
+      <c r="A70" s="53"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="55"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E74" s="10"/>
-      <c r="F74" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
+      <c r="F74" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
       <c r="M74" s="5"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -2759,18 +3091,18 @@
         <v>75</v>
       </c>
       <c r="E75" s="10"/>
-      <c r="F75" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
+      <c r="F75" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
       <c r="M75" s="5"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F76" s="44"/>
+      <c r="F76" s="26"/>
       <c r="M76" s="5"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -2783,96 +3115,96 @@
       <c r="B78" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G78" s="13" t="s">
+      <c r="G78" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H78" s="14"/>
-      <c r="I78" s="15" t="s">
+      <c r="H78" s="12"/>
+      <c r="I78" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J78" s="16"/>
+      <c r="J78" s="14"/>
       <c r="M78" s="5"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M79" s="5"/>
     </row>
     <row r="80" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="G80" s="17" t="s">
+      <c r="G80" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="H80" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="20"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="46"/>
       <c r="M80" s="5"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="23" t="s">
+      <c r="B81" s="17"/>
+      <c r="C81" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D81" s="24"/>
-      <c r="E81" s="25"/>
-      <c r="G81" s="26">
+      <c r="D81" s="19"/>
+      <c r="E81" s="20"/>
+      <c r="G81" s="21">
         <v>1</v>
       </c>
-      <c r="H81" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="29"/>
+      <c r="H81" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="49"/>
       <c r="M81" s="5"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="39">
+      <c r="A82" s="24">
         <v>1</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="16"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="14"/>
       <c r="M82" s="5"/>
     </row>
     <row r="83" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="39">
+      <c r="A83" s="24">
         <v>2</v>
       </c>
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="16"/>
-      <c r="G83" s="17" t="s">
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="14"/>
+      <c r="G83" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H83" s="18" t="s">
+      <c r="H83" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="20"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="46"/>
       <c r="M83" s="5"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="G84" s="26">
+      <c r="G84" s="21">
         <v>1</v>
       </c>
-      <c r="H84" s="27" t="s">
+      <c r="H84" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="29"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="49"/>
       <c r="M84" s="5"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -2888,412 +3220,2756 @@
       <c r="A88" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="35"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="40"/>
       <c r="M88" s="5"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="35"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="40"/>
       <c r="M89" s="5"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="35"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="40"/>
       <c r="M90" s="5"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="35"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="40"/>
       <c r="M91" s="5"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="35"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="40"/>
       <c r="M92" s="5"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="58"/>
-      <c r="B93" s="56"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="57"/>
-      <c r="H93" s="57"/>
-      <c r="I93" s="57"/>
-      <c r="J93" s="57"/>
-      <c r="K93" s="57"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
       <c r="M93" s="5"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M94" s="5"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="36" t="s">
+      <c r="A95" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36" t="s">
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="36" t="s">
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
+      <c r="K95" s="41"/>
+      <c r="L95" s="41"/>
+      <c r="M95" s="41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="36"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="36"/>
+      <c r="A96" s="41"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
+      <c r="K96" s="41"/>
+      <c r="L96" s="41"/>
+      <c r="M96" s="41"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" s="37">
+      <c r="A97" s="23">
         <v>1</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C97" s="38"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38" t="s">
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="38"/>
-      <c r="K97" s="38"/>
-      <c r="L97" s="38"/>
-      <c r="M97" s="39" t="s">
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="37">
+      <c r="A98" s="23">
         <v>2</v>
       </c>
-      <c r="B98" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="C98" s="38"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="H98" s="38"/>
-      <c r="I98" s="38"/>
-      <c r="J98" s="38"/>
-      <c r="K98" s="38"/>
-      <c r="L98" s="38"/>
-      <c r="M98" s="39" t="s">
+      <c r="B98" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="35"/>
+      <c r="M98" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A99" s="37">
+      <c r="A99" s="23">
         <v>3</v>
       </c>
-      <c r="B99" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="H99" s="38"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="38"/>
-      <c r="K99" s="38"/>
-      <c r="L99" s="38"/>
-      <c r="M99" s="39" t="s">
+      <c r="B99" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H99" s="35"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="35"/>
+      <c r="M99" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100" s="37">
+      <c r="A100" s="23">
         <v>4</v>
       </c>
-      <c r="B100" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="38" t="s">
+      <c r="B100" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="35"/>
+      <c r="M100" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" s="23">
+        <v>5</v>
+      </c>
+      <c r="B101" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
-      <c r="J100" s="38"/>
-      <c r="K100" s="38"/>
-      <c r="L100" s="38"/>
-      <c r="M100" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A101" s="37">
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="35"/>
+      <c r="M101" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="23">
+        <v>6</v>
+      </c>
+      <c r="B102" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="35"/>
+      <c r="M102" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="23">
+        <v>7</v>
+      </c>
+      <c r="B103" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="23">
+        <v>8</v>
+      </c>
+      <c r="B104" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H104" s="35"/>
+      <c r="I104" s="35"/>
+      <c r="J104" s="35"/>
+      <c r="K104" s="35"/>
+      <c r="L104" s="35"/>
+      <c r="M104" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" s="23">
+        <v>9</v>
+      </c>
+      <c r="B105" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="H105" s="35"/>
+      <c r="I105" s="35"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="35"/>
+      <c r="L105" s="35"/>
+      <c r="M105" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" s="23">
+        <v>10</v>
+      </c>
+      <c r="B106" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="35"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="H106" s="35"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="35"/>
+      <c r="K106" s="35"/>
+      <c r="L106" s="35"/>
+      <c r="M106" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" s="23">
+        <v>11</v>
+      </c>
+      <c r="B107" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H107" s="35"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="35"/>
+      <c r="K107" s="35"/>
+      <c r="L107" s="35"/>
+      <c r="M107" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B111" s="51"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="51"/>
+      <c r="E111" s="51"/>
+      <c r="F111" s="51"/>
+      <c r="G111" s="51"/>
+      <c r="H111" s="51"/>
+      <c r="I111" s="51"/>
+      <c r="J111" s="51"/>
+      <c r="K111" s="51"/>
+      <c r="L111" s="52"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" s="53"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="54"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="54"/>
+      <c r="I112" s="54"/>
+      <c r="J112" s="54"/>
+      <c r="K112" s="54"/>
+      <c r="L112" s="55"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="F116" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="G116" s="42"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="42"/>
+      <c r="J116" s="42"/>
+      <c r="K116" s="42"/>
+      <c r="M116" s="5"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E117" s="10"/>
+      <c r="F117" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="G117" s="43"/>
+      <c r="H117" s="43"/>
+      <c r="I117" s="43"/>
+      <c r="J117" s="43"/>
+      <c r="K117" s="43"/>
+      <c r="M117" s="5"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F118" s="26"/>
+      <c r="M118" s="5"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M119" s="5"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H120" s="12"/>
+      <c r="I120" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J120" s="14"/>
+      <c r="M120" s="5"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M121" s="5"/>
+    </row>
+    <row r="122" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="G122" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H122" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I122" s="45"/>
+      <c r="J122" s="45"/>
+      <c r="K122" s="46"/>
+      <c r="M122" s="5"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B123" s="17"/>
+      <c r="C123" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D123" s="19"/>
+      <c r="E123" s="20"/>
+      <c r="G123" s="21">
+        <v>1</v>
+      </c>
+      <c r="H123" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="I123" s="48"/>
+      <c r="J123" s="48"/>
+      <c r="K123" s="49"/>
+      <c r="M123" s="5"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124" s="24">
+        <v>1</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="14"/>
+      <c r="M124" s="5"/>
+    </row>
+    <row r="125" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="24">
+        <v>2</v>
+      </c>
+      <c r="B125" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="14"/>
+      <c r="G125" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H125" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I125" s="45"/>
+      <c r="J125" s="45"/>
+      <c r="K125" s="46"/>
+      <c r="M125" s="5"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" s="5"/>
+      <c r="G126" s="21">
+        <v>1</v>
+      </c>
+      <c r="H126" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="I126" s="48"/>
+      <c r="J126" s="48"/>
+      <c r="K126" s="49"/>
+      <c r="M126" s="5"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G127" s="21">
+        <v>1</v>
+      </c>
+      <c r="H127" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="I127" s="48"/>
+      <c r="J127" s="48"/>
+      <c r="K127" s="49"/>
+      <c r="M127" s="5"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M128" s="5"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M129" s="5"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B130" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="37"/>
+      <c r="D130" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="E130" s="39"/>
+      <c r="F130" s="39"/>
+      <c r="G130" s="39"/>
+      <c r="H130" s="39"/>
+      <c r="I130" s="39"/>
+      <c r="J130" s="39"/>
+      <c r="K130" s="40"/>
+      <c r="M130" s="5"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" s="34"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="33"/>
+      <c r="I131" s="33"/>
+      <c r="J131" s="33"/>
+      <c r="K131" s="33"/>
+      <c r="M131" s="5"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M132" s="5"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A133" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B133" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C133" s="41"/>
+      <c r="D133" s="41"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="41"/>
+      <c r="G133" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H133" s="41"/>
+      <c r="I133" s="41"/>
+      <c r="J133" s="41"/>
+      <c r="K133" s="41"/>
+      <c r="L133" s="41"/>
+      <c r="M133" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A134" s="41"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="41"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="41"/>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+      <c r="K134" s="41"/>
+      <c r="L134" s="41"/>
+      <c r="M134" s="41"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135" s="23">
+        <v>1</v>
+      </c>
+      <c r="B135" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H135" s="35"/>
+      <c r="I135" s="35"/>
+      <c r="J135" s="35"/>
+      <c r="K135" s="35"/>
+      <c r="L135" s="35"/>
+      <c r="M135" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" s="23">
+        <v>2</v>
+      </c>
+      <c r="B136" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C136" s="35"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="35"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="H136" s="35"/>
+      <c r="I136" s="35"/>
+      <c r="J136" s="35"/>
+      <c r="K136" s="35"/>
+      <c r="L136" s="35"/>
+      <c r="M136" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A137" s="23">
+        <v>3</v>
+      </c>
+      <c r="B137" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C137" s="35"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="35"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="H137" s="35"/>
+      <c r="I137" s="35"/>
+      <c r="J137" s="35"/>
+      <c r="K137" s="35"/>
+      <c r="L137" s="35"/>
+      <c r="M137" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="23">
+        <v>4</v>
+      </c>
+      <c r="B138" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C138" s="35"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="35"/>
+      <c r="F138" s="35"/>
+      <c r="G138" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="H138" s="35"/>
+      <c r="I138" s="35"/>
+      <c r="J138" s="35"/>
+      <c r="K138" s="35"/>
+      <c r="L138" s="35"/>
+      <c r="M138" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A139" s="23">
         <v>5</v>
       </c>
-      <c r="B101" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="C101" s="38"/>
-      <c r="D101" s="38"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="38"/>
-      <c r="G101" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="38"/>
-      <c r="K101" s="38"/>
-      <c r="L101" s="38"/>
-      <c r="M101" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="37">
+      <c r="B139" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C139" s="35"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="35"/>
+      <c r="F139" s="35"/>
+      <c r="G139" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="H139" s="35"/>
+      <c r="I139" s="35"/>
+      <c r="J139" s="35"/>
+      <c r="K139" s="35"/>
+      <c r="L139" s="35"/>
+      <c r="M139" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" s="23">
         <v>6</v>
       </c>
-      <c r="B102" s="38" t="s">
+      <c r="B140" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C140" s="35"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="35"/>
+      <c r="G140" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="H140" s="35"/>
+      <c r="I140" s="35"/>
+      <c r="J140" s="35"/>
+      <c r="K140" s="35"/>
+      <c r="L140" s="35"/>
+      <c r="M140" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A141" s="23">
+        <v>7</v>
+      </c>
+      <c r="B141" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="35"/>
+      <c r="F141" s="35"/>
+      <c r="G141" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="H141" s="35"/>
+      <c r="I141" s="35"/>
+      <c r="J141" s="35"/>
+      <c r="K141" s="35"/>
+      <c r="L141" s="35"/>
+      <c r="M141" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A142" s="23">
+        <v>8</v>
+      </c>
+      <c r="B142" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C142" s="35"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="35"/>
+      <c r="F142" s="35"/>
+      <c r="G142" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="H142" s="35"/>
+      <c r="I142" s="35"/>
+      <c r="J142" s="35"/>
+      <c r="K142" s="35"/>
+      <c r="L142" s="35"/>
+      <c r="M142" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A143" s="23">
+        <v>9</v>
+      </c>
+      <c r="B143" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="C143" s="35"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="35"/>
+      <c r="F143" s="35"/>
+      <c r="G143" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="H143" s="35"/>
+      <c r="I143" s="35"/>
+      <c r="J143" s="35"/>
+      <c r="K143" s="35"/>
+      <c r="L143" s="35"/>
+      <c r="M143" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A144" s="23">
+        <v>10</v>
+      </c>
+      <c r="B144" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="C144" s="59"/>
+      <c r="D144" s="59"/>
+      <c r="E144" s="59"/>
+      <c r="F144" s="59"/>
+      <c r="G144" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="H144" s="35"/>
+      <c r="I144" s="35"/>
+      <c r="J144" s="35"/>
+      <c r="K144" s="35"/>
+      <c r="L144" s="35"/>
+      <c r="M144" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="23">
+        <v>11</v>
+      </c>
+      <c r="B145" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="C145" s="59"/>
+      <c r="D145" s="59"/>
+      <c r="E145" s="59"/>
+      <c r="F145" s="59"/>
+      <c r="G145" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="H145" s="35"/>
+      <c r="I145" s="35"/>
+      <c r="J145" s="35"/>
+      <c r="K145" s="35"/>
+      <c r="L145" s="35"/>
+      <c r="M145" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A146" s="23">
+        <v>12</v>
+      </c>
+      <c r="B146" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C146" s="35"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="35"/>
+      <c r="F146" s="35"/>
+      <c r="G146" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="H146" s="35"/>
+      <c r="I146" s="35"/>
+      <c r="J146" s="35"/>
+      <c r="K146" s="35"/>
+      <c r="L146" s="35"/>
+      <c r="M146" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A147" s="23">
+        <v>10</v>
+      </c>
+      <c r="B147" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C147" s="59"/>
+      <c r="D147" s="59"/>
+      <c r="E147" s="59"/>
+      <c r="F147" s="59"/>
+      <c r="G147" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="H147" s="35"/>
+      <c r="I147" s="35"/>
+      <c r="J147" s="35"/>
+      <c r="K147" s="35"/>
+      <c r="L147" s="35"/>
+      <c r="M147" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A148" s="23">
+        <v>11</v>
+      </c>
+      <c r="B148" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="C148" s="59"/>
+      <c r="D148" s="59"/>
+      <c r="E148" s="59"/>
+      <c r="F148" s="59"/>
+      <c r="G148" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="H148" s="35"/>
+      <c r="I148" s="35"/>
+      <c r="J148" s="35"/>
+      <c r="K148" s="35"/>
+      <c r="L148" s="35"/>
+      <c r="M148" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A149" s="23">
+        <v>12</v>
+      </c>
+      <c r="B149" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C149" s="35"/>
+      <c r="D149" s="35"/>
+      <c r="E149" s="35"/>
+      <c r="F149" s="35"/>
+      <c r="G149" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="H149" s="35"/>
+      <c r="I149" s="35"/>
+      <c r="J149" s="35"/>
+      <c r="K149" s="35"/>
+      <c r="L149" s="35"/>
+      <c r="M149" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" s="23">
+        <v>13</v>
+      </c>
+      <c r="B150" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="C150" s="60"/>
+      <c r="D150" s="60"/>
+      <c r="E150" s="60"/>
+      <c r="F150" s="60"/>
+      <c r="G150" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="H150" s="35"/>
+      <c r="I150" s="35"/>
+      <c r="J150" s="35"/>
+      <c r="K150" s="35"/>
+      <c r="L150" s="35"/>
+      <c r="M150" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="23">
+        <v>14</v>
+      </c>
+      <c r="B151" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="C151" s="60"/>
+      <c r="D151" s="60"/>
+      <c r="E151" s="60"/>
+      <c r="F151" s="60"/>
+      <c r="G151" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="H151" s="35"/>
+      <c r="I151" s="35"/>
+      <c r="J151" s="35"/>
+      <c r="K151" s="35"/>
+      <c r="L151" s="35"/>
+      <c r="M151" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="23">
+        <v>15</v>
+      </c>
+      <c r="B152" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="C152" s="63"/>
+      <c r="D152" s="63"/>
+      <c r="E152" s="63"/>
+      <c r="F152" s="64"/>
+      <c r="G152" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="H152" s="35"/>
+      <c r="I152" s="35"/>
+      <c r="J152" s="35"/>
+      <c r="K152" s="35"/>
+      <c r="L152" s="35"/>
+      <c r="M152" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="23">
+        <v>16</v>
+      </c>
+      <c r="B153" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="C153" s="60"/>
+      <c r="D153" s="60"/>
+      <c r="E153" s="60"/>
+      <c r="F153" s="60"/>
+      <c r="G153" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="H153" s="35"/>
+      <c r="I153" s="35"/>
+      <c r="J153" s="35"/>
+      <c r="K153" s="35"/>
+      <c r="L153" s="35"/>
+      <c r="M153" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="23">
+        <v>17</v>
+      </c>
+      <c r="B154" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="C154" s="60"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="60"/>
+      <c r="F154" s="60"/>
+      <c r="G154" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="H154" s="35"/>
+      <c r="I154" s="35"/>
+      <c r="J154" s="35"/>
+      <c r="K154" s="35"/>
+      <c r="L154" s="35"/>
+      <c r="M154" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="23">
+        <v>18</v>
+      </c>
+      <c r="B155" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="C155" s="61"/>
+      <c r="D155" s="61"/>
+      <c r="E155" s="61"/>
+      <c r="F155" s="61"/>
+      <c r="G155" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="H155" s="35"/>
+      <c r="I155" s="35"/>
+      <c r="J155" s="35"/>
+      <c r="K155" s="35"/>
+      <c r="L155" s="35"/>
+      <c r="M155" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="23">
+        <v>19</v>
+      </c>
+      <c r="B156" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C156" s="35"/>
+      <c r="D156" s="35"/>
+      <c r="E156" s="35"/>
+      <c r="F156" s="35"/>
+      <c r="G156" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="H156" s="35"/>
+      <c r="I156" s="35"/>
+      <c r="J156" s="35"/>
+      <c r="K156" s="35"/>
+      <c r="L156" s="35"/>
+      <c r="M156" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="23">
+        <v>20</v>
+      </c>
+      <c r="B157" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C157" s="35"/>
+      <c r="D157" s="35"/>
+      <c r="E157" s="35"/>
+      <c r="F157" s="35"/>
+      <c r="G157" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="H157" s="35"/>
+      <c r="I157" s="35"/>
+      <c r="J157" s="35"/>
+      <c r="K157" s="35"/>
+      <c r="L157" s="35"/>
+      <c r="M157" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A158" s="23">
+        <v>21</v>
+      </c>
+      <c r="B158" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C158" s="35"/>
+      <c r="D158" s="35"/>
+      <c r="E158" s="35"/>
+      <c r="F158" s="35"/>
+      <c r="G158" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="H158" s="35"/>
+      <c r="I158" s="35"/>
+      <c r="J158" s="35"/>
+      <c r="K158" s="35"/>
+      <c r="L158" s="35"/>
+      <c r="M158" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A161" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B161" s="51"/>
+      <c r="C161" s="51"/>
+      <c r="D161" s="51"/>
+      <c r="E161" s="51"/>
+      <c r="F161" s="51"/>
+      <c r="G161" s="51"/>
+      <c r="H161" s="51"/>
+      <c r="I161" s="51"/>
+      <c r="J161" s="51"/>
+      <c r="K161" s="51"/>
+      <c r="L161" s="52"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" s="53"/>
+      <c r="B162" s="54"/>
+      <c r="C162" s="54"/>
+      <c r="D162" s="54"/>
+      <c r="E162" s="54"/>
+      <c r="F162" s="54"/>
+      <c r="G162" s="54"/>
+      <c r="H162" s="54"/>
+      <c r="I162" s="54"/>
+      <c r="J162" s="54"/>
+      <c r="K162" s="54"/>
+      <c r="L162" s="55"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B166" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="38"/>
-      <c r="K102" s="38"/>
-      <c r="L102" s="38"/>
-      <c r="M102" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="37">
+      <c r="D166" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E166" s="10"/>
+      <c r="F166" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="G166" s="42"/>
+      <c r="H166" s="42"/>
+      <c r="I166" s="42"/>
+      <c r="J166" s="42"/>
+      <c r="K166" s="42"/>
+      <c r="M166" s="5"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E167" s="10"/>
+      <c r="F167" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="G167" s="43"/>
+      <c r="H167" s="43"/>
+      <c r="I167" s="43"/>
+      <c r="J167" s="43"/>
+      <c r="K167" s="43"/>
+      <c r="M167" s="5"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F168" s="26"/>
+      <c r="M168" s="5"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M169" s="5"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A170" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H170" s="12"/>
+      <c r="I170" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J170" s="14"/>
+      <c r="M170" s="5"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M171" s="5"/>
+    </row>
+    <row r="172" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="G172" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H172" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I172" s="45"/>
+      <c r="J172" s="45"/>
+      <c r="K172" s="46"/>
+      <c r="M172" s="5"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A173" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B173" s="17"/>
+      <c r="C173" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D173" s="19"/>
+      <c r="E173" s="20"/>
+      <c r="G173" s="21">
+        <v>1</v>
+      </c>
+      <c r="H173" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="I173" s="48"/>
+      <c r="J173" s="48"/>
+      <c r="K173" s="49"/>
+      <c r="M173" s="5"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" s="24">
+        <v>1</v>
+      </c>
+      <c r="B174" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C174" s="22"/>
+      <c r="D174" s="22"/>
+      <c r="E174" s="14"/>
+      <c r="M174" s="5"/>
+    </row>
+    <row r="175" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A175" s="24">
+        <v>2</v>
+      </c>
+      <c r="B175" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C175" s="22"/>
+      <c r="D175" s="22"/>
+      <c r="E175" s="14"/>
+      <c r="G175" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H175" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I175" s="45"/>
+      <c r="J175" s="45"/>
+      <c r="K175" s="46"/>
+      <c r="M175" s="5"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A176" s="5"/>
+      <c r="G176" s="21">
+        <v>1</v>
+      </c>
+      <c r="H176" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="I176" s="48"/>
+      <c r="J176" s="48"/>
+      <c r="K176" s="49"/>
+      <c r="M176" s="5"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G177" s="21">
+        <v>1</v>
+      </c>
+      <c r="H177" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="I177" s="48"/>
+      <c r="J177" s="48"/>
+      <c r="K177" s="49"/>
+      <c r="M177" s="5"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M178" s="5"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M179" s="5"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A180" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B180" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="37"/>
+      <c r="D180" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E180" s="39"/>
+      <c r="F180" s="39"/>
+      <c r="G180" s="39"/>
+      <c r="H180" s="39"/>
+      <c r="I180" s="39"/>
+      <c r="J180" s="39"/>
+      <c r="K180" s="40"/>
+      <c r="M180" s="5"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A181" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B181" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="37"/>
+      <c r="D181" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="E181" s="39"/>
+      <c r="F181" s="39"/>
+      <c r="G181" s="39"/>
+      <c r="H181" s="39"/>
+      <c r="I181" s="39"/>
+      <c r="J181" s="39"/>
+      <c r="K181" s="40"/>
+      <c r="M181" s="5"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A182" s="34"/>
+      <c r="B182" s="32"/>
+      <c r="C182" s="32"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="33"/>
+      <c r="F182" s="33"/>
+      <c r="G182" s="33"/>
+      <c r="H182" s="33"/>
+      <c r="I182" s="33"/>
+      <c r="J182" s="33"/>
+      <c r="K182" s="33"/>
+      <c r="M182" s="5"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M183" s="5"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A184" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B184" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C184" s="41"/>
+      <c r="D184" s="41"/>
+      <c r="E184" s="41"/>
+      <c r="F184" s="41"/>
+      <c r="G184" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H184" s="41"/>
+      <c r="I184" s="41"/>
+      <c r="J184" s="41"/>
+      <c r="K184" s="41"/>
+      <c r="L184" s="41"/>
+      <c r="M184" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A185" s="41"/>
+      <c r="B185" s="41"/>
+      <c r="C185" s="41"/>
+      <c r="D185" s="41"/>
+      <c r="E185" s="41"/>
+      <c r="F185" s="41"/>
+      <c r="G185" s="41"/>
+      <c r="H185" s="41"/>
+      <c r="I185" s="41"/>
+      <c r="J185" s="41"/>
+      <c r="K185" s="41"/>
+      <c r="L185" s="41"/>
+      <c r="M185" s="41"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A186" s="23">
+        <v>1</v>
+      </c>
+      <c r="B186" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C186" s="35"/>
+      <c r="D186" s="35"/>
+      <c r="E186" s="35"/>
+      <c r="F186" s="35"/>
+      <c r="G186" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H186" s="35"/>
+      <c r="I186" s="35"/>
+      <c r="J186" s="35"/>
+      <c r="K186" s="35"/>
+      <c r="L186" s="35"/>
+      <c r="M186" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A187" s="23">
+        <v>2</v>
+      </c>
+      <c r="B187" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C187" s="35"/>
+      <c r="D187" s="35"/>
+      <c r="E187" s="35"/>
+      <c r="F187" s="35"/>
+      <c r="G187" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="H187" s="35"/>
+      <c r="I187" s="35"/>
+      <c r="J187" s="35"/>
+      <c r="K187" s="35"/>
+      <c r="L187" s="35"/>
+      <c r="M187" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A188" s="23">
+        <v>3</v>
+      </c>
+      <c r="B188" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C188" s="35"/>
+      <c r="D188" s="35"/>
+      <c r="E188" s="35"/>
+      <c r="F188" s="35"/>
+      <c r="G188" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="H188" s="35"/>
+      <c r="I188" s="35"/>
+      <c r="J188" s="35"/>
+      <c r="K188" s="35"/>
+      <c r="L188" s="35"/>
+      <c r="M188" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A189" s="23">
+        <v>4</v>
+      </c>
+      <c r="B189" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C189" s="35"/>
+      <c r="D189" s="35"/>
+      <c r="E189" s="35"/>
+      <c r="F189" s="35"/>
+      <c r="G189" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="H189" s="35"/>
+      <c r="I189" s="35"/>
+      <c r="J189" s="35"/>
+      <c r="K189" s="35"/>
+      <c r="L189" s="35"/>
+      <c r="M189" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="23">
+        <v>5</v>
+      </c>
+      <c r="B190" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C190" s="35"/>
+      <c r="D190" s="35"/>
+      <c r="E190" s="35"/>
+      <c r="F190" s="35"/>
+      <c r="G190" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="H190" s="35"/>
+      <c r="I190" s="35"/>
+      <c r="J190" s="35"/>
+      <c r="K190" s="35"/>
+      <c r="L190" s="35"/>
+      <c r="M190" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A194" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B194" s="51"/>
+      <c r="C194" s="51"/>
+      <c r="D194" s="51"/>
+      <c r="E194" s="51"/>
+      <c r="F194" s="51"/>
+      <c r="G194" s="51"/>
+      <c r="H194" s="51"/>
+      <c r="I194" s="51"/>
+      <c r="J194" s="51"/>
+      <c r="K194" s="51"/>
+      <c r="L194" s="52"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A195" s="53"/>
+      <c r="B195" s="54"/>
+      <c r="C195" s="54"/>
+      <c r="D195" s="54"/>
+      <c r="E195" s="54"/>
+      <c r="F195" s="54"/>
+      <c r="G195" s="54"/>
+      <c r="H195" s="54"/>
+      <c r="I195" s="54"/>
+      <c r="J195" s="54"/>
+      <c r="K195" s="54"/>
+      <c r="L195" s="55"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A199" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E199" s="10"/>
+      <c r="F199" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="G199" s="42"/>
+      <c r="H199" s="42"/>
+      <c r="I199" s="42"/>
+      <c r="J199" s="42"/>
+      <c r="K199" s="42"/>
+      <c r="M199" s="5"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A200" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E200" s="10"/>
+      <c r="F200" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="G200" s="43"/>
+      <c r="H200" s="43"/>
+      <c r="I200" s="43"/>
+      <c r="J200" s="43"/>
+      <c r="K200" s="43"/>
+      <c r="M200" s="5"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F201" s="26"/>
+      <c r="M201" s="5"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M202" s="5"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A203" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G203" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H203" s="12"/>
+      <c r="I203" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J203" s="14"/>
+      <c r="M203" s="5"/>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M204" s="5"/>
+    </row>
+    <row r="205" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="G205" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H205" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I205" s="45"/>
+      <c r="J205" s="45"/>
+      <c r="K205" s="46"/>
+      <c r="M205" s="5"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A206" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B206" s="17"/>
+      <c r="C206" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D206" s="19"/>
+      <c r="E206" s="20"/>
+      <c r="G206" s="21">
+        <v>1</v>
+      </c>
+      <c r="H206" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="I206" s="48"/>
+      <c r="J206" s="48"/>
+      <c r="K206" s="49"/>
+      <c r="M206" s="5"/>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A207" s="24">
+        <v>1</v>
+      </c>
+      <c r="B207" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C207" s="22"/>
+      <c r="D207" s="22"/>
+      <c r="E207" s="14"/>
+      <c r="M207" s="5"/>
+    </row>
+    <row r="208" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A208" s="24">
+        <v>2</v>
+      </c>
+      <c r="B208" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C208" s="22"/>
+      <c r="D208" s="22"/>
+      <c r="E208" s="14"/>
+      <c r="G208" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H208" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I208" s="45"/>
+      <c r="J208" s="45"/>
+      <c r="K208" s="46"/>
+      <c r="M208" s="5"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A209" s="5"/>
+      <c r="G209" s="21">
+        <v>1</v>
+      </c>
+      <c r="H209" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="I209" s="48"/>
+      <c r="J209" s="48"/>
+      <c r="K209" s="49"/>
+      <c r="M209" s="5"/>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G210" s="21">
+        <v>1</v>
+      </c>
+      <c r="H210" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="I210" s="48"/>
+      <c r="J210" s="48"/>
+      <c r="K210" s="49"/>
+      <c r="M210" s="5"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M211" s="5"/>
+    </row>
+    <row r="212" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B212" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" s="37"/>
+      <c r="D212" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E212" s="39"/>
+      <c r="F212" s="39"/>
+      <c r="G212" s="39"/>
+      <c r="H212" s="39"/>
+      <c r="I212" s="39"/>
+      <c r="J212" s="39"/>
+      <c r="K212" s="40"/>
+      <c r="M212" s="5"/>
+    </row>
+    <row r="213" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B213" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" s="37"/>
+      <c r="D213" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="E213" s="39"/>
+      <c r="F213" s="39"/>
+      <c r="G213" s="39"/>
+      <c r="H213" s="39"/>
+      <c r="I213" s="39"/>
+      <c r="J213" s="39"/>
+      <c r="K213" s="40"/>
+      <c r="M213" s="5"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A214" s="34"/>
+      <c r="B214" s="32"/>
+      <c r="C214" s="32"/>
+      <c r="D214" s="33"/>
+      <c r="E214" s="33"/>
+      <c r="F214" s="33"/>
+      <c r="G214" s="33"/>
+      <c r="H214" s="33"/>
+      <c r="I214" s="33"/>
+      <c r="J214" s="33"/>
+      <c r="K214" s="33"/>
+      <c r="M214" s="5"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M215" s="5"/>
+    </row>
+    <row r="216" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B216" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C216" s="41"/>
+      <c r="D216" s="41"/>
+      <c r="E216" s="41"/>
+      <c r="F216" s="41"/>
+      <c r="G216" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H216" s="68"/>
+      <c r="I216" s="68"/>
+      <c r="J216" s="68"/>
+      <c r="K216" s="68"/>
+      <c r="L216" s="69"/>
+      <c r="M216" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A217" s="41"/>
+      <c r="B217" s="41"/>
+      <c r="C217" s="41"/>
+      <c r="D217" s="41"/>
+      <c r="E217" s="41"/>
+      <c r="F217" s="41"/>
+      <c r="G217" s="70"/>
+      <c r="H217" s="71"/>
+      <c r="I217" s="71"/>
+      <c r="J217" s="71"/>
+      <c r="K217" s="71"/>
+      <c r="L217" s="72"/>
+      <c r="M217" s="41"/>
+    </row>
+    <row r="218" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="23">
+        <v>1</v>
+      </c>
+      <c r="B218" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C218" s="35"/>
+      <c r="D218" s="35"/>
+      <c r="E218" s="35"/>
+      <c r="F218" s="35"/>
+      <c r="G218" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H218" s="35"/>
+      <c r="I218" s="35"/>
+      <c r="J218" s="35"/>
+      <c r="K218" s="35"/>
+      <c r="L218" s="35"/>
+      <c r="M218" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="23">
+        <v>2</v>
+      </c>
+      <c r="B219" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C219" s="35"/>
+      <c r="D219" s="35"/>
+      <c r="E219" s="35"/>
+      <c r="F219" s="35"/>
+      <c r="G219" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="H219" s="35"/>
+      <c r="I219" s="35"/>
+      <c r="J219" s="35"/>
+      <c r="K219" s="35"/>
+      <c r="L219" s="35"/>
+      <c r="M219" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="23">
+        <v>3</v>
+      </c>
+      <c r="B220" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C220" s="35"/>
+      <c r="D220" s="35"/>
+      <c r="E220" s="35"/>
+      <c r="F220" s="35"/>
+      <c r="G220" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="H220" s="35"/>
+      <c r="I220" s="35"/>
+      <c r="J220" s="35"/>
+      <c r="K220" s="35"/>
+      <c r="L220" s="35"/>
+      <c r="M220" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="23">
+        <v>4</v>
+      </c>
+      <c r="B221" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C221" s="35"/>
+      <c r="D221" s="35"/>
+      <c r="E221" s="35"/>
+      <c r="F221" s="35"/>
+      <c r="G221" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="H221" s="35"/>
+      <c r="I221" s="35"/>
+      <c r="J221" s="35"/>
+      <c r="K221" s="35"/>
+      <c r="L221" s="35"/>
+      <c r="M221" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="23">
+        <v>5</v>
+      </c>
+      <c r="B222" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C222" s="35"/>
+      <c r="D222" s="35"/>
+      <c r="E222" s="35"/>
+      <c r="F222" s="35"/>
+      <c r="G222" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="H222" s="35"/>
+      <c r="I222" s="35"/>
+      <c r="J222" s="35"/>
+      <c r="K222" s="35"/>
+      <c r="L222" s="35"/>
+      <c r="M222" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A223" s="23">
+        <v>6</v>
+      </c>
+      <c r="B223" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="C223" s="35"/>
+      <c r="D223" s="35"/>
+      <c r="E223" s="35"/>
+      <c r="F223" s="35"/>
+      <c r="G223" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="H223" s="35"/>
+      <c r="I223" s="35"/>
+      <c r="J223" s="35"/>
+      <c r="K223" s="35"/>
+      <c r="L223" s="35"/>
+      <c r="M223" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A224" s="23">
         <v>7</v>
       </c>
-      <c r="B103" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="38"/>
-      <c r="K103" s="38"/>
-      <c r="L103" s="38"/>
-      <c r="M103" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A104" s="37">
+      <c r="B224" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C224" s="35"/>
+      <c r="D224" s="35"/>
+      <c r="E224" s="35"/>
+      <c r="F224" s="35"/>
+      <c r="G224" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="H224" s="35"/>
+      <c r="I224" s="35"/>
+      <c r="J224" s="35"/>
+      <c r="K224" s="35"/>
+      <c r="L224" s="35"/>
+      <c r="M224" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="23">
         <v>8</v>
       </c>
-      <c r="B104" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="H104" s="38"/>
-      <c r="I104" s="38"/>
-      <c r="J104" s="38"/>
-      <c r="K104" s="38"/>
-      <c r="L104" s="38"/>
-      <c r="M104" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A105" s="37">
+      <c r="B225" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C225" s="35"/>
+      <c r="D225" s="35"/>
+      <c r="E225" s="35"/>
+      <c r="F225" s="35"/>
+      <c r="G225" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="H225" s="35"/>
+      <c r="I225" s="35"/>
+      <c r="J225" s="35"/>
+      <c r="K225" s="35"/>
+      <c r="L225" s="35"/>
+      <c r="M225" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="23">
         <v>9</v>
       </c>
-      <c r="B105" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="H105" s="38"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="38"/>
-      <c r="K105" s="38"/>
-      <c r="L105" s="38"/>
-      <c r="M105" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A106" s="37">
+      <c r="B226" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C226" s="35"/>
+      <c r="D226" s="35"/>
+      <c r="E226" s="35"/>
+      <c r="F226" s="35"/>
+      <c r="G226" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="H226" s="35"/>
+      <c r="I226" s="35"/>
+      <c r="J226" s="35"/>
+      <c r="K226" s="35"/>
+      <c r="L226" s="35"/>
+      <c r="M226" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="23">
         <v>10</v>
       </c>
-      <c r="B106" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="38"/>
-      <c r="F106" s="38"/>
-      <c r="G106" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="H106" s="38"/>
-      <c r="I106" s="38"/>
-      <c r="J106" s="38"/>
-      <c r="K106" s="38"/>
-      <c r="L106" s="38"/>
-      <c r="M106" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A107" s="37">
+      <c r="B227" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C227" s="35"/>
+      <c r="D227" s="35"/>
+      <c r="E227" s="35"/>
+      <c r="F227" s="35"/>
+      <c r="G227" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="H227" s="35"/>
+      <c r="I227" s="35"/>
+      <c r="J227" s="35"/>
+      <c r="K227" s="35"/>
+      <c r="L227" s="35"/>
+      <c r="M227" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="23">
         <v>11</v>
       </c>
-      <c r="B107" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="H107" s="38"/>
-      <c r="I107" s="38"/>
-      <c r="J107" s="38"/>
-      <c r="K107" s="38"/>
-      <c r="L107" s="38"/>
-      <c r="M107" s="39" t="s">
-        <v>90</v>
-      </c>
+      <c r="B228" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C228" s="35"/>
+      <c r="D228" s="35"/>
+      <c r="E228" s="35"/>
+      <c r="F228" s="35"/>
+      <c r="G228" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H228" s="35"/>
+      <c r="I228" s="35"/>
+      <c r="J228" s="35"/>
+      <c r="K228" s="35"/>
+      <c r="L228" s="35"/>
+      <c r="M228" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A229" s="23">
+        <v>12</v>
+      </c>
+      <c r="B229" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="C229" s="59"/>
+      <c r="D229" s="59"/>
+      <c r="E229" s="59"/>
+      <c r="F229" s="59"/>
+      <c r="G229" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="H229" s="35"/>
+      <c r="I229" s="35"/>
+      <c r="J229" s="35"/>
+      <c r="K229" s="35"/>
+      <c r="L229" s="35"/>
+      <c r="M229" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A230" s="23">
+        <v>13</v>
+      </c>
+      <c r="B230" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="C230" s="59"/>
+      <c r="D230" s="59"/>
+      <c r="E230" s="59"/>
+      <c r="F230" s="59"/>
+      <c r="G230" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="H230" s="35"/>
+      <c r="I230" s="35"/>
+      <c r="J230" s="35"/>
+      <c r="K230" s="35"/>
+      <c r="L230" s="35"/>
+      <c r="M230" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="23">
+        <v>14</v>
+      </c>
+      <c r="B231" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="C231" s="35"/>
+      <c r="D231" s="35"/>
+      <c r="E231" s="35"/>
+      <c r="F231" s="35"/>
+      <c r="G231" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="H231" s="35"/>
+      <c r="I231" s="35"/>
+      <c r="J231" s="35"/>
+      <c r="K231" s="35"/>
+      <c r="L231" s="35"/>
+      <c r="M231" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A232" s="23">
+        <v>15</v>
+      </c>
+      <c r="B232" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="C232" s="59"/>
+      <c r="D232" s="59"/>
+      <c r="E232" s="59"/>
+      <c r="F232" s="59"/>
+      <c r="G232" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="H232" s="35"/>
+      <c r="I232" s="35"/>
+      <c r="J232" s="35"/>
+      <c r="K232" s="35"/>
+      <c r="L232" s="35"/>
+      <c r="M232" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A233" s="23">
+        <v>16</v>
+      </c>
+      <c r="B233" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="C233" s="59"/>
+      <c r="D233" s="59"/>
+      <c r="E233" s="59"/>
+      <c r="F233" s="59"/>
+      <c r="G233" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="H233" s="35"/>
+      <c r="I233" s="35"/>
+      <c r="J233" s="35"/>
+      <c r="K233" s="35"/>
+      <c r="L233" s="35"/>
+      <c r="M233" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A234" s="23">
+        <v>17</v>
+      </c>
+      <c r="B234" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="C234" s="35"/>
+      <c r="D234" s="35"/>
+      <c r="E234" s="35"/>
+      <c r="F234" s="35"/>
+      <c r="G234" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="H234" s="35"/>
+      <c r="I234" s="35"/>
+      <c r="J234" s="35"/>
+      <c r="K234" s="35"/>
+      <c r="L234" s="35"/>
+      <c r="M234" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A235" s="23">
+        <v>13</v>
+      </c>
+      <c r="B235" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="C235" s="60"/>
+      <c r="D235" s="60"/>
+      <c r="E235" s="60"/>
+      <c r="F235" s="60"/>
+      <c r="G235" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="H235" s="35"/>
+      <c r="I235" s="35"/>
+      <c r="J235" s="35"/>
+      <c r="K235" s="35"/>
+      <c r="L235" s="35"/>
+      <c r="M235" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A236" s="23">
+        <v>14</v>
+      </c>
+      <c r="B236" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="C236" s="60"/>
+      <c r="D236" s="60"/>
+      <c r="E236" s="60"/>
+      <c r="F236" s="60"/>
+      <c r="G236" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="H236" s="35"/>
+      <c r="I236" s="35"/>
+      <c r="J236" s="35"/>
+      <c r="K236" s="35"/>
+      <c r="L236" s="35"/>
+      <c r="M236" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="23">
+        <v>15</v>
+      </c>
+      <c r="B237" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="C237" s="63"/>
+      <c r="D237" s="63"/>
+      <c r="E237" s="63"/>
+      <c r="F237" s="64"/>
+      <c r="G237" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="H237" s="35"/>
+      <c r="I237" s="35"/>
+      <c r="J237" s="35"/>
+      <c r="K237" s="35"/>
+      <c r="L237" s="35"/>
+      <c r="M237" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A238" s="23">
+        <v>16</v>
+      </c>
+      <c r="B238" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="C238" s="60"/>
+      <c r="D238" s="60"/>
+      <c r="E238" s="60"/>
+      <c r="F238" s="60"/>
+      <c r="G238" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="H238" s="35"/>
+      <c r="I238" s="35"/>
+      <c r="J238" s="35"/>
+      <c r="K238" s="35"/>
+      <c r="L238" s="35"/>
+      <c r="M238" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A239" s="23">
+        <v>17</v>
+      </c>
+      <c r="B239" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="C239" s="60"/>
+      <c r="D239" s="60"/>
+      <c r="E239" s="60"/>
+      <c r="F239" s="60"/>
+      <c r="G239" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="H239" s="35"/>
+      <c r="I239" s="35"/>
+      <c r="J239" s="35"/>
+      <c r="K239" s="35"/>
+      <c r="L239" s="35"/>
+      <c r="M239" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="23">
+        <v>18</v>
+      </c>
+      <c r="B240" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="C240" s="65"/>
+      <c r="D240" s="65"/>
+      <c r="E240" s="65"/>
+      <c r="F240" s="73"/>
+      <c r="G240" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="H240" s="35"/>
+      <c r="I240" s="35"/>
+      <c r="J240" s="35"/>
+      <c r="K240" s="35"/>
+      <c r="L240" s="35"/>
+      <c r="M240" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A241" s="23">
+        <v>19</v>
+      </c>
+      <c r="B241" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C241" s="35"/>
+      <c r="D241" s="35"/>
+      <c r="E241" s="35"/>
+      <c r="F241" s="35"/>
+      <c r="G241" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="H241" s="35"/>
+      <c r="I241" s="35"/>
+      <c r="J241" s="35"/>
+      <c r="K241" s="35"/>
+      <c r="L241" s="35"/>
+      <c r="M241" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A245" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B245" s="51"/>
+      <c r="C245" s="51"/>
+      <c r="D245" s="51"/>
+      <c r="E245" s="51"/>
+      <c r="F245" s="51"/>
+      <c r="G245" s="51"/>
+      <c r="H245" s="51"/>
+      <c r="I245" s="51"/>
+      <c r="J245" s="51"/>
+      <c r="K245" s="51"/>
+      <c r="L245" s="52"/>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A246" s="53"/>
+      <c r="B246" s="54"/>
+      <c r="C246" s="54"/>
+      <c r="D246" s="54"/>
+      <c r="E246" s="54"/>
+      <c r="F246" s="54"/>
+      <c r="G246" s="54"/>
+      <c r="H246" s="54"/>
+      <c r="I246" s="54"/>
+      <c r="J246" s="54"/>
+      <c r="K246" s="54"/>
+      <c r="L246" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="106">
+  <mergeCells count="259">
+    <mergeCell ref="A245:L246"/>
+    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="G241:L241"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="G240:L240"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="G154:L154"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="G235:L235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="G236:L236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="G237:L237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="G238:L238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="G239:L239"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="G230:L230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="G231:L231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="G232:L232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="G233:L233"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="G234:L234"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="G225:L225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="G226:L226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="G227:L227"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="G228:L228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="G229:L229"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="G220:L220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="G221:L221"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="G222:L222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="G223:L223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="G224:L224"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:K213"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="B216:F217"/>
+    <mergeCell ref="G216:L217"/>
+    <mergeCell ref="M216:M217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="G218:L218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="G219:L219"/>
+    <mergeCell ref="F199:K199"/>
+    <mergeCell ref="F200:K200"/>
+    <mergeCell ref="H205:K205"/>
+    <mergeCell ref="H206:K206"/>
+    <mergeCell ref="H208:K208"/>
+    <mergeCell ref="H209:K209"/>
+    <mergeCell ref="H210:K210"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="D212:K212"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="G190:L190"/>
+    <mergeCell ref="A194:L195"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="G146:L146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="G147:L147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="G148:L148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="G149:L149"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="G150:L150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="G151:L151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="G152:L152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="G153:L153"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="G155:L155"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="G156:L156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="M184:M185"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="G186:L186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="G187:L187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="G188:L188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="G189:L189"/>
+    <mergeCell ref="H173:K173"/>
+    <mergeCell ref="H175:K175"/>
+    <mergeCell ref="H176:K176"/>
+    <mergeCell ref="H177:K177"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="D180:K180"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:F185"/>
+    <mergeCell ref="G184:L185"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="D181:K181"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="G144:L144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="G145:L145"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="A161:L162"/>
+    <mergeCell ref="F166:K166"/>
+    <mergeCell ref="F167:K167"/>
+    <mergeCell ref="H172:K172"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="G139:L139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="G140:L140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="G141:L141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="G142:L142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="G143:L143"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="G157:L157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="G158:L158"/>
+    <mergeCell ref="M133:M134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="G135:L135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="G136:L136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="G137:L137"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="G138:L138"/>
+    <mergeCell ref="B133:F134"/>
+    <mergeCell ref="G133:L134"/>
+    <mergeCell ref="A111:L112"/>
+    <mergeCell ref="F116:K116"/>
+    <mergeCell ref="F117:K117"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="D130:K130"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="A37:L38"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="A69:L70"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="G65:L65"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="G64:L64"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:K88"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:F96"/>
+    <mergeCell ref="G95:L96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:K92"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="G100:L100"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:K89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:K91"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="G97:L97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="G98:L98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="G99:L99"/>
     <mergeCell ref="B107:F107"/>
     <mergeCell ref="G107:L107"/>
     <mergeCell ref="B104:F104"/>
@@ -3308,98 +5984,6 @@
     <mergeCell ref="G102:L102"/>
     <mergeCell ref="B103:F103"/>
     <mergeCell ref="G103:L103"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="G100:L100"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:K89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:K90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:K91"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="G97:L97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="G98:L98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="G99:L99"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:K88"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:F96"/>
-    <mergeCell ref="G95:L96"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:K92"/>
-    <mergeCell ref="F74:K74"/>
-    <mergeCell ref="F75:K75"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="A69:L70"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="G65:L65"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="G62:L62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="G64:L64"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="A37:L38"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3498,14 +6082,14 @@
         <v>72</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -3519,18 +6103,18 @@
         <v>75</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F3" s="44"/>
+      <c r="F3" s="26"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -3543,96 +6127,96 @@
       <c r="B5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="16"/>
+      <c r="J5" s="14"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="G8" s="26">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="G8" s="21">
         <v>1</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="39">
+      <c r="A9" s="24">
         <v>1</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="16"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="14"/>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="39">
+      <c r="A10" s="24">
         <v>2</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="16"/>
-      <c r="G10" s="17" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="14"/>
+      <c r="G10" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="G11" s="26">
+      <c r="G11" s="21">
         <v>1</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3648,20 +6232,20 @@
       <c r="A15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -3671,133 +6255,133 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36" t="s">
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="37">
+      <c r="A20" s="23">
         <v>1</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="39" t="s">
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37">
+      <c r="A21" s="23">
         <v>2</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="39" t="s">
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="49"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="52"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="52"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="55"/>
     </row>
     <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
@@ -3810,14 +6394,14 @@
         <v>72</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3831,18 +6415,18 @@
         <v>75</v>
       </c>
       <c r="E31" s="10"/>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F32" s="44"/>
+      <c r="F32" s="26"/>
       <c r="M32" s="5"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -3855,92 +6439,92 @@
       <c r="B34" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15" t="s">
+      <c r="H34" s="12"/>
+      <c r="I34" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J34" s="16"/>
+      <c r="J34" s="14"/>
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="20"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="46"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="25"/>
-      <c r="G37" s="26">
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="G37" s="21">
         <v>1</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="H37" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="49"/>
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="45">
+      <c r="A38" s="27">
         <v>1</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
       <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="46"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="G39" s="17" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="G39" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="20"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="46"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
-      <c r="G40" s="26">
+      <c r="G40" s="21">
         <v>1</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H40" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="29"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="49"/>
       <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -3956,20 +6540,20 @@
       <c r="A44" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33" t="s">
+      <c r="C44" s="37"/>
+      <c r="D44" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="35"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="40"/>
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -3979,118 +6563,118 @@
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36" t="s">
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36" t="s">
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="37">
+      <c r="A49" s="23">
         <v>1</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38" t="s">
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="39" t="s">
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="37">
+      <c r="A50" s="23">
         <v>2</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38" t="s">
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="39" t="s">
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="49"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="52"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="52"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="55"/>
     </row>
     <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
@@ -4103,14 +6687,14 @@
         <v>72</v>
       </c>
       <c r="E59" s="10"/>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4124,18 +6708,18 @@
         <v>75</v>
       </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
       <c r="M60" s="5"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F61" s="44"/>
+      <c r="F61" s="26"/>
       <c r="M61" s="5"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -4148,96 +6732,96 @@
       <c r="B63" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G63" s="13" t="s">
+      <c r="G63" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H63" s="14"/>
-      <c r="I63" s="15" t="s">
+      <c r="H63" s="12"/>
+      <c r="I63" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J63" s="16"/>
+      <c r="J63" s="14"/>
       <c r="M63" s="5"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M64" s="5"/>
     </row>
     <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="G65" s="17" t="s">
+      <c r="G65" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H65" s="18" t="s">
+      <c r="H65" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="20"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="46"/>
       <c r="M65" s="5"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23" t="s">
+      <c r="B66" s="17"/>
+      <c r="C66" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="24"/>
-      <c r="E66" s="25"/>
-      <c r="G66" s="26">
+      <c r="D66" s="19"/>
+      <c r="E66" s="20"/>
+      <c r="G66" s="21">
         <v>1</v>
       </c>
-      <c r="H66" s="27" t="s">
+      <c r="H66" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="29"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="49"/>
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="45">
+      <c r="A67" s="27">
         <v>1</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="54"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="30"/>
       <c r="M67" s="5"/>
     </row>
     <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="39">
+      <c r="A68" s="24">
         <v>2</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="16"/>
-      <c r="G68" s="17" t="s">
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="14"/>
+      <c r="G68" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H68" s="18" t="s">
+      <c r="H68" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="20"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="46"/>
       <c r="M68" s="5"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="G69" s="26">
+      <c r="G69" s="21">
         <v>1</v>
       </c>
-      <c r="H69" s="27" t="s">
+      <c r="H69" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="29"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="49"/>
       <c r="M69" s="5"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -4253,20 +6837,20 @@
       <c r="A73" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="33" t="s">
+      <c r="C73" s="37"/>
+      <c r="D73" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="35"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="40"/>
       <c r="M73" s="5"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -4276,96 +6860,126 @@
       <c r="M75" s="5"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="36" t="s">
+      <c r="A76" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36" t="s">
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36" t="s">
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="36"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="41"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="37">
+      <c r="A78" s="23">
         <v>1</v>
       </c>
-      <c r="B78" s="38" t="s">
+      <c r="B78" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38" t="s">
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="39" t="s">
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="37">
+      <c r="A79" s="23">
         <v>2</v>
       </c>
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38" t="s">
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="38"/>
-      <c r="M79" s="39" t="s">
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="24" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="G79:L79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:F77"/>
-    <mergeCell ref="G76:L77"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="A25:L26"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="F59:K59"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:F48"/>
+    <mergeCell ref="G47:L48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:L49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="A54:L55"/>
     <mergeCell ref="M76:M77"/>
     <mergeCell ref="B78:F78"/>
     <mergeCell ref="G78:L78"/>
@@ -4376,41 +6990,11 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="D73:K73"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:L49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="G50:L50"/>
-    <mergeCell ref="A54:L55"/>
-    <mergeCell ref="F59:K59"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:K44"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:F48"/>
-    <mergeCell ref="G47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="A25:L26"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="G79:L79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:F77"/>
+    <mergeCell ref="G76:L77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
+++ b/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berkozdoruk/Desktop/GitHub/Elixir-Documentation/Test Reports and Test Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A70E634-CC53-1147-A606-95F0A29070B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876EDE1E-2769-9240-8672-0962263CD792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14080" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
-    <sheet name="Admin Account Operations" sheetId="3" r:id="rId2"/>
+    <sheet name="Account Operations" sheetId="5" r:id="rId2"/>
     <sheet name="User Account Operations" sheetId="4" r:id="rId3"/>
-    <sheet name="Account Operations" sheetId="5" r:id="rId4"/>
-    <sheet name="User Irrigation Operations" sheetId="6" r:id="rId5"/>
-    <sheet name="User Farm Operations" sheetId="7" r:id="rId6"/>
-    <sheet name="System Management" sheetId="2" r:id="rId7"/>
+    <sheet name="User Irrigation Operations" sheetId="6" r:id="rId4"/>
+    <sheet name="User Farm Operations" sheetId="7" r:id="rId5"/>
+    <sheet name="System Management" sheetId="2" r:id="rId6"/>
+    <sheet name="Admin Account Operations" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="289">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -879,6 +879,63 @@
   </si>
   <si>
     <t>Successful save. Farm is changed/updated to the system.</t>
+  </si>
+  <si>
+    <t>admin crud yaparken, user a generate edilmis parola gonderiliyor, bunun tc nasil olur</t>
+  </si>
+  <si>
+    <t>ELXR-AO-01</t>
+  </si>
+  <si>
+    <t>ELXR-A0-02</t>
+  </si>
+  <si>
+    <t>User login operations.</t>
+  </si>
+  <si>
+    <t>Both admin and the regular user should be able to login the system.</t>
+  </si>
+  <si>
+    <t>Users of the system should be able to login.</t>
+  </si>
+  <si>
+    <t>upload kismi testi yaz.</t>
+  </si>
+  <si>
+    <t>User opens the elixirapp.live</t>
+  </si>
+  <si>
+    <t>Sign in page should be showed to un authorized user.</t>
+  </si>
+  <si>
+    <t>User enters wrong email address with correct password.</t>
+  </si>
+  <si>
+    <t>Wrong credientials alert is displayed. No successful login.</t>
+  </si>
+  <si>
+    <t>User enters correct email address with wrong password.</t>
+  </si>
+  <si>
+    <t>User enters wrong email address with wrong password.</t>
+  </si>
+  <si>
+    <t>User enters correct email address with correct password.</t>
+  </si>
+  <si>
+    <t>System redirects to home page and welcome user text is displayed. Successful alerm is displayed.</t>
+  </si>
+  <si>
+    <t>User is not authorized.</t>
+  </si>
+  <si>
+    <t>User is authorized and logged into the system.</t>
+  </si>
+  <si>
+    <t>User is clicked the logout button in the navbar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is logged out succesfully alert displayed. </t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1282,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1297,7 +1354,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1316,6 +1407,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1342,24 +1451,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1369,37 +1461,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Kötü" xfId="2" builtinId="27"/>
@@ -1719,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C81F5F-3812-4B44-AC60-4E873A1B1DD4}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2078,7 +2139,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
     <row r="21" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2108,11 +2173,2571 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4805ACE8-3721-304D-9C9A-16E244B30454}">
+  <dimension ref="A2:M51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
+        <v>1</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="24">
+        <v>2</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="71" t="s">
+        <v>285</v>
+      </c>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="34"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
+        <v>1</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <v>2</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
+        <v>3</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <v>4</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
+        <v>5</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="35"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="35"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" s="38"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="21">
+        <v>1</v>
+      </c>
+      <c r="H40" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="24">
+        <v>1</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="24">
+        <v>2</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="21">
+        <v>1</v>
+      </c>
+      <c r="H43" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="34"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="23">
+        <v>1</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:F50"/>
+    <mergeCell ref="G49:L50"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="A28:L29"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD90F54-04F9-2948-B228-7AEC85B49338}">
+  <dimension ref="A3:M32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="24">
+        <v>1</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
+        <v>2</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="34"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
+        <v>2</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
+        <v>3</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="23">
+        <v>4</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
+        <v>5</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="35"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="B21:F22"/>
+    <mergeCell ref="G21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="A31:L32"/>
+    <mergeCell ref="H14:K14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB14FEB4-33E8-D841-8B65-9CED955CEC0D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C897490-27CA-B94E-89C9-9DC49B971AE2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB72114-158D-AC4B-9339-BCABDBF219D1}">
+  <dimension ref="A1:M81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F3" s="26"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="G7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="70"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="24">
+        <v>1</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="14"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
+        <v>2</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="14"/>
+      <c r="G10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="73"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
+        <v>1</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <v>2</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="41"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="44"/>
+    </row>
+    <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F32" s="26"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J34" s="14"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="G36" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="70"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="G37" s="21">
+        <v>1</v>
+      </c>
+      <c r="H37" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="73"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="27">
+        <v>1</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="G39" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="70"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="G40" s="21">
+        <v>1</v>
+      </c>
+      <c r="H40" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="73"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="58"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="23">
+        <v>1</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="23">
+        <v>2</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="41"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="44"/>
+    </row>
+    <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="66"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F61" s="26"/>
+      <c r="M61" s="5"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" s="12"/>
+      <c r="I63" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J63" s="14"/>
+      <c r="M63" s="5"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="5"/>
+    </row>
+    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="G65" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65" s="69"/>
+      <c r="J65" s="69"/>
+      <c r="K65" s="70"/>
+      <c r="M65" s="5"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="20"/>
+      <c r="G66" s="21">
+        <v>1</v>
+      </c>
+      <c r="H66" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="73"/>
+      <c r="M66" s="5"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="27">
+        <v>1</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="30"/>
+      <c r="M67" s="5"/>
+    </row>
+    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="24">
+        <v>2</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="14"/>
+      <c r="G68" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I68" s="69"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="70"/>
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="G69" s="21">
+        <v>1</v>
+      </c>
+      <c r="H69" s="71"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="72"/>
+      <c r="K69" s="73"/>
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="5"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="5"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="55"/>
+      <c r="D73" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="58"/>
+      <c r="M73" s="5"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="5"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="5"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="59"/>
+      <c r="L76" s="59"/>
+      <c r="M76" s="59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="59"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="59"/>
+      <c r="L77" s="59"/>
+      <c r="M77" s="59"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="23">
+        <v>1</v>
+      </c>
+      <c r="B78" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="23">
+        <v>2</v>
+      </c>
+      <c r="B79" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="45"/>
+      <c r="L79" s="45"/>
+      <c r="M79" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="23">
+        <v>2</v>
+      </c>
+      <c r="B80" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="G79:L79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:F77"/>
+    <mergeCell ref="G76:L77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="F60:K60"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:K73"/>
+    <mergeCell ref="F59:K59"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:F48"/>
+    <mergeCell ref="G47:L48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:L49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="A54:L55"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="A25:L26"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D5A933-5288-C94E-BF55-FF09BD47810B}">
   <dimension ref="A1:M246"/>
   <sheetViews>
-    <sheetView topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="A245" sqref="A245:L246"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181:C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2131,14 +4756,14 @@
         <v>72</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2152,14 +4777,14 @@
         <v>75</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2193,12 +4818,12 @@
       <c r="G7" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="70"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2214,12 +4839,12 @@
       <c r="G8" s="21">
         <v>1</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="49"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -2247,12 +4872,12 @@
       <c r="G10" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -2260,12 +4885,12 @@
       <c r="G11" s="21">
         <v>1</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="73"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -2281,20 +4906,20 @@
       <c r="A15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38" t="s">
+      <c r="C15" s="55"/>
+      <c r="D15" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -2304,62 +4929,62 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41" t="s">
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>1</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35" t="s">
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
       <c r="M20" s="24" t="s">
         <v>90</v>
       </c>
@@ -2368,21 +4993,21 @@
       <c r="A21" s="23">
         <v>2</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35" t="s">
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
       <c r="M21" s="24" t="s">
         <v>90</v>
       </c>
@@ -2391,21 +5016,21 @@
       <c r="A22" s="23">
         <v>3</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35" t="s">
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
       <c r="M22" s="24" t="s">
         <v>90</v>
       </c>
@@ -2414,21 +5039,21 @@
       <c r="A23" s="23">
         <v>4</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="56" t="s">
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="58"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="77"/>
       <c r="M23" s="24" t="s">
         <v>90</v>
       </c>
@@ -2437,21 +5062,21 @@
       <c r="A24" s="23">
         <v>5</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="56" t="s">
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="58"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="77"/>
       <c r="M24" s="24" t="s">
         <v>90</v>
       </c>
@@ -2460,21 +5085,21 @@
       <c r="A25" s="23">
         <v>6</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="56" t="s">
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="58"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="77"/>
       <c r="M25" s="24" t="s">
         <v>90</v>
       </c>
@@ -2483,21 +5108,21 @@
       <c r="A26" s="23">
         <v>7</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="56" t="s">
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="58"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="77"/>
       <c r="M26" s="24" t="s">
         <v>90</v>
       </c>
@@ -2506,21 +5131,21 @@
       <c r="A27" s="23">
         <v>8</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="56" t="s">
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="58"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="77"/>
       <c r="M27" s="31" t="s">
         <v>90</v>
       </c>
@@ -2529,21 +5154,21 @@
       <c r="A28" s="23">
         <v>9</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="56" t="s">
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="58"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="77"/>
       <c r="M28" s="31" t="s">
         <v>90</v>
       </c>
@@ -2552,21 +5177,21 @@
       <c r="A29" s="23">
         <v>10</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="56" t="s">
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="58"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="77"/>
       <c r="M29" s="31" t="s">
         <v>90</v>
       </c>
@@ -2575,21 +5200,21 @@
       <c r="A30" s="23">
         <v>11</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="56" t="s">
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="58"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
       <c r="M30" s="31" t="s">
         <v>90</v>
       </c>
@@ -2598,21 +5223,21 @@
       <c r="A31" s="23">
         <v>12</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="56" t="s">
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="58"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
       <c r="M31" s="31" t="s">
         <v>90</v>
       </c>
@@ -2621,21 +5246,21 @@
       <c r="A32" s="23">
         <v>13</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="56" t="s">
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="58"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
       <c r="M32" s="31" t="s">
         <v>90</v>
       </c>
@@ -2644,54 +5269,54 @@
       <c r="A33" s="23">
         <v>14</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="56" t="s">
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="58"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="77"/>
       <c r="M33" s="31" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="52"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="41"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="55"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="44"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
@@ -2704,14 +5329,14 @@
         <v>72</v>
       </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="42" t="s">
+      <c r="F42" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -2725,14 +5350,14 @@
         <v>75</v>
       </c>
       <c r="E43" s="10"/>
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -2766,12 +5391,12 @@
       <c r="G48" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H48" s="44" t="s">
+      <c r="H48" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="46"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="70"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -2787,12 +5412,12 @@
       <c r="G49" s="21">
         <v>1</v>
       </c>
-      <c r="H49" s="47" t="s">
+      <c r="H49" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="49"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="73"/>
       <c r="M49" s="5"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -2820,12 +5445,12 @@
       <c r="G51" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H51" s="44" t="s">
+      <c r="H51" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="46"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="70"/>
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -2833,12 +5458,12 @@
       <c r="G52" s="21">
         <v>1</v>
       </c>
-      <c r="H52" s="47" t="s">
+      <c r="H52" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="49"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="73"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -2854,20 +5479,20 @@
       <c r="A56" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="38" t="s">
+      <c r="C56" s="55"/>
+      <c r="D56" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="40"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="58"/>
       <c r="M56" s="5"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -2877,62 +5502,62 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41" t="s">
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41" t="s">
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="23">
         <v>1</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35" t="s">
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
       <c r="M61" s="24" t="s">
         <v>90</v>
       </c>
@@ -2941,21 +5566,21 @@
       <c r="A62" s="23">
         <v>2</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35" t="s">
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="45"/>
       <c r="M62" s="24" t="s">
         <v>90</v>
       </c>
@@ -2964,21 +5589,21 @@
       <c r="A63" s="23">
         <v>3</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35" t="s">
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="45"/>
       <c r="M63" s="24" t="s">
         <v>90</v>
       </c>
@@ -2987,21 +5612,21 @@
       <c r="A64" s="23">
         <v>4</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35" t="s">
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
       <c r="M64" s="24" t="s">
         <v>90</v>
       </c>
@@ -3010,54 +5635,54 @@
       <c r="A65" s="23">
         <v>5</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35" t="s">
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45"/>
       <c r="M65" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="50" t="s">
+      <c r="A69" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="52"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="41"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="53"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="55"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="44"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
@@ -3070,14 +5695,14 @@
         <v>72</v>
       </c>
       <c r="E74" s="10"/>
-      <c r="F74" s="42" t="s">
+      <c r="F74" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="66"/>
       <c r="M74" s="5"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -3091,14 +5716,14 @@
         <v>75</v>
       </c>
       <c r="E75" s="10"/>
-      <c r="F75" s="43" t="s">
+      <c r="F75" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67"/>
       <c r="M75" s="5"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -3132,12 +5757,12 @@
       <c r="G80" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H80" s="44" t="s">
+      <c r="H80" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="46"/>
+      <c r="I80" s="69"/>
+      <c r="J80" s="69"/>
+      <c r="K80" s="70"/>
       <c r="M80" s="5"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -3153,12 +5778,12 @@
       <c r="G81" s="21">
         <v>1</v>
       </c>
-      <c r="H81" s="47" t="s">
+      <c r="H81" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="I81" s="48"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="49"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="72"/>
+      <c r="K81" s="73"/>
       <c r="M81" s="5"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -3186,12 +5811,12 @@
       <c r="G83" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H83" s="44" t="s">
+      <c r="H83" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="I83" s="45"/>
-      <c r="J83" s="45"/>
-      <c r="K83" s="46"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="69"/>
+      <c r="K83" s="70"/>
       <c r="M83" s="5"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -3199,12 +5824,12 @@
       <c r="G84" s="21">
         <v>1</v>
       </c>
-      <c r="H84" s="47" t="s">
+      <c r="H84" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="I84" s="48"/>
-      <c r="J84" s="48"/>
-      <c r="K84" s="49"/>
+      <c r="I84" s="72"/>
+      <c r="J84" s="72"/>
+      <c r="K84" s="73"/>
       <c r="M84" s="5"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -3220,100 +5845,100 @@
       <c r="A88" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="37"/>
-      <c r="D88" s="38" t="s">
+      <c r="C88" s="55"/>
+      <c r="D88" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="40"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="57"/>
+      <c r="K88" s="58"/>
       <c r="M88" s="5"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="37"/>
-      <c r="D89" s="38" t="s">
+      <c r="C89" s="55"/>
+      <c r="D89" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="40"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="57"/>
+      <c r="K89" s="58"/>
       <c r="M89" s="5"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="36" t="s">
+      <c r="B90" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="37"/>
-      <c r="D90" s="38" t="s">
+      <c r="C90" s="55"/>
+      <c r="D90" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="40"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="57"/>
+      <c r="I90" s="57"/>
+      <c r="J90" s="57"/>
+      <c r="K90" s="58"/>
       <c r="M90" s="5"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="37"/>
-      <c r="D91" s="38" t="s">
+      <c r="C91" s="55"/>
+      <c r="D91" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="39"/>
-      <c r="K91" s="40"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="57"/>
+      <c r="K91" s="58"/>
       <c r="M91" s="5"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="37"/>
-      <c r="D92" s="38" t="s">
+      <c r="C92" s="55"/>
+      <c r="D92" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="39"/>
-      <c r="K92" s="40"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="57"/>
+      <c r="I92" s="57"/>
+      <c r="J92" s="57"/>
+      <c r="K92" s="58"/>
       <c r="M92" s="5"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -3334,62 +5959,62 @@
       <c r="M94" s="5"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="41" t="s">
+      <c r="A95" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B95" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41" t="s">
+      <c r="C95" s="59"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
-      <c r="K95" s="41"/>
-      <c r="L95" s="41"/>
-      <c r="M95" s="41" t="s">
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="59"/>
+      <c r="K95" s="59"/>
+      <c r="L95" s="59"/>
+      <c r="M95" s="59" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="41"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="41"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="59"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="59"/>
+      <c r="K96" s="59"/>
+      <c r="L96" s="59"/>
+      <c r="M96" s="59"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="23">
         <v>1</v>
       </c>
-      <c r="B97" s="35" t="s">
+      <c r="B97" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35" t="s">
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
+      <c r="J97" s="45"/>
+      <c r="K97" s="45"/>
+      <c r="L97" s="45"/>
       <c r="M97" s="24" t="s">
         <v>90</v>
       </c>
@@ -3398,21 +6023,21 @@
       <c r="A98" s="23">
         <v>2</v>
       </c>
-      <c r="B98" s="35" t="s">
+      <c r="B98" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35" t="s">
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="45"/>
+      <c r="F98" s="45"/>
+      <c r="G98" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="35"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="45"/>
+      <c r="J98" s="45"/>
+      <c r="K98" s="45"/>
+      <c r="L98" s="45"/>
       <c r="M98" s="24" t="s">
         <v>90</v>
       </c>
@@ -3421,21 +6046,21 @@
       <c r="A99" s="23">
         <v>3</v>
       </c>
-      <c r="B99" s="35" t="s">
+      <c r="B99" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35" t="s">
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="35"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="45"/>
+      <c r="K99" s="45"/>
+      <c r="L99" s="45"/>
       <c r="M99" s="24" t="s">
         <v>90</v>
       </c>
@@ -3444,21 +6069,21 @@
       <c r="A100" s="23">
         <v>4</v>
       </c>
-      <c r="B100" s="35" t="s">
+      <c r="B100" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35" t="s">
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="H100" s="35"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="35"/>
-      <c r="K100" s="35"/>
-      <c r="L100" s="35"/>
+      <c r="H100" s="45"/>
+      <c r="I100" s="45"/>
+      <c r="J100" s="45"/>
+      <c r="K100" s="45"/>
+      <c r="L100" s="45"/>
       <c r="M100" s="24" t="s">
         <v>90</v>
       </c>
@@ -3467,21 +6092,21 @@
       <c r="A101" s="23">
         <v>5</v>
       </c>
-      <c r="B101" s="35" t="s">
+      <c r="B101" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35" t="s">
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="H101" s="35"/>
-      <c r="I101" s="35"/>
-      <c r="J101" s="35"/>
-      <c r="K101" s="35"/>
-      <c r="L101" s="35"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="45"/>
+      <c r="K101" s="45"/>
+      <c r="L101" s="45"/>
       <c r="M101" s="24" t="s">
         <v>90</v>
       </c>
@@ -3490,21 +6115,21 @@
       <c r="A102" s="23">
         <v>6</v>
       </c>
-      <c r="B102" s="35" t="s">
+      <c r="B102" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="35" t="s">
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="H102" s="35"/>
-      <c r="I102" s="35"/>
-      <c r="J102" s="35"/>
-      <c r="K102" s="35"/>
-      <c r="L102" s="35"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="45"/>
+      <c r="K102" s="45"/>
+      <c r="L102" s="45"/>
       <c r="M102" s="24" t="s">
         <v>90</v>
       </c>
@@ -3513,21 +6138,21 @@
       <c r="A103" s="23">
         <v>7</v>
       </c>
-      <c r="B103" s="35" t="s">
+      <c r="B103" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35" t="s">
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="H103" s="35"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="45"/>
+      <c r="J103" s="45"/>
+      <c r="K103" s="45"/>
+      <c r="L103" s="45"/>
       <c r="M103" s="24" t="s">
         <v>90</v>
       </c>
@@ -3536,21 +6161,21 @@
       <c r="A104" s="23">
         <v>8</v>
       </c>
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="35" t="s">
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="H104" s="35"/>
-      <c r="I104" s="35"/>
-      <c r="J104" s="35"/>
-      <c r="K104" s="35"/>
-      <c r="L104" s="35"/>
+      <c r="H104" s="45"/>
+      <c r="I104" s="45"/>
+      <c r="J104" s="45"/>
+      <c r="K104" s="45"/>
+      <c r="L104" s="45"/>
       <c r="M104" s="24" t="s">
         <v>90</v>
       </c>
@@ -3559,21 +6184,21 @@
       <c r="A105" s="23">
         <v>9</v>
       </c>
-      <c r="B105" s="35" t="s">
+      <c r="B105" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="35"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="35" t="s">
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="H105" s="35"/>
-      <c r="I105" s="35"/>
-      <c r="J105" s="35"/>
-      <c r="K105" s="35"/>
-      <c r="L105" s="35"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="45"/>
+      <c r="K105" s="45"/>
+      <c r="L105" s="45"/>
       <c r="M105" s="24" t="s">
         <v>90</v>
       </c>
@@ -3582,21 +6207,21 @@
       <c r="A106" s="23">
         <v>10</v>
       </c>
-      <c r="B106" s="35" t="s">
+      <c r="B106" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="35"/>
-      <c r="F106" s="35"/>
-      <c r="G106" s="35" t="s">
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="H106" s="35"/>
-      <c r="I106" s="35"/>
-      <c r="J106" s="35"/>
-      <c r="K106" s="35"/>
-      <c r="L106" s="35"/>
+      <c r="H106" s="45"/>
+      <c r="I106" s="45"/>
+      <c r="J106" s="45"/>
+      <c r="K106" s="45"/>
+      <c r="L106" s="45"/>
       <c r="M106" s="24" t="s">
         <v>90</v>
       </c>
@@ -3605,54 +6230,54 @@
       <c r="A107" s="23">
         <v>11</v>
       </c>
-      <c r="B107" s="35" t="s">
+      <c r="B107" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C107" s="35"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="35"/>
-      <c r="F107" s="35"/>
-      <c r="G107" s="35" t="s">
+      <c r="C107" s="45"/>
+      <c r="D107" s="45"/>
+      <c r="E107" s="45"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="H107" s="35"/>
-      <c r="I107" s="35"/>
-      <c r="J107" s="35"/>
-      <c r="K107" s="35"/>
-      <c r="L107" s="35"/>
+      <c r="H107" s="45"/>
+      <c r="I107" s="45"/>
+      <c r="J107" s="45"/>
+      <c r="K107" s="45"/>
+      <c r="L107" s="45"/>
       <c r="M107" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A111" s="50" t="s">
+      <c r="A111" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B111" s="51"/>
-      <c r="C111" s="51"/>
-      <c r="D111" s="51"/>
-      <c r="E111" s="51"/>
-      <c r="F111" s="51"/>
-      <c r="G111" s="51"/>
-      <c r="H111" s="51"/>
-      <c r="I111" s="51"/>
-      <c r="J111" s="51"/>
-      <c r="K111" s="51"/>
-      <c r="L111" s="52"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="40"/>
+      <c r="K111" s="40"/>
+      <c r="L111" s="41"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A112" s="53"/>
-      <c r="B112" s="54"/>
-      <c r="C112" s="54"/>
-      <c r="D112" s="54"/>
-      <c r="E112" s="54"/>
-      <c r="F112" s="54"/>
-      <c r="G112" s="54"/>
-      <c r="H112" s="54"/>
-      <c r="I112" s="54"/>
-      <c r="J112" s="54"/>
-      <c r="K112" s="54"/>
-      <c r="L112" s="55"/>
+      <c r="A112" s="42"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="43"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="43"/>
+      <c r="I112" s="43"/>
+      <c r="J112" s="43"/>
+      <c r="K112" s="43"/>
+      <c r="L112" s="44"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
@@ -3665,14 +6290,14 @@
         <v>72</v>
       </c>
       <c r="E116" s="10"/>
-      <c r="F116" s="42" t="s">
+      <c r="F116" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42"/>
-      <c r="J116" s="42"/>
-      <c r="K116" s="42"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="66"/>
+      <c r="J116" s="66"/>
+      <c r="K116" s="66"/>
       <c r="M116" s="5"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -3686,14 +6311,14 @@
         <v>75</v>
       </c>
       <c r="E117" s="10"/>
-      <c r="F117" s="43" t="s">
+      <c r="F117" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="G117" s="43"/>
-      <c r="H117" s="43"/>
-      <c r="I117" s="43"/>
-      <c r="J117" s="43"/>
-      <c r="K117" s="43"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="67"/>
+      <c r="J117" s="67"/>
+      <c r="K117" s="67"/>
       <c r="M117" s="5"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -3727,12 +6352,12 @@
       <c r="G122" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H122" s="44" t="s">
+      <c r="H122" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="I122" s="45"/>
-      <c r="J122" s="45"/>
-      <c r="K122" s="46"/>
+      <c r="I122" s="69"/>
+      <c r="J122" s="69"/>
+      <c r="K122" s="70"/>
       <c r="M122" s="5"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -3748,12 +6373,12 @@
       <c r="G123" s="21">
         <v>1</v>
       </c>
-      <c r="H123" s="47" t="s">
+      <c r="H123" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="I123" s="48"/>
-      <c r="J123" s="48"/>
-      <c r="K123" s="49"/>
+      <c r="I123" s="72"/>
+      <c r="J123" s="72"/>
+      <c r="K123" s="73"/>
       <c r="M123" s="5"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -3781,12 +6406,12 @@
       <c r="G125" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H125" s="44" t="s">
+      <c r="H125" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="I125" s="45"/>
-      <c r="J125" s="45"/>
-      <c r="K125" s="46"/>
+      <c r="I125" s="69"/>
+      <c r="J125" s="69"/>
+      <c r="K125" s="70"/>
       <c r="M125" s="5"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -3794,24 +6419,24 @@
       <c r="G126" s="21">
         <v>1</v>
       </c>
-      <c r="H126" s="47" t="s">
+      <c r="H126" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="I126" s="48"/>
-      <c r="J126" s="48"/>
-      <c r="K126" s="49"/>
+      <c r="I126" s="72"/>
+      <c r="J126" s="72"/>
+      <c r="K126" s="73"/>
       <c r="M126" s="5"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G127" s="21">
         <v>1</v>
       </c>
-      <c r="H127" s="47" t="s">
+      <c r="H127" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="I127" s="48"/>
-      <c r="J127" s="48"/>
-      <c r="K127" s="49"/>
+      <c r="I127" s="72"/>
+      <c r="J127" s="72"/>
+      <c r="K127" s="73"/>
       <c r="M127" s="5"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -3824,20 +6449,20 @@
       <c r="A130" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B130" s="36" t="s">
+      <c r="B130" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C130" s="37"/>
-      <c r="D130" s="38" t="s">
+      <c r="C130" s="55"/>
+      <c r="D130" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="E130" s="39"/>
-      <c r="F130" s="39"/>
-      <c r="G130" s="39"/>
-      <c r="H130" s="39"/>
-      <c r="I130" s="39"/>
-      <c r="J130" s="39"/>
-      <c r="K130" s="40"/>
+      <c r="E130" s="57"/>
+      <c r="F130" s="57"/>
+      <c r="G130" s="57"/>
+      <c r="H130" s="57"/>
+      <c r="I130" s="57"/>
+      <c r="J130" s="57"/>
+      <c r="K130" s="58"/>
       <c r="M130" s="5"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -3858,62 +6483,62 @@
       <c r="M132" s="5"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A133" s="41" t="s">
+      <c r="A133" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B133" s="41" t="s">
+      <c r="B133" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C133" s="41"/>
-      <c r="D133" s="41"/>
-      <c r="E133" s="41"/>
-      <c r="F133" s="41"/>
-      <c r="G133" s="41" t="s">
+      <c r="C133" s="59"/>
+      <c r="D133" s="59"/>
+      <c r="E133" s="59"/>
+      <c r="F133" s="59"/>
+      <c r="G133" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="H133" s="41"/>
-      <c r="I133" s="41"/>
-      <c r="J133" s="41"/>
-      <c r="K133" s="41"/>
-      <c r="L133" s="41"/>
-      <c r="M133" s="41" t="s">
+      <c r="H133" s="59"/>
+      <c r="I133" s="59"/>
+      <c r="J133" s="59"/>
+      <c r="K133" s="59"/>
+      <c r="L133" s="59"/>
+      <c r="M133" s="59" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A134" s="41"/>
-      <c r="B134" s="41"/>
-      <c r="C134" s="41"/>
-      <c r="D134" s="41"/>
-      <c r="E134" s="41"/>
-      <c r="F134" s="41"/>
-      <c r="G134" s="41"/>
-      <c r="H134" s="41"/>
-      <c r="I134" s="41"/>
-      <c r="J134" s="41"/>
-      <c r="K134" s="41"/>
-      <c r="L134" s="41"/>
-      <c r="M134" s="41"/>
+      <c r="A134" s="59"/>
+      <c r="B134" s="59"/>
+      <c r="C134" s="59"/>
+      <c r="D134" s="59"/>
+      <c r="E134" s="59"/>
+      <c r="F134" s="59"/>
+      <c r="G134" s="59"/>
+      <c r="H134" s="59"/>
+      <c r="I134" s="59"/>
+      <c r="J134" s="59"/>
+      <c r="K134" s="59"/>
+      <c r="L134" s="59"/>
+      <c r="M134" s="59"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="23">
         <v>1</v>
       </c>
-      <c r="B135" s="35" t="s">
+      <c r="B135" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C135" s="35"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="35"/>
-      <c r="F135" s="35"/>
-      <c r="G135" s="35" t="s">
+      <c r="C135" s="45"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="45"/>
+      <c r="F135" s="45"/>
+      <c r="G135" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="H135" s="35"/>
-      <c r="I135" s="35"/>
-      <c r="J135" s="35"/>
-      <c r="K135" s="35"/>
-      <c r="L135" s="35"/>
+      <c r="H135" s="45"/>
+      <c r="I135" s="45"/>
+      <c r="J135" s="45"/>
+      <c r="K135" s="45"/>
+      <c r="L135" s="45"/>
       <c r="M135" s="24" t="s">
         <v>90</v>
       </c>
@@ -3922,21 +6547,21 @@
       <c r="A136" s="23">
         <v>2</v>
       </c>
-      <c r="B136" s="35" t="s">
+      <c r="B136" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="C136" s="35"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="35"/>
-      <c r="F136" s="35"/>
-      <c r="G136" s="35" t="s">
+      <c r="C136" s="45"/>
+      <c r="D136" s="45"/>
+      <c r="E136" s="45"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="H136" s="35"/>
-      <c r="I136" s="35"/>
-      <c r="J136" s="35"/>
-      <c r="K136" s="35"/>
-      <c r="L136" s="35"/>
+      <c r="H136" s="45"/>
+      <c r="I136" s="45"/>
+      <c r="J136" s="45"/>
+      <c r="K136" s="45"/>
+      <c r="L136" s="45"/>
       <c r="M136" s="24" t="s">
         <v>90</v>
       </c>
@@ -3945,21 +6570,21 @@
       <c r="A137" s="23">
         <v>3</v>
       </c>
-      <c r="B137" s="35" t="s">
+      <c r="B137" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="C137" s="35"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="35"/>
-      <c r="F137" s="35"/>
-      <c r="G137" s="35" t="s">
+      <c r="C137" s="45"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="45"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="H137" s="35"/>
-      <c r="I137" s="35"/>
-      <c r="J137" s="35"/>
-      <c r="K137" s="35"/>
-      <c r="L137" s="35"/>
+      <c r="H137" s="45"/>
+      <c r="I137" s="45"/>
+      <c r="J137" s="45"/>
+      <c r="K137" s="45"/>
+      <c r="L137" s="45"/>
       <c r="M137" s="24" t="s">
         <v>90</v>
       </c>
@@ -3968,21 +6593,21 @@
       <c r="A138" s="23">
         <v>4</v>
       </c>
-      <c r="B138" s="35" t="s">
+      <c r="B138" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="C138" s="35"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="35"/>
-      <c r="F138" s="35"/>
-      <c r="G138" s="35" t="s">
+      <c r="C138" s="45"/>
+      <c r="D138" s="45"/>
+      <c r="E138" s="45"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="H138" s="35"/>
-      <c r="I138" s="35"/>
-      <c r="J138" s="35"/>
-      <c r="K138" s="35"/>
-      <c r="L138" s="35"/>
+      <c r="H138" s="45"/>
+      <c r="I138" s="45"/>
+      <c r="J138" s="45"/>
+      <c r="K138" s="45"/>
+      <c r="L138" s="45"/>
       <c r="M138" s="24" t="s">
         <v>90</v>
       </c>
@@ -3991,21 +6616,21 @@
       <c r="A139" s="23">
         <v>5</v>
       </c>
-      <c r="B139" s="35" t="s">
+      <c r="B139" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C139" s="35"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="35"/>
-      <c r="F139" s="35"/>
-      <c r="G139" s="35" t="s">
+      <c r="C139" s="45"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="45"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="H139" s="35"/>
-      <c r="I139" s="35"/>
-      <c r="J139" s="35"/>
-      <c r="K139" s="35"/>
-      <c r="L139" s="35"/>
+      <c r="H139" s="45"/>
+      <c r="I139" s="45"/>
+      <c r="J139" s="45"/>
+      <c r="K139" s="45"/>
+      <c r="L139" s="45"/>
       <c r="M139" s="24" t="s">
         <v>90</v>
       </c>
@@ -4014,21 +6639,21 @@
       <c r="A140" s="23">
         <v>6</v>
       </c>
-      <c r="B140" s="35" t="s">
+      <c r="B140" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="C140" s="35"/>
-      <c r="D140" s="35"/>
-      <c r="E140" s="35"/>
-      <c r="F140" s="35"/>
-      <c r="G140" s="35" t="s">
+      <c r="C140" s="45"/>
+      <c r="D140" s="45"/>
+      <c r="E140" s="45"/>
+      <c r="F140" s="45"/>
+      <c r="G140" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="H140" s="35"/>
-      <c r="I140" s="35"/>
-      <c r="J140" s="35"/>
-      <c r="K140" s="35"/>
-      <c r="L140" s="35"/>
+      <c r="H140" s="45"/>
+      <c r="I140" s="45"/>
+      <c r="J140" s="45"/>
+      <c r="K140" s="45"/>
+      <c r="L140" s="45"/>
       <c r="M140" s="24" t="s">
         <v>90</v>
       </c>
@@ -4037,21 +6662,21 @@
       <c r="A141" s="23">
         <v>7</v>
       </c>
-      <c r="B141" s="35" t="s">
+      <c r="B141" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="C141" s="35"/>
-      <c r="D141" s="35"/>
-      <c r="E141" s="35"/>
-      <c r="F141" s="35"/>
-      <c r="G141" s="35" t="s">
+      <c r="C141" s="45"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="45"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="H141" s="35"/>
-      <c r="I141" s="35"/>
-      <c r="J141" s="35"/>
-      <c r="K141" s="35"/>
-      <c r="L141" s="35"/>
+      <c r="H141" s="45"/>
+      <c r="I141" s="45"/>
+      <c r="J141" s="45"/>
+      <c r="K141" s="45"/>
+      <c r="L141" s="45"/>
       <c r="M141" s="24" t="s">
         <v>90</v>
       </c>
@@ -4060,21 +6685,21 @@
       <c r="A142" s="23">
         <v>8</v>
       </c>
-      <c r="B142" s="35" t="s">
+      <c r="B142" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="C142" s="35"/>
-      <c r="D142" s="35"/>
-      <c r="E142" s="35"/>
-      <c r="F142" s="35"/>
-      <c r="G142" s="35" t="s">
+      <c r="C142" s="45"/>
+      <c r="D142" s="45"/>
+      <c r="E142" s="45"/>
+      <c r="F142" s="45"/>
+      <c r="G142" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="H142" s="35"/>
-      <c r="I142" s="35"/>
-      <c r="J142" s="35"/>
-      <c r="K142" s="35"/>
-      <c r="L142" s="35"/>
+      <c r="H142" s="45"/>
+      <c r="I142" s="45"/>
+      <c r="J142" s="45"/>
+      <c r="K142" s="45"/>
+      <c r="L142" s="45"/>
       <c r="M142" s="24" t="s">
         <v>90</v>
       </c>
@@ -4083,21 +6708,21 @@
       <c r="A143" s="23">
         <v>9</v>
       </c>
-      <c r="B143" s="35" t="s">
+      <c r="B143" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="C143" s="35"/>
-      <c r="D143" s="35"/>
-      <c r="E143" s="35"/>
-      <c r="F143" s="35"/>
-      <c r="G143" s="35" t="s">
+      <c r="C143" s="45"/>
+      <c r="D143" s="45"/>
+      <c r="E143" s="45"/>
+      <c r="F143" s="45"/>
+      <c r="G143" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="H143" s="35"/>
-      <c r="I143" s="35"/>
-      <c r="J143" s="35"/>
-      <c r="K143" s="35"/>
-      <c r="L143" s="35"/>
+      <c r="H143" s="45"/>
+      <c r="I143" s="45"/>
+      <c r="J143" s="45"/>
+      <c r="K143" s="45"/>
+      <c r="L143" s="45"/>
       <c r="M143" s="24" t="s">
         <v>90</v>
       </c>
@@ -4106,21 +6731,21 @@
       <c r="A144" s="23">
         <v>10</v>
       </c>
-      <c r="B144" s="59" t="s">
+      <c r="B144" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="C144" s="59"/>
-      <c r="D144" s="59"/>
-      <c r="E144" s="59"/>
-      <c r="F144" s="59"/>
-      <c r="G144" s="35" t="s">
+      <c r="C144" s="53"/>
+      <c r="D144" s="53"/>
+      <c r="E144" s="53"/>
+      <c r="F144" s="53"/>
+      <c r="G144" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="H144" s="35"/>
-      <c r="I144" s="35"/>
-      <c r="J144" s="35"/>
-      <c r="K144" s="35"/>
-      <c r="L144" s="35"/>
+      <c r="H144" s="45"/>
+      <c r="I144" s="45"/>
+      <c r="J144" s="45"/>
+      <c r="K144" s="45"/>
+      <c r="L144" s="45"/>
       <c r="M144" s="24" t="s">
         <v>90</v>
       </c>
@@ -4129,21 +6754,21 @@
       <c r="A145" s="23">
         <v>11</v>
       </c>
-      <c r="B145" s="59" t="s">
+      <c r="B145" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="C145" s="59"/>
-      <c r="D145" s="59"/>
-      <c r="E145" s="59"/>
-      <c r="F145" s="59"/>
-      <c r="G145" s="35" t="s">
+      <c r="C145" s="53"/>
+      <c r="D145" s="53"/>
+      <c r="E145" s="53"/>
+      <c r="F145" s="53"/>
+      <c r="G145" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="H145" s="35"/>
-      <c r="I145" s="35"/>
-      <c r="J145" s="35"/>
-      <c r="K145" s="35"/>
-      <c r="L145" s="35"/>
+      <c r="H145" s="45"/>
+      <c r="I145" s="45"/>
+      <c r="J145" s="45"/>
+      <c r="K145" s="45"/>
+      <c r="L145" s="45"/>
       <c r="M145" s="24" t="s">
         <v>90</v>
       </c>
@@ -4152,21 +6777,21 @@
       <c r="A146" s="23">
         <v>12</v>
       </c>
-      <c r="B146" s="35" t="s">
+      <c r="B146" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="C146" s="35"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="35"/>
-      <c r="F146" s="35"/>
-      <c r="G146" s="35" t="s">
+      <c r="C146" s="45"/>
+      <c r="D146" s="45"/>
+      <c r="E146" s="45"/>
+      <c r="F146" s="45"/>
+      <c r="G146" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="H146" s="35"/>
-      <c r="I146" s="35"/>
-      <c r="J146" s="35"/>
-      <c r="K146" s="35"/>
-      <c r="L146" s="35"/>
+      <c r="H146" s="45"/>
+      <c r="I146" s="45"/>
+      <c r="J146" s="45"/>
+      <c r="K146" s="45"/>
+      <c r="L146" s="45"/>
       <c r="M146" s="24" t="s">
         <v>90</v>
       </c>
@@ -4175,21 +6800,21 @@
       <c r="A147" s="23">
         <v>10</v>
       </c>
-      <c r="B147" s="59" t="s">
+      <c r="B147" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="C147" s="59"/>
-      <c r="D147" s="59"/>
-      <c r="E147" s="59"/>
-      <c r="F147" s="59"/>
-      <c r="G147" s="35" t="s">
+      <c r="C147" s="53"/>
+      <c r="D147" s="53"/>
+      <c r="E147" s="53"/>
+      <c r="F147" s="53"/>
+      <c r="G147" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="H147" s="35"/>
-      <c r="I147" s="35"/>
-      <c r="J147" s="35"/>
-      <c r="K147" s="35"/>
-      <c r="L147" s="35"/>
+      <c r="H147" s="45"/>
+      <c r="I147" s="45"/>
+      <c r="J147" s="45"/>
+      <c r="K147" s="45"/>
+      <c r="L147" s="45"/>
       <c r="M147" s="24" t="s">
         <v>90</v>
       </c>
@@ -4198,21 +6823,21 @@
       <c r="A148" s="23">
         <v>11</v>
       </c>
-      <c r="B148" s="59" t="s">
+      <c r="B148" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="C148" s="59"/>
-      <c r="D148" s="59"/>
-      <c r="E148" s="59"/>
-      <c r="F148" s="59"/>
-      <c r="G148" s="35" t="s">
+      <c r="C148" s="53"/>
+      <c r="D148" s="53"/>
+      <c r="E148" s="53"/>
+      <c r="F148" s="53"/>
+      <c r="G148" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="H148" s="35"/>
-      <c r="I148" s="35"/>
-      <c r="J148" s="35"/>
-      <c r="K148" s="35"/>
-      <c r="L148" s="35"/>
+      <c r="H148" s="45"/>
+      <c r="I148" s="45"/>
+      <c r="J148" s="45"/>
+      <c r="K148" s="45"/>
+      <c r="L148" s="45"/>
       <c r="M148" s="24" t="s">
         <v>90</v>
       </c>
@@ -4221,21 +6846,21 @@
       <c r="A149" s="23">
         <v>12</v>
       </c>
-      <c r="B149" s="35" t="s">
+      <c r="B149" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="C149" s="35"/>
-      <c r="D149" s="35"/>
-      <c r="E149" s="35"/>
-      <c r="F149" s="35"/>
-      <c r="G149" s="35" t="s">
+      <c r="C149" s="45"/>
+      <c r="D149" s="45"/>
+      <c r="E149" s="45"/>
+      <c r="F149" s="45"/>
+      <c r="G149" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="H149" s="35"/>
-      <c r="I149" s="35"/>
-      <c r="J149" s="35"/>
-      <c r="K149" s="35"/>
-      <c r="L149" s="35"/>
+      <c r="H149" s="45"/>
+      <c r="I149" s="45"/>
+      <c r="J149" s="45"/>
+      <c r="K149" s="45"/>
+      <c r="L149" s="45"/>
       <c r="M149" s="24" t="s">
         <v>90</v>
       </c>
@@ -4244,21 +6869,21 @@
       <c r="A150" s="23">
         <v>13</v>
       </c>
-      <c r="B150" s="60" t="s">
+      <c r="B150" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="C150" s="60"/>
-      <c r="D150" s="60"/>
-      <c r="E150" s="60"/>
-      <c r="F150" s="60"/>
-      <c r="G150" s="35" t="s">
+      <c r="C150" s="49"/>
+      <c r="D150" s="49"/>
+      <c r="E150" s="49"/>
+      <c r="F150" s="49"/>
+      <c r="G150" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="H150" s="35"/>
-      <c r="I150" s="35"/>
-      <c r="J150" s="35"/>
-      <c r="K150" s="35"/>
-      <c r="L150" s="35"/>
+      <c r="H150" s="45"/>
+      <c r="I150" s="45"/>
+      <c r="J150" s="45"/>
+      <c r="K150" s="45"/>
+      <c r="L150" s="45"/>
       <c r="M150" s="24" t="s">
         <v>90</v>
       </c>
@@ -4267,21 +6892,21 @@
       <c r="A151" s="23">
         <v>14</v>
       </c>
-      <c r="B151" s="60" t="s">
+      <c r="B151" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="C151" s="60"/>
-      <c r="D151" s="60"/>
-      <c r="E151" s="60"/>
-      <c r="F151" s="60"/>
-      <c r="G151" s="35" t="s">
+      <c r="C151" s="49"/>
+      <c r="D151" s="49"/>
+      <c r="E151" s="49"/>
+      <c r="F151" s="49"/>
+      <c r="G151" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="H151" s="35"/>
-      <c r="I151" s="35"/>
-      <c r="J151" s="35"/>
-      <c r="K151" s="35"/>
-      <c r="L151" s="35"/>
+      <c r="H151" s="45"/>
+      <c r="I151" s="45"/>
+      <c r="J151" s="45"/>
+      <c r="K151" s="45"/>
+      <c r="L151" s="45"/>
       <c r="M151" s="24" t="s">
         <v>90</v>
       </c>
@@ -4290,21 +6915,21 @@
       <c r="A152" s="23">
         <v>15</v>
       </c>
-      <c r="B152" s="62" t="s">
+      <c r="B152" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="C152" s="63"/>
-      <c r="D152" s="63"/>
-      <c r="E152" s="63"/>
-      <c r="F152" s="64"/>
-      <c r="G152" s="35" t="s">
+      <c r="C152" s="51"/>
+      <c r="D152" s="51"/>
+      <c r="E152" s="51"/>
+      <c r="F152" s="52"/>
+      <c r="G152" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="H152" s="35"/>
-      <c r="I152" s="35"/>
-      <c r="J152" s="35"/>
-      <c r="K152" s="35"/>
-      <c r="L152" s="35"/>
+      <c r="H152" s="45"/>
+      <c r="I152" s="45"/>
+      <c r="J152" s="45"/>
+      <c r="K152" s="45"/>
+      <c r="L152" s="45"/>
       <c r="M152" s="24" t="s">
         <v>90</v>
       </c>
@@ -4313,21 +6938,21 @@
       <c r="A153" s="23">
         <v>16</v>
       </c>
-      <c r="B153" s="60" t="s">
+      <c r="B153" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="C153" s="60"/>
-      <c r="D153" s="60"/>
-      <c r="E153" s="60"/>
-      <c r="F153" s="60"/>
-      <c r="G153" s="35" t="s">
+      <c r="C153" s="49"/>
+      <c r="D153" s="49"/>
+      <c r="E153" s="49"/>
+      <c r="F153" s="49"/>
+      <c r="G153" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="H153" s="35"/>
-      <c r="I153" s="35"/>
-      <c r="J153" s="35"/>
-      <c r="K153" s="35"/>
-      <c r="L153" s="35"/>
+      <c r="H153" s="45"/>
+      <c r="I153" s="45"/>
+      <c r="J153" s="45"/>
+      <c r="K153" s="45"/>
+      <c r="L153" s="45"/>
       <c r="M153" s="24" t="s">
         <v>90</v>
       </c>
@@ -4336,21 +6961,21 @@
       <c r="A154" s="23">
         <v>17</v>
       </c>
-      <c r="B154" s="60" t="s">
+      <c r="B154" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="C154" s="60"/>
-      <c r="D154" s="60"/>
-      <c r="E154" s="60"/>
-      <c r="F154" s="60"/>
-      <c r="G154" s="35" t="s">
+      <c r="C154" s="49"/>
+      <c r="D154" s="49"/>
+      <c r="E154" s="49"/>
+      <c r="F154" s="49"/>
+      <c r="G154" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="H154" s="35"/>
-      <c r="I154" s="35"/>
-      <c r="J154" s="35"/>
-      <c r="K154" s="35"/>
-      <c r="L154" s="35"/>
+      <c r="H154" s="45"/>
+      <c r="I154" s="45"/>
+      <c r="J154" s="45"/>
+      <c r="K154" s="45"/>
+      <c r="L154" s="45"/>
       <c r="M154" s="24" t="s">
         <v>90</v>
       </c>
@@ -4359,21 +6984,21 @@
       <c r="A155" s="23">
         <v>18</v>
       </c>
-      <c r="B155" s="61" t="s">
+      <c r="B155" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="C155" s="61"/>
-      <c r="D155" s="61"/>
-      <c r="E155" s="61"/>
-      <c r="F155" s="61"/>
-      <c r="G155" s="35" t="s">
+      <c r="C155" s="74"/>
+      <c r="D155" s="74"/>
+      <c r="E155" s="74"/>
+      <c r="F155" s="74"/>
+      <c r="G155" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="H155" s="35"/>
-      <c r="I155" s="35"/>
-      <c r="J155" s="35"/>
-      <c r="K155" s="35"/>
-      <c r="L155" s="35"/>
+      <c r="H155" s="45"/>
+      <c r="I155" s="45"/>
+      <c r="J155" s="45"/>
+      <c r="K155" s="45"/>
+      <c r="L155" s="45"/>
       <c r="M155" s="24" t="s">
         <v>90</v>
       </c>
@@ -4382,21 +7007,21 @@
       <c r="A156" s="23">
         <v>19</v>
       </c>
-      <c r="B156" s="35" t="s">
+      <c r="B156" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="C156" s="35"/>
-      <c r="D156" s="35"/>
-      <c r="E156" s="35"/>
-      <c r="F156" s="35"/>
-      <c r="G156" s="35" t="s">
+      <c r="C156" s="45"/>
+      <c r="D156" s="45"/>
+      <c r="E156" s="45"/>
+      <c r="F156" s="45"/>
+      <c r="G156" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="H156" s="35"/>
-      <c r="I156" s="35"/>
-      <c r="J156" s="35"/>
-      <c r="K156" s="35"/>
-      <c r="L156" s="35"/>
+      <c r="H156" s="45"/>
+      <c r="I156" s="45"/>
+      <c r="J156" s="45"/>
+      <c r="K156" s="45"/>
+      <c r="L156" s="45"/>
       <c r="M156" s="24" t="s">
         <v>90</v>
       </c>
@@ -4405,21 +7030,21 @@
       <c r="A157" s="23">
         <v>20</v>
       </c>
-      <c r="B157" s="35" t="s">
+      <c r="B157" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="C157" s="35"/>
-      <c r="D157" s="35"/>
-      <c r="E157" s="35"/>
-      <c r="F157" s="35"/>
-      <c r="G157" s="35" t="s">
+      <c r="C157" s="45"/>
+      <c r="D157" s="45"/>
+      <c r="E157" s="45"/>
+      <c r="F157" s="45"/>
+      <c r="G157" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="H157" s="35"/>
-      <c r="I157" s="35"/>
-      <c r="J157" s="35"/>
-      <c r="K157" s="35"/>
-      <c r="L157" s="35"/>
+      <c r="H157" s="45"/>
+      <c r="I157" s="45"/>
+      <c r="J157" s="45"/>
+      <c r="K157" s="45"/>
+      <c r="L157" s="45"/>
       <c r="M157" s="24" t="s">
         <v>90</v>
       </c>
@@ -4428,54 +7053,54 @@
       <c r="A158" s="23">
         <v>21</v>
       </c>
-      <c r="B158" s="35" t="s">
+      <c r="B158" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="C158" s="35"/>
-      <c r="D158" s="35"/>
-      <c r="E158" s="35"/>
-      <c r="F158" s="35"/>
-      <c r="G158" s="35" t="s">
+      <c r="C158" s="45"/>
+      <c r="D158" s="45"/>
+      <c r="E158" s="45"/>
+      <c r="F158" s="45"/>
+      <c r="G158" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="H158" s="35"/>
-      <c r="I158" s="35"/>
-      <c r="J158" s="35"/>
-      <c r="K158" s="35"/>
-      <c r="L158" s="35"/>
+      <c r="H158" s="45"/>
+      <c r="I158" s="45"/>
+      <c r="J158" s="45"/>
+      <c r="K158" s="45"/>
+      <c r="L158" s="45"/>
       <c r="M158" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A161" s="50" t="s">
+      <c r="A161" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B161" s="51"/>
-      <c r="C161" s="51"/>
-      <c r="D161" s="51"/>
-      <c r="E161" s="51"/>
-      <c r="F161" s="51"/>
-      <c r="G161" s="51"/>
-      <c r="H161" s="51"/>
-      <c r="I161" s="51"/>
-      <c r="J161" s="51"/>
-      <c r="K161" s="51"/>
-      <c r="L161" s="52"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="40"/>
+      <c r="E161" s="40"/>
+      <c r="F161" s="40"/>
+      <c r="G161" s="40"/>
+      <c r="H161" s="40"/>
+      <c r="I161" s="40"/>
+      <c r="J161" s="40"/>
+      <c r="K161" s="40"/>
+      <c r="L161" s="41"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A162" s="53"/>
-      <c r="B162" s="54"/>
-      <c r="C162" s="54"/>
-      <c r="D162" s="54"/>
-      <c r="E162" s="54"/>
-      <c r="F162" s="54"/>
-      <c r="G162" s="54"/>
-      <c r="H162" s="54"/>
-      <c r="I162" s="54"/>
-      <c r="J162" s="54"/>
-      <c r="K162" s="54"/>
-      <c r="L162" s="55"/>
+      <c r="A162" s="42"/>
+      <c r="B162" s="43"/>
+      <c r="C162" s="43"/>
+      <c r="D162" s="43"/>
+      <c r="E162" s="43"/>
+      <c r="F162" s="43"/>
+      <c r="G162" s="43"/>
+      <c r="H162" s="43"/>
+      <c r="I162" s="43"/>
+      <c r="J162" s="43"/>
+      <c r="K162" s="43"/>
+      <c r="L162" s="44"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
@@ -4488,14 +7113,14 @@
         <v>72</v>
       </c>
       <c r="E166" s="10"/>
-      <c r="F166" s="42" t="s">
+      <c r="F166" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="G166" s="42"/>
-      <c r="H166" s="42"/>
-      <c r="I166" s="42"/>
-      <c r="J166" s="42"/>
-      <c r="K166" s="42"/>
+      <c r="G166" s="66"/>
+      <c r="H166" s="66"/>
+      <c r="I166" s="66"/>
+      <c r="J166" s="66"/>
+      <c r="K166" s="66"/>
       <c r="M166" s="5"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
@@ -4509,14 +7134,14 @@
         <v>75</v>
       </c>
       <c r="E167" s="10"/>
-      <c r="F167" s="43" t="s">
+      <c r="F167" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="G167" s="43"/>
-      <c r="H167" s="43"/>
-      <c r="I167" s="43"/>
-      <c r="J167" s="43"/>
-      <c r="K167" s="43"/>
+      <c r="G167" s="67"/>
+      <c r="H167" s="67"/>
+      <c r="I167" s="67"/>
+      <c r="J167" s="67"/>
+      <c r="K167" s="67"/>
       <c r="M167" s="5"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
@@ -4550,12 +7175,12 @@
       <c r="G172" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H172" s="44" t="s">
+      <c r="H172" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="I172" s="45"/>
-      <c r="J172" s="45"/>
-      <c r="K172" s="46"/>
+      <c r="I172" s="69"/>
+      <c r="J172" s="69"/>
+      <c r="K172" s="70"/>
       <c r="M172" s="5"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
@@ -4571,12 +7196,12 @@
       <c r="G173" s="21">
         <v>1</v>
       </c>
-      <c r="H173" s="47" t="s">
+      <c r="H173" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="I173" s="48"/>
-      <c r="J173" s="48"/>
-      <c r="K173" s="49"/>
+      <c r="I173" s="72"/>
+      <c r="J173" s="72"/>
+      <c r="K173" s="73"/>
       <c r="M173" s="5"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -4604,12 +7229,12 @@
       <c r="G175" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H175" s="44" t="s">
+      <c r="H175" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="I175" s="45"/>
-      <c r="J175" s="45"/>
-      <c r="K175" s="46"/>
+      <c r="I175" s="69"/>
+      <c r="J175" s="69"/>
+      <c r="K175" s="70"/>
       <c r="M175" s="5"/>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
@@ -4617,24 +7242,24 @@
       <c r="G176" s="21">
         <v>1</v>
       </c>
-      <c r="H176" s="47" t="s">
+      <c r="H176" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="I176" s="48"/>
-      <c r="J176" s="48"/>
-      <c r="K176" s="49"/>
+      <c r="I176" s="72"/>
+      <c r="J176" s="72"/>
+      <c r="K176" s="73"/>
       <c r="M176" s="5"/>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G177" s="21">
         <v>1</v>
       </c>
-      <c r="H177" s="47" t="s">
+      <c r="H177" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="I177" s="48"/>
-      <c r="J177" s="48"/>
-      <c r="K177" s="49"/>
+      <c r="I177" s="72"/>
+      <c r="J177" s="72"/>
+      <c r="K177" s="73"/>
       <c r="M177" s="5"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
@@ -4647,40 +7272,40 @@
       <c r="A180" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B180" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C180" s="37"/>
-      <c r="D180" s="38" t="s">
+      <c r="B180" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="55"/>
+      <c r="D180" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="E180" s="39"/>
-      <c r="F180" s="39"/>
-      <c r="G180" s="39"/>
-      <c r="H180" s="39"/>
-      <c r="I180" s="39"/>
-      <c r="J180" s="39"/>
-      <c r="K180" s="40"/>
+      <c r="E180" s="57"/>
+      <c r="F180" s="57"/>
+      <c r="G180" s="57"/>
+      <c r="H180" s="57"/>
+      <c r="I180" s="57"/>
+      <c r="J180" s="57"/>
+      <c r="K180" s="58"/>
       <c r="M180" s="5"/>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B181" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C181" s="37"/>
-      <c r="D181" s="38" t="s">
+      <c r="B181" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" s="55"/>
+      <c r="D181" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="E181" s="39"/>
-      <c r="F181" s="39"/>
-      <c r="G181" s="39"/>
-      <c r="H181" s="39"/>
-      <c r="I181" s="39"/>
-      <c r="J181" s="39"/>
-      <c r="K181" s="40"/>
+      <c r="E181" s="57"/>
+      <c r="F181" s="57"/>
+      <c r="G181" s="57"/>
+      <c r="H181" s="57"/>
+      <c r="I181" s="57"/>
+      <c r="J181" s="57"/>
+      <c r="K181" s="58"/>
       <c r="M181" s="5"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
@@ -4701,62 +7326,62 @@
       <c r="M183" s="5"/>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A184" s="41" t="s">
+      <c r="A184" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B184" s="41" t="s">
+      <c r="B184" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C184" s="41"/>
-      <c r="D184" s="41"/>
-      <c r="E184" s="41"/>
-      <c r="F184" s="41"/>
-      <c r="G184" s="41" t="s">
+      <c r="C184" s="59"/>
+      <c r="D184" s="59"/>
+      <c r="E184" s="59"/>
+      <c r="F184" s="59"/>
+      <c r="G184" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="H184" s="41"/>
-      <c r="I184" s="41"/>
-      <c r="J184" s="41"/>
-      <c r="K184" s="41"/>
-      <c r="L184" s="41"/>
-      <c r="M184" s="41" t="s">
+      <c r="H184" s="59"/>
+      <c r="I184" s="59"/>
+      <c r="J184" s="59"/>
+      <c r="K184" s="59"/>
+      <c r="L184" s="59"/>
+      <c r="M184" s="59" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A185" s="41"/>
-      <c r="B185" s="41"/>
-      <c r="C185" s="41"/>
-      <c r="D185" s="41"/>
-      <c r="E185" s="41"/>
-      <c r="F185" s="41"/>
-      <c r="G185" s="41"/>
-      <c r="H185" s="41"/>
-      <c r="I185" s="41"/>
-      <c r="J185" s="41"/>
-      <c r="K185" s="41"/>
-      <c r="L185" s="41"/>
-      <c r="M185" s="41"/>
+      <c r="A185" s="59"/>
+      <c r="B185" s="59"/>
+      <c r="C185" s="59"/>
+      <c r="D185" s="59"/>
+      <c r="E185" s="59"/>
+      <c r="F185" s="59"/>
+      <c r="G185" s="59"/>
+      <c r="H185" s="59"/>
+      <c r="I185" s="59"/>
+      <c r="J185" s="59"/>
+      <c r="K185" s="59"/>
+      <c r="L185" s="59"/>
+      <c r="M185" s="59"/>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="23">
         <v>1</v>
       </c>
-      <c r="B186" s="35" t="s">
+      <c r="B186" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C186" s="35"/>
-      <c r="D186" s="35"/>
-      <c r="E186" s="35"/>
-      <c r="F186" s="35"/>
-      <c r="G186" s="35" t="s">
+      <c r="C186" s="45"/>
+      <c r="D186" s="45"/>
+      <c r="E186" s="45"/>
+      <c r="F186" s="45"/>
+      <c r="G186" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="H186" s="35"/>
-      <c r="I186" s="35"/>
-      <c r="J186" s="35"/>
-      <c r="K186" s="35"/>
-      <c r="L186" s="35"/>
+      <c r="H186" s="45"/>
+      <c r="I186" s="45"/>
+      <c r="J186" s="45"/>
+      <c r="K186" s="45"/>
+      <c r="L186" s="45"/>
       <c r="M186" s="24" t="s">
         <v>90</v>
       </c>
@@ -4765,21 +7390,21 @@
       <c r="A187" s="23">
         <v>2</v>
       </c>
-      <c r="B187" s="35" t="s">
+      <c r="B187" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="C187" s="35"/>
-      <c r="D187" s="35"/>
-      <c r="E187" s="35"/>
-      <c r="F187" s="35"/>
-      <c r="G187" s="35" t="s">
+      <c r="C187" s="45"/>
+      <c r="D187" s="45"/>
+      <c r="E187" s="45"/>
+      <c r="F187" s="45"/>
+      <c r="G187" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="H187" s="35"/>
-      <c r="I187" s="35"/>
-      <c r="J187" s="35"/>
-      <c r="K187" s="35"/>
-      <c r="L187" s="35"/>
+      <c r="H187" s="45"/>
+      <c r="I187" s="45"/>
+      <c r="J187" s="45"/>
+      <c r="K187" s="45"/>
+      <c r="L187" s="45"/>
       <c r="M187" s="24" t="s">
         <v>90</v>
       </c>
@@ -4788,21 +7413,21 @@
       <c r="A188" s="23">
         <v>3</v>
       </c>
-      <c r="B188" s="35" t="s">
+      <c r="B188" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="C188" s="35"/>
-      <c r="D188" s="35"/>
-      <c r="E188" s="35"/>
-      <c r="F188" s="35"/>
-      <c r="G188" s="35" t="s">
+      <c r="C188" s="45"/>
+      <c r="D188" s="45"/>
+      <c r="E188" s="45"/>
+      <c r="F188" s="45"/>
+      <c r="G188" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="H188" s="35"/>
-      <c r="I188" s="35"/>
-      <c r="J188" s="35"/>
-      <c r="K188" s="35"/>
-      <c r="L188" s="35"/>
+      <c r="H188" s="45"/>
+      <c r="I188" s="45"/>
+      <c r="J188" s="45"/>
+      <c r="K188" s="45"/>
+      <c r="L188" s="45"/>
       <c r="M188" s="24" t="s">
         <v>90</v>
       </c>
@@ -4811,21 +7436,21 @@
       <c r="A189" s="23">
         <v>4</v>
       </c>
-      <c r="B189" s="35" t="s">
+      <c r="B189" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="C189" s="35"/>
-      <c r="D189" s="35"/>
-      <c r="E189" s="35"/>
-      <c r="F189" s="35"/>
-      <c r="G189" s="35" t="s">
+      <c r="C189" s="45"/>
+      <c r="D189" s="45"/>
+      <c r="E189" s="45"/>
+      <c r="F189" s="45"/>
+      <c r="G189" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="H189" s="35"/>
-      <c r="I189" s="35"/>
-      <c r="J189" s="35"/>
-      <c r="K189" s="35"/>
-      <c r="L189" s="35"/>
+      <c r="H189" s="45"/>
+      <c r="I189" s="45"/>
+      <c r="J189" s="45"/>
+      <c r="K189" s="45"/>
+      <c r="L189" s="45"/>
       <c r="M189" s="24" t="s">
         <v>90</v>
       </c>
@@ -4834,54 +7459,54 @@
       <c r="A190" s="23">
         <v>5</v>
       </c>
-      <c r="B190" s="35" t="s">
+      <c r="B190" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C190" s="35"/>
-      <c r="D190" s="35"/>
-      <c r="E190" s="35"/>
-      <c r="F190" s="35"/>
-      <c r="G190" s="35" t="s">
+      <c r="C190" s="45"/>
+      <c r="D190" s="45"/>
+      <c r="E190" s="45"/>
+      <c r="F190" s="45"/>
+      <c r="G190" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="H190" s="35"/>
-      <c r="I190" s="35"/>
-      <c r="J190" s="35"/>
-      <c r="K190" s="35"/>
-      <c r="L190" s="35"/>
+      <c r="H190" s="45"/>
+      <c r="I190" s="45"/>
+      <c r="J190" s="45"/>
+      <c r="K190" s="45"/>
+      <c r="L190" s="45"/>
       <c r="M190" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A194" s="50" t="s">
+      <c r="A194" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B194" s="51"/>
-      <c r="C194" s="51"/>
-      <c r="D194" s="51"/>
-      <c r="E194" s="51"/>
-      <c r="F194" s="51"/>
-      <c r="G194" s="51"/>
-      <c r="H194" s="51"/>
-      <c r="I194" s="51"/>
-      <c r="J194" s="51"/>
-      <c r="K194" s="51"/>
-      <c r="L194" s="52"/>
+      <c r="B194" s="40"/>
+      <c r="C194" s="40"/>
+      <c r="D194" s="40"/>
+      <c r="E194" s="40"/>
+      <c r="F194" s="40"/>
+      <c r="G194" s="40"/>
+      <c r="H194" s="40"/>
+      <c r="I194" s="40"/>
+      <c r="J194" s="40"/>
+      <c r="K194" s="40"/>
+      <c r="L194" s="41"/>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A195" s="53"/>
-      <c r="B195" s="54"/>
-      <c r="C195" s="54"/>
-      <c r="D195" s="54"/>
-      <c r="E195" s="54"/>
-      <c r="F195" s="54"/>
-      <c r="G195" s="54"/>
-      <c r="H195" s="54"/>
-      <c r="I195" s="54"/>
-      <c r="J195" s="54"/>
-      <c r="K195" s="54"/>
-      <c r="L195" s="55"/>
+      <c r="A195" s="42"/>
+      <c r="B195" s="43"/>
+      <c r="C195" s="43"/>
+      <c r="D195" s="43"/>
+      <c r="E195" s="43"/>
+      <c r="F195" s="43"/>
+      <c r="G195" s="43"/>
+      <c r="H195" s="43"/>
+      <c r="I195" s="43"/>
+      <c r="J195" s="43"/>
+      <c r="K195" s="43"/>
+      <c r="L195" s="44"/>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
@@ -4894,14 +7519,14 @@
         <v>72</v>
       </c>
       <c r="E199" s="10"/>
-      <c r="F199" s="42" t="s">
+      <c r="F199" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="G199" s="42"/>
-      <c r="H199" s="42"/>
-      <c r="I199" s="42"/>
-      <c r="J199" s="42"/>
-      <c r="K199" s="42"/>
+      <c r="G199" s="66"/>
+      <c r="H199" s="66"/>
+      <c r="I199" s="66"/>
+      <c r="J199" s="66"/>
+      <c r="K199" s="66"/>
       <c r="M199" s="5"/>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
@@ -4915,14 +7540,14 @@
         <v>75</v>
       </c>
       <c r="E200" s="10"/>
-      <c r="F200" s="43" t="s">
+      <c r="F200" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="G200" s="43"/>
-      <c r="H200" s="43"/>
-      <c r="I200" s="43"/>
-      <c r="J200" s="43"/>
-      <c r="K200" s="43"/>
+      <c r="G200" s="67"/>
+      <c r="H200" s="67"/>
+      <c r="I200" s="67"/>
+      <c r="J200" s="67"/>
+      <c r="K200" s="67"/>
       <c r="M200" s="5"/>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
@@ -4956,12 +7581,12 @@
       <c r="G205" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H205" s="44" t="s">
+      <c r="H205" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="I205" s="45"/>
-      <c r="J205" s="45"/>
-      <c r="K205" s="46"/>
+      <c r="I205" s="69"/>
+      <c r="J205" s="69"/>
+      <c r="K205" s="70"/>
       <c r="M205" s="5"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
@@ -4977,12 +7602,12 @@
       <c r="G206" s="21">
         <v>1</v>
       </c>
-      <c r="H206" s="47" t="s">
+      <c r="H206" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="I206" s="48"/>
-      <c r="J206" s="48"/>
-      <c r="K206" s="49"/>
+      <c r="I206" s="72"/>
+      <c r="J206" s="72"/>
+      <c r="K206" s="73"/>
       <c r="M206" s="5"/>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.2">
@@ -5010,12 +7635,12 @@
       <c r="G208" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H208" s="44" t="s">
+      <c r="H208" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="I208" s="45"/>
-      <c r="J208" s="45"/>
-      <c r="K208" s="46"/>
+      <c r="I208" s="69"/>
+      <c r="J208" s="69"/>
+      <c r="K208" s="70"/>
       <c r="M208" s="5"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
@@ -5023,24 +7648,24 @@
       <c r="G209" s="21">
         <v>1</v>
       </c>
-      <c r="H209" s="47" t="s">
+      <c r="H209" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="I209" s="48"/>
-      <c r="J209" s="48"/>
-      <c r="K209" s="49"/>
+      <c r="I209" s="72"/>
+      <c r="J209" s="72"/>
+      <c r="K209" s="73"/>
       <c r="M209" s="5"/>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G210" s="21">
         <v>1</v>
       </c>
-      <c r="H210" s="47" t="s">
+      <c r="H210" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="I210" s="48"/>
-      <c r="J210" s="48"/>
-      <c r="K210" s="49"/>
+      <c r="I210" s="72"/>
+      <c r="J210" s="72"/>
+      <c r="K210" s="73"/>
       <c r="M210" s="5"/>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.2">
@@ -5050,40 +7675,40 @@
       <c r="A212" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B212" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C212" s="37"/>
-      <c r="D212" s="38" t="s">
+      <c r="B212" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="55"/>
+      <c r="D212" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="E212" s="39"/>
-      <c r="F212" s="39"/>
-      <c r="G212" s="39"/>
-      <c r="H212" s="39"/>
-      <c r="I212" s="39"/>
-      <c r="J212" s="39"/>
-      <c r="K212" s="40"/>
+      <c r="E212" s="57"/>
+      <c r="F212" s="57"/>
+      <c r="G212" s="57"/>
+      <c r="H212" s="57"/>
+      <c r="I212" s="57"/>
+      <c r="J212" s="57"/>
+      <c r="K212" s="58"/>
       <c r="M212" s="5"/>
     </row>
     <row r="213" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B213" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C213" s="37"/>
-      <c r="D213" s="38" t="s">
+      <c r="B213" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="55"/>
+      <c r="D213" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="E213" s="39"/>
-      <c r="F213" s="39"/>
-      <c r="G213" s="39"/>
-      <c r="H213" s="39"/>
-      <c r="I213" s="39"/>
-      <c r="J213" s="39"/>
-      <c r="K213" s="40"/>
+      <c r="E213" s="57"/>
+      <c r="F213" s="57"/>
+      <c r="G213" s="57"/>
+      <c r="H213" s="57"/>
+      <c r="I213" s="57"/>
+      <c r="J213" s="57"/>
+      <c r="K213" s="58"/>
       <c r="M213" s="5"/>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.2">
@@ -5104,62 +7729,62 @@
       <c r="M215" s="5"/>
     </row>
     <row r="216" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="41" t="s">
+      <c r="A216" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B216" s="41" t="s">
+      <c r="B216" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C216" s="41"/>
-      <c r="D216" s="41"/>
-      <c r="E216" s="41"/>
-      <c r="F216" s="41"/>
-      <c r="G216" s="67" t="s">
+      <c r="C216" s="59"/>
+      <c r="D216" s="59"/>
+      <c r="E216" s="59"/>
+      <c r="F216" s="59"/>
+      <c r="G216" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="H216" s="68"/>
-      <c r="I216" s="68"/>
-      <c r="J216" s="68"/>
-      <c r="K216" s="68"/>
-      <c r="L216" s="69"/>
-      <c r="M216" s="41" t="s">
+      <c r="H216" s="61"/>
+      <c r="I216" s="61"/>
+      <c r="J216" s="61"/>
+      <c r="K216" s="61"/>
+      <c r="L216" s="62"/>
+      <c r="M216" s="59" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A217" s="41"/>
-      <c r="B217" s="41"/>
-      <c r="C217" s="41"/>
-      <c r="D217" s="41"/>
-      <c r="E217" s="41"/>
-      <c r="F217" s="41"/>
-      <c r="G217" s="70"/>
-      <c r="H217" s="71"/>
-      <c r="I217" s="71"/>
-      <c r="J217" s="71"/>
-      <c r="K217" s="71"/>
-      <c r="L217" s="72"/>
-      <c r="M217" s="41"/>
+      <c r="A217" s="59"/>
+      <c r="B217" s="59"/>
+      <c r="C217" s="59"/>
+      <c r="D217" s="59"/>
+      <c r="E217" s="59"/>
+      <c r="F217" s="59"/>
+      <c r="G217" s="63"/>
+      <c r="H217" s="64"/>
+      <c r="I217" s="64"/>
+      <c r="J217" s="64"/>
+      <c r="K217" s="64"/>
+      <c r="L217" s="65"/>
+      <c r="M217" s="59"/>
     </row>
     <row r="218" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="23">
         <v>1</v>
       </c>
-      <c r="B218" s="35" t="s">
+      <c r="B218" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C218" s="35"/>
-      <c r="D218" s="35"/>
-      <c r="E218" s="35"/>
-      <c r="F218" s="35"/>
-      <c r="G218" s="35" t="s">
+      <c r="C218" s="45"/>
+      <c r="D218" s="45"/>
+      <c r="E218" s="45"/>
+      <c r="F218" s="45"/>
+      <c r="G218" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="H218" s="35"/>
-      <c r="I218" s="35"/>
-      <c r="J218" s="35"/>
-      <c r="K218" s="35"/>
-      <c r="L218" s="35"/>
+      <c r="H218" s="45"/>
+      <c r="I218" s="45"/>
+      <c r="J218" s="45"/>
+      <c r="K218" s="45"/>
+      <c r="L218" s="45"/>
       <c r="M218" s="24" t="s">
         <v>90</v>
       </c>
@@ -5168,21 +7793,21 @@
       <c r="A219" s="23">
         <v>2</v>
       </c>
-      <c r="B219" s="35" t="s">
+      <c r="B219" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="C219" s="35"/>
-      <c r="D219" s="35"/>
-      <c r="E219" s="35"/>
-      <c r="F219" s="35"/>
-      <c r="G219" s="35" t="s">
+      <c r="C219" s="45"/>
+      <c r="D219" s="45"/>
+      <c r="E219" s="45"/>
+      <c r="F219" s="45"/>
+      <c r="G219" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="H219" s="35"/>
-      <c r="I219" s="35"/>
-      <c r="J219" s="35"/>
-      <c r="K219" s="35"/>
-      <c r="L219" s="35"/>
+      <c r="H219" s="45"/>
+      <c r="I219" s="45"/>
+      <c r="J219" s="45"/>
+      <c r="K219" s="45"/>
+      <c r="L219" s="45"/>
       <c r="M219" s="24" t="s">
         <v>90</v>
       </c>
@@ -5191,21 +7816,21 @@
       <c r="A220" s="23">
         <v>3</v>
       </c>
-      <c r="B220" s="35" t="s">
+      <c r="B220" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="C220" s="35"/>
-      <c r="D220" s="35"/>
-      <c r="E220" s="35"/>
-      <c r="F220" s="35"/>
-      <c r="G220" s="35" t="s">
+      <c r="C220" s="45"/>
+      <c r="D220" s="45"/>
+      <c r="E220" s="45"/>
+      <c r="F220" s="45"/>
+      <c r="G220" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="H220" s="35"/>
-      <c r="I220" s="35"/>
-      <c r="J220" s="35"/>
-      <c r="K220" s="35"/>
-      <c r="L220" s="35"/>
+      <c r="H220" s="45"/>
+      <c r="I220" s="45"/>
+      <c r="J220" s="45"/>
+      <c r="K220" s="45"/>
+      <c r="L220" s="45"/>
       <c r="M220" s="24" t="s">
         <v>90</v>
       </c>
@@ -5214,21 +7839,21 @@
       <c r="A221" s="23">
         <v>4</v>
       </c>
-      <c r="B221" s="35" t="s">
+      <c r="B221" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C221" s="35"/>
-      <c r="D221" s="35"/>
-      <c r="E221" s="35"/>
-      <c r="F221" s="35"/>
-      <c r="G221" s="35" t="s">
+      <c r="C221" s="45"/>
+      <c r="D221" s="45"/>
+      <c r="E221" s="45"/>
+      <c r="F221" s="45"/>
+      <c r="G221" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="H221" s="35"/>
-      <c r="I221" s="35"/>
-      <c r="J221" s="35"/>
-      <c r="K221" s="35"/>
-      <c r="L221" s="35"/>
+      <c r="H221" s="45"/>
+      <c r="I221" s="45"/>
+      <c r="J221" s="45"/>
+      <c r="K221" s="45"/>
+      <c r="L221" s="45"/>
       <c r="M221" s="24" t="s">
         <v>90</v>
       </c>
@@ -5237,21 +7862,21 @@
       <c r="A222" s="23">
         <v>5</v>
       </c>
-      <c r="B222" s="35" t="s">
+      <c r="B222" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="C222" s="35"/>
-      <c r="D222" s="35"/>
-      <c r="E222" s="35"/>
-      <c r="F222" s="35"/>
-      <c r="G222" s="35" t="s">
+      <c r="C222" s="45"/>
+      <c r="D222" s="45"/>
+      <c r="E222" s="45"/>
+      <c r="F222" s="45"/>
+      <c r="G222" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="H222" s="35"/>
-      <c r="I222" s="35"/>
-      <c r="J222" s="35"/>
-      <c r="K222" s="35"/>
-      <c r="L222" s="35"/>
+      <c r="H222" s="45"/>
+      <c r="I222" s="45"/>
+      <c r="J222" s="45"/>
+      <c r="K222" s="45"/>
+      <c r="L222" s="45"/>
       <c r="M222" s="24" t="s">
         <v>90</v>
       </c>
@@ -5260,21 +7885,21 @@
       <c r="A223" s="23">
         <v>6</v>
       </c>
-      <c r="B223" s="35" t="s">
+      <c r="B223" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="C223" s="35"/>
-      <c r="D223" s="35"/>
-      <c r="E223" s="35"/>
-      <c r="F223" s="35"/>
-      <c r="G223" s="35" t="s">
+      <c r="C223" s="45"/>
+      <c r="D223" s="45"/>
+      <c r="E223" s="45"/>
+      <c r="F223" s="45"/>
+      <c r="G223" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="H223" s="35"/>
-      <c r="I223" s="35"/>
-      <c r="J223" s="35"/>
-      <c r="K223" s="35"/>
-      <c r="L223" s="35"/>
+      <c r="H223" s="45"/>
+      <c r="I223" s="45"/>
+      <c r="J223" s="45"/>
+      <c r="K223" s="45"/>
+      <c r="L223" s="45"/>
       <c r="M223" s="24" t="s">
         <v>90</v>
       </c>
@@ -5283,21 +7908,21 @@
       <c r="A224" s="23">
         <v>7</v>
       </c>
-      <c r="B224" s="35" t="s">
+      <c r="B224" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="C224" s="35"/>
-      <c r="D224" s="35"/>
-      <c r="E224" s="35"/>
-      <c r="F224" s="35"/>
-      <c r="G224" s="35" t="s">
+      <c r="C224" s="45"/>
+      <c r="D224" s="45"/>
+      <c r="E224" s="45"/>
+      <c r="F224" s="45"/>
+      <c r="G224" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="H224" s="35"/>
-      <c r="I224" s="35"/>
-      <c r="J224" s="35"/>
-      <c r="K224" s="35"/>
-      <c r="L224" s="35"/>
+      <c r="H224" s="45"/>
+      <c r="I224" s="45"/>
+      <c r="J224" s="45"/>
+      <c r="K224" s="45"/>
+      <c r="L224" s="45"/>
       <c r="M224" s="24" t="s">
         <v>90</v>
       </c>
@@ -5306,21 +7931,21 @@
       <c r="A225" s="23">
         <v>8</v>
       </c>
-      <c r="B225" s="35" t="s">
+      <c r="B225" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="C225" s="35"/>
-      <c r="D225" s="35"/>
-      <c r="E225" s="35"/>
-      <c r="F225" s="35"/>
-      <c r="G225" s="35" t="s">
+      <c r="C225" s="45"/>
+      <c r="D225" s="45"/>
+      <c r="E225" s="45"/>
+      <c r="F225" s="45"/>
+      <c r="G225" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="H225" s="35"/>
-      <c r="I225" s="35"/>
-      <c r="J225" s="35"/>
-      <c r="K225" s="35"/>
-      <c r="L225" s="35"/>
+      <c r="H225" s="45"/>
+      <c r="I225" s="45"/>
+      <c r="J225" s="45"/>
+      <c r="K225" s="45"/>
+      <c r="L225" s="45"/>
       <c r="M225" s="24" t="s">
         <v>90</v>
       </c>
@@ -5329,21 +7954,21 @@
       <c r="A226" s="23">
         <v>9</v>
       </c>
-      <c r="B226" s="35" t="s">
+      <c r="B226" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="C226" s="35"/>
-      <c r="D226" s="35"/>
-      <c r="E226" s="35"/>
-      <c r="F226" s="35"/>
-      <c r="G226" s="35" t="s">
+      <c r="C226" s="45"/>
+      <c r="D226" s="45"/>
+      <c r="E226" s="45"/>
+      <c r="F226" s="45"/>
+      <c r="G226" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="H226" s="35"/>
-      <c r="I226" s="35"/>
-      <c r="J226" s="35"/>
-      <c r="K226" s="35"/>
-      <c r="L226" s="35"/>
+      <c r="H226" s="45"/>
+      <c r="I226" s="45"/>
+      <c r="J226" s="45"/>
+      <c r="K226" s="45"/>
+      <c r="L226" s="45"/>
       <c r="M226" s="24" t="s">
         <v>90</v>
       </c>
@@ -5352,21 +7977,21 @@
       <c r="A227" s="23">
         <v>10</v>
       </c>
-      <c r="B227" s="35" t="s">
+      <c r="B227" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="C227" s="35"/>
-      <c r="D227" s="35"/>
-      <c r="E227" s="35"/>
-      <c r="F227" s="35"/>
-      <c r="G227" s="35" t="s">
+      <c r="C227" s="45"/>
+      <c r="D227" s="45"/>
+      <c r="E227" s="45"/>
+      <c r="F227" s="45"/>
+      <c r="G227" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="H227" s="35"/>
-      <c r="I227" s="35"/>
-      <c r="J227" s="35"/>
-      <c r="K227" s="35"/>
-      <c r="L227" s="35"/>
+      <c r="H227" s="45"/>
+      <c r="I227" s="45"/>
+      <c r="J227" s="45"/>
+      <c r="K227" s="45"/>
+      <c r="L227" s="45"/>
       <c r="M227" s="24" t="s">
         <v>90</v>
       </c>
@@ -5375,21 +8000,21 @@
       <c r="A228" s="23">
         <v>11</v>
       </c>
-      <c r="B228" s="35" t="s">
+      <c r="B228" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="C228" s="35"/>
-      <c r="D228" s="35"/>
-      <c r="E228" s="35"/>
-      <c r="F228" s="35"/>
-      <c r="G228" s="35" t="s">
+      <c r="C228" s="45"/>
+      <c r="D228" s="45"/>
+      <c r="E228" s="45"/>
+      <c r="F228" s="45"/>
+      <c r="G228" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="H228" s="35"/>
-      <c r="I228" s="35"/>
-      <c r="J228" s="35"/>
-      <c r="K228" s="35"/>
-      <c r="L228" s="35"/>
+      <c r="H228" s="45"/>
+      <c r="I228" s="45"/>
+      <c r="J228" s="45"/>
+      <c r="K228" s="45"/>
+      <c r="L228" s="45"/>
       <c r="M228" s="24" t="s">
         <v>90</v>
       </c>
@@ -5398,21 +8023,21 @@
       <c r="A229" s="23">
         <v>12</v>
       </c>
-      <c r="B229" s="59" t="s">
+      <c r="B229" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="C229" s="59"/>
-      <c r="D229" s="59"/>
-      <c r="E229" s="59"/>
-      <c r="F229" s="59"/>
-      <c r="G229" s="35" t="s">
+      <c r="C229" s="53"/>
+      <c r="D229" s="53"/>
+      <c r="E229" s="53"/>
+      <c r="F229" s="53"/>
+      <c r="G229" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="H229" s="35"/>
-      <c r="I229" s="35"/>
-      <c r="J229" s="35"/>
-      <c r="K229" s="35"/>
-      <c r="L229" s="35"/>
+      <c r="H229" s="45"/>
+      <c r="I229" s="45"/>
+      <c r="J229" s="45"/>
+      <c r="K229" s="45"/>
+      <c r="L229" s="45"/>
       <c r="M229" s="24" t="s">
         <v>90</v>
       </c>
@@ -5421,21 +8046,21 @@
       <c r="A230" s="23">
         <v>13</v>
       </c>
-      <c r="B230" s="59" t="s">
+      <c r="B230" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="C230" s="59"/>
-      <c r="D230" s="59"/>
-      <c r="E230" s="59"/>
-      <c r="F230" s="59"/>
-      <c r="G230" s="35" t="s">
+      <c r="C230" s="53"/>
+      <c r="D230" s="53"/>
+      <c r="E230" s="53"/>
+      <c r="F230" s="53"/>
+      <c r="G230" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="H230" s="35"/>
-      <c r="I230" s="35"/>
-      <c r="J230" s="35"/>
-      <c r="K230" s="35"/>
-      <c r="L230" s="35"/>
+      <c r="H230" s="45"/>
+      <c r="I230" s="45"/>
+      <c r="J230" s="45"/>
+      <c r="K230" s="45"/>
+      <c r="L230" s="45"/>
       <c r="M230" s="24" t="s">
         <v>90</v>
       </c>
@@ -5444,21 +8069,21 @@
       <c r="A231" s="23">
         <v>14</v>
       </c>
-      <c r="B231" s="35" t="s">
+      <c r="B231" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="C231" s="35"/>
-      <c r="D231" s="35"/>
-      <c r="E231" s="35"/>
-      <c r="F231" s="35"/>
-      <c r="G231" s="35" t="s">
+      <c r="C231" s="45"/>
+      <c r="D231" s="45"/>
+      <c r="E231" s="45"/>
+      <c r="F231" s="45"/>
+      <c r="G231" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="H231" s="35"/>
-      <c r="I231" s="35"/>
-      <c r="J231" s="35"/>
-      <c r="K231" s="35"/>
-      <c r="L231" s="35"/>
+      <c r="H231" s="45"/>
+      <c r="I231" s="45"/>
+      <c r="J231" s="45"/>
+      <c r="K231" s="45"/>
+      <c r="L231" s="45"/>
       <c r="M231" s="24" t="s">
         <v>90</v>
       </c>
@@ -5467,21 +8092,21 @@
       <c r="A232" s="23">
         <v>15</v>
       </c>
-      <c r="B232" s="59" t="s">
+      <c r="B232" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="C232" s="59"/>
-      <c r="D232" s="59"/>
-      <c r="E232" s="59"/>
-      <c r="F232" s="59"/>
-      <c r="G232" s="35" t="s">
+      <c r="C232" s="53"/>
+      <c r="D232" s="53"/>
+      <c r="E232" s="53"/>
+      <c r="F232" s="53"/>
+      <c r="G232" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="H232" s="35"/>
-      <c r="I232" s="35"/>
-      <c r="J232" s="35"/>
-      <c r="K232" s="35"/>
-      <c r="L232" s="35"/>
+      <c r="H232" s="45"/>
+      <c r="I232" s="45"/>
+      <c r="J232" s="45"/>
+      <c r="K232" s="45"/>
+      <c r="L232" s="45"/>
       <c r="M232" s="24" t="s">
         <v>90</v>
       </c>
@@ -5490,21 +8115,21 @@
       <c r="A233" s="23">
         <v>16</v>
       </c>
-      <c r="B233" s="59" t="s">
+      <c r="B233" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="C233" s="59"/>
-      <c r="D233" s="59"/>
-      <c r="E233" s="59"/>
-      <c r="F233" s="59"/>
-      <c r="G233" s="35" t="s">
+      <c r="C233" s="53"/>
+      <c r="D233" s="53"/>
+      <c r="E233" s="53"/>
+      <c r="F233" s="53"/>
+      <c r="G233" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="H233" s="35"/>
-      <c r="I233" s="35"/>
-      <c r="J233" s="35"/>
-      <c r="K233" s="35"/>
-      <c r="L233" s="35"/>
+      <c r="H233" s="45"/>
+      <c r="I233" s="45"/>
+      <c r="J233" s="45"/>
+      <c r="K233" s="45"/>
+      <c r="L233" s="45"/>
       <c r="M233" s="24" t="s">
         <v>90</v>
       </c>
@@ -5513,21 +8138,21 @@
       <c r="A234" s="23">
         <v>17</v>
       </c>
-      <c r="B234" s="35" t="s">
+      <c r="B234" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="C234" s="35"/>
-      <c r="D234" s="35"/>
-      <c r="E234" s="35"/>
-      <c r="F234" s="35"/>
-      <c r="G234" s="35" t="s">
+      <c r="C234" s="45"/>
+      <c r="D234" s="45"/>
+      <c r="E234" s="45"/>
+      <c r="F234" s="45"/>
+      <c r="G234" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="H234" s="35"/>
-      <c r="I234" s="35"/>
-      <c r="J234" s="35"/>
-      <c r="K234" s="35"/>
-      <c r="L234" s="35"/>
+      <c r="H234" s="45"/>
+      <c r="I234" s="45"/>
+      <c r="J234" s="45"/>
+      <c r="K234" s="45"/>
+      <c r="L234" s="45"/>
       <c r="M234" s="24" t="s">
         <v>90</v>
       </c>
@@ -5536,21 +8161,21 @@
       <c r="A235" s="23">
         <v>13</v>
       </c>
-      <c r="B235" s="60" t="s">
+      <c r="B235" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="C235" s="60"/>
-      <c r="D235" s="60"/>
-      <c r="E235" s="60"/>
-      <c r="F235" s="60"/>
-      <c r="G235" s="35" t="s">
+      <c r="C235" s="49"/>
+      <c r="D235" s="49"/>
+      <c r="E235" s="49"/>
+      <c r="F235" s="49"/>
+      <c r="G235" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="H235" s="35"/>
-      <c r="I235" s="35"/>
-      <c r="J235" s="35"/>
-      <c r="K235" s="35"/>
-      <c r="L235" s="35"/>
+      <c r="H235" s="45"/>
+      <c r="I235" s="45"/>
+      <c r="J235" s="45"/>
+      <c r="K235" s="45"/>
+      <c r="L235" s="45"/>
       <c r="M235" s="24" t="s">
         <v>90</v>
       </c>
@@ -5559,21 +8184,21 @@
       <c r="A236" s="23">
         <v>14</v>
       </c>
-      <c r="B236" s="60" t="s">
+      <c r="B236" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="C236" s="60"/>
-      <c r="D236" s="60"/>
-      <c r="E236" s="60"/>
-      <c r="F236" s="60"/>
-      <c r="G236" s="35" t="s">
+      <c r="C236" s="49"/>
+      <c r="D236" s="49"/>
+      <c r="E236" s="49"/>
+      <c r="F236" s="49"/>
+      <c r="G236" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="H236" s="35"/>
-      <c r="I236" s="35"/>
-      <c r="J236" s="35"/>
-      <c r="K236" s="35"/>
-      <c r="L236" s="35"/>
+      <c r="H236" s="45"/>
+      <c r="I236" s="45"/>
+      <c r="J236" s="45"/>
+      <c r="K236" s="45"/>
+      <c r="L236" s="45"/>
       <c r="M236" s="24" t="s">
         <v>90</v>
       </c>
@@ -5582,21 +8207,21 @@
       <c r="A237" s="23">
         <v>15</v>
       </c>
-      <c r="B237" s="62" t="s">
+      <c r="B237" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="C237" s="63"/>
-      <c r="D237" s="63"/>
-      <c r="E237" s="63"/>
-      <c r="F237" s="64"/>
-      <c r="G237" s="35" t="s">
+      <c r="C237" s="51"/>
+      <c r="D237" s="51"/>
+      <c r="E237" s="51"/>
+      <c r="F237" s="52"/>
+      <c r="G237" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="H237" s="35"/>
-      <c r="I237" s="35"/>
-      <c r="J237" s="35"/>
-      <c r="K237" s="35"/>
-      <c r="L237" s="35"/>
+      <c r="H237" s="45"/>
+      <c r="I237" s="45"/>
+      <c r="J237" s="45"/>
+      <c r="K237" s="45"/>
+      <c r="L237" s="45"/>
       <c r="M237" s="24" t="s">
         <v>90</v>
       </c>
@@ -5605,21 +8230,21 @@
       <c r="A238" s="23">
         <v>16</v>
       </c>
-      <c r="B238" s="60" t="s">
+      <c r="B238" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="C238" s="60"/>
-      <c r="D238" s="60"/>
-      <c r="E238" s="60"/>
-      <c r="F238" s="60"/>
-      <c r="G238" s="35" t="s">
+      <c r="C238" s="49"/>
+      <c r="D238" s="49"/>
+      <c r="E238" s="49"/>
+      <c r="F238" s="49"/>
+      <c r="G238" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="H238" s="35"/>
-      <c r="I238" s="35"/>
-      <c r="J238" s="35"/>
-      <c r="K238" s="35"/>
-      <c r="L238" s="35"/>
+      <c r="H238" s="45"/>
+      <c r="I238" s="45"/>
+      <c r="J238" s="45"/>
+      <c r="K238" s="45"/>
+      <c r="L238" s="45"/>
       <c r="M238" s="24" t="s">
         <v>90</v>
       </c>
@@ -5628,21 +8253,21 @@
       <c r="A239" s="23">
         <v>17</v>
       </c>
-      <c r="B239" s="60" t="s">
+      <c r="B239" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="C239" s="60"/>
-      <c r="D239" s="60"/>
-      <c r="E239" s="60"/>
-      <c r="F239" s="60"/>
-      <c r="G239" s="35" t="s">
+      <c r="C239" s="49"/>
+      <c r="D239" s="49"/>
+      <c r="E239" s="49"/>
+      <c r="F239" s="49"/>
+      <c r="G239" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="H239" s="35"/>
-      <c r="I239" s="35"/>
-      <c r="J239" s="35"/>
-      <c r="K239" s="35"/>
-      <c r="L239" s="35"/>
+      <c r="H239" s="45"/>
+      <c r="I239" s="45"/>
+      <c r="J239" s="45"/>
+      <c r="K239" s="45"/>
+      <c r="L239" s="45"/>
       <c r="M239" s="24" t="s">
         <v>90</v>
       </c>
@@ -5651,21 +8276,21 @@
       <c r="A240" s="23">
         <v>18</v>
       </c>
-      <c r="B240" s="66" t="s">
+      <c r="B240" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="C240" s="65"/>
-      <c r="D240" s="65"/>
-      <c r="E240" s="65"/>
-      <c r="F240" s="73"/>
-      <c r="G240" s="35" t="s">
+      <c r="C240" s="47"/>
+      <c r="D240" s="47"/>
+      <c r="E240" s="47"/>
+      <c r="F240" s="48"/>
+      <c r="G240" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="H240" s="35"/>
-      <c r="I240" s="35"/>
-      <c r="J240" s="35"/>
-      <c r="K240" s="35"/>
-      <c r="L240" s="35"/>
+      <c r="H240" s="45"/>
+      <c r="I240" s="45"/>
+      <c r="J240" s="45"/>
+      <c r="K240" s="45"/>
+      <c r="L240" s="45"/>
       <c r="M240" s="31" t="s">
         <v>90</v>
       </c>
@@ -5674,57 +8299,292 @@
       <c r="A241" s="23">
         <v>19</v>
       </c>
-      <c r="B241" s="35" t="s">
+      <c r="B241" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="C241" s="35"/>
-      <c r="D241" s="35"/>
-      <c r="E241" s="35"/>
-      <c r="F241" s="35"/>
-      <c r="G241" s="35" t="s">
+      <c r="C241" s="45"/>
+      <c r="D241" s="45"/>
+      <c r="E241" s="45"/>
+      <c r="F241" s="45"/>
+      <c r="G241" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="H241" s="35"/>
-      <c r="I241" s="35"/>
-      <c r="J241" s="35"/>
-      <c r="K241" s="35"/>
-      <c r="L241" s="35"/>
+      <c r="H241" s="45"/>
+      <c r="I241" s="45"/>
+      <c r="J241" s="45"/>
+      <c r="K241" s="45"/>
+      <c r="L241" s="45"/>
       <c r="M241" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A245" s="50" t="s">
+      <c r="A245" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B245" s="51"/>
-      <c r="C245" s="51"/>
-      <c r="D245" s="51"/>
-      <c r="E245" s="51"/>
-      <c r="F245" s="51"/>
-      <c r="G245" s="51"/>
-      <c r="H245" s="51"/>
-      <c r="I245" s="51"/>
-      <c r="J245" s="51"/>
-      <c r="K245" s="51"/>
-      <c r="L245" s="52"/>
+      <c r="B245" s="40"/>
+      <c r="C245" s="40"/>
+      <c r="D245" s="40"/>
+      <c r="E245" s="40"/>
+      <c r="F245" s="40"/>
+      <c r="G245" s="40"/>
+      <c r="H245" s="40"/>
+      <c r="I245" s="40"/>
+      <c r="J245" s="40"/>
+      <c r="K245" s="40"/>
+      <c r="L245" s="41"/>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A246" s="53"/>
-      <c r="B246" s="54"/>
-      <c r="C246" s="54"/>
-      <c r="D246" s="54"/>
-      <c r="E246" s="54"/>
-      <c r="F246" s="54"/>
-      <c r="G246" s="54"/>
-      <c r="H246" s="54"/>
-      <c r="I246" s="54"/>
-      <c r="J246" s="54"/>
-      <c r="K246" s="54"/>
-      <c r="L246" s="55"/>
+      <c r="A246" s="42"/>
+      <c r="B246" s="43"/>
+      <c r="C246" s="43"/>
+      <c r="D246" s="43"/>
+      <c r="E246" s="43"/>
+      <c r="F246" s="43"/>
+      <c r="G246" s="43"/>
+      <c r="H246" s="43"/>
+      <c r="I246" s="43"/>
+      <c r="J246" s="43"/>
+      <c r="K246" s="43"/>
+      <c r="L246" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="259">
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="G107:L107"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="G104:L104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="G105:L105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="G106:L106"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="G101:L101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="G103:L103"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="G100:L100"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:K89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:K91"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="G97:L97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="G98:L98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="G99:L99"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:K88"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:F96"/>
+    <mergeCell ref="G95:L96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:K92"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="A69:L70"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="G65:L65"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="G64:L64"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="A37:L38"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A111:L112"/>
+    <mergeCell ref="F116:K116"/>
+    <mergeCell ref="F117:K117"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="D130:K130"/>
+    <mergeCell ref="M133:M134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="G135:L135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="G136:L136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="G137:L137"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="G138:L138"/>
+    <mergeCell ref="B133:F134"/>
+    <mergeCell ref="G133:L134"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="G144:L144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="G145:L145"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="A161:L162"/>
+    <mergeCell ref="F166:K166"/>
+    <mergeCell ref="F167:K167"/>
+    <mergeCell ref="H172:K172"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="G139:L139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="G140:L140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="G141:L141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="G142:L142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="G143:L143"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="G157:L157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="G158:L158"/>
+    <mergeCell ref="H173:K173"/>
+    <mergeCell ref="H175:K175"/>
+    <mergeCell ref="H176:K176"/>
+    <mergeCell ref="H177:K177"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="D180:K180"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:F185"/>
+    <mergeCell ref="G184:L185"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="D181:K181"/>
+    <mergeCell ref="M184:M185"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="G186:L186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="G187:L187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="G188:L188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="G189:L189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="G190:L190"/>
+    <mergeCell ref="A194:L195"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="G146:L146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="G147:L147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="G148:L148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="G149:L149"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="G150:L150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="G151:L151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="G152:L152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="G153:L153"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="G155:L155"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="G156:L156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="F199:K199"/>
+    <mergeCell ref="F200:K200"/>
+    <mergeCell ref="H205:K205"/>
+    <mergeCell ref="H206:K206"/>
+    <mergeCell ref="H208:K208"/>
+    <mergeCell ref="H209:K209"/>
+    <mergeCell ref="H210:K210"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="D212:K212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:K213"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="B216:F217"/>
+    <mergeCell ref="G216:L217"/>
+    <mergeCell ref="M216:M217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="G218:L218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="G219:L219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="G220:L220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="G221:L221"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="G222:L222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="G223:L223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="G224:L224"/>
+    <mergeCell ref="G233:L233"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="G234:L234"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="G225:L225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="G226:L226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="G227:L227"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="G228:L228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="G229:L229"/>
     <mergeCell ref="A245:L246"/>
     <mergeCell ref="B241:F241"/>
     <mergeCell ref="G241:L241"/>
@@ -5749,1253 +8609,8 @@
     <mergeCell ref="B232:F232"/>
     <mergeCell ref="G232:L232"/>
     <mergeCell ref="B233:F233"/>
-    <mergeCell ref="G233:L233"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="G234:L234"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="G225:L225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="G226:L226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="G227:L227"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="G228:L228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="G229:L229"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="G220:L220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="G221:L221"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="G222:L222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="G223:L223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="G224:L224"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:K213"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="B216:F217"/>
-    <mergeCell ref="G216:L217"/>
-    <mergeCell ref="M216:M217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="G218:L218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="G219:L219"/>
-    <mergeCell ref="F199:K199"/>
-    <mergeCell ref="F200:K200"/>
-    <mergeCell ref="H205:K205"/>
-    <mergeCell ref="H206:K206"/>
-    <mergeCell ref="H208:K208"/>
-    <mergeCell ref="H209:K209"/>
-    <mergeCell ref="H210:K210"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="D212:K212"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="G190:L190"/>
-    <mergeCell ref="A194:L195"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="G146:L146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="G147:L147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="G148:L148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="G149:L149"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="G150:L150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="G151:L151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="G152:L152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="G153:L153"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="G155:L155"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="G156:L156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="M184:M185"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="G186:L186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="G187:L187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="G188:L188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="G189:L189"/>
-    <mergeCell ref="H173:K173"/>
-    <mergeCell ref="H175:K175"/>
-    <mergeCell ref="H176:K176"/>
-    <mergeCell ref="H177:K177"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="D180:K180"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:F185"/>
-    <mergeCell ref="G184:L185"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="D181:K181"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="G144:L144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="G145:L145"/>
-    <mergeCell ref="H127:K127"/>
-    <mergeCell ref="A161:L162"/>
-    <mergeCell ref="F166:K166"/>
-    <mergeCell ref="F167:K167"/>
-    <mergeCell ref="H172:K172"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="G139:L139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="G140:L140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="G141:L141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="G142:L142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="G143:L143"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="G157:L157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="G158:L158"/>
-    <mergeCell ref="M133:M134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="G135:L135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="G136:L136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="G137:L137"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="G138:L138"/>
-    <mergeCell ref="B133:F134"/>
-    <mergeCell ref="G133:L134"/>
-    <mergeCell ref="A111:L112"/>
-    <mergeCell ref="F116:K116"/>
-    <mergeCell ref="F117:K117"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="H125:K125"/>
-    <mergeCell ref="H126:K126"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="D130:K130"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="A37:L38"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="A69:L70"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="G65:L65"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="G62:L62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="G64:L64"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:K88"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:F96"/>
-    <mergeCell ref="G95:L96"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:K92"/>
-    <mergeCell ref="F74:K74"/>
-    <mergeCell ref="F75:K75"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="G100:L100"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:K89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:K90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:K91"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="G97:L97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="G98:L98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="G99:L99"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="G107:L107"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="G104:L104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="G105:L105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="G106:L106"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="G101:L101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="G103:L103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD90F54-04F9-2948-B228-7AEC85B49338}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4805ACE8-3721-304D-9C9A-16E244B30454}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB14FEB4-33E8-D841-8B65-9CED955CEC0D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C897490-27CA-B94E-89C9-9DC49B971AE2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB72114-158D-AC4B-9339-BCABDBF219D1}">
-  <dimension ref="A1:M79"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:L26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F3" s="26"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="G7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="G8" s="21">
-        <v>1</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="49"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
-        <v>1</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="14"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
-        <v>2</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="14"/>
-      <c r="G10" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="G11" s="21">
-        <v>1</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
-        <v>1</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
-        <v>2</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="52"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="55"/>
-    </row>
-    <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F32" s="26"/>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M33" s="5"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J34" s="14"/>
-      <c r="M34" s="5"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="G36" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="46"/>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="G37" s="21">
-        <v>1</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="49"/>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="27">
-        <v>1</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="G39" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H39" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="46"/>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="G40" s="21">
-        <v>1</v>
-      </c>
-      <c r="H40" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="49"/>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M41" s="5"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M42" s="5"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M43" s="5"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="40"/>
-      <c r="M44" s="5"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M45" s="5"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M46" s="5"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="23">
-        <v>1</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="23">
-        <v>2</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="52"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="53"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="55"/>
-    </row>
-    <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="M59" s="5"/>
-    </row>
-    <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="M60" s="5"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F61" s="26"/>
-      <c r="M61" s="5"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M62" s="5"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H63" s="12"/>
-      <c r="I63" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J63" s="14"/>
-      <c r="M63" s="5"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M64" s="5"/>
-    </row>
-    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="G65" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H65" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="46"/>
-      <c r="M65" s="5"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="20"/>
-      <c r="G66" s="21">
-        <v>1</v>
-      </c>
-      <c r="H66" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="49"/>
-      <c r="M66" s="5"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="27">
-        <v>1</v>
-      </c>
-      <c r="B67" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="30"/>
-      <c r="M67" s="5"/>
-    </row>
-    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="24">
-        <v>2</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="14"/>
-      <c r="G68" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H68" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="I68" s="45"/>
-      <c r="J68" s="45"/>
-      <c r="K68" s="46"/>
-      <c r="M68" s="5"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="G69" s="21">
-        <v>1</v>
-      </c>
-      <c r="H69" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="49"/>
-      <c r="M69" s="5"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M70" s="5"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M71" s="5"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M72" s="5"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B73" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="37"/>
-      <c r="D73" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="40"/>
-      <c r="M73" s="5"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M74" s="5"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M75" s="5"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B76" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="41"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="41"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="23">
-        <v>1</v>
-      </c>
-      <c r="B78" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="23">
-        <v>2</v>
-      </c>
-      <c r="B79" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="A25:L26"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="F59:K59"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:K44"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:F48"/>
-    <mergeCell ref="G47:L48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:L49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="G50:L50"/>
-    <mergeCell ref="A54:L55"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="G78:L78"/>
-    <mergeCell ref="F60:K60"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:K73"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="G79:L79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:F77"/>
-    <mergeCell ref="G76:L77"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
+++ b/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berkozdoruk/Desktop/GitHub/Elixir-Documentation/Test Reports and Test Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC71B62-A805-0041-A269-B046AF94512A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB58835-E9B2-CA45-B778-512C842B0067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="314">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -989,9 +989,6 @@
     <t>Password : 8-256</t>
   </si>
   <si>
-    <t>Latitude: -90-90</t>
-  </si>
-  <si>
     <t>Longtitude: -180-180</t>
   </si>
   <si>
@@ -1004,14 +1001,23 @@
     <t>The user shall be able to stop manual irrigation.</t>
   </si>
   <si>
-    <t>kum tipini de gormeli</t>
+    <t>3. increment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kum tipini de gormeli </t>
+  </si>
+  <si>
+    <t>sayilari degis</t>
+  </si>
+  <si>
+    <t>Latitude: -90- 90</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1111,8 +1117,16 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1139,6 +1153,16 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1351,14 +1375,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1438,11 +1464,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1458,6 +1502,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1480,46 +1530,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1538,18 +1560,36 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="%20 - Vurgu1" xfId="4" builtinId="30"/>
+    <cellStyle name="İyi" xfId="5" builtinId="26"/>
     <cellStyle name="Kötü" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Not" xfId="1" builtinId="10"/>
+    <cellStyle name="Nötr" xfId="6" builtinId="28"/>
     <cellStyle name="Uyarı Metni" xfId="3" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1864,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C81F5F-3812-4B44-AC60-4E873A1B1DD4}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1912,7 +1952,7 @@
       <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="86" t="s">
         <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1932,7 +1972,7 @@
       <c r="D3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="86" t="s">
         <v>50</v>
       </c>
       <c r="F3" s="2"/>
@@ -1950,7 +1990,7 @@
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="86" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="2"/>
@@ -1968,7 +2008,7 @@
       <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="86" t="s">
         <v>52</v>
       </c>
       <c r="F5" s="2"/>
@@ -1986,7 +2026,7 @@
       <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="86" t="s">
         <v>53</v>
       </c>
       <c r="F6" s="2"/>
@@ -2004,10 +2044,12 @@
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -2022,10 +2064,12 @@
       <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="107" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -2040,7 +2084,7 @@
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="86" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="2"/>
@@ -2058,7 +2102,7 @@
       <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="86" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="2"/>
@@ -2076,7 +2120,7 @@
       <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="86" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="2"/>
@@ -2094,7 +2138,7 @@
       <c r="D12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="86" t="s">
         <v>59</v>
       </c>
       <c r="F12" s="2"/>
@@ -2112,7 +2156,7 @@
       <c r="D13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="83" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="2"/>
@@ -2130,7 +2174,7 @@
       <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="83" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="2"/>
@@ -2148,7 +2192,7 @@
       <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="43" t="s">
         <v>63</v>
       </c>
       <c r="F15" s="2"/>
@@ -2166,7 +2210,7 @@
       <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="43" t="s">
         <v>68</v>
       </c>
       <c r="F16" s="2"/>
@@ -2184,7 +2228,7 @@
       <c r="D17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="43" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="2"/>
@@ -2202,7 +2246,7 @@
       <c r="D18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2219,17 +2263,17 @@
       <c r="D19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="43" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="84" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="85" t="s">
         <v>311</v>
       </c>
     </row>
@@ -2256,17 +2300,17 @@
     </row>
     <row r="26" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2289,10 +2333,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB14FEB4-33E8-D841-8B65-9CED955CEC0D}">
-  <dimension ref="A3:M31"/>
+  <dimension ref="A3:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2312,14 +2356,14 @@
         <v>71</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
       <c r="L3" s="42"/>
       <c r="M3" s="5"/>
     </row>
@@ -2335,14 +2379,14 @@
         <v>74</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="42"/>
       <c r="M4" s="5"/>
     </row>
@@ -2424,12 +2468,12 @@
       <c r="G9" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="42"/>
       <c r="M9" s="5"/>
     </row>
@@ -2447,10 +2491,10 @@
       <c r="G10" s="21">
         <v>1</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="64"/>
       <c r="L10" s="42"/>
       <c r="M10" s="5"/>
     </row>
@@ -2487,12 +2531,12 @@
       <c r="G12" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
       <c r="L12" s="42"/>
       <c r="M12" s="5"/>
     </row>
@@ -2506,12 +2550,12 @@
       <c r="G13" s="21">
         <v>1</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
       <c r="L13" s="42"/>
       <c r="M13" s="5"/>
     </row>
@@ -2549,20 +2593,20 @@
       <c r="A16" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="49"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="42"/>
       <c r="M16" s="5"/>
     </row>
@@ -2570,20 +2614,20 @@
       <c r="A17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="55"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -2617,42 +2661,42 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43" t="s">
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
@@ -2815,50 +2859,54 @@
       <c r="M29" s="42"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="47"/>
       <c r="M30" s="42"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="60"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="62"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="50"/>
       <c r="M31" s="42"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>14.15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>310</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="A30:L31"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="B16:C16"/>
@@ -2866,13 +2914,17 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:F21"/>
     <mergeCell ref="G20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="A30:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2884,7 +2936,7 @@
   <dimension ref="A2:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M29"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2901,14 +2953,14 @@
         <v>71</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
       <c r="L2" s="35"/>
       <c r="M2" s="5"/>
     </row>
@@ -2924,14 +2976,14 @@
         <v>74</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="35"/>
       <c r="M3" s="5"/>
     </row>
@@ -3013,12 +3065,12 @@
       <c r="G8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="53"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="35"/>
       <c r="M8" s="5"/>
     </row>
@@ -3036,12 +3088,12 @@
       <c r="G9" s="21">
         <v>1</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="64"/>
       <c r="L9" s="35"/>
       <c r="M9" s="5"/>
     </row>
@@ -3078,12 +3130,12 @@
       <c r="G11" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="35"/>
       <c r="M11" s="5"/>
     </row>
@@ -3097,12 +3149,12 @@
       <c r="G12" s="21">
         <v>1</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
       <c r="L12" s="35"/>
       <c r="M12" s="5"/>
     </row>
@@ -3140,20 +3192,20 @@
       <c r="A15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="35"/>
       <c r="M15" s="5"/>
     </row>
@@ -3188,42 +3240,42 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43" t="s">
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
@@ -3386,35 +3438,35 @@
       <c r="M27" s="35"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="59"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="47"/>
       <c r="M28" s="35"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="60"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="62"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="50"/>
       <c r="M29" s="35"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -3429,14 +3481,14 @@
         <v>71</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="63" t="s">
+      <c r="F33" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
       <c r="L33" s="35"/>
       <c r="M33" s="5"/>
     </row>
@@ -3452,14 +3504,14 @@
         <v>74</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="50" t="s">
+      <c r="F34" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
       <c r="L34" s="35"/>
       <c r="M34" s="5"/>
     </row>
@@ -3541,12 +3593,12 @@
       <c r="G39" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H39" s="51" t="s">
+      <c r="H39" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="53"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="61"/>
       <c r="L39" s="35"/>
       <c r="M39" s="5"/>
     </row>
@@ -3564,12 +3616,12 @@
       <c r="G40" s="21">
         <v>1</v>
       </c>
-      <c r="H40" s="54" t="s">
+      <c r="H40" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="56"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="64"/>
       <c r="L40" s="35"/>
       <c r="M40" s="5"/>
     </row>
@@ -3606,12 +3658,12 @@
       <c r="G42" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H42" s="51" t="s">
+      <c r="H42" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="53"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="61"/>
       <c r="L42" s="35"/>
       <c r="M42" s="5"/>
     </row>
@@ -3625,12 +3677,12 @@
       <c r="G43" s="21">
         <v>1</v>
       </c>
-      <c r="H43" s="54" t="s">
+      <c r="H43" s="62" t="s">
         <v>287</v>
       </c>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="56"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="64"/>
       <c r="L43" s="35"/>
       <c r="M43" s="5"/>
     </row>
@@ -3668,20 +3720,20 @@
       <c r="A46" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="47" t="s">
+      <c r="C46" s="52"/>
+      <c r="D46" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="49"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="55"/>
       <c r="L46" s="35"/>
       <c r="M46" s="5"/>
     </row>
@@ -3716,42 +3768,42 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43" t="s">
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43" t="s">
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="23">
@@ -3778,17 +3830,19 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:F50"/>
+    <mergeCell ref="G49:L50"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
     <mergeCell ref="F33:K33"/>
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="B20:F20"/>
@@ -3802,19 +3856,17 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="A28:L29"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:F50"/>
-    <mergeCell ref="G49:L50"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3842,14 +3894,14 @@
         <v>71</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
       <c r="L3" s="35"/>
       <c r="M3" s="5"/>
     </row>
@@ -3865,14 +3917,14 @@
         <v>74</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="35"/>
       <c r="M4" s="5"/>
     </row>
@@ -3954,12 +4006,12 @@
       <c r="G9" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="35"/>
       <c r="M9" s="5"/>
     </row>
@@ -3977,12 +4029,12 @@
       <c r="G10" s="21">
         <v>1</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="64"/>
       <c r="L10" s="35"/>
       <c r="M10" s="5"/>
     </row>
@@ -4019,12 +4071,12 @@
       <c r="G12" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
       <c r="L12" s="35"/>
       <c r="M12" s="5"/>
     </row>
@@ -4038,12 +4090,12 @@
       <c r="G13" s="21">
         <v>1</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
       <c r="L13" s="35"/>
       <c r="M13" s="5"/>
     </row>
@@ -4057,12 +4109,12 @@
       <c r="G14" s="21">
         <v>1</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
       <c r="L14" s="35"/>
       <c r="M14" s="5"/>
     </row>
@@ -4100,20 +4152,20 @@
       <c r="A17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="55"/>
       <c r="L17" s="35"/>
       <c r="M17" s="5"/>
     </row>
@@ -4121,20 +4173,20 @@
       <c r="A18" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="49"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="35"/>
       <c r="M18" s="5"/>
     </row>
@@ -4169,42 +4221,42 @@
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43" t="s">
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43" t="s">
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
@@ -4367,39 +4419,49 @@
       <c r="M30" s="35"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="47"/>
       <c r="M31" s="35"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="60"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="62"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="50"/>
       <c r="M32" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="B21:F22"/>
+    <mergeCell ref="G21:L22"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="A31:L32"/>
@@ -4412,20 +4474,10 @@
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="G27:L27"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="G25:L25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="B21:F22"/>
-    <mergeCell ref="G21:L22"/>
-    <mergeCell ref="F4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4436,7 +4488,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4475,14 +4527,14 @@
         <v>71</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -4496,14 +4548,14 @@
         <v>74</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -4537,12 +4589,12 @@
       <c r="G7" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -4558,12 +4610,12 @@
       <c r="G8" s="21">
         <v>1</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -4591,12 +4643,12 @@
       <c r="G10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -4604,12 +4656,12 @@
       <c r="G11" s="21">
         <v>1</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4625,20 +4677,20 @@
       <c r="A15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="55"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -4648,42 +4700,42 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43" t="s">
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
@@ -4747,34 +4799,34 @@
       <c r="M22" s="26"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="59"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="47"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="60"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="62"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
     </row>
     <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
@@ -4787,14 +4839,14 @@
         <v>71</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4808,14 +4860,14 @@
         <v>74</v>
       </c>
       <c r="E31" s="10"/>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -4849,12 +4901,12 @@
       <c r="G36" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="51" t="s">
+      <c r="H36" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="61"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -4870,12 +4922,12 @@
       <c r="G37" s="21">
         <v>1</v>
       </c>
-      <c r="H37" s="54" t="s">
+      <c r="H37" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="56"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="64"/>
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -4899,12 +4951,12 @@
       <c r="G39" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H39" s="51" t="s">
+      <c r="H39" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="53"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="61"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4912,12 +4964,12 @@
       <c r="G40" s="21">
         <v>1</v>
       </c>
-      <c r="H40" s="54" t="s">
+      <c r="H40" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="56"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="64"/>
       <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -4933,20 +4985,20 @@
       <c r="A44" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47" t="s">
+      <c r="C44" s="52"/>
+      <c r="D44" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="49"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="55"/>
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -4956,42 +5008,42 @@
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43" t="s">
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43" t="s">
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="23">
@@ -5040,34 +5092,34 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="57" t="s">
+      <c r="A54" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="59"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="47"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="60"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="62"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="50"/>
     </row>
     <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
@@ -5080,14 +5132,14 @@
         <v>71</v>
       </c>
       <c r="E59" s="10"/>
-      <c r="F59" s="63" t="s">
+      <c r="F59" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="63"/>
-      <c r="K59" s="63"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5101,14 +5153,14 @@
         <v>74</v>
       </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="50" t="s">
+      <c r="F60" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
       <c r="M60" s="5"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -5142,12 +5194,12 @@
       <c r="G65" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H65" s="51" t="s">
+      <c r="H65" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="53"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="61"/>
       <c r="M65" s="5"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -5163,12 +5215,12 @@
       <c r="G66" s="21">
         <v>1</v>
       </c>
-      <c r="H66" s="54" t="s">
+      <c r="H66" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="56"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="64"/>
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -5196,12 +5248,12 @@
       <c r="G68" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H68" s="51" t="s">
+      <c r="H68" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="53"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="61"/>
       <c r="M68" s="5"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -5209,10 +5261,10 @@
       <c r="G69" s="21">
         <v>1</v>
       </c>
-      <c r="H69" s="54"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="55"/>
-      <c r="K69" s="56"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="64"/>
       <c r="M69" s="5"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -5228,20 +5280,20 @@
       <c r="A73" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="46"/>
-      <c r="D73" s="47" t="s">
+      <c r="C73" s="52"/>
+      <c r="D73" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48"/>
-      <c r="K73" s="49"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="55"/>
       <c r="M73" s="5"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -5251,42 +5303,42 @@
       <c r="M75" s="5"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43" t="s">
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43" t="s">
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
+      <c r="A77" s="56"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="56"/>
+      <c r="M77" s="56"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="23">
@@ -5364,30 +5416,23 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="A25:L26"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="G79:L79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:F77"/>
+    <mergeCell ref="G76:L77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="F60:K60"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:K73"/>
     <mergeCell ref="F59:K59"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:K44"/>
@@ -5399,23 +5444,30 @@
     <mergeCell ref="B50:F50"/>
     <mergeCell ref="G50:L50"/>
     <mergeCell ref="A54:L55"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="G78:L78"/>
-    <mergeCell ref="F60:K60"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:K73"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="G79:L79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:F77"/>
-    <mergeCell ref="G76:L77"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="A25:L26"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5425,8 +5477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D5A933-5288-C94E-BF55-FF09BD47810B}">
   <dimension ref="A1:M246"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181:C181"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="O156" sqref="O156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5445,14 +5497,14 @@
         <v>71</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -5466,14 +5518,14 @@
         <v>74</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -5507,12 +5559,12 @@
       <c r="G7" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -5528,12 +5580,12 @@
       <c r="G8" s="21">
         <v>1</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -5561,12 +5613,12 @@
       <c r="G10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -5574,12 +5626,12 @@
       <c r="G11" s="21">
         <v>1</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -5595,20 +5647,20 @@
       <c r="A15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="55"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -5618,42 +5670,42 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43" t="s">
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
@@ -5728,21 +5780,21 @@
       <c r="A23" s="23">
         <v>4</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="64" t="s">
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="66"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="82"/>
       <c r="M23" s="24" t="s">
         <v>89</v>
       </c>
@@ -5751,21 +5803,21 @@
       <c r="A24" s="23">
         <v>5</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="64" t="s">
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="82"/>
       <c r="M24" s="24" t="s">
         <v>89</v>
       </c>
@@ -5774,21 +5826,21 @@
       <c r="A25" s="23">
         <v>6</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="64" t="s">
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="66"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="82"/>
       <c r="M25" s="24" t="s">
         <v>89</v>
       </c>
@@ -5797,21 +5849,21 @@
       <c r="A26" s="23">
         <v>7</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="64" t="s">
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="82"/>
       <c r="M26" s="24" t="s">
         <v>89</v>
       </c>
@@ -5820,21 +5872,21 @@
       <c r="A27" s="23">
         <v>8</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="64" t="s">
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="66"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="82"/>
       <c r="M27" s="31" t="s">
         <v>89</v>
       </c>
@@ -5843,21 +5895,21 @@
       <c r="A28" s="23">
         <v>9</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="64" t="s">
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="66"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="82"/>
       <c r="M28" s="31" t="s">
         <v>89</v>
       </c>
@@ -5866,21 +5918,21 @@
       <c r="A29" s="23">
         <v>10</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="64" t="s">
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="66"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="82"/>
       <c r="M29" s="31" t="s">
         <v>89</v>
       </c>
@@ -5889,21 +5941,21 @@
       <c r="A30" s="23">
         <v>11</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="64" t="s">
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="66"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="82"/>
       <c r="M30" s="31" t="s">
         <v>89</v>
       </c>
@@ -5912,21 +5964,21 @@
       <c r="A31" s="23">
         <v>12</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="64" t="s">
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="66"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="82"/>
       <c r="M31" s="31" t="s">
         <v>89</v>
       </c>
@@ -5935,21 +5987,21 @@
       <c r="A32" s="23">
         <v>13</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="64" t="s">
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="66"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="82"/>
       <c r="M32" s="31" t="s">
         <v>89</v>
       </c>
@@ -5958,54 +6010,54 @@
       <c r="A33" s="23">
         <v>14</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="64" t="s">
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="66"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="82"/>
       <c r="M33" s="31" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="59"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="47"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="60"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="62"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="50"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
@@ -6018,14 +6070,14 @@
         <v>71</v>
       </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="63" t="s">
+      <c r="F42" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -6039,14 +6091,14 @@
         <v>74</v>
       </c>
       <c r="E43" s="10"/>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -6080,12 +6132,12 @@
       <c r="G48" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H48" s="51" t="s">
+      <c r="H48" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="53"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="61"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -6101,12 +6153,12 @@
       <c r="G49" s="21">
         <v>1</v>
       </c>
-      <c r="H49" s="54" t="s">
+      <c r="H49" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="56"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="64"/>
       <c r="M49" s="5"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -6134,12 +6186,12 @@
       <c r="G51" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="51" t="s">
+      <c r="H51" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="53"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="61"/>
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -6147,12 +6199,12 @@
       <c r="G52" s="21">
         <v>1</v>
       </c>
-      <c r="H52" s="54" t="s">
+      <c r="H52" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="56"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="64"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -6168,20 +6220,20 @@
       <c r="A56" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="46"/>
-      <c r="D56" s="47" t="s">
+      <c r="C56" s="52"/>
+      <c r="D56" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="49"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="55"/>
       <c r="M56" s="5"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -6191,42 +6243,42 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43" t="s">
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43" t="s">
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="56"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="23">
@@ -6344,34 +6396,34 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="57" t="s">
+      <c r="A69" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="58"/>
-      <c r="K69" s="58"/>
-      <c r="L69" s="59"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="47"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="60"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="62"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="50"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
@@ -6384,14 +6436,14 @@
         <v>71</v>
       </c>
       <c r="E74" s="10"/>
-      <c r="F74" s="63" t="s">
+      <c r="F74" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="63"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="57"/>
       <c r="M74" s="5"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -6405,14 +6457,14 @@
         <v>74</v>
       </c>
       <c r="E75" s="10"/>
-      <c r="F75" s="50" t="s">
+      <c r="F75" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="50"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="58"/>
+      <c r="J75" s="58"/>
+      <c r="K75" s="58"/>
       <c r="M75" s="5"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -6446,12 +6498,12 @@
       <c r="G80" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H80" s="51" t="s">
+      <c r="H80" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I80" s="52"/>
-      <c r="J80" s="52"/>
-      <c r="K80" s="53"/>
+      <c r="I80" s="60"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="61"/>
       <c r="M80" s="5"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -6467,12 +6519,12 @@
       <c r="G81" s="21">
         <v>1</v>
       </c>
-      <c r="H81" s="54" t="s">
+      <c r="H81" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="56"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="64"/>
       <c r="M81" s="5"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -6500,12 +6552,12 @@
       <c r="G83" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H83" s="51" t="s">
+      <c r="H83" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="I83" s="52"/>
-      <c r="J83" s="52"/>
-      <c r="K83" s="53"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="61"/>
       <c r="M83" s="5"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -6513,12 +6565,12 @@
       <c r="G84" s="21">
         <v>1</v>
       </c>
-      <c r="H84" s="54" t="s">
+      <c r="H84" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="I84" s="55"/>
-      <c r="J84" s="55"/>
-      <c r="K84" s="56"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="63"/>
+      <c r="K84" s="64"/>
       <c r="M84" s="5"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -6534,100 +6586,100 @@
       <c r="A88" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="46"/>
-      <c r="D88" s="47" t="s">
+      <c r="C88" s="52"/>
+      <c r="D88" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="48"/>
-      <c r="K88" s="49"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="54"/>
+      <c r="K88" s="55"/>
       <c r="M88" s="5"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B89" s="45" t="s">
+      <c r="B89" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="46"/>
-      <c r="D89" s="47" t="s">
+      <c r="C89" s="52"/>
+      <c r="D89" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="48"/>
-      <c r="J89" s="48"/>
-      <c r="K89" s="49"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="54"/>
+      <c r="J89" s="54"/>
+      <c r="K89" s="55"/>
       <c r="M89" s="5"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="46"/>
-      <c r="D90" s="47" t="s">
+      <c r="C90" s="52"/>
+      <c r="D90" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="48"/>
-      <c r="J90" s="48"/>
-      <c r="K90" s="49"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="55"/>
       <c r="M90" s="5"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="46"/>
-      <c r="D91" s="47" t="s">
+      <c r="C91" s="52"/>
+      <c r="D91" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="E91" s="48"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="48"/>
-      <c r="H91" s="48"/>
-      <c r="I91" s="48"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="49"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="54"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="55"/>
       <c r="M91" s="5"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B92" s="45" t="s">
+      <c r="B92" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="46"/>
-      <c r="D92" s="47" t="s">
+      <c r="C92" s="52"/>
+      <c r="D92" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="49"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="55"/>
       <c r="M92" s="5"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -6648,42 +6700,42 @@
       <c r="M94" s="5"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="43" t="s">
+      <c r="A95" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B95" s="43" t="s">
+      <c r="B95" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43" t="s">
+      <c r="C95" s="56"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="43"/>
-      <c r="K95" s="43"/>
-      <c r="L95" s="43"/>
-      <c r="M95" s="43" t="s">
+      <c r="H95" s="56"/>
+      <c r="I95" s="56"/>
+      <c r="J95" s="56"/>
+      <c r="K95" s="56"/>
+      <c r="L95" s="56"/>
+      <c r="M95" s="56" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43"/>
-      <c r="K96" s="43"/>
-      <c r="L96" s="43"/>
-      <c r="M96" s="43"/>
+      <c r="A96" s="56"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="56"/>
+      <c r="J96" s="56"/>
+      <c r="K96" s="56"/>
+      <c r="L96" s="56"/>
+      <c r="M96" s="56"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="23">
@@ -6939,34 +6991,34 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A111" s="57" t="s">
+      <c r="A111" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="58"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="58"/>
-      <c r="H111" s="58"/>
-      <c r="I111" s="58"/>
-      <c r="J111" s="58"/>
-      <c r="K111" s="58"/>
-      <c r="L111" s="59"/>
+      <c r="B111" s="46"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="46"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="46"/>
+      <c r="J111" s="46"/>
+      <c r="K111" s="46"/>
+      <c r="L111" s="47"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A112" s="60"/>
-      <c r="B112" s="61"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="61"/>
-      <c r="E112" s="61"/>
-      <c r="F112" s="61"/>
-      <c r="G112" s="61"/>
-      <c r="H112" s="61"/>
-      <c r="I112" s="61"/>
-      <c r="J112" s="61"/>
-      <c r="K112" s="61"/>
-      <c r="L112" s="62"/>
+      <c r="A112" s="48"/>
+      <c r="B112" s="49"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="49"/>
+      <c r="I112" s="49"/>
+      <c r="J112" s="49"/>
+      <c r="K112" s="49"/>
+      <c r="L112" s="50"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
@@ -6979,14 +7031,14 @@
         <v>71</v>
       </c>
       <c r="E116" s="10"/>
-      <c r="F116" s="63" t="s">
+      <c r="F116" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="G116" s="63"/>
-      <c r="H116" s="63"/>
-      <c r="I116" s="63"/>
-      <c r="J116" s="63"/>
-      <c r="K116" s="63"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
       <c r="M116" s="5"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -7000,14 +7052,14 @@
         <v>74</v>
       </c>
       <c r="E117" s="10"/>
-      <c r="F117" s="50" t="s">
+      <c r="F117" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="G117" s="50"/>
-      <c r="H117" s="50"/>
-      <c r="I117" s="50"/>
-      <c r="J117" s="50"/>
-      <c r="K117" s="50"/>
+      <c r="G117" s="58"/>
+      <c r="H117" s="58"/>
+      <c r="I117" s="58"/>
+      <c r="J117" s="58"/>
+      <c r="K117" s="58"/>
       <c r="M117" s="5"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -7041,12 +7093,12 @@
       <c r="G122" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H122" s="51" t="s">
+      <c r="H122" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I122" s="52"/>
-      <c r="J122" s="52"/>
-      <c r="K122" s="53"/>
+      <c r="I122" s="60"/>
+      <c r="J122" s="60"/>
+      <c r="K122" s="61"/>
       <c r="M122" s="5"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -7062,12 +7114,12 @@
       <c r="G123" s="21">
         <v>1</v>
       </c>
-      <c r="H123" s="54" t="s">
+      <c r="H123" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="I123" s="55"/>
-      <c r="J123" s="55"/>
-      <c r="K123" s="56"/>
+      <c r="I123" s="63"/>
+      <c r="J123" s="63"/>
+      <c r="K123" s="64"/>
       <c r="M123" s="5"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -7095,12 +7147,12 @@
       <c r="G125" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H125" s="51" t="s">
+      <c r="H125" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="I125" s="52"/>
-      <c r="J125" s="52"/>
-      <c r="K125" s="53"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="61"/>
       <c r="M125" s="5"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -7108,24 +7160,24 @@
       <c r="G126" s="21">
         <v>1</v>
       </c>
-      <c r="H126" s="54" t="s">
+      <c r="H126" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="I126" s="55"/>
-      <c r="J126" s="55"/>
-      <c r="K126" s="56"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="64"/>
       <c r="M126" s="5"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G127" s="21">
         <v>1</v>
       </c>
-      <c r="H127" s="54" t="s">
+      <c r="H127" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="I127" s="55"/>
-      <c r="J127" s="55"/>
-      <c r="K127" s="56"/>
+      <c r="I127" s="63"/>
+      <c r="J127" s="63"/>
+      <c r="K127" s="64"/>
       <c r="M127" s="5"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -7138,20 +7190,20 @@
       <c r="A130" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B130" s="45" t="s">
+      <c r="B130" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C130" s="46"/>
-      <c r="D130" s="47" t="s">
+      <c r="C130" s="52"/>
+      <c r="D130" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="E130" s="48"/>
-      <c r="F130" s="48"/>
-      <c r="G130" s="48"/>
-      <c r="H130" s="48"/>
-      <c r="I130" s="48"/>
-      <c r="J130" s="48"/>
-      <c r="K130" s="49"/>
+      <c r="E130" s="54"/>
+      <c r="F130" s="54"/>
+      <c r="G130" s="54"/>
+      <c r="H130" s="54"/>
+      <c r="I130" s="54"/>
+      <c r="J130" s="54"/>
+      <c r="K130" s="55"/>
       <c r="M130" s="5"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -7172,42 +7224,42 @@
       <c r="M132" s="5"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A133" s="43" t="s">
+      <c r="A133" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B133" s="43" t="s">
+      <c r="B133" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C133" s="43"/>
-      <c r="D133" s="43"/>
-      <c r="E133" s="43"/>
-      <c r="F133" s="43"/>
-      <c r="G133" s="43" t="s">
+      <c r="C133" s="56"/>
+      <c r="D133" s="56"/>
+      <c r="E133" s="56"/>
+      <c r="F133" s="56"/>
+      <c r="G133" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H133" s="43"/>
-      <c r="I133" s="43"/>
-      <c r="J133" s="43"/>
-      <c r="K133" s="43"/>
-      <c r="L133" s="43"/>
-      <c r="M133" s="43" t="s">
+      <c r="H133" s="56"/>
+      <c r="I133" s="56"/>
+      <c r="J133" s="56"/>
+      <c r="K133" s="56"/>
+      <c r="L133" s="56"/>
+      <c r="M133" s="56" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A134" s="43"/>
-      <c r="B134" s="43"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="43"/>
-      <c r="E134" s="43"/>
-      <c r="F134" s="43"/>
-      <c r="G134" s="43"/>
-      <c r="H134" s="43"/>
-      <c r="I134" s="43"/>
-      <c r="J134" s="43"/>
-      <c r="K134" s="43"/>
-      <c r="L134" s="43"/>
-      <c r="M134" s="43"/>
+      <c r="A134" s="56"/>
+      <c r="B134" s="56"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="56"/>
+      <c r="E134" s="56"/>
+      <c r="F134" s="56"/>
+      <c r="G134" s="56"/>
+      <c r="H134" s="56"/>
+      <c r="I134" s="56"/>
+      <c r="J134" s="56"/>
+      <c r="K134" s="56"/>
+      <c r="L134" s="56"/>
+      <c r="M134" s="56"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="23">
@@ -7420,13 +7472,13 @@
       <c r="A144" s="23">
         <v>10</v>
       </c>
-      <c r="B144" s="67" t="s">
+      <c r="B144" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="C144" s="67"/>
-      <c r="D144" s="67"/>
-      <c r="E144" s="67"/>
-      <c r="F144" s="67"/>
+      <c r="C144" s="72"/>
+      <c r="D144" s="72"/>
+      <c r="E144" s="72"/>
+      <c r="F144" s="72"/>
       <c r="G144" s="44" t="s">
         <v>217</v>
       </c>
@@ -7443,13 +7495,13 @@
       <c r="A145" s="23">
         <v>11</v>
       </c>
-      <c r="B145" s="67" t="s">
+      <c r="B145" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="C145" s="67"/>
-      <c r="D145" s="67"/>
-      <c r="E145" s="67"/>
-      <c r="F145" s="67"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
       <c r="G145" s="44" t="s">
         <v>217</v>
       </c>
@@ -7489,13 +7541,13 @@
       <c r="A147" s="23">
         <v>10</v>
       </c>
-      <c r="B147" s="67" t="s">
+      <c r="B147" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="C147" s="67"/>
-      <c r="D147" s="67"/>
-      <c r="E147" s="67"/>
-      <c r="F147" s="67"/>
+      <c r="C147" s="72"/>
+      <c r="D147" s="72"/>
+      <c r="E147" s="72"/>
+      <c r="F147" s="72"/>
       <c r="G147" s="44" t="s">
         <v>217</v>
       </c>
@@ -7512,13 +7564,13 @@
       <c r="A148" s="23">
         <v>11</v>
       </c>
-      <c r="B148" s="67" t="s">
+      <c r="B148" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="C148" s="67"/>
-      <c r="D148" s="67"/>
-      <c r="E148" s="67"/>
-      <c r="F148" s="67"/>
+      <c r="C148" s="72"/>
+      <c r="D148" s="72"/>
+      <c r="E148" s="72"/>
+      <c r="F148" s="72"/>
       <c r="G148" s="44" t="s">
         <v>217</v>
       </c>
@@ -7673,13 +7725,13 @@
       <c r="A155" s="23">
         <v>18</v>
       </c>
-      <c r="B155" s="72" t="s">
+      <c r="B155" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="C155" s="72"/>
-      <c r="D155" s="72"/>
-      <c r="E155" s="72"/>
-      <c r="F155" s="72"/>
+      <c r="C155" s="79"/>
+      <c r="D155" s="79"/>
+      <c r="E155" s="79"/>
+      <c r="F155" s="79"/>
       <c r="G155" s="44" t="s">
         <v>205</v>
       </c>
@@ -7762,34 +7814,34 @@
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A161" s="57" t="s">
+      <c r="A161" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B161" s="58"/>
-      <c r="C161" s="58"/>
-      <c r="D161" s="58"/>
-      <c r="E161" s="58"/>
-      <c r="F161" s="58"/>
-      <c r="G161" s="58"/>
-      <c r="H161" s="58"/>
-      <c r="I161" s="58"/>
-      <c r="J161" s="58"/>
-      <c r="K161" s="58"/>
-      <c r="L161" s="59"/>
+      <c r="B161" s="46"/>
+      <c r="C161" s="46"/>
+      <c r="D161" s="46"/>
+      <c r="E161" s="46"/>
+      <c r="F161" s="46"/>
+      <c r="G161" s="46"/>
+      <c r="H161" s="46"/>
+      <c r="I161" s="46"/>
+      <c r="J161" s="46"/>
+      <c r="K161" s="46"/>
+      <c r="L161" s="47"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A162" s="60"/>
-      <c r="B162" s="61"/>
-      <c r="C162" s="61"/>
-      <c r="D162" s="61"/>
-      <c r="E162" s="61"/>
-      <c r="F162" s="61"/>
-      <c r="G162" s="61"/>
-      <c r="H162" s="61"/>
-      <c r="I162" s="61"/>
-      <c r="J162" s="61"/>
-      <c r="K162" s="61"/>
-      <c r="L162" s="62"/>
+      <c r="A162" s="48"/>
+      <c r="B162" s="49"/>
+      <c r="C162" s="49"/>
+      <c r="D162" s="49"/>
+      <c r="E162" s="49"/>
+      <c r="F162" s="49"/>
+      <c r="G162" s="49"/>
+      <c r="H162" s="49"/>
+      <c r="I162" s="49"/>
+      <c r="J162" s="49"/>
+      <c r="K162" s="49"/>
+      <c r="L162" s="50"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
@@ -7802,14 +7854,14 @@
         <v>71</v>
       </c>
       <c r="E166" s="10"/>
-      <c r="F166" s="63" t="s">
+      <c r="F166" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="G166" s="63"/>
-      <c r="H166" s="63"/>
-      <c r="I166" s="63"/>
-      <c r="J166" s="63"/>
-      <c r="K166" s="63"/>
+      <c r="G166" s="57"/>
+      <c r="H166" s="57"/>
+      <c r="I166" s="57"/>
+      <c r="J166" s="57"/>
+      <c r="K166" s="57"/>
       <c r="M166" s="5"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
@@ -7823,14 +7875,14 @@
         <v>74</v>
       </c>
       <c r="E167" s="10"/>
-      <c r="F167" s="50" t="s">
+      <c r="F167" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="G167" s="50"/>
-      <c r="H167" s="50"/>
-      <c r="I167" s="50"/>
-      <c r="J167" s="50"/>
-      <c r="K167" s="50"/>
+      <c r="G167" s="58"/>
+      <c r="H167" s="58"/>
+      <c r="I167" s="58"/>
+      <c r="J167" s="58"/>
+      <c r="K167" s="58"/>
       <c r="M167" s="5"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
@@ -7864,12 +7916,12 @@
       <c r="G172" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H172" s="51" t="s">
+      <c r="H172" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I172" s="52"/>
-      <c r="J172" s="52"/>
-      <c r="K172" s="53"/>
+      <c r="I172" s="60"/>
+      <c r="J172" s="60"/>
+      <c r="K172" s="61"/>
       <c r="M172" s="5"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
@@ -7885,12 +7937,12 @@
       <c r="G173" s="21">
         <v>1</v>
       </c>
-      <c r="H173" s="54" t="s">
+      <c r="H173" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="I173" s="55"/>
-      <c r="J173" s="55"/>
-      <c r="K173" s="56"/>
+      <c r="I173" s="63"/>
+      <c r="J173" s="63"/>
+      <c r="K173" s="64"/>
       <c r="M173" s="5"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -7918,12 +7970,12 @@
       <c r="G175" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H175" s="51" t="s">
+      <c r="H175" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="I175" s="52"/>
-      <c r="J175" s="52"/>
-      <c r="K175" s="53"/>
+      <c r="I175" s="60"/>
+      <c r="J175" s="60"/>
+      <c r="K175" s="61"/>
       <c r="M175" s="5"/>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
@@ -7931,24 +7983,24 @@
       <c r="G176" s="21">
         <v>1</v>
       </c>
-      <c r="H176" s="54" t="s">
+      <c r="H176" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="I176" s="55"/>
-      <c r="J176" s="55"/>
-      <c r="K176" s="56"/>
+      <c r="I176" s="63"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="64"/>
       <c r="M176" s="5"/>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G177" s="21">
         <v>1</v>
       </c>
-      <c r="H177" s="54" t="s">
+      <c r="H177" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="I177" s="55"/>
-      <c r="J177" s="55"/>
-      <c r="K177" s="56"/>
+      <c r="I177" s="63"/>
+      <c r="J177" s="63"/>
+      <c r="K177" s="64"/>
       <c r="M177" s="5"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
@@ -7961,40 +8013,40 @@
       <c r="A180" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B180" s="45" t="s">
+      <c r="B180" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C180" s="46"/>
-      <c r="D180" s="47" t="s">
+      <c r="C180" s="52"/>
+      <c r="D180" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="E180" s="48"/>
-      <c r="F180" s="48"/>
-      <c r="G180" s="48"/>
-      <c r="H180" s="48"/>
-      <c r="I180" s="48"/>
-      <c r="J180" s="48"/>
-      <c r="K180" s="49"/>
+      <c r="E180" s="54"/>
+      <c r="F180" s="54"/>
+      <c r="G180" s="54"/>
+      <c r="H180" s="54"/>
+      <c r="I180" s="54"/>
+      <c r="J180" s="54"/>
+      <c r="K180" s="55"/>
       <c r="M180" s="5"/>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B181" s="45" t="s">
+      <c r="B181" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C181" s="46"/>
-      <c r="D181" s="47" t="s">
+      <c r="C181" s="52"/>
+      <c r="D181" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="E181" s="48"/>
-      <c r="F181" s="48"/>
-      <c r="G181" s="48"/>
-      <c r="H181" s="48"/>
-      <c r="I181" s="48"/>
-      <c r="J181" s="48"/>
-      <c r="K181" s="49"/>
+      <c r="E181" s="54"/>
+      <c r="F181" s="54"/>
+      <c r="G181" s="54"/>
+      <c r="H181" s="54"/>
+      <c r="I181" s="54"/>
+      <c r="J181" s="54"/>
+      <c r="K181" s="55"/>
       <c r="M181" s="5"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
@@ -8015,42 +8067,42 @@
       <c r="M183" s="5"/>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A184" s="43" t="s">
+      <c r="A184" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B184" s="43" t="s">
+      <c r="B184" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C184" s="43"/>
-      <c r="D184" s="43"/>
-      <c r="E184" s="43"/>
-      <c r="F184" s="43"/>
-      <c r="G184" s="43" t="s">
+      <c r="C184" s="56"/>
+      <c r="D184" s="56"/>
+      <c r="E184" s="56"/>
+      <c r="F184" s="56"/>
+      <c r="G184" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H184" s="43"/>
-      <c r="I184" s="43"/>
-      <c r="J184" s="43"/>
-      <c r="K184" s="43"/>
-      <c r="L184" s="43"/>
-      <c r="M184" s="43" t="s">
+      <c r="H184" s="56"/>
+      <c r="I184" s="56"/>
+      <c r="J184" s="56"/>
+      <c r="K184" s="56"/>
+      <c r="L184" s="56"/>
+      <c r="M184" s="56" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A185" s="43"/>
-      <c r="B185" s="43"/>
-      <c r="C185" s="43"/>
-      <c r="D185" s="43"/>
-      <c r="E185" s="43"/>
-      <c r="F185" s="43"/>
-      <c r="G185" s="43"/>
-      <c r="H185" s="43"/>
-      <c r="I185" s="43"/>
-      <c r="J185" s="43"/>
-      <c r="K185" s="43"/>
-      <c r="L185" s="43"/>
-      <c r="M185" s="43"/>
+      <c r="A185" s="56"/>
+      <c r="B185" s="56"/>
+      <c r="C185" s="56"/>
+      <c r="D185" s="56"/>
+      <c r="E185" s="56"/>
+      <c r="F185" s="56"/>
+      <c r="G185" s="56"/>
+      <c r="H185" s="56"/>
+      <c r="I185" s="56"/>
+      <c r="J185" s="56"/>
+      <c r="K185" s="56"/>
+      <c r="L185" s="56"/>
+      <c r="M185" s="56"/>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="23">
@@ -8168,34 +8220,34 @@
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A194" s="57" t="s">
+      <c r="A194" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B194" s="58"/>
-      <c r="C194" s="58"/>
-      <c r="D194" s="58"/>
-      <c r="E194" s="58"/>
-      <c r="F194" s="58"/>
-      <c r="G194" s="58"/>
-      <c r="H194" s="58"/>
-      <c r="I194" s="58"/>
-      <c r="J194" s="58"/>
-      <c r="K194" s="58"/>
-      <c r="L194" s="59"/>
+      <c r="B194" s="46"/>
+      <c r="C194" s="46"/>
+      <c r="D194" s="46"/>
+      <c r="E194" s="46"/>
+      <c r="F194" s="46"/>
+      <c r="G194" s="46"/>
+      <c r="H194" s="46"/>
+      <c r="I194" s="46"/>
+      <c r="J194" s="46"/>
+      <c r="K194" s="46"/>
+      <c r="L194" s="47"/>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A195" s="60"/>
-      <c r="B195" s="61"/>
-      <c r="C195" s="61"/>
-      <c r="D195" s="61"/>
-      <c r="E195" s="61"/>
-      <c r="F195" s="61"/>
-      <c r="G195" s="61"/>
-      <c r="H195" s="61"/>
-      <c r="I195" s="61"/>
-      <c r="J195" s="61"/>
-      <c r="K195" s="61"/>
-      <c r="L195" s="62"/>
+      <c r="A195" s="48"/>
+      <c r="B195" s="49"/>
+      <c r="C195" s="49"/>
+      <c r="D195" s="49"/>
+      <c r="E195" s="49"/>
+      <c r="F195" s="49"/>
+      <c r="G195" s="49"/>
+      <c r="H195" s="49"/>
+      <c r="I195" s="49"/>
+      <c r="J195" s="49"/>
+      <c r="K195" s="49"/>
+      <c r="L195" s="50"/>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
@@ -8208,14 +8260,14 @@
         <v>71</v>
       </c>
       <c r="E199" s="10"/>
-      <c r="F199" s="63" t="s">
+      <c r="F199" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="G199" s="63"/>
-      <c r="H199" s="63"/>
-      <c r="I199" s="63"/>
-      <c r="J199" s="63"/>
-      <c r="K199" s="63"/>
+      <c r="G199" s="57"/>
+      <c r="H199" s="57"/>
+      <c r="I199" s="57"/>
+      <c r="J199" s="57"/>
+      <c r="K199" s="57"/>
       <c r="M199" s="5"/>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
@@ -8229,14 +8281,14 @@
         <v>74</v>
       </c>
       <c r="E200" s="10"/>
-      <c r="F200" s="50" t="s">
+      <c r="F200" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="G200" s="50"/>
-      <c r="H200" s="50"/>
-      <c r="I200" s="50"/>
-      <c r="J200" s="50"/>
-      <c r="K200" s="50"/>
+      <c r="G200" s="58"/>
+      <c r="H200" s="58"/>
+      <c r="I200" s="58"/>
+      <c r="J200" s="58"/>
+      <c r="K200" s="58"/>
       <c r="M200" s="5"/>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
@@ -8270,12 +8322,12 @@
       <c r="G205" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H205" s="51" t="s">
+      <c r="H205" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I205" s="52"/>
-      <c r="J205" s="52"/>
-      <c r="K205" s="53"/>
+      <c r="I205" s="60"/>
+      <c r="J205" s="60"/>
+      <c r="K205" s="61"/>
       <c r="M205" s="5"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
@@ -8291,12 +8343,12 @@
       <c r="G206" s="21">
         <v>1</v>
       </c>
-      <c r="H206" s="54" t="s">
+      <c r="H206" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="I206" s="55"/>
-      <c r="J206" s="55"/>
-      <c r="K206" s="56"/>
+      <c r="I206" s="63"/>
+      <c r="J206" s="63"/>
+      <c r="K206" s="64"/>
       <c r="M206" s="5"/>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.2">
@@ -8324,12 +8376,12 @@
       <c r="G208" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H208" s="51" t="s">
+      <c r="H208" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="I208" s="52"/>
-      <c r="J208" s="52"/>
-      <c r="K208" s="53"/>
+      <c r="I208" s="60"/>
+      <c r="J208" s="60"/>
+      <c r="K208" s="61"/>
       <c r="M208" s="5"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
@@ -8337,24 +8389,24 @@
       <c r="G209" s="21">
         <v>1</v>
       </c>
-      <c r="H209" s="54" t="s">
+      <c r="H209" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="I209" s="55"/>
-      <c r="J209" s="55"/>
-      <c r="K209" s="56"/>
+      <c r="I209" s="63"/>
+      <c r="J209" s="63"/>
+      <c r="K209" s="64"/>
       <c r="M209" s="5"/>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G210" s="21">
         <v>1</v>
       </c>
-      <c r="H210" s="54" t="s">
+      <c r="H210" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="I210" s="55"/>
-      <c r="J210" s="55"/>
-      <c r="K210" s="56"/>
+      <c r="I210" s="63"/>
+      <c r="J210" s="63"/>
+      <c r="K210" s="64"/>
       <c r="M210" s="5"/>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.2">
@@ -8364,40 +8416,40 @@
       <c r="A212" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B212" s="45" t="s">
+      <c r="B212" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C212" s="46"/>
-      <c r="D212" s="47" t="s">
+      <c r="C212" s="52"/>
+      <c r="D212" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="E212" s="48"/>
-      <c r="F212" s="48"/>
-      <c r="G212" s="48"/>
-      <c r="H212" s="48"/>
-      <c r="I212" s="48"/>
-      <c r="J212" s="48"/>
-      <c r="K212" s="49"/>
+      <c r="E212" s="54"/>
+      <c r="F212" s="54"/>
+      <c r="G212" s="54"/>
+      <c r="H212" s="54"/>
+      <c r="I212" s="54"/>
+      <c r="J212" s="54"/>
+      <c r="K212" s="55"/>
       <c r="M212" s="5"/>
     </row>
     <row r="213" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B213" s="45" t="s">
+      <c r="B213" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C213" s="46"/>
-      <c r="D213" s="47" t="s">
+      <c r="C213" s="52"/>
+      <c r="D213" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="E213" s="48"/>
-      <c r="F213" s="48"/>
-      <c r="G213" s="48"/>
-      <c r="H213" s="48"/>
-      <c r="I213" s="48"/>
-      <c r="J213" s="48"/>
-      <c r="K213" s="49"/>
+      <c r="E213" s="54"/>
+      <c r="F213" s="54"/>
+      <c r="G213" s="54"/>
+      <c r="H213" s="54"/>
+      <c r="I213" s="54"/>
+      <c r="J213" s="54"/>
+      <c r="K213" s="55"/>
       <c r="M213" s="5"/>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.2">
@@ -8418,16 +8470,16 @@
       <c r="M215" s="5"/>
     </row>
     <row r="216" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="43" t="s">
+      <c r="A216" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B216" s="43" t="s">
+      <c r="B216" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C216" s="43"/>
-      <c r="D216" s="43"/>
-      <c r="E216" s="43"/>
-      <c r="F216" s="43"/>
+      <c r="C216" s="56"/>
+      <c r="D216" s="56"/>
+      <c r="E216" s="56"/>
+      <c r="F216" s="56"/>
       <c r="G216" s="73" t="s">
         <v>87</v>
       </c>
@@ -8436,24 +8488,24 @@
       <c r="J216" s="74"/>
       <c r="K216" s="74"/>
       <c r="L216" s="75"/>
-      <c r="M216" s="43" t="s">
+      <c r="M216" s="56" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A217" s="43"/>
-      <c r="B217" s="43"/>
-      <c r="C217" s="43"/>
-      <c r="D217" s="43"/>
-      <c r="E217" s="43"/>
-      <c r="F217" s="43"/>
+      <c r="A217" s="56"/>
+      <c r="B217" s="56"/>
+      <c r="C217" s="56"/>
+      <c r="D217" s="56"/>
+      <c r="E217" s="56"/>
+      <c r="F217" s="56"/>
       <c r="G217" s="76"/>
       <c r="H217" s="77"/>
       <c r="I217" s="77"/>
       <c r="J217" s="77"/>
       <c r="K217" s="77"/>
       <c r="L217" s="78"/>
-      <c r="M217" s="43"/>
+      <c r="M217" s="56"/>
     </row>
     <row r="218" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="23">
@@ -8712,13 +8764,13 @@
       <c r="A229" s="23">
         <v>12</v>
       </c>
-      <c r="B229" s="67" t="s">
+      <c r="B229" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="C229" s="67"/>
-      <c r="D229" s="67"/>
-      <c r="E229" s="67"/>
-      <c r="F229" s="67"/>
+      <c r="C229" s="72"/>
+      <c r="D229" s="72"/>
+      <c r="E229" s="72"/>
+      <c r="F229" s="72"/>
       <c r="G229" s="44" t="s">
         <v>258</v>
       </c>
@@ -8735,13 +8787,13 @@
       <c r="A230" s="23">
         <v>13</v>
       </c>
-      <c r="B230" s="67" t="s">
+      <c r="B230" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="C230" s="67"/>
-      <c r="D230" s="67"/>
-      <c r="E230" s="67"/>
-      <c r="F230" s="67"/>
+      <c r="C230" s="72"/>
+      <c r="D230" s="72"/>
+      <c r="E230" s="72"/>
+      <c r="F230" s="72"/>
       <c r="G230" s="44" t="s">
         <v>258</v>
       </c>
@@ -8781,13 +8833,13 @@
       <c r="A232" s="23">
         <v>15</v>
       </c>
-      <c r="B232" s="67" t="s">
+      <c r="B232" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="C232" s="67"/>
-      <c r="D232" s="67"/>
-      <c r="E232" s="67"/>
-      <c r="F232" s="67"/>
+      <c r="C232" s="72"/>
+      <c r="D232" s="72"/>
+      <c r="E232" s="72"/>
+      <c r="F232" s="72"/>
       <c r="G232" s="44" t="s">
         <v>262</v>
       </c>
@@ -8804,13 +8856,13 @@
       <c r="A233" s="23">
         <v>16</v>
       </c>
-      <c r="B233" s="67" t="s">
+      <c r="B233" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="C233" s="67"/>
-      <c r="D233" s="67"/>
-      <c r="E233" s="67"/>
-      <c r="F233" s="67"/>
+      <c r="C233" s="72"/>
+      <c r="D233" s="72"/>
+      <c r="E233" s="72"/>
+      <c r="F233" s="72"/>
       <c r="G233" s="44" t="s">
         <v>262</v>
       </c>
@@ -8965,13 +9017,13 @@
       <c r="A240" s="23">
         <v>18</v>
       </c>
-      <c r="B240" s="79" t="s">
+      <c r="B240" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="C240" s="80"/>
-      <c r="D240" s="80"/>
-      <c r="E240" s="80"/>
-      <c r="F240" s="81"/>
+      <c r="C240" s="66"/>
+      <c r="D240" s="66"/>
+      <c r="E240" s="66"/>
+      <c r="F240" s="67"/>
       <c r="G240" s="44" t="s">
         <v>266</v>
       </c>
@@ -9008,37 +9060,272 @@
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A245" s="57" t="s">
+      <c r="A245" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B245" s="58"/>
-      <c r="C245" s="58"/>
-      <c r="D245" s="58"/>
-      <c r="E245" s="58"/>
-      <c r="F245" s="58"/>
-      <c r="G245" s="58"/>
-      <c r="H245" s="58"/>
-      <c r="I245" s="58"/>
-      <c r="J245" s="58"/>
-      <c r="K245" s="58"/>
-      <c r="L245" s="59"/>
+      <c r="B245" s="46"/>
+      <c r="C245" s="46"/>
+      <c r="D245" s="46"/>
+      <c r="E245" s="46"/>
+      <c r="F245" s="46"/>
+      <c r="G245" s="46"/>
+      <c r="H245" s="46"/>
+      <c r="I245" s="46"/>
+      <c r="J245" s="46"/>
+      <c r="K245" s="46"/>
+      <c r="L245" s="47"/>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A246" s="60"/>
-      <c r="B246" s="61"/>
-      <c r="C246" s="61"/>
-      <c r="D246" s="61"/>
-      <c r="E246" s="61"/>
-      <c r="F246" s="61"/>
-      <c r="G246" s="61"/>
-      <c r="H246" s="61"/>
-      <c r="I246" s="61"/>
-      <c r="J246" s="61"/>
-      <c r="K246" s="61"/>
-      <c r="L246" s="62"/>
+      <c r="A246" s="48"/>
+      <c r="B246" s="49"/>
+      <c r="C246" s="49"/>
+      <c r="D246" s="49"/>
+      <c r="E246" s="49"/>
+      <c r="F246" s="49"/>
+      <c r="G246" s="49"/>
+      <c r="H246" s="49"/>
+      <c r="I246" s="49"/>
+      <c r="J246" s="49"/>
+      <c r="K246" s="49"/>
+      <c r="L246" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="259">
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="G107:L107"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="G104:L104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="G105:L105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="G106:L106"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="G101:L101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="G103:L103"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="G100:L100"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:K89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:K91"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="G97:L97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="G98:L98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="G99:L99"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:K88"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:F96"/>
+    <mergeCell ref="G95:L96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:K92"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="A69:L70"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="G65:L65"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="G64:L64"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="A37:L38"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A111:L112"/>
+    <mergeCell ref="F116:K116"/>
+    <mergeCell ref="F117:K117"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="D130:K130"/>
+    <mergeCell ref="M133:M134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="G135:L135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="G136:L136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="G137:L137"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="G138:L138"/>
+    <mergeCell ref="B133:F134"/>
+    <mergeCell ref="G133:L134"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="G144:L144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="G145:L145"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="A161:L162"/>
+    <mergeCell ref="F166:K166"/>
+    <mergeCell ref="F167:K167"/>
+    <mergeCell ref="H172:K172"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="G139:L139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="G140:L140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="G141:L141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="G142:L142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="G143:L143"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="G157:L157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="G158:L158"/>
+    <mergeCell ref="H173:K173"/>
+    <mergeCell ref="H175:K175"/>
+    <mergeCell ref="H176:K176"/>
+    <mergeCell ref="H177:K177"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="D180:K180"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:F185"/>
+    <mergeCell ref="G184:L185"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="D181:K181"/>
+    <mergeCell ref="M184:M185"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="G186:L186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="G187:L187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="G188:L188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="G189:L189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="G190:L190"/>
+    <mergeCell ref="A194:L195"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="G146:L146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="G147:L147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="G148:L148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="G149:L149"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="G150:L150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="G151:L151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="G152:L152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="G153:L153"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="G155:L155"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="G156:L156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="F199:K199"/>
+    <mergeCell ref="F200:K200"/>
+    <mergeCell ref="H205:K205"/>
+    <mergeCell ref="H206:K206"/>
+    <mergeCell ref="H208:K208"/>
+    <mergeCell ref="H209:K209"/>
+    <mergeCell ref="H210:K210"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="D212:K212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:K213"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="B216:F217"/>
+    <mergeCell ref="G216:L217"/>
+    <mergeCell ref="M216:M217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="G218:L218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="G219:L219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="G220:L220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="G221:L221"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="G222:L222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="G223:L223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="G224:L224"/>
+    <mergeCell ref="G233:L233"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="G234:L234"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="G225:L225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="G226:L226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="G227:L227"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="G228:L228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="G229:L229"/>
     <mergeCell ref="A245:L246"/>
     <mergeCell ref="B241:F241"/>
     <mergeCell ref="G241:L241"/>
@@ -9063,241 +9350,6 @@
     <mergeCell ref="B232:F232"/>
     <mergeCell ref="G232:L232"/>
     <mergeCell ref="B233:F233"/>
-    <mergeCell ref="G233:L233"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="G234:L234"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="G225:L225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="G226:L226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="G227:L227"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="G228:L228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="G229:L229"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="G220:L220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="G221:L221"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="G222:L222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="G223:L223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="G224:L224"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:K213"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="B216:F217"/>
-    <mergeCell ref="G216:L217"/>
-    <mergeCell ref="M216:M217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="G218:L218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="G219:L219"/>
-    <mergeCell ref="F199:K199"/>
-    <mergeCell ref="F200:K200"/>
-    <mergeCell ref="H205:K205"/>
-    <mergeCell ref="H206:K206"/>
-    <mergeCell ref="H208:K208"/>
-    <mergeCell ref="H209:K209"/>
-    <mergeCell ref="H210:K210"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="D212:K212"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="G190:L190"/>
-    <mergeCell ref="A194:L195"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="G146:L146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="G147:L147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="G148:L148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="G149:L149"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="G150:L150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="G151:L151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="G152:L152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="G153:L153"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="G155:L155"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="G156:L156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="M184:M185"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="G186:L186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="G187:L187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="G188:L188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="G189:L189"/>
-    <mergeCell ref="H173:K173"/>
-    <mergeCell ref="H175:K175"/>
-    <mergeCell ref="H176:K176"/>
-    <mergeCell ref="H177:K177"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="D180:K180"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:F185"/>
-    <mergeCell ref="G184:L185"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="D181:K181"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="G144:L144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="G145:L145"/>
-    <mergeCell ref="H127:K127"/>
-    <mergeCell ref="A161:L162"/>
-    <mergeCell ref="F166:K166"/>
-    <mergeCell ref="F167:K167"/>
-    <mergeCell ref="H172:K172"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="G139:L139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="G140:L140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="G141:L141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="G142:L142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="G143:L143"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="G157:L157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="G158:L158"/>
-    <mergeCell ref="M133:M134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="G135:L135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="G136:L136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="G137:L137"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="G138:L138"/>
-    <mergeCell ref="B133:F134"/>
-    <mergeCell ref="G133:L134"/>
-    <mergeCell ref="A111:L112"/>
-    <mergeCell ref="F116:K116"/>
-    <mergeCell ref="F117:K117"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="H125:K125"/>
-    <mergeCell ref="H126:K126"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="D130:K130"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="A37:L38"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="A69:L70"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="G65:L65"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="G62:L62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="G64:L64"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:K88"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:F96"/>
-    <mergeCell ref="G95:L96"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:K92"/>
-    <mergeCell ref="F74:K74"/>
-    <mergeCell ref="F75:K75"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="G100:L100"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:K89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:K90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:K91"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="G97:L97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="G98:L98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="G99:L99"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="G107:L107"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="G104:L104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="G105:L105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="G106:L106"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="G101:L101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="G103:L103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
+++ b/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berkozdoruk/Desktop/GitHub/Elixir-Documentation/Test Reports and Test Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88FAB17-E74D-6D45-9A7E-D183833B408E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B0647A-AC35-8F4A-953D-2022B3F5D109}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="367">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -1106,6 +1106,76 @@
   </si>
   <si>
     <t>Upload Info Operations</t>
+  </si>
+  <si>
+    <t>The User should be able to download
+ the example predesigned spreadsheet
+ xlsx from the upload farm info page.</t>
+  </si>
+  <si>
+    <t>The User should be able to upload 
+his/her farm info in xlsx format only.</t>
+  </si>
+  <si>
+    <t>ELXR-UPO-01</t>
+  </si>
+  <si>
+    <t>Regular user download operation.</t>
+  </si>
+  <si>
+    <t>The regular user should be able to download example spreadsheet from the related page.</t>
+  </si>
+  <si>
+    <t>User clicks the Upload Farm Info button in the navbar.</t>
+  </si>
+  <si>
+    <t>The User should be able to download the example predesigned spreadsheet.
+ xlsx from the upload farm info page.</t>
+  </si>
+  <si>
+    <t>Button should redirect to the Upload Farm Info page of the Elixir.</t>
+  </si>
+  <si>
+    <t>User clicks download example spreadsheet button.</t>
+  </si>
+  <si>
+    <t>File should be downloaded to the device.</t>
+  </si>
+  <si>
+    <t>Regular user upload operation.</t>
+  </si>
+  <si>
+    <t>The regular user should be able to upload its own spreadsheet to the system.</t>
+  </si>
+  <si>
+    <t>Spreadsheet (Example spread sheet), wrong format xlsx, PDF file.</t>
+  </si>
+  <si>
+    <t>User chooses PDF file to upload.</t>
+  </si>
+  <si>
+    <t>System does not allow to choose PDF file.</t>
+  </si>
+  <si>
+    <t>User drag and drops the PDF file to the upload area.</t>
+  </si>
+  <si>
+    <t>System does not allow to drag and drops a PDF file.</t>
+  </si>
+  <si>
+    <t>User chooses or drag and drops wrong format of xlsx format to the related area.</t>
+  </si>
+  <si>
+    <t>System should display alert about wrong sections needed to be contain. Cannot upload.</t>
+  </si>
+  <si>
+    <t>User chooses or drag and drops example spreadsheet or proper format of xlsx format to the related area.</t>
+  </si>
+  <si>
+    <t>Successful alert. File is uploaded.</t>
+  </si>
+  <si>
+    <t>ELXR-UPO-02</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1529,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1546,8 +1616,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1563,33 +1667,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1609,25 +1686,18 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1646,11 +1716,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1970,7 +2044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C81F5F-3812-4B44-AC60-4E873A1B1DD4}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -1987,7 +2061,7 @@
     <col min="15" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2020,7 +2094,7 @@
       <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="52" t="s">
         <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -2040,7 +2114,7 @@
       <c r="D3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="52" t="s">
         <v>50</v>
       </c>
       <c r="F3" s="2"/>
@@ -2058,7 +2132,7 @@
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="52" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="2"/>
@@ -2076,7 +2150,7 @@
       <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="F5" s="2"/>
@@ -2094,7 +2168,7 @@
       <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="52" t="s">
         <v>53</v>
       </c>
       <c r="F6" s="2"/>
@@ -2112,7 +2186,7 @@
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="52" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="2"/>
@@ -2130,7 +2204,7 @@
       <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="52" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="2"/>
@@ -2148,7 +2222,7 @@
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="52" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="2"/>
@@ -2166,7 +2240,7 @@
       <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="52" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="2"/>
@@ -2184,7 +2258,7 @@
       <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="52" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="2"/>
@@ -2202,7 +2276,7 @@
       <c r="D12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="52" t="s">
         <v>59</v>
       </c>
       <c r="F12" s="2"/>
@@ -2220,12 +2294,12 @@
       <c r="D13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="52" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
@@ -2238,12 +2312,12 @@
       <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="87" t="s">
+      <c r="E14" s="52" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -2261,7 +2335,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -2279,7 +2353,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -2297,7 +2371,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -2314,7 +2388,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -2331,35 +2405,41 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+    <row r="20" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>343</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
+      <c r="E20" s="52" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>341</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="52" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>339</v>
       </c>
@@ -2370,19 +2450,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>302</v>
       </c>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>301</v>
       </c>
@@ -2393,28 +2472,16 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2423,20 +2490,967 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA41EE7-18A2-5847-8921-1B401338AF3E}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>344</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="63" t="s">
+        <v>348</v>
+      </c>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="50"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="24">
+        <v>1</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
+        <v>2</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="34"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <v>1</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
+        <v>2</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="51"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="51"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C31" s="51"/>
+      <c r="D31" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="21">
+        <v>1</v>
+      </c>
+      <c r="H38" s="55" t="s">
+        <v>357</v>
+      </c>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="24">
+        <v>1</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="24">
+        <v>2</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="21">
+        <v>1</v>
+      </c>
+      <c r="H41" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="C44" s="59"/>
+      <c r="D44" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="34"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="23">
+        <v>1</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="23">
+        <v>2</v>
+      </c>
+      <c r="B50" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="23">
+        <v>3</v>
+      </c>
+      <c r="B51" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="23">
+        <v>4</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="23">
+        <v>5</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="24" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:L49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:F48"/>
+    <mergeCell ref="G47:L48"/>
+    <mergeCell ref="A26:L27"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:F20"/>
+    <mergeCell ref="G19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2445,8 +3459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD90F54-04F9-2948-B228-7AEC85B49338}">
   <dimension ref="A3:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2467,14 +3481,14 @@
         <v>70</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="35"/>
       <c r="M3" s="5"/>
     </row>
@@ -2490,14 +3504,14 @@
         <v>73</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
       <c r="L4" s="35"/>
       <c r="M4" s="5"/>
     </row>
@@ -2579,12 +3593,12 @@
       <c r="G9" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
       <c r="L9" s="35"/>
       <c r="M9" s="5"/>
     </row>
@@ -2602,12 +3616,12 @@
       <c r="G10" s="21">
         <v>1</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="35"/>
       <c r="M10" s="5"/>
     </row>
@@ -2644,12 +3658,12 @@
       <c r="G12" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
       <c r="L12" s="35"/>
       <c r="M12" s="5"/>
     </row>
@@ -2663,12 +3677,12 @@
       <c r="G13" s="21">
         <v>1</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="35"/>
       <c r="M13" s="5"/>
     </row>
@@ -2754,62 +3768,62 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48" t="s">
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
     </row>
     <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>1</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57" t="s">
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
       <c r="M21" s="24" t="s">
         <v>88</v>
       </c>
@@ -2818,21 +3832,21 @@
       <c r="A22" s="23">
         <v>2</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57" t="s">
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
       <c r="M22" s="24" t="s">
         <v>88</v>
       </c>
@@ -2841,21 +3855,21 @@
       <c r="A23" s="23">
         <v>3</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="53" t="s">
         <v>324</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53" t="s">
         <v>326</v>
       </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
       <c r="M23" s="24" t="s">
         <v>88</v>
       </c>
@@ -2906,35 +3920,35 @@
       <c r="M26" s="35"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="65"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="70"/>
       <c r="M27" s="35"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="66"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="68"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="73"/>
       <c r="M28" s="35"/>
     </row>
     <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2949,14 +3963,14 @@
         <v>70</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
       <c r="L32" s="47"/>
       <c r="M32" s="5"/>
     </row>
@@ -2972,14 +3986,14 @@
         <v>73</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="64" t="s">
         <v>330</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
       <c r="L33" s="47"/>
       <c r="M33" s="5"/>
     </row>
@@ -3061,12 +4075,12 @@
       <c r="G38" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H38" s="51" t="s">
+      <c r="H38" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="53"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="67"/>
       <c r="L38" s="47"/>
       <c r="M38" s="5"/>
     </row>
@@ -3084,12 +4098,12 @@
       <c r="G39" s="21">
         <v>1</v>
       </c>
-      <c r="H39" s="54" t="s">
+      <c r="H39" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="57"/>
       <c r="L39" s="47"/>
       <c r="M39" s="5"/>
     </row>
@@ -3126,12 +4140,12 @@
       <c r="G41" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H41" s="51" t="s">
+      <c r="H41" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="53"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="67"/>
       <c r="L41" s="47"/>
       <c r="M41" s="5"/>
     </row>
@@ -3145,12 +4159,12 @@
       <c r="G42" s="21">
         <v>1</v>
       </c>
-      <c r="H42" s="54" t="s">
+      <c r="H42" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="57"/>
       <c r="L42" s="47"/>
       <c r="M42" s="5"/>
     </row>
@@ -3236,62 +4250,62 @@
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48" t="s">
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48" t="s">
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="23">
         <v>1</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57" t="s">
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
       <c r="M50" s="24" t="s">
         <v>88</v>
       </c>
@@ -3300,21 +4314,21 @@
       <c r="A51" s="23">
         <v>2</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57" t="s">
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
       <c r="M51" s="24" t="s">
         <v>88</v>
       </c>
@@ -3323,50 +4337,80 @@
       <c r="A52" s="23">
         <v>3</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="53" t="s">
         <v>335</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57" t="s">
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
       <c r="M52" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="23">
-        <v>3</v>
-      </c>
-      <c r="B53" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57" t="s">
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
       <c r="M53" s="24" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="A27:L28"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="B19:F20"/>
+    <mergeCell ref="G19:L20"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:F49"/>
+    <mergeCell ref="G48:L49"/>
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="G52:L52"/>
     <mergeCell ref="B53:F53"/>
@@ -3376,36 +4420,6 @@
     <mergeCell ref="G50:L50"/>
     <mergeCell ref="B51:F51"/>
     <mergeCell ref="G51:L51"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:F49"/>
-    <mergeCell ref="G48:L49"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="A27:L28"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="B19:F20"/>
-    <mergeCell ref="G19:L20"/>
-    <mergeCell ref="F4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3436,14 +4450,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
       <c r="L4" s="47"/>
       <c r="M4" s="5"/>
     </row>
@@ -3459,14 +4473,14 @@
         <v>73</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="64" t="s">
         <v>312</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
       <c r="L5" s="47"/>
       <c r="M5" s="5"/>
     </row>
@@ -3548,12 +4562,12 @@
       <c r="G10" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="47"/>
       <c r="M10" s="5"/>
     </row>
@@ -3571,10 +4585,10 @@
       <c r="G11" s="21">
         <v>1</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="47"/>
       <c r="M11" s="5"/>
     </row>
@@ -3611,12 +4625,12 @@
       <c r="G13" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
       <c r="L13" s="47"/>
       <c r="M13" s="5"/>
     </row>
@@ -3630,12 +4644,12 @@
       <c r="G14" s="21">
         <v>1</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="47"/>
       <c r="M14" s="5"/>
     </row>
@@ -3721,62 +4735,62 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48" t="s">
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>1</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="53" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57" t="s">
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
       <c r="M22" s="24" t="s">
         <v>88</v>
       </c>
@@ -3785,43 +4799,43 @@
       <c r="A23" s="23">
         <v>2</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
       <c r="M23" s="24" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:L21"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="G22:L22"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="G23:L23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:L21"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3852,14 +4866,14 @@
         <v>70</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="42"/>
       <c r="M3" s="5"/>
     </row>
@@ -3875,14 +4889,14 @@
         <v>73</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
       <c r="L4" s="42"/>
       <c r="M4" s="5"/>
     </row>
@@ -3964,12 +4978,12 @@
       <c r="G9" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
       <c r="L9" s="42"/>
       <c r="M9" s="5"/>
     </row>
@@ -3987,10 +5001,10 @@
       <c r="G10" s="21">
         <v>1</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="42"/>
       <c r="M10" s="5"/>
     </row>
@@ -4027,12 +5041,12 @@
       <c r="G12" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
       <c r="L12" s="42"/>
       <c r="M12" s="5"/>
     </row>
@@ -4046,12 +5060,12 @@
       <c r="G13" s="21">
         <v>1</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="42"/>
       <c r="M13" s="5"/>
     </row>
@@ -4157,62 +5171,62 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48" t="s">
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>1</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57" t="s">
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
       <c r="M22" s="24" t="s">
         <v>88</v>
       </c>
@@ -4221,21 +5235,21 @@
       <c r="A23" s="23">
         <v>2</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="53" t="s">
         <v>292</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
       <c r="M23" s="24" t="s">
         <v>88</v>
       </c>
@@ -4244,21 +5258,21 @@
       <c r="A24" s="23">
         <v>3</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57" t="s">
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
       <c r="M24" s="24" t="s">
         <v>88</v>
       </c>
@@ -4267,21 +5281,21 @@
       <c r="A25" s="23">
         <v>4</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57" t="s">
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
       <c r="M25" s="24" t="s">
         <v>88</v>
       </c>
@@ -4290,21 +5304,21 @@
       <c r="A26" s="23">
         <v>5</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57" t="s">
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
       <c r="M26" s="24" t="s">
         <v>88</v>
       </c>
@@ -4355,35 +5369,35 @@
       <c r="M29" s="42"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="65"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="70"/>
       <c r="M30" s="42"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="66"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="68"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="73"/>
       <c r="M31" s="42"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -4396,11 +5410,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="A30:L31"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="B16:C16"/>
@@ -4414,13 +5430,11 @@
     <mergeCell ref="G22:L22"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="G23:L23"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="A30:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4449,14 +5463,14 @@
         <v>70</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
       <c r="L2" s="35"/>
       <c r="M2" s="5"/>
     </row>
@@ -4472,14 +5486,14 @@
         <v>73</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="35"/>
       <c r="M3" s="5"/>
     </row>
@@ -4561,12 +5575,12 @@
       <c r="G8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="53"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="67"/>
       <c r="L8" s="35"/>
       <c r="M8" s="5"/>
     </row>
@@ -4584,12 +5598,12 @@
       <c r="G9" s="21">
         <v>1</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57"/>
       <c r="L9" s="35"/>
       <c r="M9" s="5"/>
     </row>
@@ -4626,12 +5640,12 @@
       <c r="G11" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
       <c r="L11" s="35"/>
       <c r="M11" s="5"/>
     </row>
@@ -4645,12 +5659,12 @@
       <c r="G12" s="21">
         <v>1</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
       <c r="L12" s="35"/>
       <c r="M12" s="5"/>
     </row>
@@ -4736,62 +5750,62 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48" t="s">
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>1</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57" t="s">
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
       <c r="M20" s="24" t="s">
         <v>88</v>
       </c>
@@ -4800,21 +5814,21 @@
       <c r="A21" s="23">
         <v>2</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57" t="s">
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
       <c r="M21" s="24" t="s">
         <v>88</v>
       </c>
@@ -4823,21 +5837,21 @@
       <c r="A22" s="23">
         <v>3</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57" t="s">
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
       <c r="M22" s="24" t="s">
         <v>88</v>
       </c>
@@ -4846,21 +5860,21 @@
       <c r="A23" s="23">
         <v>4</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
       <c r="M23" s="24" t="s">
         <v>88</v>
       </c>
@@ -4869,21 +5883,21 @@
       <c r="A24" s="23">
         <v>5</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57" t="s">
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
       <c r="M24" s="24" t="s">
         <v>88</v>
       </c>
@@ -4934,35 +5948,35 @@
       <c r="M27" s="35"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="65"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="70"/>
       <c r="M28" s="35"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="66"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="68"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
       <c r="M29" s="35"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -4977,14 +5991,14 @@
         <v>70</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
       <c r="L33" s="35"/>
       <c r="M33" s="5"/>
     </row>
@@ -5000,14 +6014,14 @@
         <v>73</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="50" t="s">
+      <c r="F34" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
       <c r="L34" s="35"/>
       <c r="M34" s="5"/>
     </row>
@@ -5089,12 +6103,12 @@
       <c r="G39" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="51" t="s">
+      <c r="H39" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="53"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="67"/>
       <c r="L39" s="35"/>
       <c r="M39" s="5"/>
     </row>
@@ -5112,12 +6126,12 @@
       <c r="G40" s="21">
         <v>1</v>
       </c>
-      <c r="H40" s="54" t="s">
+      <c r="H40" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="57"/>
       <c r="L40" s="35"/>
       <c r="M40" s="5"/>
     </row>
@@ -5154,12 +6168,12 @@
       <c r="G42" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H42" s="51" t="s">
+      <c r="H42" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="53"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="67"/>
       <c r="L42" s="35"/>
       <c r="M42" s="5"/>
     </row>
@@ -5173,12 +6187,12 @@
       <c r="G43" s="21">
         <v>1</v>
       </c>
-      <c r="H43" s="54" t="s">
+      <c r="H43" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="57"/>
       <c r="L43" s="35"/>
       <c r="M43" s="5"/>
     </row>
@@ -5264,79 +6278,81 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48" t="s">
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48" t="s">
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="23">
         <v>1</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="53" t="s">
         <v>283</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57" t="s">
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
       <c r="M51" s="24" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:F50"/>
+    <mergeCell ref="G49:L50"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
     <mergeCell ref="F33:K33"/>
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="B20:F20"/>
@@ -5350,19 +6366,17 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="A28:L29"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:F50"/>
-    <mergeCell ref="G49:L50"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5392,14 +6406,14 @@
         <v>70</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -5413,14 +6427,14 @@
         <v>73</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -5454,12 +6468,12 @@
       <c r="G7" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -5475,12 +6489,12 @@
       <c r="G8" s="21">
         <v>1</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -5508,12 +6522,12 @@
       <c r="G10" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -5521,12 +6535,12 @@
       <c r="G11" s="21">
         <v>1</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5565,62 +6579,62 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48" t="s">
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>1</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57" t="s">
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
       <c r="M20" s="24" t="s">
         <v>88</v>
       </c>
@@ -5629,21 +6643,21 @@
       <c r="A21" s="23">
         <v>2</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57" t="s">
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
       <c r="M21" s="24" t="s">
         <v>88</v>
       </c>
@@ -5664,34 +6678,34 @@
       <c r="M22" s="26"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="65"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="70"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="66"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="68"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="73"/>
     </row>
     <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
@@ -5704,14 +6718,14 @@
         <v>70</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5725,14 +6739,14 @@
         <v>73</v>
       </c>
       <c r="E31" s="10"/>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -5766,12 +6780,12 @@
       <c r="G36" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H36" s="51" t="s">
+      <c r="H36" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="67"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -5787,12 +6801,12 @@
       <c r="G37" s="21">
         <v>1</v>
       </c>
-      <c r="H37" s="54" t="s">
+      <c r="H37" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -5816,12 +6830,12 @@
       <c r="G39" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="51" t="s">
+      <c r="H39" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="53"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="67"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5829,12 +6843,12 @@
       <c r="G40" s="21">
         <v>1</v>
       </c>
-      <c r="H40" s="54" t="s">
+      <c r="H40" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="57"/>
       <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -5873,62 +6887,62 @@
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48" t="s">
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48" t="s">
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="23">
         <v>1</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57" t="s">
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
       <c r="M49" s="24" t="s">
         <v>88</v>
       </c>
@@ -5937,54 +6951,54 @@
       <c r="A50" s="23">
         <v>2</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57" t="s">
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
       <c r="M50" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="63" t="s">
+      <c r="A54" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="65"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="70"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="66"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="68"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="73"/>
     </row>
     <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
@@ -5997,14 +7011,14 @@
         <v>70</v>
       </c>
       <c r="E59" s="10"/>
-      <c r="F59" s="49" t="s">
+      <c r="F59" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6018,14 +7032,14 @@
         <v>73</v>
       </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="50" t="s">
+      <c r="F60" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
       <c r="M60" s="5"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -6059,12 +7073,12 @@
       <c r="G65" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H65" s="51" t="s">
+      <c r="H65" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="53"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="67"/>
       <c r="M65" s="5"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -6080,12 +7094,12 @@
       <c r="G66" s="21">
         <v>1</v>
       </c>
-      <c r="H66" s="54" t="s">
+      <c r="H66" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="57"/>
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -6113,12 +7127,12 @@
       <c r="G68" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H68" s="51" t="s">
+      <c r="H68" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="53"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="67"/>
       <c r="M68" s="5"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -6126,10 +7140,10 @@
       <c r="G69" s="21">
         <v>1</v>
       </c>
-      <c r="H69" s="54"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="55"/>
-      <c r="K69" s="56"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="57"/>
       <c r="M69" s="5"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -6168,62 +7182,62 @@
       <c r="M75" s="5"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="48" t="s">
+      <c r="B76" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="48"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48" t="s">
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H76" s="48"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="48"/>
-      <c r="K76" s="48"/>
-      <c r="L76" s="48"/>
-      <c r="M76" s="48" t="s">
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="54"/>
+      <c r="L76" s="54"/>
+      <c r="M76" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="48"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="48"/>
-      <c r="K77" s="48"/>
-      <c r="L77" s="48"/>
-      <c r="M77" s="48"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="54"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="23">
         <v>1</v>
       </c>
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="57"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57" t="s">
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="57"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="57"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="53"/>
+      <c r="K78" s="53"/>
+      <c r="L78" s="53"/>
       <c r="M78" s="24" t="s">
         <v>88</v>
       </c>
@@ -6232,21 +7246,21 @@
       <c r="A79" s="23">
         <v>2</v>
       </c>
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57" t="s">
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="57"/>
+      <c r="H79" s="53"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="53"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="53"/>
       <c r="M79" s="24" t="s">
         <v>88</v>
       </c>
@@ -6255,21 +7269,21 @@
       <c r="A80" s="23">
         <v>2</v>
       </c>
-      <c r="B80" s="57" t="s">
+      <c r="B80" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57" t="s">
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="H80" s="57"/>
-      <c r="I80" s="57"/>
-      <c r="J80" s="57"/>
-      <c r="K80" s="57"/>
-      <c r="L80" s="57"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="53"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="53"/>
       <c r="M80" s="24" t="s">
         <v>88</v>
       </c>
@@ -6281,30 +7295,23 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="A25:L26"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="G79:L79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:F77"/>
+    <mergeCell ref="G76:L77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="F60:K60"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:K73"/>
     <mergeCell ref="F59:K59"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:K44"/>
@@ -6316,23 +7323,30 @@
     <mergeCell ref="B50:F50"/>
     <mergeCell ref="G50:L50"/>
     <mergeCell ref="A54:L55"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="G78:L78"/>
-    <mergeCell ref="F60:K60"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:K73"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="G79:L79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:F77"/>
-    <mergeCell ref="G76:L77"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="A25:L26"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6362,14 +7376,14 @@
         <v>70</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -6383,14 +7397,14 @@
         <v>73</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -6424,12 +7438,12 @@
       <c r="G7" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -6445,12 +7459,12 @@
       <c r="G8" s="21">
         <v>1</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -6478,12 +7492,12 @@
       <c r="G10" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -6491,12 +7505,12 @@
       <c r="G11" s="21">
         <v>1</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -6535,62 +7549,62 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48" t="s">
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>1</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57" t="s">
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
       <c r="M20" s="24" t="s">
         <v>88</v>
       </c>
@@ -6599,21 +7613,21 @@
       <c r="A21" s="23">
         <v>2</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57" t="s">
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
       <c r="M21" s="24" t="s">
         <v>88</v>
       </c>
@@ -6622,21 +7636,21 @@
       <c r="A22" s="23">
         <v>3</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57" t="s">
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
       <c r="M22" s="24" t="s">
         <v>88</v>
       </c>
@@ -6645,21 +7659,21 @@
       <c r="A23" s="23">
         <v>4</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="69" t="s">
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="71"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="91"/>
       <c r="M23" s="24" t="s">
         <v>88</v>
       </c>
@@ -6668,21 +7682,21 @@
       <c r="A24" s="23">
         <v>5</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="89" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="69" t="s">
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="71"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="91"/>
       <c r="M24" s="24" t="s">
         <v>88</v>
       </c>
@@ -6691,21 +7705,21 @@
       <c r="A25" s="23">
         <v>6</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="69" t="s">
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="71"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="91"/>
       <c r="M25" s="24" t="s">
         <v>88</v>
       </c>
@@ -6714,21 +7728,21 @@
       <c r="A26" s="23">
         <v>7</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="69" t="s">
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="91"/>
       <c r="M26" s="24" t="s">
         <v>88</v>
       </c>
@@ -6737,21 +7751,21 @@
       <c r="A27" s="23">
         <v>8</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="69" t="s">
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="71"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="91"/>
       <c r="M27" s="31" t="s">
         <v>88</v>
       </c>
@@ -6760,21 +7774,21 @@
       <c r="A28" s="23">
         <v>9</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="69" t="s">
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="91"/>
       <c r="M28" s="31" t="s">
         <v>88</v>
       </c>
@@ -6783,21 +7797,21 @@
       <c r="A29" s="23">
         <v>10</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="69" t="s">
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="71"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="91"/>
       <c r="M29" s="31" t="s">
         <v>88</v>
       </c>
@@ -6806,21 +7820,21 @@
       <c r="A30" s="23">
         <v>11</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="69" t="s">
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="71"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="91"/>
       <c r="M30" s="31" t="s">
         <v>88</v>
       </c>
@@ -6829,21 +7843,21 @@
       <c r="A31" s="23">
         <v>12</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="69" t="s">
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="71"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="91"/>
       <c r="M31" s="31" t="s">
         <v>88</v>
       </c>
@@ -6852,21 +7866,21 @@
       <c r="A32" s="23">
         <v>13</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="69" t="s">
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="71"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="91"/>
       <c r="M32" s="31" t="s">
         <v>88</v>
       </c>
@@ -6875,54 +7889,54 @@
       <c r="A33" s="23">
         <v>14</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="69" t="s">
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="71"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="91"/>
       <c r="M33" s="31" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="65"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="70"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="66"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="68"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="73"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
@@ -6935,14 +7949,14 @@
         <v>70</v>
       </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="49" t="s">
+      <c r="F42" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -6956,14 +7970,14 @@
         <v>73</v>
       </c>
       <c r="E43" s="10"/>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -6997,12 +8011,12 @@
       <c r="G48" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H48" s="51" t="s">
+      <c r="H48" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="53"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="67"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -7018,12 +8032,12 @@
       <c r="G49" s="21">
         <v>1</v>
       </c>
-      <c r="H49" s="54" t="s">
+      <c r="H49" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="57"/>
       <c r="M49" s="5"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -7051,12 +8065,12 @@
       <c r="G51" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H51" s="51" t="s">
+      <c r="H51" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="53"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="67"/>
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -7064,12 +8078,12 @@
       <c r="G52" s="21">
         <v>1</v>
       </c>
-      <c r="H52" s="54" t="s">
+      <c r="H52" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="57"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -7108,62 +8122,62 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48" t="s">
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
-      <c r="M59" s="48" t="s">
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="48"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="23">
         <v>1</v>
       </c>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57" t="s">
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="57"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
       <c r="M61" s="24" t="s">
         <v>88</v>
       </c>
@@ -7172,21 +8186,21 @@
       <c r="A62" s="23">
         <v>2</v>
       </c>
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57" t="s">
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="57"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="53"/>
       <c r="M62" s="24" t="s">
         <v>88</v>
       </c>
@@ -7195,21 +8209,21 @@
       <c r="A63" s="23">
         <v>3</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57" t="s">
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="H63" s="57"/>
-      <c r="I63" s="57"/>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="57"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
       <c r="M63" s="24" t="s">
         <v>88</v>
       </c>
@@ -7218,21 +8232,21 @@
       <c r="A64" s="23">
         <v>4</v>
       </c>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57" t="s">
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="53"/>
       <c r="M64" s="24" t="s">
         <v>88</v>
       </c>
@@ -7241,54 +8255,54 @@
       <c r="A65" s="23">
         <v>5</v>
       </c>
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57" t="s">
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
       <c r="M65" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="64"/>
-      <c r="K69" s="64"/>
-      <c r="L69" s="65"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="70"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="66"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="67"/>
-      <c r="L70" s="68"/>
+      <c r="A70" s="71"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="72"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="73"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
@@ -7301,14 +8315,14 @@
         <v>70</v>
       </c>
       <c r="E74" s="10"/>
-      <c r="F74" s="49" t="s">
+      <c r="F74" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="63"/>
       <c r="M74" s="5"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -7322,14 +8336,14 @@
         <v>73</v>
       </c>
       <c r="E75" s="10"/>
-      <c r="F75" s="50" t="s">
+      <c r="F75" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="50"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="64"/>
+      <c r="K75" s="64"/>
       <c r="M75" s="5"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -7363,12 +8377,12 @@
       <c r="G80" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H80" s="51" t="s">
+      <c r="H80" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="I80" s="52"/>
-      <c r="J80" s="52"/>
-      <c r="K80" s="53"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="66"/>
+      <c r="K80" s="67"/>
       <c r="M80" s="5"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -7384,12 +8398,12 @@
       <c r="G81" s="21">
         <v>1</v>
       </c>
-      <c r="H81" s="54" t="s">
+      <c r="H81" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="57"/>
       <c r="M81" s="5"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -7417,12 +8431,12 @@
       <c r="G83" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H83" s="51" t="s">
+      <c r="H83" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I83" s="52"/>
-      <c r="J83" s="52"/>
-      <c r="K83" s="53"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="67"/>
       <c r="M83" s="5"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -7430,12 +8444,12 @@
       <c r="G84" s="21">
         <v>1</v>
       </c>
-      <c r="H84" s="54" t="s">
+      <c r="H84" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="I84" s="55"/>
-      <c r="J84" s="55"/>
-      <c r="K84" s="56"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="57"/>
       <c r="M84" s="5"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -7565,62 +8579,62 @@
       <c r="M94" s="5"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="48" t="s">
+      <c r="A95" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="48" t="s">
+      <c r="B95" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48" t="s">
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48"/>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48"/>
-      <c r="L95" s="48"/>
-      <c r="M95" s="48" t="s">
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="48"/>
-      <c r="B96" s="48"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="48"/>
-      <c r="K96" s="48"/>
-      <c r="L96" s="48"/>
-      <c r="M96" s="48"/>
+      <c r="A96" s="54"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="54"/>
+      <c r="I96" s="54"/>
+      <c r="J96" s="54"/>
+      <c r="K96" s="54"/>
+      <c r="L96" s="54"/>
+      <c r="M96" s="54"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="23">
         <v>1</v>
       </c>
-      <c r="B97" s="57" t="s">
+      <c r="B97" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C97" s="57"/>
-      <c r="D97" s="57"/>
-      <c r="E97" s="57"/>
-      <c r="F97" s="57"/>
-      <c r="G97" s="57" t="s">
+      <c r="C97" s="53"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="H97" s="57"/>
-      <c r="I97" s="57"/>
-      <c r="J97" s="57"/>
-      <c r="K97" s="57"/>
-      <c r="L97" s="57"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="53"/>
+      <c r="J97" s="53"/>
+      <c r="K97" s="53"/>
+      <c r="L97" s="53"/>
       <c r="M97" s="24" t="s">
         <v>88</v>
       </c>
@@ -7629,21 +8643,21 @@
       <c r="A98" s="23">
         <v>2</v>
       </c>
-      <c r="B98" s="57" t="s">
+      <c r="B98" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="C98" s="57"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="57"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="57" t="s">
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="H98" s="57"/>
-      <c r="I98" s="57"/>
-      <c r="J98" s="57"/>
-      <c r="K98" s="57"/>
-      <c r="L98" s="57"/>
+      <c r="H98" s="53"/>
+      <c r="I98" s="53"/>
+      <c r="J98" s="53"/>
+      <c r="K98" s="53"/>
+      <c r="L98" s="53"/>
       <c r="M98" s="24" t="s">
         <v>88</v>
       </c>
@@ -7652,21 +8666,21 @@
       <c r="A99" s="23">
         <v>3</v>
       </c>
-      <c r="B99" s="57" t="s">
+      <c r="B99" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C99" s="57"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="57"/>
-      <c r="F99" s="57"/>
-      <c r="G99" s="57" t="s">
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="H99" s="57"/>
-      <c r="I99" s="57"/>
-      <c r="J99" s="57"/>
-      <c r="K99" s="57"/>
-      <c r="L99" s="57"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="53"/>
+      <c r="J99" s="53"/>
+      <c r="K99" s="53"/>
+      <c r="L99" s="53"/>
       <c r="M99" s="24" t="s">
         <v>88</v>
       </c>
@@ -7675,21 +8689,21 @@
       <c r="A100" s="23">
         <v>4</v>
       </c>
-      <c r="B100" s="57" t="s">
+      <c r="B100" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="C100" s="57"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="57"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="57" t="s">
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="H100" s="57"/>
-      <c r="I100" s="57"/>
-      <c r="J100" s="57"/>
-      <c r="K100" s="57"/>
-      <c r="L100" s="57"/>
+      <c r="H100" s="53"/>
+      <c r="I100" s="53"/>
+      <c r="J100" s="53"/>
+      <c r="K100" s="53"/>
+      <c r="L100" s="53"/>
       <c r="M100" s="24" t="s">
         <v>88</v>
       </c>
@@ -7698,21 +8712,21 @@
       <c r="A101" s="23">
         <v>5</v>
       </c>
-      <c r="B101" s="57" t="s">
+      <c r="B101" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C101" s="57"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="57"/>
-      <c r="F101" s="57"/>
-      <c r="G101" s="57" t="s">
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="H101" s="57"/>
-      <c r="I101" s="57"/>
-      <c r="J101" s="57"/>
-      <c r="K101" s="57"/>
-      <c r="L101" s="57"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="53"/>
+      <c r="J101" s="53"/>
+      <c r="K101" s="53"/>
+      <c r="L101" s="53"/>
       <c r="M101" s="24" t="s">
         <v>88</v>
       </c>
@@ -7721,21 +8735,21 @@
       <c r="A102" s="23">
         <v>6</v>
       </c>
-      <c r="B102" s="57" t="s">
+      <c r="B102" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="C102" s="57"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="57"/>
-      <c r="G102" s="57" t="s">
+      <c r="C102" s="53"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="H102" s="57"/>
-      <c r="I102" s="57"/>
-      <c r="J102" s="57"/>
-      <c r="K102" s="57"/>
-      <c r="L102" s="57"/>
+      <c r="H102" s="53"/>
+      <c r="I102" s="53"/>
+      <c r="J102" s="53"/>
+      <c r="K102" s="53"/>
+      <c r="L102" s="53"/>
       <c r="M102" s="24" t="s">
         <v>88</v>
       </c>
@@ -7744,21 +8758,21 @@
       <c r="A103" s="23">
         <v>7</v>
       </c>
-      <c r="B103" s="57" t="s">
+      <c r="B103" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="C103" s="57"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57" t="s">
+      <c r="C103" s="53"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="H103" s="57"/>
-      <c r="I103" s="57"/>
-      <c r="J103" s="57"/>
-      <c r="K103" s="57"/>
-      <c r="L103" s="57"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="53"/>
+      <c r="J103" s="53"/>
+      <c r="K103" s="53"/>
+      <c r="L103" s="53"/>
       <c r="M103" s="24" t="s">
         <v>88</v>
       </c>
@@ -7767,21 +8781,21 @@
       <c r="A104" s="23">
         <v>8</v>
       </c>
-      <c r="B104" s="57" t="s">
+      <c r="B104" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C104" s="57"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57" t="s">
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="H104" s="57"/>
-      <c r="I104" s="57"/>
-      <c r="J104" s="57"/>
-      <c r="K104" s="57"/>
-      <c r="L104" s="57"/>
+      <c r="H104" s="53"/>
+      <c r="I104" s="53"/>
+      <c r="J104" s="53"/>
+      <c r="K104" s="53"/>
+      <c r="L104" s="53"/>
       <c r="M104" s="24" t="s">
         <v>88</v>
       </c>
@@ -7790,21 +8804,21 @@
       <c r="A105" s="23">
         <v>9</v>
       </c>
-      <c r="B105" s="57" t="s">
+      <c r="B105" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="57"/>
-      <c r="G105" s="57" t="s">
+      <c r="C105" s="53"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57"/>
-      <c r="J105" s="57"/>
-      <c r="K105" s="57"/>
-      <c r="L105" s="57"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="53"/>
+      <c r="J105" s="53"/>
+      <c r="K105" s="53"/>
+      <c r="L105" s="53"/>
       <c r="M105" s="24" t="s">
         <v>88</v>
       </c>
@@ -7813,21 +8827,21 @@
       <c r="A106" s="23">
         <v>10</v>
       </c>
-      <c r="B106" s="57" t="s">
+      <c r="B106" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="C106" s="57"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57" t="s">
+      <c r="C106" s="53"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="H106" s="57"/>
-      <c r="I106" s="57"/>
-      <c r="J106" s="57"/>
-      <c r="K106" s="57"/>
-      <c r="L106" s="57"/>
+      <c r="H106" s="53"/>
+      <c r="I106" s="53"/>
+      <c r="J106" s="53"/>
+      <c r="K106" s="53"/>
+      <c r="L106" s="53"/>
       <c r="M106" s="24" t="s">
         <v>88</v>
       </c>
@@ -7836,54 +8850,54 @@
       <c r="A107" s="23">
         <v>11</v>
       </c>
-      <c r="B107" s="57" t="s">
+      <c r="B107" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57" t="s">
+      <c r="C107" s="53"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="53"/>
+      <c r="F107" s="53"/>
+      <c r="G107" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="H107" s="57"/>
-      <c r="I107" s="57"/>
-      <c r="J107" s="57"/>
-      <c r="K107" s="57"/>
-      <c r="L107" s="57"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="53"/>
+      <c r="J107" s="53"/>
+      <c r="K107" s="53"/>
+      <c r="L107" s="53"/>
       <c r="M107" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A111" s="63" t="s">
+      <c r="A111" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B111" s="64"/>
-      <c r="C111" s="64"/>
-      <c r="D111" s="64"/>
-      <c r="E111" s="64"/>
-      <c r="F111" s="64"/>
-      <c r="G111" s="64"/>
-      <c r="H111" s="64"/>
-      <c r="I111" s="64"/>
-      <c r="J111" s="64"/>
-      <c r="K111" s="64"/>
-      <c r="L111" s="65"/>
+      <c r="B111" s="69"/>
+      <c r="C111" s="69"/>
+      <c r="D111" s="69"/>
+      <c r="E111" s="69"/>
+      <c r="F111" s="69"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="69"/>
+      <c r="I111" s="69"/>
+      <c r="J111" s="69"/>
+      <c r="K111" s="69"/>
+      <c r="L111" s="70"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A112" s="66"/>
-      <c r="B112" s="67"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="67"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="67"/>
-      <c r="H112" s="67"/>
-      <c r="I112" s="67"/>
-      <c r="J112" s="67"/>
-      <c r="K112" s="67"/>
-      <c r="L112" s="68"/>
+      <c r="A112" s="71"/>
+      <c r="B112" s="72"/>
+      <c r="C112" s="72"/>
+      <c r="D112" s="72"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="72"/>
+      <c r="H112" s="72"/>
+      <c r="I112" s="72"/>
+      <c r="J112" s="72"/>
+      <c r="K112" s="72"/>
+      <c r="L112" s="73"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
@@ -7896,14 +8910,14 @@
         <v>70</v>
       </c>
       <c r="E116" s="10"/>
-      <c r="F116" s="49" t="s">
+      <c r="F116" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="G116" s="49"/>
-      <c r="H116" s="49"/>
-      <c r="I116" s="49"/>
-      <c r="J116" s="49"/>
-      <c r="K116" s="49"/>
+      <c r="G116" s="63"/>
+      <c r="H116" s="63"/>
+      <c r="I116" s="63"/>
+      <c r="J116" s="63"/>
+      <c r="K116" s="63"/>
       <c r="M116" s="5"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -7917,14 +8931,14 @@
         <v>73</v>
       </c>
       <c r="E117" s="10"/>
-      <c r="F117" s="50" t="s">
+      <c r="F117" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="G117" s="50"/>
-      <c r="H117" s="50"/>
-      <c r="I117" s="50"/>
-      <c r="J117" s="50"/>
-      <c r="K117" s="50"/>
+      <c r="G117" s="64"/>
+      <c r="H117" s="64"/>
+      <c r="I117" s="64"/>
+      <c r="J117" s="64"/>
+      <c r="K117" s="64"/>
       <c r="M117" s="5"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -7958,12 +8972,12 @@
       <c r="G122" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H122" s="51" t="s">
+      <c r="H122" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="I122" s="52"/>
-      <c r="J122" s="52"/>
-      <c r="K122" s="53"/>
+      <c r="I122" s="66"/>
+      <c r="J122" s="66"/>
+      <c r="K122" s="67"/>
       <c r="M122" s="5"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -7979,12 +8993,12 @@
       <c r="G123" s="21">
         <v>1</v>
       </c>
-      <c r="H123" s="54" t="s">
+      <c r="H123" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="I123" s="55"/>
-      <c r="J123" s="55"/>
-      <c r="K123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="57"/>
       <c r="M123" s="5"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -8012,12 +9026,12 @@
       <c r="G125" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H125" s="51" t="s">
+      <c r="H125" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I125" s="52"/>
-      <c r="J125" s="52"/>
-      <c r="K125" s="53"/>
+      <c r="I125" s="66"/>
+      <c r="J125" s="66"/>
+      <c r="K125" s="67"/>
       <c r="M125" s="5"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -8025,24 +9039,24 @@
       <c r="G126" s="21">
         <v>1</v>
       </c>
-      <c r="H126" s="54" t="s">
+      <c r="H126" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="I126" s="55"/>
-      <c r="J126" s="55"/>
-      <c r="K126" s="56"/>
+      <c r="I126" s="56"/>
+      <c r="J126" s="56"/>
+      <c r="K126" s="57"/>
       <c r="M126" s="5"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G127" s="21">
         <v>1</v>
       </c>
-      <c r="H127" s="54" t="s">
+      <c r="H127" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="I127" s="55"/>
-      <c r="J127" s="55"/>
-      <c r="K127" s="56"/>
+      <c r="I127" s="56"/>
+      <c r="J127" s="56"/>
+      <c r="K127" s="57"/>
       <c r="M127" s="5"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -8089,62 +9103,62 @@
       <c r="M132" s="5"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A133" s="48" t="s">
+      <c r="A133" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B133" s="48" t="s">
+      <c r="B133" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C133" s="48"/>
-      <c r="D133" s="48"/>
-      <c r="E133" s="48"/>
-      <c r="F133" s="48"/>
-      <c r="G133" s="48" t="s">
+      <c r="C133" s="54"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="54"/>
+      <c r="F133" s="54"/>
+      <c r="G133" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H133" s="48"/>
-      <c r="I133" s="48"/>
-      <c r="J133" s="48"/>
-      <c r="K133" s="48"/>
-      <c r="L133" s="48"/>
-      <c r="M133" s="48" t="s">
+      <c r="H133" s="54"/>
+      <c r="I133" s="54"/>
+      <c r="J133" s="54"/>
+      <c r="K133" s="54"/>
+      <c r="L133" s="54"/>
+      <c r="M133" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A134" s="48"/>
-      <c r="B134" s="48"/>
-      <c r="C134" s="48"/>
-      <c r="D134" s="48"/>
-      <c r="E134" s="48"/>
-      <c r="F134" s="48"/>
-      <c r="G134" s="48"/>
-      <c r="H134" s="48"/>
-      <c r="I134" s="48"/>
-      <c r="J134" s="48"/>
-      <c r="K134" s="48"/>
-      <c r="L134" s="48"/>
-      <c r="M134" s="48"/>
+      <c r="A134" s="54"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="54"/>
+      <c r="E134" s="54"/>
+      <c r="F134" s="54"/>
+      <c r="G134" s="54"/>
+      <c r="H134" s="54"/>
+      <c r="I134" s="54"/>
+      <c r="J134" s="54"/>
+      <c r="K134" s="54"/>
+      <c r="L134" s="54"/>
+      <c r="M134" s="54"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="23">
         <v>1</v>
       </c>
-      <c r="B135" s="57" t="s">
+      <c r="B135" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C135" s="57"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="57"/>
-      <c r="F135" s="57"/>
-      <c r="G135" s="57" t="s">
+      <c r="C135" s="53"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="53"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="H135" s="57"/>
-      <c r="I135" s="57"/>
-      <c r="J135" s="57"/>
-      <c r="K135" s="57"/>
-      <c r="L135" s="57"/>
+      <c r="H135" s="53"/>
+      <c r="I135" s="53"/>
+      <c r="J135" s="53"/>
+      <c r="K135" s="53"/>
+      <c r="L135" s="53"/>
       <c r="M135" s="24" t="s">
         <v>88</v>
       </c>
@@ -8153,21 +9167,21 @@
       <c r="A136" s="23">
         <v>2</v>
       </c>
-      <c r="B136" s="57" t="s">
+      <c r="B136" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="C136" s="57"/>
-      <c r="D136" s="57"/>
-      <c r="E136" s="57"/>
-      <c r="F136" s="57"/>
-      <c r="G136" s="57" t="s">
+      <c r="C136" s="53"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="53"/>
+      <c r="F136" s="53"/>
+      <c r="G136" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="H136" s="57"/>
-      <c r="I136" s="57"/>
-      <c r="J136" s="57"/>
-      <c r="K136" s="57"/>
-      <c r="L136" s="57"/>
+      <c r="H136" s="53"/>
+      <c r="I136" s="53"/>
+      <c r="J136" s="53"/>
+      <c r="K136" s="53"/>
+      <c r="L136" s="53"/>
       <c r="M136" s="24" t="s">
         <v>88</v>
       </c>
@@ -8176,21 +9190,21 @@
       <c r="A137" s="23">
         <v>3</v>
       </c>
-      <c r="B137" s="57" t="s">
+      <c r="B137" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="C137" s="57"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="57"/>
-      <c r="F137" s="57"/>
-      <c r="G137" s="57" t="s">
+      <c r="C137" s="53"/>
+      <c r="D137" s="53"/>
+      <c r="E137" s="53"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="H137" s="57"/>
-      <c r="I137" s="57"/>
-      <c r="J137" s="57"/>
-      <c r="K137" s="57"/>
-      <c r="L137" s="57"/>
+      <c r="H137" s="53"/>
+      <c r="I137" s="53"/>
+      <c r="J137" s="53"/>
+      <c r="K137" s="53"/>
+      <c r="L137" s="53"/>
       <c r="M137" s="24" t="s">
         <v>88</v>
       </c>
@@ -8199,21 +9213,21 @@
       <c r="A138" s="23">
         <v>4</v>
       </c>
-      <c r="B138" s="57" t="s">
+      <c r="B138" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C138" s="57"/>
-      <c r="D138" s="57"/>
-      <c r="E138" s="57"/>
-      <c r="F138" s="57"/>
-      <c r="G138" s="57" t="s">
+      <c r="C138" s="53"/>
+      <c r="D138" s="53"/>
+      <c r="E138" s="53"/>
+      <c r="F138" s="53"/>
+      <c r="G138" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="H138" s="57"/>
-      <c r="I138" s="57"/>
-      <c r="J138" s="57"/>
-      <c r="K138" s="57"/>
-      <c r="L138" s="57"/>
+      <c r="H138" s="53"/>
+      <c r="I138" s="53"/>
+      <c r="J138" s="53"/>
+      <c r="K138" s="53"/>
+      <c r="L138" s="53"/>
       <c r="M138" s="24" t="s">
         <v>88</v>
       </c>
@@ -8222,21 +9236,21 @@
       <c r="A139" s="23">
         <v>5</v>
       </c>
-      <c r="B139" s="57" t="s">
+      <c r="B139" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="C139" s="57"/>
-      <c r="D139" s="57"/>
-      <c r="E139" s="57"/>
-      <c r="F139" s="57"/>
-      <c r="G139" s="57" t="s">
+      <c r="C139" s="53"/>
+      <c r="D139" s="53"/>
+      <c r="E139" s="53"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="H139" s="57"/>
-      <c r="I139" s="57"/>
-      <c r="J139" s="57"/>
-      <c r="K139" s="57"/>
-      <c r="L139" s="57"/>
+      <c r="H139" s="53"/>
+      <c r="I139" s="53"/>
+      <c r="J139" s="53"/>
+      <c r="K139" s="53"/>
+      <c r="L139" s="53"/>
       <c r="M139" s="24" t="s">
         <v>88</v>
       </c>
@@ -8245,21 +9259,21 @@
       <c r="A140" s="23">
         <v>6</v>
       </c>
-      <c r="B140" s="57" t="s">
+      <c r="B140" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="C140" s="57"/>
-      <c r="D140" s="57"/>
-      <c r="E140" s="57"/>
-      <c r="F140" s="57"/>
-      <c r="G140" s="57" t="s">
+      <c r="C140" s="53"/>
+      <c r="D140" s="53"/>
+      <c r="E140" s="53"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="H140" s="57"/>
-      <c r="I140" s="57"/>
-      <c r="J140" s="57"/>
-      <c r="K140" s="57"/>
-      <c r="L140" s="57"/>
+      <c r="H140" s="53"/>
+      <c r="I140" s="53"/>
+      <c r="J140" s="53"/>
+      <c r="K140" s="53"/>
+      <c r="L140" s="53"/>
       <c r="M140" s="24" t="s">
         <v>88</v>
       </c>
@@ -8268,21 +9282,21 @@
       <c r="A141" s="23">
         <v>7</v>
       </c>
-      <c r="B141" s="57" t="s">
+      <c r="B141" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="C141" s="57"/>
-      <c r="D141" s="57"/>
-      <c r="E141" s="57"/>
-      <c r="F141" s="57"/>
-      <c r="G141" s="57" t="s">
+      <c r="C141" s="53"/>
+      <c r="D141" s="53"/>
+      <c r="E141" s="53"/>
+      <c r="F141" s="53"/>
+      <c r="G141" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="H141" s="57"/>
-      <c r="I141" s="57"/>
-      <c r="J141" s="57"/>
-      <c r="K141" s="57"/>
-      <c r="L141" s="57"/>
+      <c r="H141" s="53"/>
+      <c r="I141" s="53"/>
+      <c r="J141" s="53"/>
+      <c r="K141" s="53"/>
+      <c r="L141" s="53"/>
       <c r="M141" s="24" t="s">
         <v>88</v>
       </c>
@@ -8291,21 +9305,21 @@
       <c r="A142" s="23">
         <v>8</v>
       </c>
-      <c r="B142" s="57" t="s">
+      <c r="B142" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C142" s="57"/>
-      <c r="D142" s="57"/>
-      <c r="E142" s="57"/>
-      <c r="F142" s="57"/>
-      <c r="G142" s="57" t="s">
+      <c r="C142" s="53"/>
+      <c r="D142" s="53"/>
+      <c r="E142" s="53"/>
+      <c r="F142" s="53"/>
+      <c r="G142" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="H142" s="57"/>
-      <c r="I142" s="57"/>
-      <c r="J142" s="57"/>
-      <c r="K142" s="57"/>
-      <c r="L142" s="57"/>
+      <c r="H142" s="53"/>
+      <c r="I142" s="53"/>
+      <c r="J142" s="53"/>
+      <c r="K142" s="53"/>
+      <c r="L142" s="53"/>
       <c r="M142" s="24" t="s">
         <v>88</v>
       </c>
@@ -8314,21 +9328,21 @@
       <c r="A143" s="23">
         <v>9</v>
       </c>
-      <c r="B143" s="57" t="s">
+      <c r="B143" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="C143" s="57"/>
-      <c r="D143" s="57"/>
-      <c r="E143" s="57"/>
-      <c r="F143" s="57"/>
-      <c r="G143" s="57" t="s">
+      <c r="C143" s="53"/>
+      <c r="D143" s="53"/>
+      <c r="E143" s="53"/>
+      <c r="F143" s="53"/>
+      <c r="G143" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="H143" s="57"/>
-      <c r="I143" s="57"/>
-      <c r="J143" s="57"/>
-      <c r="K143" s="57"/>
-      <c r="L143" s="57"/>
+      <c r="H143" s="53"/>
+      <c r="I143" s="53"/>
+      <c r="J143" s="53"/>
+      <c r="K143" s="53"/>
+      <c r="L143" s="53"/>
       <c r="M143" s="24" t="s">
         <v>88</v>
       </c>
@@ -8337,21 +9351,21 @@
       <c r="A144" s="23">
         <v>10</v>
       </c>
-      <c r="B144" s="72" t="s">
+      <c r="B144" s="81" t="s">
         <v>213</v>
       </c>
-      <c r="C144" s="72"/>
-      <c r="D144" s="72"/>
-      <c r="E144" s="72"/>
-      <c r="F144" s="72"/>
-      <c r="G144" s="57" t="s">
+      <c r="C144" s="81"/>
+      <c r="D144" s="81"/>
+      <c r="E144" s="81"/>
+      <c r="F144" s="81"/>
+      <c r="G144" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="H144" s="57"/>
-      <c r="I144" s="57"/>
-      <c r="J144" s="57"/>
-      <c r="K144" s="57"/>
-      <c r="L144" s="57"/>
+      <c r="H144" s="53"/>
+      <c r="I144" s="53"/>
+      <c r="J144" s="53"/>
+      <c r="K144" s="53"/>
+      <c r="L144" s="53"/>
       <c r="M144" s="24" t="s">
         <v>88</v>
       </c>
@@ -8360,21 +9374,21 @@
       <c r="A145" s="23">
         <v>11</v>
       </c>
-      <c r="B145" s="72" t="s">
+      <c r="B145" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="C145" s="72"/>
-      <c r="D145" s="72"/>
-      <c r="E145" s="72"/>
-      <c r="F145" s="72"/>
-      <c r="G145" s="57" t="s">
+      <c r="C145" s="81"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="81"/>
+      <c r="G145" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="H145" s="57"/>
-      <c r="I145" s="57"/>
-      <c r="J145" s="57"/>
-      <c r="K145" s="57"/>
-      <c r="L145" s="57"/>
+      <c r="H145" s="53"/>
+      <c r="I145" s="53"/>
+      <c r="J145" s="53"/>
+      <c r="K145" s="53"/>
+      <c r="L145" s="53"/>
       <c r="M145" s="24" t="s">
         <v>88</v>
       </c>
@@ -8383,21 +9397,21 @@
       <c r="A146" s="23">
         <v>12</v>
       </c>
-      <c r="B146" s="57" t="s">
+      <c r="B146" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="C146" s="57"/>
-      <c r="D146" s="57"/>
-      <c r="E146" s="57"/>
-      <c r="F146" s="57"/>
-      <c r="G146" s="57" t="s">
+      <c r="C146" s="53"/>
+      <c r="D146" s="53"/>
+      <c r="E146" s="53"/>
+      <c r="F146" s="53"/>
+      <c r="G146" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="H146" s="57"/>
-      <c r="I146" s="57"/>
-      <c r="J146" s="57"/>
-      <c r="K146" s="57"/>
-      <c r="L146" s="57"/>
+      <c r="H146" s="53"/>
+      <c r="I146" s="53"/>
+      <c r="J146" s="53"/>
+      <c r="K146" s="53"/>
+      <c r="L146" s="53"/>
       <c r="M146" s="24" t="s">
         <v>88</v>
       </c>
@@ -8406,21 +9420,21 @@
       <c r="A147" s="23">
         <v>10</v>
       </c>
-      <c r="B147" s="72" t="s">
+      <c r="B147" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="C147" s="72"/>
-      <c r="D147" s="72"/>
-      <c r="E147" s="72"/>
-      <c r="F147" s="72"/>
-      <c r="G147" s="57" t="s">
+      <c r="C147" s="81"/>
+      <c r="D147" s="81"/>
+      <c r="E147" s="81"/>
+      <c r="F147" s="81"/>
+      <c r="G147" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="H147" s="57"/>
-      <c r="I147" s="57"/>
-      <c r="J147" s="57"/>
-      <c r="K147" s="57"/>
-      <c r="L147" s="57"/>
+      <c r="H147" s="53"/>
+      <c r="I147" s="53"/>
+      <c r="J147" s="53"/>
+      <c r="K147" s="53"/>
+      <c r="L147" s="53"/>
       <c r="M147" s="24" t="s">
         <v>88</v>
       </c>
@@ -8429,21 +9443,21 @@
       <c r="A148" s="23">
         <v>11</v>
       </c>
-      <c r="B148" s="72" t="s">
+      <c r="B148" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="C148" s="72"/>
-      <c r="D148" s="72"/>
-      <c r="E148" s="72"/>
-      <c r="F148" s="72"/>
-      <c r="G148" s="57" t="s">
+      <c r="C148" s="81"/>
+      <c r="D148" s="81"/>
+      <c r="E148" s="81"/>
+      <c r="F148" s="81"/>
+      <c r="G148" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="H148" s="57"/>
-      <c r="I148" s="57"/>
-      <c r="J148" s="57"/>
-      <c r="K148" s="57"/>
-      <c r="L148" s="57"/>
+      <c r="H148" s="53"/>
+      <c r="I148" s="53"/>
+      <c r="J148" s="53"/>
+      <c r="K148" s="53"/>
+      <c r="L148" s="53"/>
       <c r="M148" s="24" t="s">
         <v>88</v>
       </c>
@@ -8452,21 +9466,21 @@
       <c r="A149" s="23">
         <v>12</v>
       </c>
-      <c r="B149" s="57" t="s">
+      <c r="B149" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="C149" s="57"/>
-      <c r="D149" s="57"/>
-      <c r="E149" s="57"/>
-      <c r="F149" s="57"/>
-      <c r="G149" s="57" t="s">
+      <c r="C149" s="53"/>
+      <c r="D149" s="53"/>
+      <c r="E149" s="53"/>
+      <c r="F149" s="53"/>
+      <c r="G149" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="H149" s="57"/>
-      <c r="I149" s="57"/>
-      <c r="J149" s="57"/>
-      <c r="K149" s="57"/>
-      <c r="L149" s="57"/>
+      <c r="H149" s="53"/>
+      <c r="I149" s="53"/>
+      <c r="J149" s="53"/>
+      <c r="K149" s="53"/>
+      <c r="L149" s="53"/>
       <c r="M149" s="24" t="s">
         <v>88</v>
       </c>
@@ -8475,21 +9489,21 @@
       <c r="A150" s="23">
         <v>13</v>
       </c>
-      <c r="B150" s="73" t="s">
+      <c r="B150" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="C150" s="73"/>
-      <c r="D150" s="73"/>
-      <c r="E150" s="73"/>
-      <c r="F150" s="73"/>
-      <c r="G150" s="57" t="s">
+      <c r="C150" s="77"/>
+      <c r="D150" s="77"/>
+      <c r="E150" s="77"/>
+      <c r="F150" s="77"/>
+      <c r="G150" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="H150" s="57"/>
-      <c r="I150" s="57"/>
-      <c r="J150" s="57"/>
-      <c r="K150" s="57"/>
-      <c r="L150" s="57"/>
+      <c r="H150" s="53"/>
+      <c r="I150" s="53"/>
+      <c r="J150" s="53"/>
+      <c r="K150" s="53"/>
+      <c r="L150" s="53"/>
       <c r="M150" s="24" t="s">
         <v>88</v>
       </c>
@@ -8498,21 +9512,21 @@
       <c r="A151" s="23">
         <v>14</v>
       </c>
-      <c r="B151" s="73" t="s">
+      <c r="B151" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="C151" s="73"/>
-      <c r="D151" s="73"/>
-      <c r="E151" s="73"/>
-      <c r="F151" s="73"/>
-      <c r="G151" s="57" t="s">
+      <c r="C151" s="77"/>
+      <c r="D151" s="77"/>
+      <c r="E151" s="77"/>
+      <c r="F151" s="77"/>
+      <c r="G151" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H151" s="57"/>
-      <c r="I151" s="57"/>
-      <c r="J151" s="57"/>
-      <c r="K151" s="57"/>
-      <c r="L151" s="57"/>
+      <c r="H151" s="53"/>
+      <c r="I151" s="53"/>
+      <c r="J151" s="53"/>
+      <c r="K151" s="53"/>
+      <c r="L151" s="53"/>
       <c r="M151" s="24" t="s">
         <v>88</v>
       </c>
@@ -8521,21 +9535,21 @@
       <c r="A152" s="23">
         <v>15</v>
       </c>
-      <c r="B152" s="74" t="s">
+      <c r="B152" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="C152" s="75"/>
-      <c r="D152" s="75"/>
-      <c r="E152" s="75"/>
-      <c r="F152" s="76"/>
-      <c r="G152" s="57" t="s">
+      <c r="C152" s="79"/>
+      <c r="D152" s="79"/>
+      <c r="E152" s="79"/>
+      <c r="F152" s="80"/>
+      <c r="G152" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="H152" s="57"/>
-      <c r="I152" s="57"/>
-      <c r="J152" s="57"/>
-      <c r="K152" s="57"/>
-      <c r="L152" s="57"/>
+      <c r="H152" s="53"/>
+      <c r="I152" s="53"/>
+      <c r="J152" s="53"/>
+      <c r="K152" s="53"/>
+      <c r="L152" s="53"/>
       <c r="M152" s="24" t="s">
         <v>88</v>
       </c>
@@ -8544,21 +9558,21 @@
       <c r="A153" s="23">
         <v>16</v>
       </c>
-      <c r="B153" s="73" t="s">
+      <c r="B153" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="C153" s="73"/>
-      <c r="D153" s="73"/>
-      <c r="E153" s="73"/>
-      <c r="F153" s="73"/>
-      <c r="G153" s="57" t="s">
+      <c r="C153" s="77"/>
+      <c r="D153" s="77"/>
+      <c r="E153" s="77"/>
+      <c r="F153" s="77"/>
+      <c r="G153" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="H153" s="57"/>
-      <c r="I153" s="57"/>
-      <c r="J153" s="57"/>
-      <c r="K153" s="57"/>
-      <c r="L153" s="57"/>
+      <c r="H153" s="53"/>
+      <c r="I153" s="53"/>
+      <c r="J153" s="53"/>
+      <c r="K153" s="53"/>
+      <c r="L153" s="53"/>
       <c r="M153" s="24" t="s">
         <v>88</v>
       </c>
@@ -8567,21 +9581,21 @@
       <c r="A154" s="23">
         <v>17</v>
       </c>
-      <c r="B154" s="73" t="s">
+      <c r="B154" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="C154" s="73"/>
-      <c r="D154" s="73"/>
-      <c r="E154" s="73"/>
-      <c r="F154" s="73"/>
-      <c r="G154" s="57" t="s">
+      <c r="C154" s="77"/>
+      <c r="D154" s="77"/>
+      <c r="E154" s="77"/>
+      <c r="F154" s="77"/>
+      <c r="G154" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H154" s="57"/>
-      <c r="I154" s="57"/>
-      <c r="J154" s="57"/>
-      <c r="K154" s="57"/>
-      <c r="L154" s="57"/>
+      <c r="H154" s="53"/>
+      <c r="I154" s="53"/>
+      <c r="J154" s="53"/>
+      <c r="K154" s="53"/>
+      <c r="L154" s="53"/>
       <c r="M154" s="24" t="s">
         <v>88</v>
       </c>
@@ -8590,21 +9604,21 @@
       <c r="A155" s="23">
         <v>18</v>
       </c>
-      <c r="B155" s="77" t="s">
+      <c r="B155" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="C155" s="77"/>
-      <c r="D155" s="77"/>
-      <c r="E155" s="77"/>
-      <c r="F155" s="77"/>
-      <c r="G155" s="57" t="s">
+      <c r="C155" s="88"/>
+      <c r="D155" s="88"/>
+      <c r="E155" s="88"/>
+      <c r="F155" s="88"/>
+      <c r="G155" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="H155" s="57"/>
-      <c r="I155" s="57"/>
-      <c r="J155" s="57"/>
-      <c r="K155" s="57"/>
-      <c r="L155" s="57"/>
+      <c r="H155" s="53"/>
+      <c r="I155" s="53"/>
+      <c r="J155" s="53"/>
+      <c r="K155" s="53"/>
+      <c r="L155" s="53"/>
       <c r="M155" s="24" t="s">
         <v>88</v>
       </c>
@@ -8613,21 +9627,21 @@
       <c r="A156" s="23">
         <v>19</v>
       </c>
-      <c r="B156" s="57" t="s">
+      <c r="B156" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="C156" s="57"/>
-      <c r="D156" s="57"/>
-      <c r="E156" s="57"/>
-      <c r="F156" s="57"/>
-      <c r="G156" s="57" t="s">
+      <c r="C156" s="53"/>
+      <c r="D156" s="53"/>
+      <c r="E156" s="53"/>
+      <c r="F156" s="53"/>
+      <c r="G156" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="H156" s="57"/>
-      <c r="I156" s="57"/>
-      <c r="J156" s="57"/>
-      <c r="K156" s="57"/>
-      <c r="L156" s="57"/>
+      <c r="H156" s="53"/>
+      <c r="I156" s="53"/>
+      <c r="J156" s="53"/>
+      <c r="K156" s="53"/>
+      <c r="L156" s="53"/>
       <c r="M156" s="24" t="s">
         <v>88</v>
       </c>
@@ -8636,21 +9650,21 @@
       <c r="A157" s="23">
         <v>20</v>
       </c>
-      <c r="B157" s="57" t="s">
+      <c r="B157" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="C157" s="57"/>
-      <c r="D157" s="57"/>
-      <c r="E157" s="57"/>
-      <c r="F157" s="57"/>
-      <c r="G157" s="57" t="s">
+      <c r="C157" s="53"/>
+      <c r="D157" s="53"/>
+      <c r="E157" s="53"/>
+      <c r="F157" s="53"/>
+      <c r="G157" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="H157" s="57"/>
-      <c r="I157" s="57"/>
-      <c r="J157" s="57"/>
-      <c r="K157" s="57"/>
-      <c r="L157" s="57"/>
+      <c r="H157" s="53"/>
+      <c r="I157" s="53"/>
+      <c r="J157" s="53"/>
+      <c r="K157" s="53"/>
+      <c r="L157" s="53"/>
       <c r="M157" s="24" t="s">
         <v>88</v>
       </c>
@@ -8659,54 +9673,54 @@
       <c r="A158" s="23">
         <v>21</v>
       </c>
-      <c r="B158" s="57" t="s">
+      <c r="B158" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="C158" s="57"/>
-      <c r="D158" s="57"/>
-      <c r="E158" s="57"/>
-      <c r="F158" s="57"/>
-      <c r="G158" s="57" t="s">
+      <c r="C158" s="53"/>
+      <c r="D158" s="53"/>
+      <c r="E158" s="53"/>
+      <c r="F158" s="53"/>
+      <c r="G158" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="H158" s="57"/>
-      <c r="I158" s="57"/>
-      <c r="J158" s="57"/>
-      <c r="K158" s="57"/>
-      <c r="L158" s="57"/>
+      <c r="H158" s="53"/>
+      <c r="I158" s="53"/>
+      <c r="J158" s="53"/>
+      <c r="K158" s="53"/>
+      <c r="L158" s="53"/>
       <c r="M158" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A161" s="63" t="s">
+      <c r="A161" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B161" s="64"/>
-      <c r="C161" s="64"/>
-      <c r="D161" s="64"/>
-      <c r="E161" s="64"/>
-      <c r="F161" s="64"/>
-      <c r="G161" s="64"/>
-      <c r="H161" s="64"/>
-      <c r="I161" s="64"/>
-      <c r="J161" s="64"/>
-      <c r="K161" s="64"/>
-      <c r="L161" s="65"/>
+      <c r="B161" s="69"/>
+      <c r="C161" s="69"/>
+      <c r="D161" s="69"/>
+      <c r="E161" s="69"/>
+      <c r="F161" s="69"/>
+      <c r="G161" s="69"/>
+      <c r="H161" s="69"/>
+      <c r="I161" s="69"/>
+      <c r="J161" s="69"/>
+      <c r="K161" s="69"/>
+      <c r="L161" s="70"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A162" s="66"/>
-      <c r="B162" s="67"/>
-      <c r="C162" s="67"/>
-      <c r="D162" s="67"/>
-      <c r="E162" s="67"/>
-      <c r="F162" s="67"/>
-      <c r="G162" s="67"/>
-      <c r="H162" s="67"/>
-      <c r="I162" s="67"/>
-      <c r="J162" s="67"/>
-      <c r="K162" s="67"/>
-      <c r="L162" s="68"/>
+      <c r="A162" s="71"/>
+      <c r="B162" s="72"/>
+      <c r="C162" s="72"/>
+      <c r="D162" s="72"/>
+      <c r="E162" s="72"/>
+      <c r="F162" s="72"/>
+      <c r="G162" s="72"/>
+      <c r="H162" s="72"/>
+      <c r="I162" s="72"/>
+      <c r="J162" s="72"/>
+      <c r="K162" s="72"/>
+      <c r="L162" s="73"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
@@ -8719,14 +9733,14 @@
         <v>70</v>
       </c>
       <c r="E166" s="10"/>
-      <c r="F166" s="49" t="s">
+      <c r="F166" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="G166" s="49"/>
-      <c r="H166" s="49"/>
-      <c r="I166" s="49"/>
-      <c r="J166" s="49"/>
-      <c r="K166" s="49"/>
+      <c r="G166" s="63"/>
+      <c r="H166" s="63"/>
+      <c r="I166" s="63"/>
+      <c r="J166" s="63"/>
+      <c r="K166" s="63"/>
       <c r="M166" s="5"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
@@ -8740,14 +9754,14 @@
         <v>73</v>
       </c>
       <c r="E167" s="10"/>
-      <c r="F167" s="50" t="s">
+      <c r="F167" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="G167" s="50"/>
-      <c r="H167" s="50"/>
-      <c r="I167" s="50"/>
-      <c r="J167" s="50"/>
-      <c r="K167" s="50"/>
+      <c r="G167" s="64"/>
+      <c r="H167" s="64"/>
+      <c r="I167" s="64"/>
+      <c r="J167" s="64"/>
+      <c r="K167" s="64"/>
       <c r="M167" s="5"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
@@ -8781,12 +9795,12 @@
       <c r="G172" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H172" s="51" t="s">
+      <c r="H172" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="I172" s="52"/>
-      <c r="J172" s="52"/>
-      <c r="K172" s="53"/>
+      <c r="I172" s="66"/>
+      <c r="J172" s="66"/>
+      <c r="K172" s="67"/>
       <c r="M172" s="5"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
@@ -8802,12 +9816,12 @@
       <c r="G173" s="21">
         <v>1</v>
       </c>
-      <c r="H173" s="54" t="s">
+      <c r="H173" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="I173" s="55"/>
-      <c r="J173" s="55"/>
-      <c r="K173" s="56"/>
+      <c r="I173" s="56"/>
+      <c r="J173" s="56"/>
+      <c r="K173" s="57"/>
       <c r="M173" s="5"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -8835,12 +9849,12 @@
       <c r="G175" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H175" s="51" t="s">
+      <c r="H175" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I175" s="52"/>
-      <c r="J175" s="52"/>
-      <c r="K175" s="53"/>
+      <c r="I175" s="66"/>
+      <c r="J175" s="66"/>
+      <c r="K175" s="67"/>
       <c r="M175" s="5"/>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
@@ -8848,24 +9862,24 @@
       <c r="G176" s="21">
         <v>1</v>
       </c>
-      <c r="H176" s="54" t="s">
+      <c r="H176" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="I176" s="55"/>
-      <c r="J176" s="55"/>
-      <c r="K176" s="56"/>
+      <c r="I176" s="56"/>
+      <c r="J176" s="56"/>
+      <c r="K176" s="57"/>
       <c r="M176" s="5"/>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G177" s="21">
         <v>1</v>
       </c>
-      <c r="H177" s="54" t="s">
+      <c r="H177" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="I177" s="55"/>
-      <c r="J177" s="55"/>
-      <c r="K177" s="56"/>
+      <c r="I177" s="56"/>
+      <c r="J177" s="56"/>
+      <c r="K177" s="57"/>
       <c r="M177" s="5"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
@@ -8932,62 +9946,62 @@
       <c r="M183" s="5"/>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A184" s="48" t="s">
+      <c r="A184" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B184" s="48" t="s">
+      <c r="B184" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C184" s="48"/>
-      <c r="D184" s="48"/>
-      <c r="E184" s="48"/>
-      <c r="F184" s="48"/>
-      <c r="G184" s="48" t="s">
+      <c r="C184" s="54"/>
+      <c r="D184" s="54"/>
+      <c r="E184" s="54"/>
+      <c r="F184" s="54"/>
+      <c r="G184" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H184" s="48"/>
-      <c r="I184" s="48"/>
-      <c r="J184" s="48"/>
-      <c r="K184" s="48"/>
-      <c r="L184" s="48"/>
-      <c r="M184" s="48" t="s">
+      <c r="H184" s="54"/>
+      <c r="I184" s="54"/>
+      <c r="J184" s="54"/>
+      <c r="K184" s="54"/>
+      <c r="L184" s="54"/>
+      <c r="M184" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A185" s="48"/>
-      <c r="B185" s="48"/>
-      <c r="C185" s="48"/>
-      <c r="D185" s="48"/>
-      <c r="E185" s="48"/>
-      <c r="F185" s="48"/>
-      <c r="G185" s="48"/>
-      <c r="H185" s="48"/>
-      <c r="I185" s="48"/>
-      <c r="J185" s="48"/>
-      <c r="K185" s="48"/>
-      <c r="L185" s="48"/>
-      <c r="M185" s="48"/>
+      <c r="A185" s="54"/>
+      <c r="B185" s="54"/>
+      <c r="C185" s="54"/>
+      <c r="D185" s="54"/>
+      <c r="E185" s="54"/>
+      <c r="F185" s="54"/>
+      <c r="G185" s="54"/>
+      <c r="H185" s="54"/>
+      <c r="I185" s="54"/>
+      <c r="J185" s="54"/>
+      <c r="K185" s="54"/>
+      <c r="L185" s="54"/>
+      <c r="M185" s="54"/>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="23">
         <v>1</v>
       </c>
-      <c r="B186" s="57" t="s">
+      <c r="B186" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C186" s="57"/>
-      <c r="D186" s="57"/>
-      <c r="E186" s="57"/>
-      <c r="F186" s="57"/>
-      <c r="G186" s="57" t="s">
+      <c r="C186" s="53"/>
+      <c r="D186" s="53"/>
+      <c r="E186" s="53"/>
+      <c r="F186" s="53"/>
+      <c r="G186" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="H186" s="57"/>
-      <c r="I186" s="57"/>
-      <c r="J186" s="57"/>
-      <c r="K186" s="57"/>
-      <c r="L186" s="57"/>
+      <c r="H186" s="53"/>
+      <c r="I186" s="53"/>
+      <c r="J186" s="53"/>
+      <c r="K186" s="53"/>
+      <c r="L186" s="53"/>
       <c r="M186" s="24" t="s">
         <v>88</v>
       </c>
@@ -8996,21 +10010,21 @@
       <c r="A187" s="23">
         <v>2</v>
       </c>
-      <c r="B187" s="57" t="s">
+      <c r="B187" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="C187" s="57"/>
-      <c r="D187" s="57"/>
-      <c r="E187" s="57"/>
-      <c r="F187" s="57"/>
-      <c r="G187" s="57" t="s">
+      <c r="C187" s="53"/>
+      <c r="D187" s="53"/>
+      <c r="E187" s="53"/>
+      <c r="F187" s="53"/>
+      <c r="G187" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="H187" s="57"/>
-      <c r="I187" s="57"/>
-      <c r="J187" s="57"/>
-      <c r="K187" s="57"/>
-      <c r="L187" s="57"/>
+      <c r="H187" s="53"/>
+      <c r="I187" s="53"/>
+      <c r="J187" s="53"/>
+      <c r="K187" s="53"/>
+      <c r="L187" s="53"/>
       <c r="M187" s="24" t="s">
         <v>88</v>
       </c>
@@ -9019,21 +10033,21 @@
       <c r="A188" s="23">
         <v>3</v>
       </c>
-      <c r="B188" s="57" t="s">
+      <c r="B188" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="C188" s="57"/>
-      <c r="D188" s="57"/>
-      <c r="E188" s="57"/>
-      <c r="F188" s="57"/>
-      <c r="G188" s="57" t="s">
+      <c r="C188" s="53"/>
+      <c r="D188" s="53"/>
+      <c r="E188" s="53"/>
+      <c r="F188" s="53"/>
+      <c r="G188" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="H188" s="57"/>
-      <c r="I188" s="57"/>
-      <c r="J188" s="57"/>
-      <c r="K188" s="57"/>
-      <c r="L188" s="57"/>
+      <c r="H188" s="53"/>
+      <c r="I188" s="53"/>
+      <c r="J188" s="53"/>
+      <c r="K188" s="53"/>
+      <c r="L188" s="53"/>
       <c r="M188" s="24" t="s">
         <v>88</v>
       </c>
@@ -9042,21 +10056,21 @@
       <c r="A189" s="23">
         <v>4</v>
       </c>
-      <c r="B189" s="57" t="s">
+      <c r="B189" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="C189" s="57"/>
-      <c r="D189" s="57"/>
-      <c r="E189" s="57"/>
-      <c r="F189" s="57"/>
-      <c r="G189" s="57" t="s">
+      <c r="C189" s="53"/>
+      <c r="D189" s="53"/>
+      <c r="E189" s="53"/>
+      <c r="F189" s="53"/>
+      <c r="G189" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="H189" s="57"/>
-      <c r="I189" s="57"/>
-      <c r="J189" s="57"/>
-      <c r="K189" s="57"/>
-      <c r="L189" s="57"/>
+      <c r="H189" s="53"/>
+      <c r="I189" s="53"/>
+      <c r="J189" s="53"/>
+      <c r="K189" s="53"/>
+      <c r="L189" s="53"/>
       <c r="M189" s="24" t="s">
         <v>88</v>
       </c>
@@ -9065,54 +10079,54 @@
       <c r="A190" s="23">
         <v>5</v>
       </c>
-      <c r="B190" s="57" t="s">
+      <c r="B190" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="C190" s="57"/>
-      <c r="D190" s="57"/>
-      <c r="E190" s="57"/>
-      <c r="F190" s="57"/>
-      <c r="G190" s="57" t="s">
+      <c r="C190" s="53"/>
+      <c r="D190" s="53"/>
+      <c r="E190" s="53"/>
+      <c r="F190" s="53"/>
+      <c r="G190" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="H190" s="57"/>
-      <c r="I190" s="57"/>
-      <c r="J190" s="57"/>
-      <c r="K190" s="57"/>
-      <c r="L190" s="57"/>
+      <c r="H190" s="53"/>
+      <c r="I190" s="53"/>
+      <c r="J190" s="53"/>
+      <c r="K190" s="53"/>
+      <c r="L190" s="53"/>
       <c r="M190" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A194" s="63" t="s">
+      <c r="A194" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B194" s="64"/>
-      <c r="C194" s="64"/>
-      <c r="D194" s="64"/>
-      <c r="E194" s="64"/>
-      <c r="F194" s="64"/>
-      <c r="G194" s="64"/>
-      <c r="H194" s="64"/>
-      <c r="I194" s="64"/>
-      <c r="J194" s="64"/>
-      <c r="K194" s="64"/>
-      <c r="L194" s="65"/>
+      <c r="B194" s="69"/>
+      <c r="C194" s="69"/>
+      <c r="D194" s="69"/>
+      <c r="E194" s="69"/>
+      <c r="F194" s="69"/>
+      <c r="G194" s="69"/>
+      <c r="H194" s="69"/>
+      <c r="I194" s="69"/>
+      <c r="J194" s="69"/>
+      <c r="K194" s="69"/>
+      <c r="L194" s="70"/>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A195" s="66"/>
-      <c r="B195" s="67"/>
-      <c r="C195" s="67"/>
-      <c r="D195" s="67"/>
-      <c r="E195" s="67"/>
-      <c r="F195" s="67"/>
-      <c r="G195" s="67"/>
-      <c r="H195" s="67"/>
-      <c r="I195" s="67"/>
-      <c r="J195" s="67"/>
-      <c r="K195" s="67"/>
-      <c r="L195" s="68"/>
+      <c r="A195" s="71"/>
+      <c r="B195" s="72"/>
+      <c r="C195" s="72"/>
+      <c r="D195" s="72"/>
+      <c r="E195" s="72"/>
+      <c r="F195" s="72"/>
+      <c r="G195" s="72"/>
+      <c r="H195" s="72"/>
+      <c r="I195" s="72"/>
+      <c r="J195" s="72"/>
+      <c r="K195" s="72"/>
+      <c r="L195" s="73"/>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
@@ -9125,14 +10139,14 @@
         <v>70</v>
       </c>
       <c r="E199" s="10"/>
-      <c r="F199" s="49" t="s">
+      <c r="F199" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="G199" s="49"/>
-      <c r="H199" s="49"/>
-      <c r="I199" s="49"/>
-      <c r="J199" s="49"/>
-      <c r="K199" s="49"/>
+      <c r="G199" s="63"/>
+      <c r="H199" s="63"/>
+      <c r="I199" s="63"/>
+      <c r="J199" s="63"/>
+      <c r="K199" s="63"/>
       <c r="M199" s="5"/>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
@@ -9146,14 +10160,14 @@
         <v>73</v>
       </c>
       <c r="E200" s="10"/>
-      <c r="F200" s="50" t="s">
+      <c r="F200" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="G200" s="50"/>
-      <c r="H200" s="50"/>
-      <c r="I200" s="50"/>
-      <c r="J200" s="50"/>
-      <c r="K200" s="50"/>
+      <c r="G200" s="64"/>
+      <c r="H200" s="64"/>
+      <c r="I200" s="64"/>
+      <c r="J200" s="64"/>
+      <c r="K200" s="64"/>
       <c r="M200" s="5"/>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
@@ -9187,12 +10201,12 @@
       <c r="G205" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H205" s="51" t="s">
+      <c r="H205" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="I205" s="52"/>
-      <c r="J205" s="52"/>
-      <c r="K205" s="53"/>
+      <c r="I205" s="66"/>
+      <c r="J205" s="66"/>
+      <c r="K205" s="67"/>
       <c r="M205" s="5"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
@@ -9208,12 +10222,12 @@
       <c r="G206" s="21">
         <v>1</v>
       </c>
-      <c r="H206" s="54" t="s">
+      <c r="H206" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="I206" s="55"/>
-      <c r="J206" s="55"/>
-      <c r="K206" s="56"/>
+      <c r="I206" s="56"/>
+      <c r="J206" s="56"/>
+      <c r="K206" s="57"/>
       <c r="M206" s="5"/>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.2">
@@ -9241,12 +10255,12 @@
       <c r="G208" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H208" s="51" t="s">
+      <c r="H208" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I208" s="52"/>
-      <c r="J208" s="52"/>
-      <c r="K208" s="53"/>
+      <c r="I208" s="66"/>
+      <c r="J208" s="66"/>
+      <c r="K208" s="67"/>
       <c r="M208" s="5"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
@@ -9254,24 +10268,24 @@
       <c r="G209" s="21">
         <v>1</v>
       </c>
-      <c r="H209" s="54" t="s">
+      <c r="H209" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="I209" s="55"/>
-      <c r="J209" s="55"/>
-      <c r="K209" s="56"/>
+      <c r="I209" s="56"/>
+      <c r="J209" s="56"/>
+      <c r="K209" s="57"/>
       <c r="M209" s="5"/>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G210" s="21">
         <v>1</v>
       </c>
-      <c r="H210" s="54" t="s">
+      <c r="H210" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="I210" s="55"/>
-      <c r="J210" s="55"/>
-      <c r="K210" s="56"/>
+      <c r="I210" s="56"/>
+      <c r="J210" s="56"/>
+      <c r="K210" s="57"/>
       <c r="M210" s="5"/>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.2">
@@ -9335,62 +10349,62 @@
       <c r="M215" s="5"/>
     </row>
     <row r="216" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="48" t="s">
+      <c r="A216" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B216" s="48" t="s">
+      <c r="B216" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C216" s="48"/>
-      <c r="D216" s="48"/>
-      <c r="E216" s="48"/>
-      <c r="F216" s="48"/>
-      <c r="G216" s="78" t="s">
+      <c r="C216" s="54"/>
+      <c r="D216" s="54"/>
+      <c r="E216" s="54"/>
+      <c r="F216" s="54"/>
+      <c r="G216" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="H216" s="79"/>
-      <c r="I216" s="79"/>
-      <c r="J216" s="79"/>
-      <c r="K216" s="79"/>
-      <c r="L216" s="80"/>
-      <c r="M216" s="48" t="s">
+      <c r="H216" s="83"/>
+      <c r="I216" s="83"/>
+      <c r="J216" s="83"/>
+      <c r="K216" s="83"/>
+      <c r="L216" s="84"/>
+      <c r="M216" s="54" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A217" s="48"/>
-      <c r="B217" s="48"/>
-      <c r="C217" s="48"/>
-      <c r="D217" s="48"/>
-      <c r="E217" s="48"/>
-      <c r="F217" s="48"/>
-      <c r="G217" s="81"/>
-      <c r="H217" s="82"/>
-      <c r="I217" s="82"/>
-      <c r="J217" s="82"/>
-      <c r="K217" s="82"/>
-      <c r="L217" s="83"/>
-      <c r="M217" s="48"/>
+      <c r="A217" s="54"/>
+      <c r="B217" s="54"/>
+      <c r="C217" s="54"/>
+      <c r="D217" s="54"/>
+      <c r="E217" s="54"/>
+      <c r="F217" s="54"/>
+      <c r="G217" s="85"/>
+      <c r="H217" s="86"/>
+      <c r="I217" s="86"/>
+      <c r="J217" s="86"/>
+      <c r="K217" s="86"/>
+      <c r="L217" s="87"/>
+      <c r="M217" s="54"/>
     </row>
     <row r="218" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="23">
         <v>1</v>
       </c>
-      <c r="B218" s="57" t="s">
+      <c r="B218" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C218" s="57"/>
-      <c r="D218" s="57"/>
-      <c r="E218" s="57"/>
-      <c r="F218" s="57"/>
-      <c r="G218" s="57" t="s">
+      <c r="C218" s="53"/>
+      <c r="D218" s="53"/>
+      <c r="E218" s="53"/>
+      <c r="F218" s="53"/>
+      <c r="G218" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="H218" s="57"/>
-      <c r="I218" s="57"/>
-      <c r="J218" s="57"/>
-      <c r="K218" s="57"/>
-      <c r="L218" s="57"/>
+      <c r="H218" s="53"/>
+      <c r="I218" s="53"/>
+      <c r="J218" s="53"/>
+      <c r="K218" s="53"/>
+      <c r="L218" s="53"/>
       <c r="M218" s="24" t="s">
         <v>88</v>
       </c>
@@ -9399,21 +10413,21 @@
       <c r="A219" s="23">
         <v>2</v>
       </c>
-      <c r="B219" s="57" t="s">
+      <c r="B219" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="C219" s="57"/>
-      <c r="D219" s="57"/>
-      <c r="E219" s="57"/>
-      <c r="F219" s="57"/>
-      <c r="G219" s="57" t="s">
+      <c r="C219" s="53"/>
+      <c r="D219" s="53"/>
+      <c r="E219" s="53"/>
+      <c r="F219" s="53"/>
+      <c r="G219" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="H219" s="57"/>
-      <c r="I219" s="57"/>
-      <c r="J219" s="57"/>
-      <c r="K219" s="57"/>
-      <c r="L219" s="57"/>
+      <c r="H219" s="53"/>
+      <c r="I219" s="53"/>
+      <c r="J219" s="53"/>
+      <c r="K219" s="53"/>
+      <c r="L219" s="53"/>
       <c r="M219" s="24" t="s">
         <v>88</v>
       </c>
@@ -9422,21 +10436,21 @@
       <c r="A220" s="23">
         <v>3</v>
       </c>
-      <c r="B220" s="57" t="s">
+      <c r="B220" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="C220" s="57"/>
-      <c r="D220" s="57"/>
-      <c r="E220" s="57"/>
-      <c r="F220" s="57"/>
-      <c r="G220" s="57" t="s">
+      <c r="C220" s="53"/>
+      <c r="D220" s="53"/>
+      <c r="E220" s="53"/>
+      <c r="F220" s="53"/>
+      <c r="G220" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="H220" s="57"/>
-      <c r="I220" s="57"/>
-      <c r="J220" s="57"/>
-      <c r="K220" s="57"/>
-      <c r="L220" s="57"/>
+      <c r="H220" s="53"/>
+      <c r="I220" s="53"/>
+      <c r="J220" s="53"/>
+      <c r="K220" s="53"/>
+      <c r="L220" s="53"/>
       <c r="M220" s="24" t="s">
         <v>88</v>
       </c>
@@ -9445,21 +10459,21 @@
       <c r="A221" s="23">
         <v>4</v>
       </c>
-      <c r="B221" s="57" t="s">
+      <c r="B221" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="C221" s="57"/>
-      <c r="D221" s="57"/>
-      <c r="E221" s="57"/>
-      <c r="F221" s="57"/>
-      <c r="G221" s="57" t="s">
+      <c r="C221" s="53"/>
+      <c r="D221" s="53"/>
+      <c r="E221" s="53"/>
+      <c r="F221" s="53"/>
+      <c r="G221" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="H221" s="57"/>
-      <c r="I221" s="57"/>
-      <c r="J221" s="57"/>
-      <c r="K221" s="57"/>
-      <c r="L221" s="57"/>
+      <c r="H221" s="53"/>
+      <c r="I221" s="53"/>
+      <c r="J221" s="53"/>
+      <c r="K221" s="53"/>
+      <c r="L221" s="53"/>
       <c r="M221" s="24" t="s">
         <v>88</v>
       </c>
@@ -9468,21 +10482,21 @@
       <c r="A222" s="23">
         <v>5</v>
       </c>
-      <c r="B222" s="57" t="s">
+      <c r="B222" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="C222" s="57"/>
-      <c r="D222" s="57"/>
-      <c r="E222" s="57"/>
-      <c r="F222" s="57"/>
-      <c r="G222" s="57" t="s">
+      <c r="C222" s="53"/>
+      <c r="D222" s="53"/>
+      <c r="E222" s="53"/>
+      <c r="F222" s="53"/>
+      <c r="G222" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="H222" s="57"/>
-      <c r="I222" s="57"/>
-      <c r="J222" s="57"/>
-      <c r="K222" s="57"/>
-      <c r="L222" s="57"/>
+      <c r="H222" s="53"/>
+      <c r="I222" s="53"/>
+      <c r="J222" s="53"/>
+      <c r="K222" s="53"/>
+      <c r="L222" s="53"/>
       <c r="M222" s="24" t="s">
         <v>88</v>
       </c>
@@ -9491,21 +10505,21 @@
       <c r="A223" s="23">
         <v>6</v>
       </c>
-      <c r="B223" s="57" t="s">
+      <c r="B223" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="C223" s="57"/>
-      <c r="D223" s="57"/>
-      <c r="E223" s="57"/>
-      <c r="F223" s="57"/>
-      <c r="G223" s="57" t="s">
+      <c r="C223" s="53"/>
+      <c r="D223" s="53"/>
+      <c r="E223" s="53"/>
+      <c r="F223" s="53"/>
+      <c r="G223" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="H223" s="57"/>
-      <c r="I223" s="57"/>
-      <c r="J223" s="57"/>
-      <c r="K223" s="57"/>
-      <c r="L223" s="57"/>
+      <c r="H223" s="53"/>
+      <c r="I223" s="53"/>
+      <c r="J223" s="53"/>
+      <c r="K223" s="53"/>
+      <c r="L223" s="53"/>
       <c r="M223" s="24" t="s">
         <v>88</v>
       </c>
@@ -9514,21 +10528,21 @@
       <c r="A224" s="23">
         <v>7</v>
       </c>
-      <c r="B224" s="57" t="s">
+      <c r="B224" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="C224" s="57"/>
-      <c r="D224" s="57"/>
-      <c r="E224" s="57"/>
-      <c r="F224" s="57"/>
-      <c r="G224" s="57" t="s">
+      <c r="C224" s="53"/>
+      <c r="D224" s="53"/>
+      <c r="E224" s="53"/>
+      <c r="F224" s="53"/>
+      <c r="G224" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="H224" s="57"/>
-      <c r="I224" s="57"/>
-      <c r="J224" s="57"/>
-      <c r="K224" s="57"/>
-      <c r="L224" s="57"/>
+      <c r="H224" s="53"/>
+      <c r="I224" s="53"/>
+      <c r="J224" s="53"/>
+      <c r="K224" s="53"/>
+      <c r="L224" s="53"/>
       <c r="M224" s="24" t="s">
         <v>88</v>
       </c>
@@ -9537,21 +10551,21 @@
       <c r="A225" s="23">
         <v>8</v>
       </c>
-      <c r="B225" s="57" t="s">
+      <c r="B225" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="C225" s="57"/>
-      <c r="D225" s="57"/>
-      <c r="E225" s="57"/>
-      <c r="F225" s="57"/>
-      <c r="G225" s="57" t="s">
+      <c r="C225" s="53"/>
+      <c r="D225" s="53"/>
+      <c r="E225" s="53"/>
+      <c r="F225" s="53"/>
+      <c r="G225" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="H225" s="57"/>
-      <c r="I225" s="57"/>
-      <c r="J225" s="57"/>
-      <c r="K225" s="57"/>
-      <c r="L225" s="57"/>
+      <c r="H225" s="53"/>
+      <c r="I225" s="53"/>
+      <c r="J225" s="53"/>
+      <c r="K225" s="53"/>
+      <c r="L225" s="53"/>
       <c r="M225" s="24" t="s">
         <v>88</v>
       </c>
@@ -9560,21 +10574,21 @@
       <c r="A226" s="23">
         <v>9</v>
       </c>
-      <c r="B226" s="57" t="s">
+      <c r="B226" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="C226" s="57"/>
-      <c r="D226" s="57"/>
-      <c r="E226" s="57"/>
-      <c r="F226" s="57"/>
-      <c r="G226" s="57" t="s">
+      <c r="C226" s="53"/>
+      <c r="D226" s="53"/>
+      <c r="E226" s="53"/>
+      <c r="F226" s="53"/>
+      <c r="G226" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="H226" s="57"/>
-      <c r="I226" s="57"/>
-      <c r="J226" s="57"/>
-      <c r="K226" s="57"/>
-      <c r="L226" s="57"/>
+      <c r="H226" s="53"/>
+      <c r="I226" s="53"/>
+      <c r="J226" s="53"/>
+      <c r="K226" s="53"/>
+      <c r="L226" s="53"/>
       <c r="M226" s="24" t="s">
         <v>88</v>
       </c>
@@ -9583,21 +10597,21 @@
       <c r="A227" s="23">
         <v>10</v>
       </c>
-      <c r="B227" s="57" t="s">
+      <c r="B227" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C227" s="57"/>
-      <c r="D227" s="57"/>
-      <c r="E227" s="57"/>
-      <c r="F227" s="57"/>
-      <c r="G227" s="57" t="s">
+      <c r="C227" s="53"/>
+      <c r="D227" s="53"/>
+      <c r="E227" s="53"/>
+      <c r="F227" s="53"/>
+      <c r="G227" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="H227" s="57"/>
-      <c r="I227" s="57"/>
-      <c r="J227" s="57"/>
-      <c r="K227" s="57"/>
-      <c r="L227" s="57"/>
+      <c r="H227" s="53"/>
+      <c r="I227" s="53"/>
+      <c r="J227" s="53"/>
+      <c r="K227" s="53"/>
+      <c r="L227" s="53"/>
       <c r="M227" s="24" t="s">
         <v>88</v>
       </c>
@@ -9606,21 +10620,21 @@
       <c r="A228" s="23">
         <v>11</v>
       </c>
-      <c r="B228" s="57" t="s">
+      <c r="B228" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="C228" s="57"/>
-      <c r="D228" s="57"/>
-      <c r="E228" s="57"/>
-      <c r="F228" s="57"/>
-      <c r="G228" s="57" t="s">
+      <c r="C228" s="53"/>
+      <c r="D228" s="53"/>
+      <c r="E228" s="53"/>
+      <c r="F228" s="53"/>
+      <c r="G228" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="H228" s="57"/>
-      <c r="I228" s="57"/>
-      <c r="J228" s="57"/>
-      <c r="K228" s="57"/>
-      <c r="L228" s="57"/>
+      <c r="H228" s="53"/>
+      <c r="I228" s="53"/>
+      <c r="J228" s="53"/>
+      <c r="K228" s="53"/>
+      <c r="L228" s="53"/>
       <c r="M228" s="24" t="s">
         <v>88</v>
       </c>
@@ -9629,21 +10643,21 @@
       <c r="A229" s="23">
         <v>12</v>
       </c>
-      <c r="B229" s="72" t="s">
+      <c r="B229" s="81" t="s">
         <v>256</v>
       </c>
-      <c r="C229" s="72"/>
-      <c r="D229" s="72"/>
-      <c r="E229" s="72"/>
-      <c r="F229" s="72"/>
-      <c r="G229" s="57" t="s">
+      <c r="C229" s="81"/>
+      <c r="D229" s="81"/>
+      <c r="E229" s="81"/>
+      <c r="F229" s="81"/>
+      <c r="G229" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="H229" s="57"/>
-      <c r="I229" s="57"/>
-      <c r="J229" s="57"/>
-      <c r="K229" s="57"/>
-      <c r="L229" s="57"/>
+      <c r="H229" s="53"/>
+      <c r="I229" s="53"/>
+      <c r="J229" s="53"/>
+      <c r="K229" s="53"/>
+      <c r="L229" s="53"/>
       <c r="M229" s="24" t="s">
         <v>88</v>
       </c>
@@ -9652,21 +10666,21 @@
       <c r="A230" s="23">
         <v>13</v>
       </c>
-      <c r="B230" s="72" t="s">
+      <c r="B230" s="81" t="s">
         <v>256</v>
       </c>
-      <c r="C230" s="72"/>
-      <c r="D230" s="72"/>
-      <c r="E230" s="72"/>
-      <c r="F230" s="72"/>
-      <c r="G230" s="57" t="s">
+      <c r="C230" s="81"/>
+      <c r="D230" s="81"/>
+      <c r="E230" s="81"/>
+      <c r="F230" s="81"/>
+      <c r="G230" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="H230" s="57"/>
-      <c r="I230" s="57"/>
-      <c r="J230" s="57"/>
-      <c r="K230" s="57"/>
-      <c r="L230" s="57"/>
+      <c r="H230" s="53"/>
+      <c r="I230" s="53"/>
+      <c r="J230" s="53"/>
+      <c r="K230" s="53"/>
+      <c r="L230" s="53"/>
       <c r="M230" s="24" t="s">
         <v>88</v>
       </c>
@@ -9675,21 +10689,21 @@
       <c r="A231" s="23">
         <v>14</v>
       </c>
-      <c r="B231" s="57" t="s">
+      <c r="B231" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="C231" s="57"/>
-      <c r="D231" s="57"/>
-      <c r="E231" s="57"/>
-      <c r="F231" s="57"/>
-      <c r="G231" s="57" t="s">
+      <c r="C231" s="53"/>
+      <c r="D231" s="53"/>
+      <c r="E231" s="53"/>
+      <c r="F231" s="53"/>
+      <c r="G231" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="H231" s="57"/>
-      <c r="I231" s="57"/>
-      <c r="J231" s="57"/>
-      <c r="K231" s="57"/>
-      <c r="L231" s="57"/>
+      <c r="H231" s="53"/>
+      <c r="I231" s="53"/>
+      <c r="J231" s="53"/>
+      <c r="K231" s="53"/>
+      <c r="L231" s="53"/>
       <c r="M231" s="24" t="s">
         <v>88</v>
       </c>
@@ -9698,21 +10712,21 @@
       <c r="A232" s="23">
         <v>15</v>
       </c>
-      <c r="B232" s="72" t="s">
+      <c r="B232" s="81" t="s">
         <v>260</v>
       </c>
-      <c r="C232" s="72"/>
-      <c r="D232" s="72"/>
-      <c r="E232" s="72"/>
-      <c r="F232" s="72"/>
-      <c r="G232" s="57" t="s">
+      <c r="C232" s="81"/>
+      <c r="D232" s="81"/>
+      <c r="E232" s="81"/>
+      <c r="F232" s="81"/>
+      <c r="G232" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="H232" s="57"/>
-      <c r="I232" s="57"/>
-      <c r="J232" s="57"/>
-      <c r="K232" s="57"/>
-      <c r="L232" s="57"/>
+      <c r="H232" s="53"/>
+      <c r="I232" s="53"/>
+      <c r="J232" s="53"/>
+      <c r="K232" s="53"/>
+      <c r="L232" s="53"/>
       <c r="M232" s="24" t="s">
         <v>88</v>
       </c>
@@ -9721,21 +10735,21 @@
       <c r="A233" s="23">
         <v>16</v>
       </c>
-      <c r="B233" s="72" t="s">
+      <c r="B233" s="81" t="s">
         <v>260</v>
       </c>
-      <c r="C233" s="72"/>
-      <c r="D233" s="72"/>
-      <c r="E233" s="72"/>
-      <c r="F233" s="72"/>
-      <c r="G233" s="57" t="s">
+      <c r="C233" s="81"/>
+      <c r="D233" s="81"/>
+      <c r="E233" s="81"/>
+      <c r="F233" s="81"/>
+      <c r="G233" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="H233" s="57"/>
-      <c r="I233" s="57"/>
-      <c r="J233" s="57"/>
-      <c r="K233" s="57"/>
-      <c r="L233" s="57"/>
+      <c r="H233" s="53"/>
+      <c r="I233" s="53"/>
+      <c r="J233" s="53"/>
+      <c r="K233" s="53"/>
+      <c r="L233" s="53"/>
       <c r="M233" s="24" t="s">
         <v>88</v>
       </c>
@@ -9744,21 +10758,21 @@
       <c r="A234" s="23">
         <v>17</v>
       </c>
-      <c r="B234" s="57" t="s">
+      <c r="B234" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="C234" s="57"/>
-      <c r="D234" s="57"/>
-      <c r="E234" s="57"/>
-      <c r="F234" s="57"/>
-      <c r="G234" s="57" t="s">
+      <c r="C234" s="53"/>
+      <c r="D234" s="53"/>
+      <c r="E234" s="53"/>
+      <c r="F234" s="53"/>
+      <c r="G234" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="H234" s="57"/>
-      <c r="I234" s="57"/>
-      <c r="J234" s="57"/>
-      <c r="K234" s="57"/>
-      <c r="L234" s="57"/>
+      <c r="H234" s="53"/>
+      <c r="I234" s="53"/>
+      <c r="J234" s="53"/>
+      <c r="K234" s="53"/>
+      <c r="L234" s="53"/>
       <c r="M234" s="24" t="s">
         <v>88</v>
       </c>
@@ -9767,21 +10781,21 @@
       <c r="A235" s="23">
         <v>13</v>
       </c>
-      <c r="B235" s="73" t="s">
+      <c r="B235" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="C235" s="73"/>
-      <c r="D235" s="73"/>
-      <c r="E235" s="73"/>
-      <c r="F235" s="73"/>
-      <c r="G235" s="57" t="s">
+      <c r="C235" s="77"/>
+      <c r="D235" s="77"/>
+      <c r="E235" s="77"/>
+      <c r="F235" s="77"/>
+      <c r="G235" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="H235" s="57"/>
-      <c r="I235" s="57"/>
-      <c r="J235" s="57"/>
-      <c r="K235" s="57"/>
-      <c r="L235" s="57"/>
+      <c r="H235" s="53"/>
+      <c r="I235" s="53"/>
+      <c r="J235" s="53"/>
+      <c r="K235" s="53"/>
+      <c r="L235" s="53"/>
       <c r="M235" s="24" t="s">
         <v>88</v>
       </c>
@@ -9790,21 +10804,21 @@
       <c r="A236" s="23">
         <v>14</v>
       </c>
-      <c r="B236" s="73" t="s">
+      <c r="B236" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="C236" s="73"/>
-      <c r="D236" s="73"/>
-      <c r="E236" s="73"/>
-      <c r="F236" s="73"/>
-      <c r="G236" s="57" t="s">
+      <c r="C236" s="77"/>
+      <c r="D236" s="77"/>
+      <c r="E236" s="77"/>
+      <c r="F236" s="77"/>
+      <c r="G236" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H236" s="57"/>
-      <c r="I236" s="57"/>
-      <c r="J236" s="57"/>
-      <c r="K236" s="57"/>
-      <c r="L236" s="57"/>
+      <c r="H236" s="53"/>
+      <c r="I236" s="53"/>
+      <c r="J236" s="53"/>
+      <c r="K236" s="53"/>
+      <c r="L236" s="53"/>
       <c r="M236" s="24" t="s">
         <v>88</v>
       </c>
@@ -9813,21 +10827,21 @@
       <c r="A237" s="23">
         <v>15</v>
       </c>
-      <c r="B237" s="74" t="s">
+      <c r="B237" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="C237" s="75"/>
-      <c r="D237" s="75"/>
-      <c r="E237" s="75"/>
-      <c r="F237" s="76"/>
-      <c r="G237" s="57" t="s">
+      <c r="C237" s="79"/>
+      <c r="D237" s="79"/>
+      <c r="E237" s="79"/>
+      <c r="F237" s="80"/>
+      <c r="G237" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="H237" s="57"/>
-      <c r="I237" s="57"/>
-      <c r="J237" s="57"/>
-      <c r="K237" s="57"/>
-      <c r="L237" s="57"/>
+      <c r="H237" s="53"/>
+      <c r="I237" s="53"/>
+      <c r="J237" s="53"/>
+      <c r="K237" s="53"/>
+      <c r="L237" s="53"/>
       <c r="M237" s="24" t="s">
         <v>88</v>
       </c>
@@ -9836,21 +10850,21 @@
       <c r="A238" s="23">
         <v>16</v>
       </c>
-      <c r="B238" s="73" t="s">
+      <c r="B238" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="C238" s="73"/>
-      <c r="D238" s="73"/>
-      <c r="E238" s="73"/>
-      <c r="F238" s="73"/>
-      <c r="G238" s="57" t="s">
+      <c r="C238" s="77"/>
+      <c r="D238" s="77"/>
+      <c r="E238" s="77"/>
+      <c r="F238" s="77"/>
+      <c r="G238" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="H238" s="57"/>
-      <c r="I238" s="57"/>
-      <c r="J238" s="57"/>
-      <c r="K238" s="57"/>
-      <c r="L238" s="57"/>
+      <c r="H238" s="53"/>
+      <c r="I238" s="53"/>
+      <c r="J238" s="53"/>
+      <c r="K238" s="53"/>
+      <c r="L238" s="53"/>
       <c r="M238" s="24" t="s">
         <v>88</v>
       </c>
@@ -9859,21 +10873,21 @@
       <c r="A239" s="23">
         <v>17</v>
       </c>
-      <c r="B239" s="73" t="s">
+      <c r="B239" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="C239" s="73"/>
-      <c r="D239" s="73"/>
-      <c r="E239" s="73"/>
-      <c r="F239" s="73"/>
-      <c r="G239" s="57" t="s">
+      <c r="C239" s="77"/>
+      <c r="D239" s="77"/>
+      <c r="E239" s="77"/>
+      <c r="F239" s="77"/>
+      <c r="G239" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H239" s="57"/>
-      <c r="I239" s="57"/>
-      <c r="J239" s="57"/>
-      <c r="K239" s="57"/>
-      <c r="L239" s="57"/>
+      <c r="H239" s="53"/>
+      <c r="I239" s="53"/>
+      <c r="J239" s="53"/>
+      <c r="K239" s="53"/>
+      <c r="L239" s="53"/>
       <c r="M239" s="24" t="s">
         <v>88</v>
       </c>
@@ -9882,21 +10896,21 @@
       <c r="A240" s="23">
         <v>18</v>
       </c>
-      <c r="B240" s="84" t="s">
+      <c r="B240" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="C240" s="85"/>
-      <c r="D240" s="85"/>
-      <c r="E240" s="85"/>
-      <c r="F240" s="86"/>
-      <c r="G240" s="57" t="s">
+      <c r="C240" s="75"/>
+      <c r="D240" s="75"/>
+      <c r="E240" s="75"/>
+      <c r="F240" s="76"/>
+      <c r="G240" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="H240" s="57"/>
-      <c r="I240" s="57"/>
-      <c r="J240" s="57"/>
-      <c r="K240" s="57"/>
-      <c r="L240" s="57"/>
+      <c r="H240" s="53"/>
+      <c r="I240" s="53"/>
+      <c r="J240" s="53"/>
+      <c r="K240" s="53"/>
+      <c r="L240" s="53"/>
       <c r="M240" s="31" t="s">
         <v>88</v>
       </c>
@@ -9905,57 +10919,292 @@
       <c r="A241" s="23">
         <v>19</v>
       </c>
-      <c r="B241" s="57" t="s">
+      <c r="B241" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="C241" s="57"/>
-      <c r="D241" s="57"/>
-      <c r="E241" s="57"/>
-      <c r="F241" s="57"/>
-      <c r="G241" s="57" t="s">
+      <c r="C241" s="53"/>
+      <c r="D241" s="53"/>
+      <c r="E241" s="53"/>
+      <c r="F241" s="53"/>
+      <c r="G241" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="H241" s="57"/>
-      <c r="I241" s="57"/>
-      <c r="J241" s="57"/>
-      <c r="K241" s="57"/>
-      <c r="L241" s="57"/>
+      <c r="H241" s="53"/>
+      <c r="I241" s="53"/>
+      <c r="J241" s="53"/>
+      <c r="K241" s="53"/>
+      <c r="L241" s="53"/>
       <c r="M241" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A245" s="63" t="s">
+      <c r="A245" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B245" s="64"/>
-      <c r="C245" s="64"/>
-      <c r="D245" s="64"/>
-      <c r="E245" s="64"/>
-      <c r="F245" s="64"/>
-      <c r="G245" s="64"/>
-      <c r="H245" s="64"/>
-      <c r="I245" s="64"/>
-      <c r="J245" s="64"/>
-      <c r="K245" s="64"/>
-      <c r="L245" s="65"/>
+      <c r="B245" s="69"/>
+      <c r="C245" s="69"/>
+      <c r="D245" s="69"/>
+      <c r="E245" s="69"/>
+      <c r="F245" s="69"/>
+      <c r="G245" s="69"/>
+      <c r="H245" s="69"/>
+      <c r="I245" s="69"/>
+      <c r="J245" s="69"/>
+      <c r="K245" s="69"/>
+      <c r="L245" s="70"/>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A246" s="66"/>
-      <c r="B246" s="67"/>
-      <c r="C246" s="67"/>
-      <c r="D246" s="67"/>
-      <c r="E246" s="67"/>
-      <c r="F246" s="67"/>
-      <c r="G246" s="67"/>
-      <c r="H246" s="67"/>
-      <c r="I246" s="67"/>
-      <c r="J246" s="67"/>
-      <c r="K246" s="67"/>
-      <c r="L246" s="68"/>
+      <c r="A246" s="71"/>
+      <c r="B246" s="72"/>
+      <c r="C246" s="72"/>
+      <c r="D246" s="72"/>
+      <c r="E246" s="72"/>
+      <c r="F246" s="72"/>
+      <c r="G246" s="72"/>
+      <c r="H246" s="72"/>
+      <c r="I246" s="72"/>
+      <c r="J246" s="72"/>
+      <c r="K246" s="72"/>
+      <c r="L246" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="259">
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="G107:L107"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="G104:L104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="G105:L105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="G106:L106"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="G101:L101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="G103:L103"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="G100:L100"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:K89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:K91"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="G97:L97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="G98:L98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="G99:L99"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:K88"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:F96"/>
+    <mergeCell ref="G95:L96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:K92"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="A69:L70"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="G65:L65"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="G64:L64"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="A37:L38"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A111:L112"/>
+    <mergeCell ref="F116:K116"/>
+    <mergeCell ref="F117:K117"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="D130:K130"/>
+    <mergeCell ref="M133:M134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="G135:L135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="G136:L136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="G137:L137"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="G138:L138"/>
+    <mergeCell ref="B133:F134"/>
+    <mergeCell ref="G133:L134"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="G144:L144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="G145:L145"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="A161:L162"/>
+    <mergeCell ref="F166:K166"/>
+    <mergeCell ref="F167:K167"/>
+    <mergeCell ref="H172:K172"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="G139:L139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="G140:L140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="G141:L141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="G142:L142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="G143:L143"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="G157:L157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="G158:L158"/>
+    <mergeCell ref="H173:K173"/>
+    <mergeCell ref="H175:K175"/>
+    <mergeCell ref="H176:K176"/>
+    <mergeCell ref="H177:K177"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="D180:K180"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:F185"/>
+    <mergeCell ref="G184:L185"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="D181:K181"/>
+    <mergeCell ref="M184:M185"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="G186:L186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="G187:L187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="G188:L188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="G189:L189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="G190:L190"/>
+    <mergeCell ref="A194:L195"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="G146:L146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="G147:L147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="G148:L148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="G149:L149"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="G150:L150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="G151:L151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="G152:L152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="G153:L153"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="G155:L155"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="G156:L156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="F199:K199"/>
+    <mergeCell ref="F200:K200"/>
+    <mergeCell ref="H205:K205"/>
+    <mergeCell ref="H206:K206"/>
+    <mergeCell ref="H208:K208"/>
+    <mergeCell ref="H209:K209"/>
+    <mergeCell ref="H210:K210"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="D212:K212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:K213"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="B216:F217"/>
+    <mergeCell ref="G216:L217"/>
+    <mergeCell ref="M216:M217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="G218:L218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="G219:L219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="G220:L220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="G221:L221"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="G222:L222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="G223:L223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="G224:L224"/>
+    <mergeCell ref="G233:L233"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="G234:L234"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="G225:L225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="G226:L226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="G227:L227"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="G228:L228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="G229:L229"/>
     <mergeCell ref="A245:L246"/>
     <mergeCell ref="B241:F241"/>
     <mergeCell ref="G241:L241"/>
@@ -9980,241 +11229,6 @@
     <mergeCell ref="B232:F232"/>
     <mergeCell ref="G232:L232"/>
     <mergeCell ref="B233:F233"/>
-    <mergeCell ref="G233:L233"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="G234:L234"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="G225:L225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="G226:L226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="G227:L227"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="G228:L228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="G229:L229"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="G220:L220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="G221:L221"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="G222:L222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="G223:L223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="G224:L224"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:K213"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="B216:F217"/>
-    <mergeCell ref="G216:L217"/>
-    <mergeCell ref="M216:M217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="G218:L218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="G219:L219"/>
-    <mergeCell ref="F199:K199"/>
-    <mergeCell ref="F200:K200"/>
-    <mergeCell ref="H205:K205"/>
-    <mergeCell ref="H206:K206"/>
-    <mergeCell ref="H208:K208"/>
-    <mergeCell ref="H209:K209"/>
-    <mergeCell ref="H210:K210"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="D212:K212"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="G190:L190"/>
-    <mergeCell ref="A194:L195"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="G146:L146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="G147:L147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="G148:L148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="G149:L149"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="G150:L150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="G151:L151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="G152:L152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="G153:L153"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="G155:L155"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="G156:L156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="M184:M185"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="G186:L186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="G187:L187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="G188:L188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="G189:L189"/>
-    <mergeCell ref="H173:K173"/>
-    <mergeCell ref="H175:K175"/>
-    <mergeCell ref="H176:K176"/>
-    <mergeCell ref="H177:K177"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="D180:K180"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:F185"/>
-    <mergeCell ref="G184:L185"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="D181:K181"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="G144:L144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="G145:L145"/>
-    <mergeCell ref="H127:K127"/>
-    <mergeCell ref="A161:L162"/>
-    <mergeCell ref="F166:K166"/>
-    <mergeCell ref="F167:K167"/>
-    <mergeCell ref="H172:K172"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="G139:L139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="G140:L140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="G141:L141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="G142:L142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="G143:L143"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="G157:L157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="G158:L158"/>
-    <mergeCell ref="M133:M134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="G135:L135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="G136:L136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="G137:L137"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="G138:L138"/>
-    <mergeCell ref="B133:F134"/>
-    <mergeCell ref="G133:L134"/>
-    <mergeCell ref="A111:L112"/>
-    <mergeCell ref="F116:K116"/>
-    <mergeCell ref="F117:K117"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="H125:K125"/>
-    <mergeCell ref="H126:K126"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="D130:K130"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="A37:L38"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="A69:L70"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="G65:L65"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="G62:L62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="G64:L64"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:K88"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:F96"/>
-    <mergeCell ref="G95:L96"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:K92"/>
-    <mergeCell ref="F74:K74"/>
-    <mergeCell ref="F75:K75"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="G100:L100"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:K89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:K90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:K91"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="G97:L97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="G98:L98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="G99:L99"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="G107:L107"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="G104:L104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="G105:L105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="G106:L106"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="G101:L101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="G103:L103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
+++ b/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berkozdoruk/Desktop/GitHub/Elixir-Documentation/Test Reports and Test Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ECC008-D1F8-9648-88F3-689CCE953C08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDC436D-AFFA-D546-A7E2-E8C7D89A419D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="359">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Proper email entered.</t>
   </si>
   <si>
-    <t>Email alert displayed.</t>
-  </si>
-  <si>
     <t>Farms are displayed.</t>
   </si>
   <si>
@@ -523,27 +520,12 @@
     <t>Edit button redirected to detailed edit-delete user page. User details are dipslated.</t>
   </si>
   <si>
-    <t>Successful alert displayed. Role is changed.</t>
-  </si>
-  <si>
-    <t>Successful alert displayed. Name is changed.</t>
-  </si>
-  <si>
     <t>Selected user's farm dropdown selected.</t>
   </si>
   <si>
     <t>Existing farm list showed.</t>
   </si>
   <si>
-    <t>User's farm is changed to new selected farm. Successful alert is displayed.</t>
-  </si>
-  <si>
-    <t>Alarm displayed. Email could not changed.</t>
-  </si>
-  <si>
-    <t>Successful alarm displayed. Email updated.</t>
-  </si>
-  <si>
     <t>Selected user's role is changed to admin from user. Click save button.</t>
   </si>
   <si>
@@ -634,21 +616,12 @@
     <t>Password with 7 characters entered.</t>
   </si>
   <si>
-    <t>Password cannot be shorter than 8 characters. Alert displayed.</t>
-  </si>
-  <si>
-    <t>Password cannot be longer than 256 characters. Alert displayed.</t>
-  </si>
-  <si>
     <t>Password with 8-256 characters entered.</t>
   </si>
   <si>
     <t>Farm name is entered with 3 characters.</t>
   </si>
   <si>
-    <t>Alert displayed. Name cannot be shorter than 4 characters.</t>
-  </si>
-  <si>
     <t>Farm details must be fully entered. Missing parameters gives error one by one (Tested).</t>
   </si>
   <si>
@@ -745,45 +718,21 @@
     <t>New soil type is selected.</t>
   </si>
   <si>
-    <t>Successful alert displayed. Soil type is changed.</t>
-  </si>
-  <si>
     <t>New province is selected.</t>
   </si>
   <si>
-    <t>Successful alert displayed. Province is changed.</t>
-  </si>
-  <si>
     <t>New district is selected.</t>
   </si>
   <si>
-    <t>Successful alert displayed. District is changed.</t>
-  </si>
-  <si>
     <t>Latitude is changed with proper number.</t>
   </si>
   <si>
-    <t>Successful alert displayed. Latitute is changed.</t>
-  </si>
-  <si>
-    <t>Successful alert displayed. Longtitude is changed.</t>
-  </si>
-  <si>
     <t>Longtitude is changed with proper number.</t>
   </si>
   <si>
-    <t>Successful alert displayed. Daily station no is changed.</t>
-  </si>
-  <si>
-    <t>Successful alert displayed. Hourly station no is changed.</t>
-  </si>
-  <si>
     <t>Save farm button is clicked.</t>
   </si>
   <si>
-    <t>Successful save. Farm is changed/updated to the system.</t>
-  </si>
-  <si>
     <t>ELXR-AO-01</t>
   </si>
   <si>
@@ -802,9 +751,6 @@
     <t>User opens the elixirapp.live</t>
   </si>
   <si>
-    <t>Sign in page should be showed to un authorized user.</t>
-  </si>
-  <si>
     <t>User enters wrong email address with correct password.</t>
   </si>
   <si>
@@ -829,9 +775,6 @@
     <t>User is clicked the logout button in the navbar.</t>
   </si>
   <si>
-    <t xml:space="preserve">User is logged out succesfully alert displayed. </t>
-  </si>
-  <si>
     <t>User is authorized and already logged into the system.</t>
   </si>
   <si>
@@ -856,15 +799,9 @@
     <t>User clicks the start irrigation button.</t>
   </si>
   <si>
-    <t>Successful alert. Manual irrigation should be started on the farm until user clicks stop irrgation.</t>
-  </si>
-  <si>
     <t>User clicks the stop irrigation button.</t>
   </si>
   <si>
-    <t>Successful alert. Manual irrigation should be stop the irrigation.</t>
-  </si>
-  <si>
     <t>The user shall be able to start manual irrigation.</t>
   </si>
   <si>
@@ -910,9 +847,6 @@
     <t>User enters 123 and clicks change email button.</t>
   </si>
   <si>
-    <t>Alert. Invalid email type.</t>
-  </si>
-  <si>
     <t>User enters 123@hotmail.com and clicks change email button.</t>
   </si>
   <si>
@@ -938,12 +872,6 @@
   </si>
   <si>
     <t>User enters 1 and clicks change password button.</t>
-  </si>
-  <si>
-    <t>Alert password should be longer than 8 characters.</t>
-  </si>
-  <si>
-    <t>Alert password should be shorter than 256 characters.</t>
   </si>
   <si>
     <t>User enters more than 256 characters and clicks change password button.</t>
@@ -1061,12 +989,6 @@
  farm in status page.</t>
   </si>
   <si>
-    <t>Name cannot be shorter than 4 characters. Alert displayed.</t>
-  </si>
-  <si>
-    <t>Name cannot be longer than 256 characters. Alert displayed.</t>
-  </si>
-  <si>
     <t>Name with 257 characters entered.</t>
   </si>
   <si>
@@ -1076,33 +998,18 @@
     <t>Farm name is entered with 65 characters.</t>
   </si>
   <si>
-    <t>Alert displayed. Name cannot be longer than 64 characters.</t>
-  </si>
-  <si>
     <t>Farm name is entered between 4 to 64 characters</t>
   </si>
   <si>
     <t>Latitue is entered -91.</t>
   </si>
   <si>
-    <t>Alert displayed. Latitute cannot be lower than -90.</t>
-  </si>
-  <si>
     <t>Latitute is entered +91.</t>
   </si>
   <si>
-    <t>Alert displayed. Latitute cannot be bigger than 90.</t>
-  </si>
-  <si>
     <t>Latitude is entered correct.(-90, +90)</t>
   </si>
   <si>
-    <t>Alert displayed. Longtitude cannot be lower than -180.</t>
-  </si>
-  <si>
-    <t>Alert displayed. Longtitude cannot be bigger than 180.</t>
-  </si>
-  <si>
     <t>Longtitude is entered +181.</t>
   </si>
   <si>
@@ -1160,12 +1067,6 @@
     <t>Daily Station no entered upper than 100.000</t>
   </si>
   <si>
-    <t>Invalid hourly station.</t>
-  </si>
-  <si>
-    <t>Invalid daily station.</t>
-  </si>
-  <si>
     <t>Hourly Station no entered below 100.000</t>
   </si>
   <si>
@@ -1191,6 +1092,66 @@
   </si>
   <si>
     <t>Text field of password should be filled randomly.</t>
+  </si>
+  <si>
+    <t>Sign in page should be showed to unauthorized user.</t>
+  </si>
+  <si>
+    <t>Farm create failed.please enter a valid name alert displayed.</t>
+  </si>
+  <si>
+    <t>Farm create failed.please enter a valid latitude alert displayed.</t>
+  </si>
+  <si>
+    <t>Farm create failed.please enter a valid longtitude alert displayed.</t>
+  </si>
+  <si>
+    <t>Farm create failed.please enter a valid daily station no alert displayed.</t>
+  </si>
+  <si>
+    <t>Farm create failed.please enter a valid hourly station no alert displayed.</t>
+  </si>
+  <si>
+    <t>User create failed. Please enter a valid name.</t>
+  </si>
+  <si>
+    <t>User create failed. Please enter a valid email.</t>
+  </si>
+  <si>
+    <t>User create failed. Please enter a valid password.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful alert displayed. </t>
+  </si>
+  <si>
+    <t>User create failed. Please enter a valid latitude.</t>
+  </si>
+  <si>
+    <t>User create failed. Please enter a valid longtitude.</t>
+  </si>
+  <si>
+    <t>User create failed. Please enter a valid daily station.</t>
+  </si>
+  <si>
+    <t>User create failed. Please enter a valid hourly station.</t>
+  </si>
+  <si>
+    <t>Successful alert displayed.</t>
+  </si>
+  <si>
+    <t>Email change failed. Please enter a valid email.</t>
+  </si>
+  <si>
+    <t>Password change failed. Please enter a valid email.</t>
+  </si>
+  <si>
+    <t>Successful alert. Irrigation started.</t>
+  </si>
+  <si>
+    <t>Successful alert. Irrigation stopped.</t>
+  </si>
+  <si>
+    <t>User is logged out succesfully and redirected to sign in page.</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1505,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1644,7 +1605,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1661,24 +1621,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1733,6 +1675,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -2114,7 +2074,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -2213,7 +2173,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -2417,46 +2377,46 @@
     </row>
     <row r="20" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>39</v>
@@ -2465,7 +2425,7 @@
         <v>46</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -2474,22 +2434,22 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="51" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="52" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="53" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2510,7 +2470,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2522,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D5A933-5288-C94E-BF55-FF09BD47810B}">
   <dimension ref="A1:M236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G134" sqref="G134:L134"/>
+    <sheetView topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="K238" sqref="K238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2542,14 +2502,14 @@
         <v>67</v>
       </c>
       <c r="E1" s="9"/>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2563,14 +2523,14 @@
         <v>70</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2604,12 +2564,12 @@
       <c r="G7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2625,12 +2585,12 @@
       <c r="G8" s="20">
         <v>1</v>
       </c>
-      <c r="H8" s="73" t="s">
+      <c r="H8" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="68"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -2658,12 +2618,12 @@
       <c r="G10" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -2671,12 +2631,12 @@
       <c r="G11" s="20">
         <v>1</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="75"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -2692,20 +2652,20 @@
       <c r="A15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -2715,42 +2675,42 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61" t="s">
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
@@ -2780,14 +2740,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
@@ -2810,7 +2770,7 @@
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="H22" s="54"/>
       <c r="I22" s="54"/>
@@ -2825,21 +2785,21 @@
       <c r="A23" s="22">
         <v>4</v>
       </c>
-      <c r="B23" s="82" t="s">
-        <v>330</v>
-      </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="82" t="s">
-        <v>329</v>
-      </c>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="84"/>
+      <c r="B23" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
       <c r="M23" s="23" t="s">
         <v>85</v>
       </c>
@@ -2848,21 +2808,21 @@
       <c r="A24" s="22">
         <v>5</v>
       </c>
-      <c r="B24" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="84"/>
+      <c r="B24" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="77"/>
       <c r="M24" s="23" t="s">
         <v>85</v>
       </c>
@@ -2871,21 +2831,21 @@
       <c r="A25" s="22">
         <v>6</v>
       </c>
-      <c r="B25" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="84"/>
+      <c r="B25" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="77"/>
       <c r="M25" s="23" t="s">
         <v>85</v>
       </c>
@@ -2894,21 +2854,21 @@
       <c r="A26" s="22">
         <v>7</v>
       </c>
-      <c r="B26" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="84"/>
+      <c r="B26" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="77"/>
       <c r="M26" s="23" t="s">
         <v>85</v>
       </c>
@@ -2917,21 +2877,21 @@
       <c r="A27" s="22">
         <v>8</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="84"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
       <c r="M27" s="30" t="s">
         <v>85</v>
       </c>
@@ -2940,21 +2900,21 @@
       <c r="A28" s="22">
         <v>9</v>
       </c>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="84"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="77"/>
       <c r="M28" s="30" t="s">
         <v>85</v>
       </c>
@@ -2963,21 +2923,21 @@
       <c r="A29" s="22">
         <v>10</v>
       </c>
-      <c r="B29" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="84"/>
+      <c r="B29" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
       <c r="M29" s="30" t="s">
         <v>85</v>
       </c>
@@ -2986,21 +2946,21 @@
       <c r="A30" s="22">
         <v>11</v>
       </c>
-      <c r="B30" s="82" t="s">
-        <v>331</v>
-      </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="84"/>
+      <c r="B30" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
       <c r="M30" s="30" t="s">
         <v>85</v>
       </c>
@@ -3009,21 +2969,21 @@
       <c r="A31" s="22">
         <v>12</v>
       </c>
-      <c r="B31" s="82" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="84"/>
+      <c r="B31" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
       <c r="M31" s="30" t="s">
         <v>85</v>
       </c>
@@ -3032,21 +2992,21 @@
       <c r="A32" s="22">
         <v>13</v>
       </c>
-      <c r="B32" s="82" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="84"/>
+      <c r="B32" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
       <c r="M32" s="30" t="s">
         <v>85</v>
       </c>
@@ -3055,74 +3015,74 @@
       <c r="A33" s="22">
         <v>14</v>
       </c>
-      <c r="B33" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="84"/>
+      <c r="B33" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="77"/>
       <c r="M33" s="30" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="78"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="71"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="79"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="81"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="74"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
+      <c r="F41" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -3136,14 +3096,14 @@
         <v>70</v>
       </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
+      <c r="F42" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -3177,12 +3137,12 @@
       <c r="G47" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H47" s="70" t="s">
+      <c r="H47" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="72"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="65"/>
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -3198,12 +3158,12 @@
       <c r="G48" s="20">
         <v>1</v>
       </c>
-      <c r="H48" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="75"/>
+      <c r="H48" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="68"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -3231,12 +3191,12 @@
       <c r="G50" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="70" t="s">
+      <c r="H50" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="72"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="65"/>
       <c r="M50" s="5"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -3244,12 +3204,12 @@
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="73" t="s">
+      <c r="H51" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="75"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="68"/>
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -3265,20 +3225,20 @@
       <c r="A55" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="57"/>
-      <c r="D55" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="60"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="59"/>
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -3288,42 +3248,42 @@
       <c r="M57" s="5"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="61" t="s">
+      <c r="A58" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61" t="s">
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="61"/>
-      <c r="L58" s="61"/>
-      <c r="M58" s="61" t="s">
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="61"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="61"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="60"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="22">
@@ -3353,14 +3313,14 @@
         <v>2</v>
       </c>
       <c r="B61" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C61" s="54"/>
       <c r="D61" s="54"/>
       <c r="E61" s="54"/>
       <c r="F61" s="54"/>
       <c r="G61" s="54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H61" s="54"/>
       <c r="I61" s="54"/>
@@ -3376,14 +3336,14 @@
         <v>3</v>
       </c>
       <c r="B62" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="54"/>
       <c r="D62" s="54"/>
       <c r="E62" s="54"/>
       <c r="F62" s="54"/>
       <c r="G62" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H62" s="54"/>
       <c r="I62" s="54"/>
@@ -3399,14 +3359,14 @@
         <v>4</v>
       </c>
       <c r="B63" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="54"/>
       <c r="D63" s="54"/>
       <c r="E63" s="54"/>
       <c r="F63" s="54"/>
       <c r="G63" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H63" s="54"/>
       <c r="I63" s="54"/>
@@ -3422,14 +3382,14 @@
         <v>5</v>
       </c>
       <c r="B64" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C64" s="54"/>
       <c r="D64" s="54"/>
       <c r="E64" s="54"/>
       <c r="F64" s="54"/>
       <c r="G64" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H64" s="54"/>
       <c r="I64" s="54"/>
@@ -3441,54 +3401,54 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="76" t="s">
+      <c r="A68" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="77"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="77"/>
-      <c r="K68" s="77"/>
-      <c r="L68" s="78"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="70"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="71"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="79"/>
-      <c r="B69" s="80"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="80"/>
-      <c r="L69" s="81"/>
+      <c r="A69" s="72"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="73"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="74"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E72" s="9"/>
-      <c r="F72" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="G72" s="68"/>
-      <c r="H72" s="68"/>
-      <c r="I72" s="68"/>
-      <c r="J72" s="68"/>
-      <c r="K72" s="68"/>
+      <c r="F72" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -3502,14 +3462,14 @@
         <v>70</v>
       </c>
       <c r="E73" s="9"/>
-      <c r="F73" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="G73" s="69"/>
-      <c r="H73" s="69"/>
-      <c r="I73" s="69"/>
-      <c r="J73" s="69"/>
-      <c r="K73" s="69"/>
+      <c r="F73" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="62"/>
       <c r="M73" s="5"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -3543,12 +3503,12 @@
       <c r="G78" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H78" s="70" t="s">
+      <c r="H78" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I78" s="71"/>
-      <c r="J78" s="71"/>
-      <c r="K78" s="72"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="64"/>
+      <c r="K78" s="65"/>
       <c r="M78" s="5"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -3564,12 +3524,12 @@
       <c r="G79" s="20">
         <v>1</v>
       </c>
-      <c r="H79" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="I79" s="74"/>
-      <c r="J79" s="74"/>
-      <c r="K79" s="75"/>
+      <c r="H79" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="I79" s="67"/>
+      <c r="J79" s="67"/>
+      <c r="K79" s="68"/>
       <c r="M79" s="5"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -3597,12 +3557,12 @@
       <c r="G81" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H81" s="70" t="s">
+      <c r="H81" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I81" s="71"/>
-      <c r="J81" s="71"/>
-      <c r="K81" s="72"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="64"/>
+      <c r="K81" s="65"/>
       <c r="M81" s="5"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -3610,12 +3570,12 @@
       <c r="G82" s="20">
         <v>1</v>
       </c>
-      <c r="H82" s="73" t="s">
+      <c r="H82" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="I82" s="74"/>
-      <c r="J82" s="74"/>
-      <c r="K82" s="75"/>
+      <c r="I82" s="67"/>
+      <c r="J82" s="67"/>
+      <c r="K82" s="68"/>
       <c r="M82" s="5"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -3631,100 +3591,100 @@
       <c r="A86" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="56" t="s">
+      <c r="B86" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="57"/>
-      <c r="D86" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="60"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="58"/>
+      <c r="J86" s="58"/>
+      <c r="K86" s="59"/>
       <c r="M86" s="5"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="57"/>
-      <c r="D87" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="59"/>
-      <c r="H87" s="59"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="59"/>
-      <c r="K87" s="60"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="58"/>
+      <c r="J87" s="58"/>
+      <c r="K87" s="59"/>
       <c r="M87" s="5"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="56" t="s">
+      <c r="B88" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="57"/>
-      <c r="D88" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="59"/>
-      <c r="K88" s="60"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="58"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="59"/>
       <c r="M88" s="5"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="56" t="s">
+      <c r="B89" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="57"/>
-      <c r="D89" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="E89" s="59"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="59"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="59"/>
-      <c r="J89" s="59"/>
-      <c r="K89" s="60"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="58"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="59"/>
       <c r="M89" s="5"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="57"/>
-      <c r="D90" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="E90" s="59"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="60"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="E90" s="58"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="58"/>
+      <c r="J90" s="58"/>
+      <c r="K90" s="59"/>
       <c r="M90" s="5"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -3745,42 +3705,42 @@
       <c r="M92" s="5"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="61" t="s">
+      <c r="A93" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B93" s="61" t="s">
+      <c r="B93" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="61"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="61" t="s">
+      <c r="C93" s="60"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H93" s="61"/>
-      <c r="I93" s="61"/>
-      <c r="J93" s="61"/>
-      <c r="K93" s="61"/>
-      <c r="L93" s="61"/>
-      <c r="M93" s="61" t="s">
+      <c r="H93" s="60"/>
+      <c r="I93" s="60"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="60"/>
+      <c r="L93" s="60"/>
+      <c r="M93" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="61"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="61"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="61"/>
-      <c r="I94" s="61"/>
-      <c r="J94" s="61"/>
-      <c r="K94" s="61"/>
-      <c r="L94" s="61"/>
-      <c r="M94" s="61"/>
+      <c r="A94" s="60"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="60"/>
+      <c r="J94" s="60"/>
+      <c r="K94" s="60"/>
+      <c r="L94" s="60"/>
+      <c r="M94" s="60"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="22">
@@ -3810,14 +3770,14 @@
         <v>2</v>
       </c>
       <c r="B96" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C96" s="54"/>
       <c r="D96" s="54"/>
       <c r="E96" s="54"/>
       <c r="F96" s="54"/>
       <c r="G96" s="54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H96" s="54"/>
       <c r="I96" s="54"/>
@@ -3833,14 +3793,14 @@
         <v>3</v>
       </c>
       <c r="B97" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C97" s="54"/>
       <c r="D97" s="54"/>
       <c r="E97" s="54"/>
       <c r="F97" s="54"/>
       <c r="G97" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H97" s="54"/>
       <c r="I97" s="54"/>
@@ -3856,14 +3816,14 @@
         <v>4</v>
       </c>
       <c r="B98" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C98" s="54"/>
       <c r="D98" s="54"/>
       <c r="E98" s="54"/>
       <c r="F98" s="54"/>
       <c r="G98" s="54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H98" s="54"/>
       <c r="I98" s="54"/>
@@ -3879,14 +3839,14 @@
         <v>5</v>
       </c>
       <c r="B99" s="54" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C99" s="54"/>
       <c r="D99" s="54"/>
       <c r="E99" s="54"/>
       <c r="F99" s="54"/>
       <c r="G99" s="54" t="s">
-        <v>151</v>
+        <v>348</v>
       </c>
       <c r="H99" s="54"/>
       <c r="I99" s="54"/>
@@ -3902,14 +3862,14 @@
         <v>6</v>
       </c>
       <c r="B100" s="54" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C100" s="54"/>
       <c r="D100" s="54"/>
       <c r="E100" s="54"/>
       <c r="F100" s="54"/>
       <c r="G100" s="54" t="s">
-        <v>151</v>
+        <v>348</v>
       </c>
       <c r="H100" s="54"/>
       <c r="I100" s="54"/>
@@ -3925,14 +3885,14 @@
         <v>7</v>
       </c>
       <c r="B101" s="54" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C101" s="54"/>
       <c r="D101" s="54"/>
       <c r="E101" s="54"/>
       <c r="F101" s="54"/>
       <c r="G101" s="54" t="s">
-        <v>152</v>
+        <v>348</v>
       </c>
       <c r="H101" s="54"/>
       <c r="I101" s="54"/>
@@ -3948,14 +3908,14 @@
         <v>8</v>
       </c>
       <c r="B102" s="54" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C102" s="54"/>
       <c r="D102" s="54"/>
       <c r="E102" s="54"/>
       <c r="F102" s="54"/>
       <c r="G102" s="54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H102" s="54"/>
       <c r="I102" s="54"/>
@@ -3966,19 +3926,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="22">
         <v>9</v>
       </c>
       <c r="B103" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C103" s="54"/>
       <c r="D103" s="54"/>
       <c r="E103" s="54"/>
       <c r="F103" s="54"/>
       <c r="G103" s="54" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="H103" s="54"/>
       <c r="I103" s="54"/>
@@ -3989,19 +3949,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="22">
         <v>10</v>
       </c>
       <c r="B104" s="54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C104" s="54"/>
       <c r="D104" s="54"/>
       <c r="E104" s="54"/>
       <c r="F104" s="54"/>
       <c r="G104" s="54" t="s">
-        <v>156</v>
+        <v>346</v>
       </c>
       <c r="H104" s="54"/>
       <c r="I104" s="54"/>
@@ -4012,19 +3972,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="22">
         <v>11</v>
       </c>
       <c r="B105" s="54" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C105" s="54"/>
       <c r="D105" s="54"/>
       <c r="E105" s="54"/>
       <c r="F105" s="54"/>
       <c r="G105" s="54" t="s">
-        <v>157</v>
+        <v>348</v>
       </c>
       <c r="H105" s="54"/>
       <c r="I105" s="54"/>
@@ -4036,54 +3996,54 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109" s="76" t="s">
+      <c r="A109" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B109" s="77"/>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="77"/>
-      <c r="H109" s="77"/>
-      <c r="I109" s="77"/>
-      <c r="J109" s="77"/>
-      <c r="K109" s="77"/>
-      <c r="L109" s="78"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="70"/>
+      <c r="H109" s="70"/>
+      <c r="I109" s="70"/>
+      <c r="J109" s="70"/>
+      <c r="K109" s="70"/>
+      <c r="L109" s="71"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" s="79"/>
-      <c r="B110" s="80"/>
-      <c r="C110" s="80"/>
-      <c r="D110" s="80"/>
-      <c r="E110" s="80"/>
-      <c r="F110" s="80"/>
-      <c r="G110" s="80"/>
-      <c r="H110" s="80"/>
-      <c r="I110" s="80"/>
-      <c r="J110" s="80"/>
-      <c r="K110" s="80"/>
-      <c r="L110" s="81"/>
+      <c r="A110" s="72"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="73"/>
+      <c r="D110" s="73"/>
+      <c r="E110" s="73"/>
+      <c r="F110" s="73"/>
+      <c r="G110" s="73"/>
+      <c r="H110" s="73"/>
+      <c r="I110" s="73"/>
+      <c r="J110" s="73"/>
+      <c r="K110" s="73"/>
+      <c r="L110" s="74"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E113" s="9"/>
-      <c r="F113" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="G113" s="68"/>
-      <c r="H113" s="68"/>
-      <c r="I113" s="68"/>
-      <c r="J113" s="68"/>
-      <c r="K113" s="68"/>
+      <c r="F113" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="G113" s="61"/>
+      <c r="H113" s="61"/>
+      <c r="I113" s="61"/>
+      <c r="J113" s="61"/>
+      <c r="K113" s="61"/>
       <c r="M113" s="5"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -4097,14 +4057,14 @@
         <v>70</v>
       </c>
       <c r="E114" s="9"/>
-      <c r="F114" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="G114" s="69"/>
-      <c r="H114" s="69"/>
-      <c r="I114" s="69"/>
-      <c r="J114" s="69"/>
-      <c r="K114" s="69"/>
+      <c r="F114" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="G114" s="62"/>
+      <c r="H114" s="62"/>
+      <c r="I114" s="62"/>
+      <c r="J114" s="62"/>
+      <c r="K114" s="62"/>
       <c r="M114" s="5"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -4138,12 +4098,12 @@
       <c r="G119" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H119" s="70" t="s">
+      <c r="H119" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I119" s="71"/>
-      <c r="J119" s="71"/>
-      <c r="K119" s="72"/>
+      <c r="I119" s="64"/>
+      <c r="J119" s="64"/>
+      <c r="K119" s="65"/>
       <c r="M119" s="5"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -4159,12 +4119,12 @@
       <c r="G120" s="20">
         <v>1</v>
       </c>
-      <c r="H120" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="I120" s="74"/>
-      <c r="J120" s="74"/>
-      <c r="K120" s="75"/>
+      <c r="H120" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="I120" s="67"/>
+      <c r="J120" s="67"/>
+      <c r="K120" s="68"/>
       <c r="M120" s="5"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -4192,12 +4152,12 @@
       <c r="G122" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H122" s="70" t="s">
+      <c r="H122" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I122" s="71"/>
-      <c r="J122" s="71"/>
-      <c r="K122" s="72"/>
+      <c r="I122" s="64"/>
+      <c r="J122" s="64"/>
+      <c r="K122" s="65"/>
       <c r="M122" s="5"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -4205,24 +4165,24 @@
       <c r="G123" s="20">
         <v>1</v>
       </c>
-      <c r="H123" s="73" t="s">
+      <c r="H123" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="I123" s="74"/>
-      <c r="J123" s="74"/>
-      <c r="K123" s="75"/>
+      <c r="I123" s="67"/>
+      <c r="J123" s="67"/>
+      <c r="K123" s="68"/>
       <c r="M123" s="5"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G124" s="20">
         <v>1</v>
       </c>
-      <c r="H124" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="I124" s="74"/>
-      <c r="J124" s="74"/>
-      <c r="K124" s="75"/>
+      <c r="H124" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="I124" s="67"/>
+      <c r="J124" s="67"/>
+      <c r="K124" s="68"/>
       <c r="M124" s="5"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -4235,20 +4195,20 @@
       <c r="A127" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B127" s="56" t="s">
+      <c r="B127" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C127" s="57"/>
-      <c r="D127" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="E127" s="59"/>
-      <c r="F127" s="59"/>
-      <c r="G127" s="59"/>
-      <c r="H127" s="59"/>
-      <c r="I127" s="59"/>
-      <c r="J127" s="59"/>
-      <c r="K127" s="60"/>
+      <c r="C127" s="56"/>
+      <c r="D127" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="E127" s="58"/>
+      <c r="F127" s="58"/>
+      <c r="G127" s="58"/>
+      <c r="H127" s="58"/>
+      <c r="I127" s="58"/>
+      <c r="J127" s="58"/>
+      <c r="K127" s="59"/>
       <c r="M127" s="5"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -4269,42 +4229,42 @@
       <c r="M129" s="5"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130" s="61" t="s">
+      <c r="A130" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B130" s="61" t="s">
+      <c r="B130" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C130" s="61"/>
-      <c r="D130" s="61"/>
-      <c r="E130" s="61"/>
-      <c r="F130" s="61"/>
-      <c r="G130" s="61" t="s">
+      <c r="C130" s="60"/>
+      <c r="D130" s="60"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="60"/>
+      <c r="G130" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H130" s="61"/>
-      <c r="I130" s="61"/>
-      <c r="J130" s="61"/>
-      <c r="K130" s="61"/>
-      <c r="L130" s="61"/>
-      <c r="M130" s="61" t="s">
+      <c r="H130" s="60"/>
+      <c r="I130" s="60"/>
+      <c r="J130" s="60"/>
+      <c r="K130" s="60"/>
+      <c r="L130" s="60"/>
+      <c r="M130" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A131" s="61"/>
-      <c r="B131" s="61"/>
-      <c r="C131" s="61"/>
-      <c r="D131" s="61"/>
-      <c r="E131" s="61"/>
-      <c r="F131" s="61"/>
-      <c r="G131" s="61"/>
-      <c r="H131" s="61"/>
-      <c r="I131" s="61"/>
-      <c r="J131" s="61"/>
-      <c r="K131" s="61"/>
-      <c r="L131" s="61"/>
-      <c r="M131" s="61"/>
+      <c r="A131" s="60"/>
+      <c r="B131" s="60"/>
+      <c r="C131" s="60"/>
+      <c r="D131" s="60"/>
+      <c r="E131" s="60"/>
+      <c r="F131" s="60"/>
+      <c r="G131" s="60"/>
+      <c r="H131" s="60"/>
+      <c r="I131" s="60"/>
+      <c r="J131" s="60"/>
+      <c r="K131" s="60"/>
+      <c r="L131" s="60"/>
+      <c r="M131" s="60"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="22">
@@ -4334,14 +4294,14 @@
         <v>2</v>
       </c>
       <c r="B133" s="54" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C133" s="54"/>
       <c r="D133" s="54"/>
       <c r="E133" s="54"/>
       <c r="F133" s="54"/>
       <c r="G133" s="54" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H133" s="54"/>
       <c r="I133" s="54"/>
@@ -4357,14 +4317,14 @@
         <v>3</v>
       </c>
       <c r="B134" s="54" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C134" s="54"/>
       <c r="D134" s="54"/>
       <c r="E134" s="54"/>
       <c r="F134" s="54"/>
       <c r="G134" s="54" t="s">
-        <v>192</v>
+        <v>340</v>
       </c>
       <c r="H134" s="54"/>
       <c r="I134" s="54"/>
@@ -4380,14 +4340,14 @@
         <v>4</v>
       </c>
       <c r="B135" s="54" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="C135" s="54"/>
       <c r="D135" s="54"/>
       <c r="E135" s="54"/>
       <c r="F135" s="54"/>
       <c r="G135" s="54" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H135" s="54"/>
       <c r="I135" s="54"/>
@@ -4403,14 +4363,14 @@
         <v>5</v>
       </c>
       <c r="B136" s="54" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="C136" s="54"/>
       <c r="D136" s="54"/>
       <c r="E136" s="54"/>
       <c r="F136" s="54"/>
       <c r="G136" s="54" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H136" s="54"/>
       <c r="I136" s="54"/>
@@ -4426,14 +4386,14 @@
         <v>6</v>
       </c>
       <c r="B137" s="54" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C137" s="54"/>
       <c r="D137" s="54"/>
       <c r="E137" s="54"/>
       <c r="F137" s="54"/>
       <c r="G137" s="54" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H137" s="54"/>
       <c r="I137" s="54"/>
@@ -4449,14 +4409,14 @@
         <v>7</v>
       </c>
       <c r="B138" s="54" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C138" s="54"/>
       <c r="D138" s="54"/>
       <c r="E138" s="54"/>
       <c r="F138" s="54"/>
       <c r="G138" s="54" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H138" s="54"/>
       <c r="I138" s="54"/>
@@ -4472,14 +4432,14 @@
         <v>8</v>
       </c>
       <c r="B139" s="54" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C139" s="54"/>
       <c r="D139" s="54"/>
       <c r="E139" s="54"/>
       <c r="F139" s="54"/>
       <c r="G139" s="54" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H139" s="54"/>
       <c r="I139" s="54"/>
@@ -4495,14 +4455,14 @@
         <v>9</v>
       </c>
       <c r="B140" s="54" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C140" s="54"/>
       <c r="D140" s="54"/>
       <c r="E140" s="54"/>
       <c r="F140" s="54"/>
       <c r="G140" s="54" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H140" s="54"/>
       <c r="I140" s="54"/>
@@ -4513,19 +4473,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="22">
         <v>10</v>
       </c>
-      <c r="B141" s="85" t="s">
-        <v>335</v>
-      </c>
-      <c r="C141" s="85"/>
-      <c r="D141" s="85"/>
-      <c r="E141" s="85"/>
-      <c r="F141" s="85"/>
-      <c r="G141" s="84" t="s">
-        <v>336</v>
+      <c r="B141" s="78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C141" s="78"/>
+      <c r="D141" s="78"/>
+      <c r="E141" s="78"/>
+      <c r="F141" s="78"/>
+      <c r="G141" s="54" t="s">
+        <v>341</v>
       </c>
       <c r="H141" s="54"/>
       <c r="I141" s="54"/>
@@ -4540,15 +4500,15 @@
       <c r="A142" s="22">
         <v>11</v>
       </c>
-      <c r="B142" s="85" t="s">
-        <v>337</v>
-      </c>
-      <c r="C142" s="85"/>
-      <c r="D142" s="85"/>
-      <c r="E142" s="85"/>
-      <c r="F142" s="85"/>
-      <c r="G142" s="84" t="s">
-        <v>338</v>
+      <c r="B142" s="78" t="s">
+        <v>309</v>
+      </c>
+      <c r="C142" s="78"/>
+      <c r="D142" s="78"/>
+      <c r="E142" s="78"/>
+      <c r="F142" s="78"/>
+      <c r="G142" s="54" t="s">
+        <v>341</v>
       </c>
       <c r="H142" s="54"/>
       <c r="I142" s="54"/>
@@ -4563,15 +4523,15 @@
       <c r="A143" s="22">
         <v>12</v>
       </c>
-      <c r="B143" s="85" t="s">
-        <v>339</v>
-      </c>
-      <c r="C143" s="85"/>
-      <c r="D143" s="85"/>
-      <c r="E143" s="85"/>
-      <c r="F143" s="85"/>
-      <c r="G143" s="84" t="s">
-        <v>194</v>
+      <c r="B143" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="C143" s="78"/>
+      <c r="D143" s="78"/>
+      <c r="E143" s="78"/>
+      <c r="F143" s="78"/>
+      <c r="G143" s="77" t="s">
+        <v>185</v>
       </c>
       <c r="H143" s="54"/>
       <c r="I143" s="54"/>
@@ -4586,15 +4546,15 @@
       <c r="A144" s="22">
         <v>10</v>
       </c>
-      <c r="B144" s="85" t="s">
-        <v>343</v>
-      </c>
-      <c r="C144" s="85"/>
-      <c r="D144" s="85"/>
-      <c r="E144" s="85"/>
-      <c r="F144" s="85"/>
-      <c r="G144" s="84" t="s">
-        <v>340</v>
+      <c r="B144" s="78" t="s">
+        <v>312</v>
+      </c>
+      <c r="C144" s="78"/>
+      <c r="D144" s="78"/>
+      <c r="E144" s="78"/>
+      <c r="F144" s="78"/>
+      <c r="G144" s="54" t="s">
+        <v>342</v>
       </c>
       <c r="H144" s="54"/>
       <c r="I144" s="54"/>
@@ -4609,15 +4569,15 @@
       <c r="A145" s="22">
         <v>11</v>
       </c>
-      <c r="B145" s="85" t="s">
+      <c r="B145" s="78" t="s">
+        <v>311</v>
+      </c>
+      <c r="C145" s="78"/>
+      <c r="D145" s="78"/>
+      <c r="E145" s="78"/>
+      <c r="F145" s="78"/>
+      <c r="G145" s="54" t="s">
         <v>342</v>
-      </c>
-      <c r="C145" s="85"/>
-      <c r="D145" s="85"/>
-      <c r="E145" s="85"/>
-      <c r="F145" s="85"/>
-      <c r="G145" s="84" t="s">
-        <v>341</v>
       </c>
       <c r="H145" s="54"/>
       <c r="I145" s="54"/>
@@ -4633,14 +4593,14 @@
         <v>12</v>
       </c>
       <c r="B146" s="54" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="C146" s="54"/>
       <c r="D146" s="54"/>
       <c r="E146" s="54"/>
       <c r="F146" s="54"/>
-      <c r="G146" s="84" t="s">
-        <v>194</v>
+      <c r="G146" s="77" t="s">
+        <v>185</v>
       </c>
       <c r="H146" s="54"/>
       <c r="I146" s="54"/>
@@ -4651,19 +4611,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="22">
         <v>13</v>
       </c>
-      <c r="B147" s="85" t="s">
-        <v>345</v>
-      </c>
-      <c r="C147" s="85"/>
-      <c r="D147" s="85"/>
-      <c r="E147" s="85"/>
-      <c r="F147" s="85"/>
-      <c r="G147" s="84" t="s">
-        <v>362</v>
+      <c r="B147" s="78" t="s">
+        <v>314</v>
+      </c>
+      <c r="C147" s="78"/>
+      <c r="D147" s="78"/>
+      <c r="E147" s="78"/>
+      <c r="F147" s="78"/>
+      <c r="G147" s="54" t="s">
+        <v>343</v>
       </c>
       <c r="H147" s="54"/>
       <c r="I147" s="54"/>
@@ -4678,21 +4638,21 @@
       <c r="A148" s="22">
         <v>14</v>
       </c>
-      <c r="B148" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="C148" s="85"/>
-      <c r="D148" s="85"/>
-      <c r="E148" s="85"/>
-      <c r="F148" s="85"/>
-      <c r="G148" s="84" t="s">
-        <v>362</v>
-      </c>
-      <c r="H148" s="54"/>
-      <c r="I148" s="54"/>
-      <c r="J148" s="54"/>
-      <c r="K148" s="54"/>
-      <c r="L148" s="54"/>
+      <c r="B148" s="78" t="s">
+        <v>329</v>
+      </c>
+      <c r="C148" s="78"/>
+      <c r="D148" s="78"/>
+      <c r="E148" s="78"/>
+      <c r="F148" s="78"/>
+      <c r="G148" s="75" t="s">
+        <v>343</v>
+      </c>
+      <c r="H148" s="76"/>
+      <c r="I148" s="76"/>
+      <c r="J148" s="76"/>
+      <c r="K148" s="76"/>
+      <c r="L148" s="77"/>
       <c r="M148" s="23" t="s">
         <v>85</v>
       </c>
@@ -4701,15 +4661,15 @@
       <c r="A149" s="22">
         <v>15</v>
       </c>
-      <c r="B149" s="85" t="s">
-        <v>346</v>
-      </c>
-      <c r="C149" s="85"/>
-      <c r="D149" s="85"/>
-      <c r="E149" s="85"/>
-      <c r="F149" s="85"/>
-      <c r="G149" s="84" t="s">
-        <v>194</v>
+      <c r="B149" s="78" t="s">
+        <v>315</v>
+      </c>
+      <c r="C149" s="78"/>
+      <c r="D149" s="78"/>
+      <c r="E149" s="78"/>
+      <c r="F149" s="78"/>
+      <c r="G149" s="77" t="s">
+        <v>185</v>
       </c>
       <c r="H149" s="54"/>
       <c r="I149" s="54"/>
@@ -4724,21 +4684,21 @@
       <c r="A150" s="22">
         <v>16</v>
       </c>
-      <c r="B150" s="85" t="s">
-        <v>358</v>
-      </c>
-      <c r="C150" s="85"/>
-      <c r="D150" s="85"/>
-      <c r="E150" s="85"/>
-      <c r="F150" s="85"/>
-      <c r="G150" s="55" t="s">
-        <v>361</v>
-      </c>
-      <c r="H150" s="55"/>
-      <c r="I150" s="55"/>
-      <c r="J150" s="55"/>
-      <c r="K150" s="55"/>
-      <c r="L150" s="55"/>
+      <c r="B150" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="C150" s="78"/>
+      <c r="D150" s="78"/>
+      <c r="E150" s="78"/>
+      <c r="F150" s="78"/>
+      <c r="G150" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="H150" s="76"/>
+      <c r="I150" s="76"/>
+      <c r="J150" s="76"/>
+      <c r="K150" s="76"/>
+      <c r="L150" s="77"/>
       <c r="M150" s="23" t="s">
         <v>85</v>
       </c>
@@ -4747,21 +4707,21 @@
       <c r="A151" s="22">
         <v>17</v>
       </c>
-      <c r="B151" s="85" t="s">
-        <v>359</v>
-      </c>
-      <c r="C151" s="85"/>
-      <c r="D151" s="85"/>
-      <c r="E151" s="85"/>
-      <c r="F151" s="85"/>
-      <c r="G151" s="55" t="s">
-        <v>361</v>
-      </c>
-      <c r="H151" s="55"/>
-      <c r="I151" s="55"/>
-      <c r="J151" s="55"/>
-      <c r="K151" s="55"/>
-      <c r="L151" s="55"/>
+      <c r="B151" s="78" t="s">
+        <v>328</v>
+      </c>
+      <c r="C151" s="78"/>
+      <c r="D151" s="78"/>
+      <c r="E151" s="78"/>
+      <c r="F151" s="78"/>
+      <c r="G151" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="H151" s="76"/>
+      <c r="I151" s="76"/>
+      <c r="J151" s="76"/>
+      <c r="K151" s="76"/>
+      <c r="L151" s="77"/>
       <c r="M151" s="23" t="s">
         <v>85</v>
       </c>
@@ -4770,15 +4730,15 @@
       <c r="A152" s="22">
         <v>18</v>
       </c>
-      <c r="B152" s="85" t="s">
-        <v>204</v>
-      </c>
-      <c r="C152" s="85"/>
-      <c r="D152" s="85"/>
-      <c r="E152" s="85"/>
-      <c r="F152" s="85"/>
-      <c r="G152" s="84" t="s">
-        <v>194</v>
+      <c r="B152" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="C152" s="78"/>
+      <c r="D152" s="78"/>
+      <c r="E152" s="78"/>
+      <c r="F152" s="78"/>
+      <c r="G152" s="77" t="s">
+        <v>185</v>
       </c>
       <c r="H152" s="54"/>
       <c r="I152" s="54"/>
@@ -4794,14 +4754,14 @@
         <v>19</v>
       </c>
       <c r="B153" s="54" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C153" s="54"/>
       <c r="D153" s="54"/>
       <c r="E153" s="54"/>
       <c r="F153" s="54"/>
       <c r="G153" s="54" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H153" s="54"/>
       <c r="I153" s="54"/>
@@ -4817,14 +4777,14 @@
         <v>20</v>
       </c>
       <c r="B154" s="54" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C154" s="54"/>
       <c r="D154" s="54"/>
       <c r="E154" s="54"/>
       <c r="F154" s="54"/>
       <c r="G154" s="54" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H154" s="54"/>
       <c r="I154" s="54"/>
@@ -4840,14 +4800,14 @@
         <v>21</v>
       </c>
       <c r="B155" s="54" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C155" s="54"/>
       <c r="D155" s="54"/>
       <c r="E155" s="54"/>
       <c r="F155" s="54"/>
       <c r="G155" s="54" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H155" s="54"/>
       <c r="I155" s="54"/>
@@ -4859,54 +4819,54 @@
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A158" s="76" t="s">
+      <c r="A158" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B158" s="77"/>
-      <c r="C158" s="77"/>
-      <c r="D158" s="77"/>
-      <c r="E158" s="77"/>
-      <c r="F158" s="77"/>
-      <c r="G158" s="77"/>
-      <c r="H158" s="77"/>
-      <c r="I158" s="77"/>
-      <c r="J158" s="77"/>
-      <c r="K158" s="77"/>
-      <c r="L158" s="78"/>
+      <c r="B158" s="70"/>
+      <c r="C158" s="70"/>
+      <c r="D158" s="70"/>
+      <c r="E158" s="70"/>
+      <c r="F158" s="70"/>
+      <c r="G158" s="70"/>
+      <c r="H158" s="70"/>
+      <c r="I158" s="70"/>
+      <c r="J158" s="70"/>
+      <c r="K158" s="70"/>
+      <c r="L158" s="71"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A159" s="79"/>
-      <c r="B159" s="80"/>
-      <c r="C159" s="80"/>
-      <c r="D159" s="80"/>
-      <c r="E159" s="80"/>
-      <c r="F159" s="80"/>
-      <c r="G159" s="80"/>
-      <c r="H159" s="80"/>
-      <c r="I159" s="80"/>
-      <c r="J159" s="80"/>
-      <c r="K159" s="80"/>
-      <c r="L159" s="81"/>
+      <c r="A159" s="72"/>
+      <c r="B159" s="73"/>
+      <c r="C159" s="73"/>
+      <c r="D159" s="73"/>
+      <c r="E159" s="73"/>
+      <c r="F159" s="73"/>
+      <c r="G159" s="73"/>
+      <c r="H159" s="73"/>
+      <c r="I159" s="73"/>
+      <c r="J159" s="73"/>
+      <c r="K159" s="73"/>
+      <c r="L159" s="74"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E162" s="9"/>
-      <c r="F162" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="G162" s="68"/>
-      <c r="H162" s="68"/>
-      <c r="I162" s="68"/>
-      <c r="J162" s="68"/>
-      <c r="K162" s="68"/>
+      <c r="F162" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="G162" s="61"/>
+      <c r="H162" s="61"/>
+      <c r="I162" s="61"/>
+      <c r="J162" s="61"/>
+      <c r="K162" s="61"/>
       <c r="M162" s="5"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
@@ -4920,14 +4880,14 @@
         <v>70</v>
       </c>
       <c r="E163" s="9"/>
-      <c r="F163" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="G163" s="69"/>
-      <c r="H163" s="69"/>
-      <c r="I163" s="69"/>
-      <c r="J163" s="69"/>
-      <c r="K163" s="69"/>
+      <c r="F163" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="G163" s="62"/>
+      <c r="H163" s="62"/>
+      <c r="I163" s="62"/>
+      <c r="J163" s="62"/>
+      <c r="K163" s="62"/>
       <c r="M163" s="5"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
@@ -4961,12 +4921,12 @@
       <c r="G168" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H168" s="70" t="s">
+      <c r="H168" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I168" s="71"/>
-      <c r="J168" s="71"/>
-      <c r="K168" s="72"/>
+      <c r="I168" s="64"/>
+      <c r="J168" s="64"/>
+      <c r="K168" s="65"/>
       <c r="M168" s="5"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
@@ -4982,12 +4942,12 @@
       <c r="G169" s="20">
         <v>1</v>
       </c>
-      <c r="H169" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="I169" s="74"/>
-      <c r="J169" s="74"/>
-      <c r="K169" s="75"/>
+      <c r="H169" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="I169" s="67"/>
+      <c r="J169" s="67"/>
+      <c r="K169" s="68"/>
       <c r="M169" s="5"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
@@ -5015,12 +4975,12 @@
       <c r="G171" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H171" s="70" t="s">
+      <c r="H171" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I171" s="71"/>
-      <c r="J171" s="71"/>
-      <c r="K171" s="72"/>
+      <c r="I171" s="64"/>
+      <c r="J171" s="64"/>
+      <c r="K171" s="65"/>
       <c r="M171" s="5"/>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
@@ -5028,24 +4988,24 @@
       <c r="G172" s="20">
         <v>1</v>
       </c>
-      <c r="H172" s="73" t="s">
+      <c r="H172" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="I172" s="74"/>
-      <c r="J172" s="74"/>
-      <c r="K172" s="75"/>
+      <c r="I172" s="67"/>
+      <c r="J172" s="67"/>
+      <c r="K172" s="68"/>
       <c r="M172" s="5"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G173" s="20">
         <v>1</v>
       </c>
-      <c r="H173" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="I173" s="74"/>
-      <c r="J173" s="74"/>
-      <c r="K173" s="75"/>
+      <c r="H173" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="I173" s="67"/>
+      <c r="J173" s="67"/>
+      <c r="K173" s="68"/>
       <c r="M173" s="5"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -5058,40 +5018,40 @@
       <c r="A176" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B176" s="56" t="s">
+      <c r="B176" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C176" s="57"/>
-      <c r="D176" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="E176" s="59"/>
-      <c r="F176" s="59"/>
-      <c r="G176" s="59"/>
-      <c r="H176" s="59"/>
-      <c r="I176" s="59"/>
-      <c r="J176" s="59"/>
-      <c r="K176" s="60"/>
+      <c r="C176" s="56"/>
+      <c r="D176" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="E176" s="58"/>
+      <c r="F176" s="58"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="58"/>
+      <c r="J176" s="58"/>
+      <c r="K176" s="59"/>
       <c r="M176" s="5"/>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B177" s="56" t="s">
+      <c r="B177" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C177" s="57"/>
-      <c r="D177" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="E177" s="59"/>
-      <c r="F177" s="59"/>
-      <c r="G177" s="59"/>
-      <c r="H177" s="59"/>
-      <c r="I177" s="59"/>
-      <c r="J177" s="59"/>
-      <c r="K177" s="60"/>
+      <c r="C177" s="56"/>
+      <c r="D177" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="E177" s="58"/>
+      <c r="F177" s="58"/>
+      <c r="G177" s="58"/>
+      <c r="H177" s="58"/>
+      <c r="I177" s="58"/>
+      <c r="J177" s="58"/>
+      <c r="K177" s="59"/>
       <c r="M177" s="5"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
@@ -5112,42 +5072,42 @@
       <c r="M179" s="5"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A180" s="61" t="s">
+      <c r="A180" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B180" s="61" t="s">
+      <c r="B180" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C180" s="61"/>
-      <c r="D180" s="61"/>
-      <c r="E180" s="61"/>
-      <c r="F180" s="61"/>
-      <c r="G180" s="61" t="s">
+      <c r="C180" s="60"/>
+      <c r="D180" s="60"/>
+      <c r="E180" s="60"/>
+      <c r="F180" s="60"/>
+      <c r="G180" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H180" s="61"/>
-      <c r="I180" s="61"/>
-      <c r="J180" s="61"/>
-      <c r="K180" s="61"/>
-      <c r="L180" s="61"/>
-      <c r="M180" s="61" t="s">
+      <c r="H180" s="60"/>
+      <c r="I180" s="60"/>
+      <c r="J180" s="60"/>
+      <c r="K180" s="60"/>
+      <c r="L180" s="60"/>
+      <c r="M180" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A181" s="61"/>
-      <c r="B181" s="61"/>
-      <c r="C181" s="61"/>
-      <c r="D181" s="61"/>
-      <c r="E181" s="61"/>
-      <c r="F181" s="61"/>
-      <c r="G181" s="61"/>
-      <c r="H181" s="61"/>
-      <c r="I181" s="61"/>
-      <c r="J181" s="61"/>
-      <c r="K181" s="61"/>
-      <c r="L181" s="61"/>
-      <c r="M181" s="61"/>
+      <c r="A181" s="60"/>
+      <c r="B181" s="60"/>
+      <c r="C181" s="60"/>
+      <c r="D181" s="60"/>
+      <c r="E181" s="60"/>
+      <c r="F181" s="60"/>
+      <c r="G181" s="60"/>
+      <c r="H181" s="60"/>
+      <c r="I181" s="60"/>
+      <c r="J181" s="60"/>
+      <c r="K181" s="60"/>
+      <c r="L181" s="60"/>
+      <c r="M181" s="60"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="22">
@@ -5177,14 +5137,14 @@
         <v>2</v>
       </c>
       <c r="B183" s="54" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C183" s="54"/>
       <c r="D183" s="54"/>
       <c r="E183" s="54"/>
       <c r="F183" s="54"/>
       <c r="G183" s="54" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H183" s="54"/>
       <c r="I183" s="54"/>
@@ -5200,14 +5160,14 @@
         <v>3</v>
       </c>
       <c r="B184" s="54" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C184" s="54"/>
       <c r="D184" s="54"/>
       <c r="E184" s="54"/>
       <c r="F184" s="54"/>
       <c r="G184" s="54" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H184" s="54"/>
       <c r="I184" s="54"/>
@@ -5223,14 +5183,14 @@
         <v>4</v>
       </c>
       <c r="B185" s="54" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C185" s="54"/>
       <c r="D185" s="54"/>
       <c r="E185" s="54"/>
       <c r="F185" s="54"/>
       <c r="G185" s="54" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H185" s="54"/>
       <c r="I185" s="54"/>
@@ -5246,14 +5206,14 @@
         <v>5</v>
       </c>
       <c r="B186" s="54" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C186" s="54"/>
       <c r="D186" s="54"/>
       <c r="E186" s="54"/>
       <c r="F186" s="54"/>
       <c r="G186" s="54" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H186" s="54"/>
       <c r="I186" s="54"/>
@@ -5265,54 +5225,54 @@
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A190" s="76" t="s">
+      <c r="A190" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B190" s="77"/>
-      <c r="C190" s="77"/>
-      <c r="D190" s="77"/>
-      <c r="E190" s="77"/>
-      <c r="F190" s="77"/>
-      <c r="G190" s="77"/>
-      <c r="H190" s="77"/>
-      <c r="I190" s="77"/>
-      <c r="J190" s="77"/>
-      <c r="K190" s="77"/>
-      <c r="L190" s="78"/>
+      <c r="B190" s="70"/>
+      <c r="C190" s="70"/>
+      <c r="D190" s="70"/>
+      <c r="E190" s="70"/>
+      <c r="F190" s="70"/>
+      <c r="G190" s="70"/>
+      <c r="H190" s="70"/>
+      <c r="I190" s="70"/>
+      <c r="J190" s="70"/>
+      <c r="K190" s="70"/>
+      <c r="L190" s="71"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A191" s="79"/>
-      <c r="B191" s="80"/>
-      <c r="C191" s="80"/>
-      <c r="D191" s="80"/>
-      <c r="E191" s="80"/>
-      <c r="F191" s="80"/>
-      <c r="G191" s="80"/>
-      <c r="H191" s="80"/>
-      <c r="I191" s="80"/>
-      <c r="J191" s="80"/>
-      <c r="K191" s="80"/>
-      <c r="L191" s="81"/>
+      <c r="A191" s="72"/>
+      <c r="B191" s="73"/>
+      <c r="C191" s="73"/>
+      <c r="D191" s="73"/>
+      <c r="E191" s="73"/>
+      <c r="F191" s="73"/>
+      <c r="G191" s="73"/>
+      <c r="H191" s="73"/>
+      <c r="I191" s="73"/>
+      <c r="J191" s="73"/>
+      <c r="K191" s="73"/>
+      <c r="L191" s="74"/>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E194" s="9"/>
-      <c r="F194" s="68" t="s">
-        <v>211</v>
-      </c>
-      <c r="G194" s="68"/>
-      <c r="H194" s="68"/>
-      <c r="I194" s="68"/>
-      <c r="J194" s="68"/>
-      <c r="K194" s="68"/>
+      <c r="F194" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="G194" s="61"/>
+      <c r="H194" s="61"/>
+      <c r="I194" s="61"/>
+      <c r="J194" s="61"/>
+      <c r="K194" s="61"/>
       <c r="M194" s="5"/>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
@@ -5326,14 +5286,14 @@
         <v>70</v>
       </c>
       <c r="E195" s="9"/>
-      <c r="F195" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="G195" s="69"/>
-      <c r="H195" s="69"/>
-      <c r="I195" s="69"/>
-      <c r="J195" s="69"/>
-      <c r="K195" s="69"/>
+      <c r="F195" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="G195" s="62"/>
+      <c r="H195" s="62"/>
+      <c r="I195" s="62"/>
+      <c r="J195" s="62"/>
+      <c r="K195" s="62"/>
       <c r="M195" s="5"/>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.2">
@@ -5367,12 +5327,12 @@
       <c r="G200" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H200" s="70" t="s">
+      <c r="H200" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I200" s="71"/>
-      <c r="J200" s="71"/>
-      <c r="K200" s="72"/>
+      <c r="I200" s="64"/>
+      <c r="J200" s="64"/>
+      <c r="K200" s="65"/>
       <c r="M200" s="5"/>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
@@ -5388,12 +5348,12 @@
       <c r="G201" s="20">
         <v>1</v>
       </c>
-      <c r="H201" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="I201" s="74"/>
-      <c r="J201" s="74"/>
-      <c r="K201" s="75"/>
+      <c r="H201" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="I201" s="67"/>
+      <c r="J201" s="67"/>
+      <c r="K201" s="68"/>
       <c r="M201" s="5"/>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
@@ -5421,12 +5381,12 @@
       <c r="G203" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H203" s="70" t="s">
+      <c r="H203" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I203" s="71"/>
-      <c r="J203" s="71"/>
-      <c r="K203" s="72"/>
+      <c r="I203" s="64"/>
+      <c r="J203" s="64"/>
+      <c r="K203" s="65"/>
       <c r="M203" s="5"/>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.2">
@@ -5434,24 +5394,24 @@
       <c r="G204" s="20">
         <v>1</v>
       </c>
-      <c r="H204" s="73" t="s">
+      <c r="H204" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="I204" s="74"/>
-      <c r="J204" s="74"/>
-      <c r="K204" s="75"/>
+      <c r="I204" s="67"/>
+      <c r="J204" s="67"/>
+      <c r="K204" s="68"/>
       <c r="M204" s="5"/>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G205" s="20">
         <v>1</v>
       </c>
-      <c r="H205" s="73" t="s">
-        <v>221</v>
-      </c>
-      <c r="I205" s="74"/>
-      <c r="J205" s="74"/>
-      <c r="K205" s="75"/>
+      <c r="H205" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="I205" s="67"/>
+      <c r="J205" s="67"/>
+      <c r="K205" s="68"/>
       <c r="M205" s="5"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
@@ -5461,40 +5421,40 @@
       <c r="A207" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B207" s="56" t="s">
+      <c r="B207" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C207" s="57"/>
-      <c r="D207" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="E207" s="59"/>
-      <c r="F207" s="59"/>
-      <c r="G207" s="59"/>
-      <c r="H207" s="59"/>
-      <c r="I207" s="59"/>
-      <c r="J207" s="59"/>
-      <c r="K207" s="60"/>
+      <c r="C207" s="56"/>
+      <c r="D207" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="E207" s="58"/>
+      <c r="F207" s="58"/>
+      <c r="G207" s="58"/>
+      <c r="H207" s="58"/>
+      <c r="I207" s="58"/>
+      <c r="J207" s="58"/>
+      <c r="K207" s="59"/>
       <c r="M207" s="5"/>
     </row>
     <row r="208" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B208" s="56" t="s">
+      <c r="B208" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C208" s="57"/>
-      <c r="D208" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="E208" s="59"/>
-      <c r="F208" s="59"/>
-      <c r="G208" s="59"/>
-      <c r="H208" s="59"/>
-      <c r="I208" s="59"/>
-      <c r="J208" s="59"/>
-      <c r="K208" s="60"/>
+      <c r="C208" s="56"/>
+      <c r="D208" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="E208" s="58"/>
+      <c r="F208" s="58"/>
+      <c r="G208" s="58"/>
+      <c r="H208" s="58"/>
+      <c r="I208" s="58"/>
+      <c r="J208" s="58"/>
+      <c r="K208" s="59"/>
       <c r="M208" s="5"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
@@ -5515,42 +5475,42 @@
       <c r="M210" s="5"/>
     </row>
     <row r="211" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="61" t="s">
+      <c r="A211" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B211" s="61" t="s">
+      <c r="B211" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C211" s="61"/>
-      <c r="D211" s="61"/>
-      <c r="E211" s="61"/>
-      <c r="F211" s="61"/>
-      <c r="G211" s="62" t="s">
+      <c r="C211" s="60"/>
+      <c r="D211" s="60"/>
+      <c r="E211" s="60"/>
+      <c r="F211" s="60"/>
+      <c r="G211" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="H211" s="63"/>
-      <c r="I211" s="63"/>
-      <c r="J211" s="63"/>
-      <c r="K211" s="63"/>
-      <c r="L211" s="64"/>
-      <c r="M211" s="61" t="s">
+      <c r="H211" s="80"/>
+      <c r="I211" s="80"/>
+      <c r="J211" s="80"/>
+      <c r="K211" s="80"/>
+      <c r="L211" s="81"/>
+      <c r="M211" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A212" s="61"/>
-      <c r="B212" s="61"/>
-      <c r="C212" s="61"/>
-      <c r="D212" s="61"/>
-      <c r="E212" s="61"/>
-      <c r="F212" s="61"/>
-      <c r="G212" s="65"/>
-      <c r="H212" s="66"/>
-      <c r="I212" s="66"/>
-      <c r="J212" s="66"/>
-      <c r="K212" s="66"/>
-      <c r="L212" s="67"/>
-      <c r="M212" s="61"/>
+      <c r="A212" s="60"/>
+      <c r="B212" s="60"/>
+      <c r="C212" s="60"/>
+      <c r="D212" s="60"/>
+      <c r="E212" s="60"/>
+      <c r="F212" s="60"/>
+      <c r="G212" s="82"/>
+      <c r="H212" s="83"/>
+      <c r="I212" s="83"/>
+      <c r="J212" s="83"/>
+      <c r="K212" s="83"/>
+      <c r="L212" s="84"/>
+      <c r="M212" s="60"/>
     </row>
     <row r="213" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="22">
@@ -5580,14 +5540,14 @@
         <v>2</v>
       </c>
       <c r="B214" s="54" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C214" s="54"/>
       <c r="D214" s="54"/>
       <c r="E214" s="54"/>
       <c r="F214" s="54"/>
       <c r="G214" s="54" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H214" s="54"/>
       <c r="I214" s="54"/>
@@ -5603,14 +5563,14 @@
         <v>3</v>
       </c>
       <c r="B215" s="54" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C215" s="54"/>
       <c r="D215" s="54"/>
       <c r="E215" s="54"/>
       <c r="F215" s="54"/>
       <c r="G215" s="54" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H215" s="54"/>
       <c r="I215" s="54"/>
@@ -5626,14 +5586,14 @@
         <v>4</v>
       </c>
       <c r="B216" s="54" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C216" s="54"/>
       <c r="D216" s="54"/>
       <c r="E216" s="54"/>
       <c r="F216" s="54"/>
       <c r="G216" s="54" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H216" s="54"/>
       <c r="I216" s="54"/>
@@ -5649,20 +5609,20 @@
         <v>5</v>
       </c>
       <c r="B217" s="54" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="C217" s="54"/>
       <c r="D217" s="54"/>
       <c r="E217" s="54"/>
       <c r="F217" s="54"/>
-      <c r="G217" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="H217" s="54"/>
-      <c r="I217" s="54"/>
-      <c r="J217" s="54"/>
-      <c r="K217" s="54"/>
-      <c r="L217" s="54"/>
+      <c r="G217" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="H217" s="76"/>
+      <c r="I217" s="76"/>
+      <c r="J217" s="76"/>
+      <c r="K217" s="76"/>
+      <c r="L217" s="77"/>
       <c r="M217" s="23" t="s">
         <v>85</v>
       </c>
@@ -5672,14 +5632,14 @@
         <v>6</v>
       </c>
       <c r="B218" s="54" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C218" s="54"/>
       <c r="D218" s="54"/>
       <c r="E218" s="54"/>
       <c r="F218" s="54"/>
       <c r="G218" s="54" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H218" s="54"/>
       <c r="I218" s="54"/>
@@ -5690,19 +5650,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="22">
         <v>7</v>
       </c>
       <c r="B219" s="54" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C219" s="54"/>
       <c r="D219" s="54"/>
       <c r="E219" s="54"/>
       <c r="F219" s="54"/>
       <c r="G219" s="54" t="s">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="H219" s="54"/>
       <c r="I219" s="54"/>
@@ -5718,14 +5678,14 @@
         <v>8</v>
       </c>
       <c r="B220" s="54" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C220" s="54"/>
       <c r="D220" s="54"/>
       <c r="E220" s="54"/>
       <c r="F220" s="54"/>
       <c r="G220" s="54" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H220" s="54"/>
       <c r="I220" s="54"/>
@@ -5741,14 +5701,14 @@
         <v>9</v>
       </c>
       <c r="B221" s="54" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C221" s="54"/>
       <c r="D221" s="54"/>
       <c r="E221" s="54"/>
       <c r="F221" s="54"/>
       <c r="G221" s="54" t="s">
-        <v>227</v>
+        <v>353</v>
       </c>
       <c r="H221" s="54"/>
       <c r="I221" s="54"/>
@@ -5764,14 +5724,14 @@
         <v>10</v>
       </c>
       <c r="B222" s="54" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C222" s="54"/>
       <c r="D222" s="54"/>
       <c r="E222" s="54"/>
       <c r="F222" s="54"/>
       <c r="G222" s="54" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H222" s="54"/>
       <c r="I222" s="54"/>
@@ -5787,14 +5747,14 @@
         <v>11</v>
       </c>
       <c r="B223" s="54" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C223" s="54"/>
       <c r="D223" s="54"/>
       <c r="E223" s="54"/>
       <c r="F223" s="54"/>
       <c r="G223" s="54" t="s">
-        <v>229</v>
+        <v>353</v>
       </c>
       <c r="H223" s="54"/>
       <c r="I223" s="54"/>
@@ -5809,15 +5769,15 @@
       <c r="A224" s="22">
         <v>12</v>
       </c>
-      <c r="B224" s="85" t="s">
-        <v>347</v>
-      </c>
-      <c r="C224" s="85"/>
-      <c r="D224" s="85"/>
-      <c r="E224" s="85"/>
-      <c r="F224" s="85"/>
+      <c r="B224" s="78" t="s">
+        <v>316</v>
+      </c>
+      <c r="C224" s="78"/>
+      <c r="D224" s="78"/>
+      <c r="E224" s="78"/>
+      <c r="F224" s="78"/>
       <c r="G224" s="54" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="H224" s="54"/>
       <c r="I224" s="54"/>
@@ -5832,15 +5792,15 @@
       <c r="A225" s="22">
         <v>13</v>
       </c>
-      <c r="B225" s="85" t="s">
-        <v>348</v>
-      </c>
-      <c r="C225" s="85"/>
-      <c r="D225" s="85"/>
-      <c r="E225" s="85"/>
-      <c r="F225" s="85"/>
+      <c r="B225" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="C225" s="78"/>
+      <c r="D225" s="78"/>
+      <c r="E225" s="78"/>
+      <c r="F225" s="78"/>
       <c r="G225" s="54" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="H225" s="54"/>
       <c r="I225" s="54"/>
@@ -5855,15 +5815,15 @@
       <c r="A226" s="22">
         <v>14</v>
       </c>
-      <c r="B226" s="85" t="s">
-        <v>230</v>
-      </c>
-      <c r="C226" s="85"/>
-      <c r="D226" s="85"/>
-      <c r="E226" s="85"/>
-      <c r="F226" s="85"/>
+      <c r="B226" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="C226" s="78"/>
+      <c r="D226" s="78"/>
+      <c r="E226" s="78"/>
+      <c r="F226" s="78"/>
       <c r="G226" s="54" t="s">
-        <v>231</v>
+        <v>353</v>
       </c>
       <c r="H226" s="54"/>
       <c r="I226" s="54"/>
@@ -5878,15 +5838,15 @@
       <c r="A227" s="22">
         <v>15</v>
       </c>
-      <c r="B227" s="85" t="s">
-        <v>349</v>
-      </c>
-      <c r="C227" s="85"/>
-      <c r="D227" s="85"/>
-      <c r="E227" s="85"/>
-      <c r="F227" s="85"/>
+      <c r="B227" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="C227" s="78"/>
+      <c r="D227" s="78"/>
+      <c r="E227" s="78"/>
+      <c r="F227" s="78"/>
       <c r="G227" s="54" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="H227" s="54"/>
       <c r="I227" s="54"/>
@@ -5901,15 +5861,15 @@
       <c r="A228" s="22">
         <v>16</v>
       </c>
-      <c r="B228" s="85" t="s">
+      <c r="B228" s="78" t="s">
+        <v>319</v>
+      </c>
+      <c r="C228" s="78"/>
+      <c r="D228" s="78"/>
+      <c r="E228" s="78"/>
+      <c r="F228" s="78"/>
+      <c r="G228" s="54" t="s">
         <v>350</v>
-      </c>
-      <c r="C228" s="85"/>
-      <c r="D228" s="85"/>
-      <c r="E228" s="85"/>
-      <c r="F228" s="85"/>
-      <c r="G228" s="54" t="s">
-        <v>341</v>
       </c>
       <c r="H228" s="54"/>
       <c r="I228" s="54"/>
@@ -5920,19 +5880,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="22">
         <v>17</v>
       </c>
-      <c r="B229" s="85" t="s">
-        <v>233</v>
-      </c>
-      <c r="C229" s="85"/>
-      <c r="D229" s="85"/>
-      <c r="E229" s="85"/>
-      <c r="F229" s="85"/>
+      <c r="B229" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="C229" s="78"/>
+      <c r="D229" s="78"/>
+      <c r="E229" s="78"/>
+      <c r="F229" s="78"/>
       <c r="G229" s="54" t="s">
-        <v>232</v>
+        <v>353</v>
       </c>
       <c r="H229" s="54"/>
       <c r="I229" s="54"/>
@@ -5947,21 +5907,21 @@
       <c r="A230" s="22">
         <v>13</v>
       </c>
-      <c r="B230" s="85" t="s">
-        <v>364</v>
-      </c>
-      <c r="C230" s="85"/>
-      <c r="D230" s="85"/>
-      <c r="E230" s="85"/>
-      <c r="F230" s="85"/>
-      <c r="G230" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="H230" s="54"/>
-      <c r="I230" s="54"/>
-      <c r="J230" s="54"/>
-      <c r="K230" s="54"/>
-      <c r="L230" s="54"/>
+      <c r="B230" s="78" t="s">
+        <v>331</v>
+      </c>
+      <c r="C230" s="78"/>
+      <c r="D230" s="78"/>
+      <c r="E230" s="78"/>
+      <c r="F230" s="78"/>
+      <c r="G230" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="H230" s="76"/>
+      <c r="I230" s="76"/>
+      <c r="J230" s="76"/>
+      <c r="K230" s="76"/>
+      <c r="L230" s="77"/>
       <c r="M230" s="23" t="s">
         <v>85</v>
       </c>
@@ -5970,21 +5930,21 @@
       <c r="A231" s="22">
         <v>14</v>
       </c>
-      <c r="B231" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="C231" s="85"/>
-      <c r="D231" s="85"/>
-      <c r="E231" s="85"/>
-      <c r="F231" s="85"/>
-      <c r="G231" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="H231" s="54"/>
-      <c r="I231" s="54"/>
-      <c r="J231" s="54"/>
-      <c r="K231" s="54"/>
-      <c r="L231" s="54"/>
+      <c r="B231" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="C231" s="78"/>
+      <c r="D231" s="78"/>
+      <c r="E231" s="78"/>
+      <c r="F231" s="78"/>
+      <c r="G231" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="H231" s="76"/>
+      <c r="I231" s="76"/>
+      <c r="J231" s="76"/>
+      <c r="K231" s="76"/>
+      <c r="L231" s="77"/>
       <c r="M231" s="23" t="s">
         <v>85</v>
       </c>
@@ -5993,15 +5953,15 @@
       <c r="A232" s="22">
         <v>15</v>
       </c>
-      <c r="B232" s="85" t="s">
-        <v>203</v>
-      </c>
-      <c r="C232" s="85"/>
-      <c r="D232" s="85"/>
-      <c r="E232" s="85"/>
-      <c r="F232" s="85"/>
+      <c r="B232" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="C232" s="78"/>
+      <c r="D232" s="78"/>
+      <c r="E232" s="78"/>
+      <c r="F232" s="78"/>
       <c r="G232" s="54" t="s">
-        <v>234</v>
+        <v>353</v>
       </c>
       <c r="H232" s="54"/>
       <c r="I232" s="54"/>
@@ -6016,21 +5976,21 @@
       <c r="A233" s="22">
         <v>16</v>
       </c>
-      <c r="B233" s="85" t="s">
-        <v>358</v>
-      </c>
-      <c r="C233" s="85"/>
-      <c r="D233" s="85"/>
-      <c r="E233" s="85"/>
-      <c r="F233" s="85"/>
-      <c r="G233" s="54" t="s">
-        <v>361</v>
-      </c>
-      <c r="H233" s="54"/>
-      <c r="I233" s="54"/>
-      <c r="J233" s="54"/>
-      <c r="K233" s="54"/>
-      <c r="L233" s="54"/>
+      <c r="B233" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="C233" s="78"/>
+      <c r="D233" s="78"/>
+      <c r="E233" s="78"/>
+      <c r="F233" s="78"/>
+      <c r="G233" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="H233" s="76"/>
+      <c r="I233" s="76"/>
+      <c r="J233" s="76"/>
+      <c r="K233" s="76"/>
+      <c r="L233" s="77"/>
       <c r="M233" s="23" t="s">
         <v>85</v>
       </c>
@@ -6039,21 +5999,21 @@
       <c r="A234" s="22">
         <v>17</v>
       </c>
-      <c r="B234" s="85" t="s">
-        <v>363</v>
-      </c>
-      <c r="C234" s="85"/>
-      <c r="D234" s="85"/>
-      <c r="E234" s="85"/>
-      <c r="F234" s="85"/>
-      <c r="G234" s="54" t="s">
-        <v>361</v>
-      </c>
-      <c r="H234" s="54"/>
-      <c r="I234" s="54"/>
-      <c r="J234" s="54"/>
-      <c r="K234" s="54"/>
-      <c r="L234" s="54"/>
+      <c r="B234" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="C234" s="78"/>
+      <c r="D234" s="78"/>
+      <c r="E234" s="78"/>
+      <c r="F234" s="78"/>
+      <c r="G234" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="H234" s="76"/>
+      <c r="I234" s="76"/>
+      <c r="J234" s="76"/>
+      <c r="K234" s="76"/>
+      <c r="L234" s="77"/>
       <c r="M234" s="23" t="s">
         <v>85</v>
       </c>
@@ -6062,15 +6022,15 @@
       <c r="A235" s="22">
         <v>18</v>
       </c>
-      <c r="B235" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="C235" s="86"/>
-      <c r="D235" s="86"/>
-      <c r="E235" s="86"/>
-      <c r="F235" s="86"/>
+      <c r="B235" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C235" s="85"/>
+      <c r="D235" s="85"/>
+      <c r="E235" s="85"/>
+      <c r="F235" s="85"/>
       <c r="G235" s="54" t="s">
-        <v>235</v>
+        <v>353</v>
       </c>
       <c r="H235" s="54"/>
       <c r="I235" s="54"/>
@@ -6081,19 +6041,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="22">
         <v>19</v>
       </c>
       <c r="B236" s="54" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C236" s="54"/>
       <c r="D236" s="54"/>
       <c r="E236" s="54"/>
       <c r="F236" s="54"/>
       <c r="G236" s="54" t="s">
-        <v>237</v>
+        <v>353</v>
       </c>
       <c r="H236" s="54"/>
       <c r="I236" s="54"/>
@@ -6106,175 +6066,71 @@
     </row>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="G105:L105"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="G103:L103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="G104:L104"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="G99:L99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="G100:L100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="G101:L101"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="G98:L98"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:K87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:K88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:K89"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="G95:L95"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="G96:L96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="G97:L97"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:K86"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:F94"/>
-    <mergeCell ref="G93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:K90"/>
-    <mergeCell ref="F72:K72"/>
-    <mergeCell ref="F73:K73"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="A68:L69"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="G64:L64"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="G62:L62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:F59"/>
-    <mergeCell ref="G58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="G60:L60"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:K55"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="A37:L38"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A109:L110"/>
-    <mergeCell ref="F113:K113"/>
-    <mergeCell ref="F114:K114"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:K127"/>
-    <mergeCell ref="M130:M131"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="G132:L132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="G133:L133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="G134:L134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="G135:L135"/>
-    <mergeCell ref="B130:F131"/>
-    <mergeCell ref="G130:L131"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="G141:L141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="G142:L142"/>
-    <mergeCell ref="H124:K124"/>
-    <mergeCell ref="A158:L159"/>
-    <mergeCell ref="F162:K162"/>
-    <mergeCell ref="F163:K163"/>
-    <mergeCell ref="H168:K168"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="G136:L136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="G137:L137"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="G138:L138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="G139:L139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="G140:L140"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="G154:L154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="G155:L155"/>
-    <mergeCell ref="H169:K169"/>
-    <mergeCell ref="H171:K171"/>
-    <mergeCell ref="H172:K172"/>
-    <mergeCell ref="H173:K173"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="D176:K176"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:F181"/>
-    <mergeCell ref="G180:L181"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="D177:K177"/>
-    <mergeCell ref="M180:M181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="G182:L182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="G183:L183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="G184:L184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="G185:L185"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="G236:L236"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="G235:L235"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="G151:L151"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="G230:L230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="G231:L231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="G232:L232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="G233:L233"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="G234:L234"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="G225:L225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="G226:L226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="G227:L227"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="G228:L228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="G229:L229"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="G220:L220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="G221:L221"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="G222:L222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="G223:L223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="G224:L224"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="G215:L215"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="G216:L216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="G217:L217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="G218:L218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="G219:L219"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:F212"/>
+    <mergeCell ref="G211:L212"/>
+    <mergeCell ref="M211:M212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="G213:L213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="G214:L214"/>
+    <mergeCell ref="F194:K194"/>
+    <mergeCell ref="F195:K195"/>
+    <mergeCell ref="H200:K200"/>
+    <mergeCell ref="H201:K201"/>
+    <mergeCell ref="H203:K203"/>
+    <mergeCell ref="H204:K204"/>
+    <mergeCell ref="H205:K205"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:K207"/>
     <mergeCell ref="B186:F186"/>
     <mergeCell ref="G186:L186"/>
     <mergeCell ref="A190:L191"/>
@@ -6299,71 +6155,175 @@
     <mergeCell ref="B153:F153"/>
     <mergeCell ref="G153:L153"/>
     <mergeCell ref="B154:F154"/>
-    <mergeCell ref="F194:K194"/>
-    <mergeCell ref="F195:K195"/>
-    <mergeCell ref="H200:K200"/>
-    <mergeCell ref="H201:K201"/>
-    <mergeCell ref="H203:K203"/>
-    <mergeCell ref="H204:K204"/>
-    <mergeCell ref="H205:K205"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D207:K207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:F212"/>
-    <mergeCell ref="G211:L212"/>
-    <mergeCell ref="M211:M212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="G213:L213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="G214:L214"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="G215:L215"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="G216:L216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="G217:L217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="G218:L218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="G219:L219"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="G229:L229"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="G220:L220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="G221:L221"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="G222:L222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="G223:L223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="G224:L224"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="G236:L236"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="G235:L235"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="G151:L151"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="G230:L230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="G231:L231"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="G232:L232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="G233:L233"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="G234:L234"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="G225:L225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="G226:L226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="G227:L227"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="G228:L228"/>
+    <mergeCell ref="M180:M181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="G182:L182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="G183:L183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="G184:L184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="G185:L185"/>
+    <mergeCell ref="H169:K169"/>
+    <mergeCell ref="H171:K171"/>
+    <mergeCell ref="H172:K172"/>
+    <mergeCell ref="H173:K173"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="D176:K176"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:F181"/>
+    <mergeCell ref="G180:L181"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="D177:K177"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="G141:L141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="G142:L142"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="A158:L159"/>
+    <mergeCell ref="F162:K162"/>
+    <mergeCell ref="F163:K163"/>
+    <mergeCell ref="H168:K168"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="G136:L136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="G137:L137"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="G138:L138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="G139:L139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="G140:L140"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="G154:L154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="G155:L155"/>
+    <mergeCell ref="M130:M131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="G132:L132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="G133:L133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="G134:L134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="G135:L135"/>
+    <mergeCell ref="B130:F131"/>
+    <mergeCell ref="G130:L131"/>
+    <mergeCell ref="A109:L110"/>
+    <mergeCell ref="F113:K113"/>
+    <mergeCell ref="F114:K114"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:K127"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="A37:L38"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:F59"/>
+    <mergeCell ref="G58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:K55"/>
+    <mergeCell ref="A68:L69"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="G64:L64"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:K86"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:F94"/>
+    <mergeCell ref="G93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="F72:K72"/>
+    <mergeCell ref="F73:K73"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="G98:L98"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:K87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:K88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:K89"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="G95:L95"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="G96:L96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="G97:L97"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="G105:L105"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="G103:L103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="G104:L104"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="G99:L99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="G100:L100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="G101:L101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6374,7 +6334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA41EE7-18A2-5847-8921-1B401338AF3E}">
   <dimension ref="A3:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
@@ -6388,21 +6348,21 @@
         <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="68" t="s">
-        <v>305</v>
-      </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="F3" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="50"/>
       <c r="M3" s="5"/>
     </row>
@@ -6418,14 +6378,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="69" t="s">
-        <v>306</v>
-      </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
+      <c r="F4" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="50"/>
       <c r="M4" s="5"/>
     </row>
@@ -6507,12 +6467,12 @@
       <c r="G9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="50"/>
       <c r="M9" s="5"/>
     </row>
@@ -6530,10 +6490,10 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
       <c r="L10" s="50"/>
       <c r="M10" s="5"/>
     </row>
@@ -6570,12 +6530,12 @@
       <c r="G12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="72"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="50"/>
       <c r="M12" s="5"/>
     </row>
@@ -6589,12 +6549,12 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="75"/>
+      <c r="H13" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
       <c r="L13" s="50"/>
       <c r="M13" s="5"/>
     </row>
@@ -6632,20 +6592,20 @@
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58" t="s">
-        <v>308</v>
-      </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="60"/>
+      <c r="B16" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="50"/>
       <c r="M16" s="5"/>
     </row>
@@ -6680,56 +6640,56 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61" t="s">
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>1</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
@@ -6745,14 +6705,14 @@
         <v>2</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="H22" s="54"/>
       <c r="I22" s="54"/>
@@ -6809,35 +6769,35 @@
       <c r="M25" s="50"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="71"/>
       <c r="M26" s="50"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="79"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="81"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="74"/>
       <c r="M27" s="50"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -6845,21 +6805,21 @@
         <v>66</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="C31" s="50"/>
       <c r="D31" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="68" t="s">
-        <v>312</v>
-      </c>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
+      <c r="F31" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
       <c r="L31" s="50"/>
       <c r="M31" s="5"/>
     </row>
@@ -6875,14 +6835,14 @@
         <v>70</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="69" t="s">
-        <v>313</v>
-      </c>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
+      <c r="F32" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
       <c r="L32" s="50"/>
       <c r="M32" s="5"/>
     </row>
@@ -6964,12 +6924,12 @@
       <c r="G37" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="70" t="s">
+      <c r="H37" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="72"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="65"/>
       <c r="L37" s="50"/>
       <c r="M37" s="5"/>
     </row>
@@ -6987,12 +6947,12 @@
       <c r="G38" s="20">
         <v>1</v>
       </c>
-      <c r="H38" s="73" t="s">
-        <v>314</v>
-      </c>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="75"/>
+      <c r="H38" s="66" t="s">
+        <v>290</v>
+      </c>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="68"/>
       <c r="L38" s="50"/>
       <c r="M38" s="5"/>
     </row>
@@ -7029,12 +6989,12 @@
       <c r="G40" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="72"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="65"/>
       <c r="L40" s="50"/>
       <c r="M40" s="5"/>
     </row>
@@ -7048,12 +7008,12 @@
       <c r="G41" s="20">
         <v>1</v>
       </c>
-      <c r="H41" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="75"/>
+      <c r="H41" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="68"/>
       <c r="L41" s="50"/>
       <c r="M41" s="5"/>
     </row>
@@ -7091,20 +7051,20 @@
       <c r="A44" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="60"/>
+      <c r="B44" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="C44" s="56"/>
+      <c r="D44" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="59"/>
       <c r="L44" s="50"/>
       <c r="M44" s="5"/>
     </row>
@@ -7139,56 +7099,56 @@
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61" t="s">
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61" t="s">
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="61"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
         <v>1</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="C49" s="54"/>
       <c r="D49" s="54"/>
       <c r="E49" s="54"/>
       <c r="F49" s="54"/>
       <c r="G49" s="54" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="H49" s="54"/>
       <c r="I49" s="54"/>
@@ -7204,14 +7164,14 @@
         <v>2</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="C50" s="54"/>
       <c r="D50" s="54"/>
       <c r="E50" s="54"/>
       <c r="F50" s="54"/>
       <c r="G50" s="54" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="H50" s="54"/>
       <c r="I50" s="54"/>
@@ -7227,14 +7187,14 @@
         <v>3</v>
       </c>
       <c r="B51" s="54" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="C51" s="54"/>
       <c r="D51" s="54"/>
       <c r="E51" s="54"/>
       <c r="F51" s="54"/>
       <c r="G51" s="54" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="H51" s="54"/>
       <c r="I51" s="54"/>
@@ -7250,14 +7210,14 @@
         <v>4</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="C52" s="54"/>
       <c r="D52" s="54"/>
       <c r="E52" s="54"/>
       <c r="F52" s="54"/>
       <c r="G52" s="54" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="H52" s="54"/>
       <c r="I52" s="54"/>
@@ -7273,14 +7233,14 @@
         <v>5</v>
       </c>
       <c r="B53" s="54" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="C53" s="54"/>
       <c r="D53" s="54"/>
       <c r="E53" s="54"/>
       <c r="F53" s="54"/>
       <c r="G53" s="54" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="H53" s="54"/>
       <c r="I53" s="54"/>
@@ -7293,6 +7253,34 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:F20"/>
+    <mergeCell ref="G19:L20"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="A26:L27"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:F48"/>
+    <mergeCell ref="G47:L48"/>
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="G52:L52"/>
     <mergeCell ref="B53:F53"/>
@@ -7304,34 +7292,6 @@
     <mergeCell ref="G50:L50"/>
     <mergeCell ref="B51:F51"/>
     <mergeCell ref="G51:L51"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:K44"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:F48"/>
-    <mergeCell ref="G47:L48"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="A26:L27"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:F20"/>
-    <mergeCell ref="G19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7341,8 +7301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD90F54-04F9-2948-B228-7AEC85B49338}">
   <dimension ref="A3:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52:L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7356,21 +7316,21 @@
         <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="68" t="s">
-        <v>286</v>
-      </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="F3" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="34"/>
       <c r="M3" s="5"/>
     </row>
@@ -7386,14 +7346,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="69" t="s">
-        <v>285</v>
-      </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
+      <c r="F4" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="34"/>
       <c r="M4" s="5"/>
     </row>
@@ -7475,12 +7435,12 @@
       <c r="G9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="34"/>
       <c r="M9" s="5"/>
     </row>
@@ -7498,12 +7458,12 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="73" t="s">
-        <v>282</v>
-      </c>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
+      <c r="H10" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
       <c r="L10" s="34"/>
       <c r="M10" s="5"/>
     </row>
@@ -7540,12 +7500,12 @@
       <c r="G12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="72"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="34"/>
       <c r="M12" s="5"/>
     </row>
@@ -7559,12 +7519,12 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="75"/>
+      <c r="H13" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
       <c r="L13" s="34"/>
       <c r="M13" s="5"/>
     </row>
@@ -7602,20 +7562,20 @@
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="60"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="34"/>
       <c r="M16" s="5"/>
     </row>
@@ -7650,56 +7610,56 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61" t="s">
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
     </row>
     <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>1</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
@@ -7715,14 +7675,14 @@
         <v>2</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="H22" s="54"/>
       <c r="I22" s="54"/>
@@ -7738,14 +7698,14 @@
         <v>3</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
       <c r="G23" s="54" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
@@ -7802,35 +7762,35 @@
       <c r="M26" s="34"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="78"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="71"/>
       <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="79"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="81"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="74"/>
       <c r="M28" s="34"/>
     </row>
     <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7838,21 +7798,21 @@
         <v>66</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C32" s="46"/>
       <c r="D32" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="68" t="s">
-        <v>286</v>
-      </c>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
+      <c r="F32" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
       <c r="L32" s="46"/>
       <c r="M32" s="5"/>
     </row>
@@ -7868,14 +7828,14 @@
         <v>70</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="69" t="s">
-        <v>287</v>
-      </c>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
+      <c r="F33" s="62" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
       <c r="L33" s="46"/>
       <c r="M33" s="5"/>
     </row>
@@ -7957,12 +7917,12 @@
       <c r="G38" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="70" t="s">
+      <c r="H38" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="72"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="65"/>
       <c r="L38" s="46"/>
       <c r="M38" s="5"/>
     </row>
@@ -7980,12 +7940,12 @@
       <c r="G39" s="20">
         <v>1</v>
       </c>
-      <c r="H39" s="73" t="s">
-        <v>288</v>
-      </c>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="75"/>
+      <c r="H39" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="68"/>
       <c r="L39" s="46"/>
       <c r="M39" s="5"/>
     </row>
@@ -8022,12 +7982,12 @@
       <c r="G41" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H41" s="70" t="s">
+      <c r="H41" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="72"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="65"/>
       <c r="L41" s="46"/>
       <c r="M41" s="5"/>
     </row>
@@ -8041,12 +8001,12 @@
       <c r="G42" s="20">
         <v>1</v>
       </c>
-      <c r="H42" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="75"/>
+      <c r="H42" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="68"/>
       <c r="L42" s="46"/>
       <c r="M42" s="5"/>
     </row>
@@ -8084,20 +8044,20 @@
       <c r="A45" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="58" t="s">
+      <c r="C45" s="56"/>
+      <c r="D45" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="60"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="59"/>
       <c r="L45" s="46"/>
       <c r="M45" s="5"/>
     </row>
@@ -8132,56 +8092,56 @@
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61" t="s">
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61" t="s">
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="61"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
         <v>1</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="C50" s="54"/>
       <c r="D50" s="54"/>
       <c r="E50" s="54"/>
       <c r="F50" s="54"/>
       <c r="G50" s="54" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="H50" s="54"/>
       <c r="I50" s="54"/>
@@ -8192,19 +8152,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22">
         <v>2</v>
       </c>
       <c r="B51" s="54" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="C51" s="54"/>
       <c r="D51" s="54"/>
       <c r="E51" s="54"/>
       <c r="F51" s="54"/>
       <c r="G51" s="54" t="s">
-        <v>290</v>
+        <v>355</v>
       </c>
       <c r="H51" s="54"/>
       <c r="I51" s="54"/>
@@ -8220,14 +8180,14 @@
         <v>3</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="C52" s="54"/>
       <c r="D52" s="54"/>
       <c r="E52" s="54"/>
       <c r="F52" s="54"/>
       <c r="G52" s="54" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="H52" s="54"/>
       <c r="I52" s="54"/>
@@ -8243,14 +8203,14 @@
         <v>4</v>
       </c>
       <c r="B53" s="54" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="C53" s="54"/>
       <c r="D53" s="54"/>
       <c r="E53" s="54"/>
       <c r="F53" s="54"/>
       <c r="G53" s="54" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="H53" s="54"/>
       <c r="I53" s="54"/>
@@ -8263,14 +8223,26 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:F49"/>
+    <mergeCell ref="G48:L49"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="A27:L28"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="A19:A20"/>
@@ -8282,26 +8254,14 @@
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="B19:F20"/>
     <mergeCell ref="G19:L20"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:F49"/>
-    <mergeCell ref="G48:L49"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="G52:L52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="G50:L50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="F4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8325,21 +8285,21 @@
         <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="68" t="s">
-        <v>269</v>
-      </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="F3" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="46"/>
       <c r="M3" s="5"/>
     </row>
@@ -8355,14 +8315,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="69" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
+      <c r="F4" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="46"/>
       <c r="M4" s="5"/>
     </row>
@@ -8444,12 +8404,12 @@
       <c r="G9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="46"/>
       <c r="M9" s="5"/>
     </row>
@@ -8467,10 +8427,10 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
       <c r="L10" s="46"/>
       <c r="M10" s="5"/>
     </row>
@@ -8507,12 +8467,12 @@
       <c r="G12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="72"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="46"/>
       <c r="M12" s="5"/>
     </row>
@@ -8526,12 +8486,12 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="75"/>
+      <c r="H13" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
       <c r="L13" s="46"/>
       <c r="M13" s="5"/>
     </row>
@@ -8569,20 +8529,20 @@
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58" t="s">
-        <v>271</v>
-      </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="60"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="46"/>
       <c r="M16" s="5"/>
     </row>
@@ -8617,56 +8577,56 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61" t="s">
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>1</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
@@ -8682,14 +8642,14 @@
         <v>2</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="H22" s="54"/>
       <c r="I22" s="54"/>
@@ -8702,22 +8662,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:F20"/>
+    <mergeCell ref="G19:L20"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:F20"/>
-    <mergeCell ref="G19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8728,7 +8688,7 @@
   <dimension ref="A3:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8741,21 +8701,21 @@
         <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="68" t="s">
-        <v>256</v>
-      </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="F3" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="41"/>
       <c r="M3" s="5"/>
     </row>
@@ -8771,14 +8731,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="69" t="s">
-        <v>257</v>
-      </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
+      <c r="F4" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="41"/>
       <c r="M4" s="5"/>
     </row>
@@ -8860,12 +8820,12 @@
       <c r="G9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="41"/>
       <c r="M9" s="5"/>
     </row>
@@ -8883,10 +8843,10 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
       <c r="L10" s="41"/>
       <c r="M10" s="5"/>
     </row>
@@ -8923,12 +8883,12 @@
       <c r="G12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="72"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="41"/>
       <c r="M12" s="5"/>
     </row>
@@ -8942,12 +8902,12 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="75"/>
+      <c r="H13" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
       <c r="L13" s="41"/>
       <c r="M13" s="5"/>
     </row>
@@ -8985,20 +8945,20 @@
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="60"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="41"/>
       <c r="M16" s="5"/>
     </row>
@@ -9006,20 +8966,20 @@
       <c r="A17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="60"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -9053,56 +9013,56 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61" t="s">
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61" t="s">
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>1</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="H22" s="54"/>
       <c r="I22" s="54"/>
@@ -9118,14 +9078,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
       <c r="G23" s="54" t="s">
-        <v>262</v>
+        <v>356</v>
       </c>
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
@@ -9141,14 +9101,14 @@
         <v>4</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
       <c r="G24" s="54" t="s">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="H24" s="54"/>
       <c r="I24" s="54"/>
@@ -9205,35 +9165,35 @@
       <c r="M27" s="41"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="78"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="71"/>
       <c r="M28" s="41"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="79"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="81"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="74"/>
       <c r="M29" s="41"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -9241,11 +9201,25 @@
         <v>14.15</v>
       </c>
       <c r="B33" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A28:L29"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:L21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="F4:K4"/>
@@ -9253,20 +9227,6 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:L21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="A28:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9277,8 +9237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4805ACE8-3721-304D-9C9A-16E244B30454}">
   <dimension ref="A2:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9288,21 +9248,21 @@
         <v>66</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
+      <c r="F2" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="34"/>
       <c r="M2" s="5"/>
     </row>
@@ -9318,14 +9278,14 @@
         <v>70</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="69" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="F3" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="34"/>
       <c r="M3" s="5"/>
     </row>
@@ -9407,12 +9367,12 @@
       <c r="G8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="72"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
       <c r="L8" s="34"/>
       <c r="M8" s="5"/>
     </row>
@@ -9430,12 +9390,12 @@
       <c r="G9" s="20">
         <v>1</v>
       </c>
-      <c r="H9" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="75"/>
+      <c r="H9" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
       <c r="L9" s="34"/>
       <c r="M9" s="5"/>
     </row>
@@ -9472,12 +9432,12 @@
       <c r="G11" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="70" t="s">
+      <c r="H11" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="72"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
       <c r="L11" s="34"/>
       <c r="M11" s="5"/>
     </row>
@@ -9491,12 +9451,12 @@
       <c r="G12" s="20">
         <v>1</v>
       </c>
-      <c r="H12" s="73" t="s">
-        <v>251</v>
-      </c>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="75"/>
+      <c r="H12" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
       <c r="L12" s="34"/>
       <c r="M12" s="5"/>
     </row>
@@ -9534,20 +9494,20 @@
       <c r="A15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="34"/>
       <c r="M15" s="5"/>
     </row>
@@ -9582,56 +9542,56 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61" t="s">
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <v>1</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="54"/>
       <c r="E20" s="54"/>
       <c r="F20" s="54"/>
       <c r="G20" s="54" t="s">
-        <v>244</v>
+        <v>339</v>
       </c>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
@@ -9647,14 +9607,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
@@ -9670,14 +9630,14 @@
         <v>3</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="H22" s="54"/>
       <c r="I22" s="54"/>
@@ -9693,14 +9653,14 @@
         <v>4</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
       <c r="G23" s="54" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
@@ -9716,14 +9676,14 @@
         <v>5</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
       <c r="G24" s="54" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="H24" s="54"/>
       <c r="I24" s="54"/>
@@ -9780,35 +9740,35 @@
       <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="78"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="71"/>
       <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="79"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="81"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="74"/>
       <c r="M29" s="34"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -9816,21 +9776,21 @@
         <v>66</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
+      <c r="F33" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
       <c r="L33" s="34"/>
       <c r="M33" s="5"/>
     </row>
@@ -9846,14 +9806,14 @@
         <v>70</v>
       </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
+      <c r="F34" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
       <c r="L34" s="34"/>
       <c r="M34" s="5"/>
     </row>
@@ -9935,12 +9895,12 @@
       <c r="G39" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H39" s="70" t="s">
+      <c r="H39" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="72"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="65"/>
       <c r="L39" s="34"/>
       <c r="M39" s="5"/>
     </row>
@@ -9958,12 +9918,12 @@
       <c r="G40" s="20">
         <v>1</v>
       </c>
-      <c r="H40" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="75"/>
+      <c r="H40" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="68"/>
       <c r="L40" s="34"/>
       <c r="M40" s="5"/>
     </row>
@@ -10000,12 +9960,12 @@
       <c r="G42" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="70" t="s">
+      <c r="H42" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="72"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="65"/>
       <c r="L42" s="34"/>
       <c r="M42" s="5"/>
     </row>
@@ -10019,12 +9979,12 @@
       <c r="G43" s="20">
         <v>1</v>
       </c>
-      <c r="H43" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="75"/>
+      <c r="H43" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="68"/>
       <c r="L43" s="34"/>
       <c r="M43" s="5"/>
     </row>
@@ -10062,20 +10022,20 @@
       <c r="A46" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="60"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="59"/>
       <c r="L46" s="34"/>
       <c r="M46" s="5"/>
     </row>
@@ -10110,56 +10070,56 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="61" t="s">
+      <c r="A49" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61" t="s">
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61" t="s">
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="61"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="61"/>
-      <c r="M50" s="61"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="22">
         <v>1</v>
       </c>
       <c r="B51" s="54" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C51" s="54"/>
       <c r="D51" s="54"/>
       <c r="E51" s="54"/>
       <c r="F51" s="54"/>
       <c r="G51" s="54" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="H51" s="54"/>
       <c r="I51" s="54"/>
@@ -10172,19 +10132,17 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:F50"/>
-    <mergeCell ref="G49:L50"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
     <mergeCell ref="F33:K33"/>
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="B20:F20"/>
@@ -10198,17 +10156,19 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="A28:L29"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:F50"/>
+    <mergeCell ref="G49:L50"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:K46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10218,7 +10178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB72114-158D-AC4B-9339-BCABDBF219D1}">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
@@ -10239,14 +10199,14 @@
         <v>67</v>
       </c>
       <c r="E1" s="9"/>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -10260,14 +10220,14 @@
         <v>70</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -10301,12 +10261,12 @@
       <c r="G7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -10322,12 +10282,12 @@
       <c r="G8" s="20">
         <v>1</v>
       </c>
-      <c r="H8" s="73" t="s">
+      <c r="H8" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="68"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -10355,12 +10315,12 @@
       <c r="G10" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -10368,12 +10328,12 @@
       <c r="G11" s="20">
         <v>1</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="75"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10389,20 +10349,20 @@
       <c r="A15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -10412,42 +10372,42 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61" t="s">
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
@@ -10511,34 +10471,34 @@
       <c r="M22" s="25"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="78"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="71"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="79"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="81"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="74"/>
     </row>
     <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
@@ -10551,14 +10511,14 @@
         <v>67</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10572,14 +10532,14 @@
         <v>70</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="69" t="s">
+      <c r="F30" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -10613,12 +10573,12 @@
       <c r="G35" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="70" t="s">
+      <c r="H35" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="72"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="65"/>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -10634,12 +10594,12 @@
       <c r="G36" s="20">
         <v>1</v>
       </c>
-      <c r="H36" s="73" t="s">
+      <c r="H36" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="75"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="68"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -10663,12 +10623,12 @@
       <c r="G38" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="70" t="s">
+      <c r="H38" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="72"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="65"/>
       <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10676,12 +10636,12 @@
       <c r="G39" s="20">
         <v>1</v>
       </c>
-      <c r="H39" s="73" t="s">
+      <c r="H39" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="75"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="68"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -10697,20 +10657,20 @@
       <c r="A43" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="58" t="s">
+      <c r="C43" s="56"/>
+      <c r="D43" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="60"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="59"/>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -10720,42 +10680,42 @@
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61" t="s">
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61" t="s">
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="61"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="22">
@@ -10804,34 +10764,34 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="76" t="s">
+      <c r="A53" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="78"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="71"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="79"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="81"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="74"/>
     </row>
     <row r="57" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
@@ -10844,14 +10804,14 @@
         <v>67</v>
       </c>
       <c r="E57" s="9"/>
-      <c r="F57" s="68" t="s">
+      <c r="F57" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
       <c r="M57" s="5"/>
     </row>
     <row r="58" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10865,14 +10825,14 @@
         <v>70</v>
       </c>
       <c r="E58" s="9"/>
-      <c r="F58" s="69" t="s">
+      <c r="F58" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="62"/>
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -10906,12 +10866,12 @@
       <c r="G63" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H63" s="70" t="s">
+      <c r="H63" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="72"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="65"/>
       <c r="M63" s="5"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -10927,12 +10887,12 @@
       <c r="G64" s="20">
         <v>1</v>
       </c>
-      <c r="H64" s="73" t="s">
+      <c r="H64" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="I64" s="74"/>
-      <c r="J64" s="74"/>
-      <c r="K64" s="75"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="68"/>
       <c r="M64" s="5"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -10960,12 +10920,12 @@
       <c r="G66" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H66" s="70" t="s">
+      <c r="H66" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I66" s="71"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="72"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="65"/>
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -10973,24 +10933,24 @@
       <c r="G67" s="20">
         <v>1</v>
       </c>
-      <c r="H67" s="73" t="s">
-        <v>366</v>
-      </c>
-      <c r="I67" s="74"/>
-      <c r="J67" s="74"/>
-      <c r="K67" s="75"/>
+      <c r="H67" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="68"/>
       <c r="M67" s="5"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G68" s="20">
         <v>2</v>
       </c>
-      <c r="H68" s="73" t="s">
-        <v>369</v>
-      </c>
-      <c r="I68" s="74"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="75"/>
+      <c r="H68" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="68"/>
       <c r="M68" s="5"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -11000,20 +10960,20 @@
       <c r="A70" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="56" t="s">
+      <c r="B70" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="57"/>
-      <c r="D70" s="58" t="s">
+      <c r="C70" s="56"/>
+      <c r="D70" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="60"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="58"/>
+      <c r="J70" s="58"/>
+      <c r="K70" s="59"/>
       <c r="M70" s="5"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -11023,56 +10983,56 @@
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="61" t="s">
+      <c r="A73" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="61" t="s">
+      <c r="B73" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="61"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61" t="s">
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="61"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="61" t="s">
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="60"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="61"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="61"/>
-      <c r="J74" s="61"/>
-      <c r="K74" s="61"/>
-      <c r="L74" s="61"/>
-      <c r="M74" s="61"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="60"/>
+      <c r="L74" s="60"/>
+      <c r="M74" s="60"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="22">
         <v>1</v>
       </c>
       <c r="B75" s="54" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="C75" s="54"/>
       <c r="D75" s="54"/>
       <c r="E75" s="54"/>
       <c r="F75" s="54"/>
       <c r="G75" s="54" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="H75" s="54"/>
       <c r="I75" s="54"/>
@@ -11088,14 +11048,14 @@
         <v>2</v>
       </c>
       <c r="B76" s="54" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="C76" s="54"/>
       <c r="D76" s="54"/>
       <c r="E76" s="54"/>
       <c r="F76" s="54"/>
       <c r="G76" s="54" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="H76" s="54"/>
       <c r="I76" s="54"/>
@@ -11108,11 +11068,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="G76:L76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:F74"/>
-    <mergeCell ref="G73:L74"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="A25:L26"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="F57:K57"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:K43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:F47"/>
+    <mergeCell ref="G46:L47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:L48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:L49"/>
+    <mergeCell ref="A53:L54"/>
     <mergeCell ref="M73:M74"/>
     <mergeCell ref="B75:F75"/>
     <mergeCell ref="G75:L75"/>
@@ -11124,41 +11114,11 @@
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="D70:K70"/>
     <mergeCell ref="H68:K68"/>
-    <mergeCell ref="F57:K57"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:K43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:F47"/>
-    <mergeCell ref="G46:L47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="G48:L48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:L49"/>
-    <mergeCell ref="A53:L54"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="A25:L26"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="G76:L76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:F74"/>
+    <mergeCell ref="G73:L74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11176,7 +11136,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
+++ b/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berkozdoruk/Desktop/GitHub/Elixir-Documentation/Test Reports and Test Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDC436D-AFFA-D546-A7E2-E8C7D89A419D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1183DCB6-E7F0-4945-B9C7-7AA0CE920AD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14080" firstSheet="1" activeTab="6" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="355">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -460,12 +460,6 @@
     <t>Admin user delete user operation.</t>
   </si>
   <si>
-    <t>Create user - farm button clicked.</t>
-  </si>
-  <si>
-    <t>Create user - farm page is showerd</t>
-  </si>
-  <si>
     <t>Edit-Delete User page button clicked.</t>
   </si>
   <si>
@@ -736,9 +730,6 @@
     <t>ELXR-AO-01</t>
   </si>
   <si>
-    <t>ELXR-A0-02</t>
-  </si>
-  <si>
     <t>User login operations.</t>
   </si>
   <si>
@@ -770,12 +761,6 @@
   </si>
   <si>
     <t>User is not authorized.</t>
-  </si>
-  <si>
-    <t>User is clicked the logout button in the navbar.</t>
-  </si>
-  <si>
-    <t>User is authorized and already logged into the system.</t>
   </si>
   <si>
     <t>ELXR-UIO-01</t>
@@ -1103,15 +1088,6 @@
     <t>Farm create failed.please enter a valid latitude alert displayed.</t>
   </si>
   <si>
-    <t>Farm create failed.please enter a valid longtitude alert displayed.</t>
-  </si>
-  <si>
-    <t>Farm create failed.please enter a valid daily station no alert displayed.</t>
-  </si>
-  <si>
-    <t>Farm create failed.please enter a valid hourly station no alert displayed.</t>
-  </si>
-  <si>
     <t>User create failed. Please enter a valid name.</t>
   </si>
   <si>
@@ -1151,7 +1127,19 @@
     <t>Successful alert. Irrigation stopped.</t>
   </si>
   <si>
-    <t>User is logged out succesfully and redirected to sign in page.</t>
+    <t>Create User-Farm button clicked.</t>
+  </si>
+  <si>
+    <t>Create User - Farm page is showerd</t>
+  </si>
+  <si>
+    <t>Farm create failed. Please enter a valid longtitude alert displayed.</t>
+  </si>
+  <si>
+    <t>Farm create failed. Please enter a valid daily station no alert displayed.</t>
+  </si>
+  <si>
+    <t>Farm create failed. Please enter a valid hourly station no alert displayed.</t>
   </si>
 </sst>
 </file>
@@ -1605,6 +1593,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1621,6 +1620,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1665,35 +1682,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="%20 - Vurgu1" xfId="4" builtinId="30"/>
@@ -2014,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C81F5F-3812-4B44-AC60-4E873A1B1DD4}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2074,7 +2062,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -2173,7 +2161,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -2377,46 +2365,46 @@
     </row>
     <row r="20" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>39</v>
@@ -2425,7 +2413,7 @@
         <v>46</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -2434,22 +2422,22 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="51" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="52" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="53" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2470,7 +2458,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2482,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D5A933-5288-C94E-BF55-FF09BD47810B}">
   <dimension ref="A1:M236"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="K238" sqref="K238"/>
+    <sheetView topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="M206" sqref="M206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2502,14 +2490,14 @@
         <v>67</v>
       </c>
       <c r="E1" s="9"/>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2523,14 +2511,14 @@
         <v>70</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2564,12 +2552,12 @@
       <c r="G7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="76"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2585,12 +2573,12 @@
       <c r="G8" s="20">
         <v>1</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="68"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="79"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -2618,12 +2606,12 @@
       <c r="G10" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="76"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -2631,12 +2619,12 @@
       <c r="G11" s="20">
         <v>1</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="68"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -2652,20 +2640,20 @@
       <c r="A15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -2675,42 +2663,42 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60" t="s">
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
@@ -2740,14 +2728,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54" t="s">
-        <v>131</v>
+        <v>351</v>
       </c>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
@@ -2770,7 +2758,7 @@
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H22" s="54"/>
       <c r="I22" s="54"/>
@@ -2785,15 +2773,15 @@
       <c r="A23" s="22">
         <v>4</v>
       </c>
-      <c r="B23" s="75" t="s">
-        <v>304</v>
-      </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="77"/>
+      <c r="B23" s="57" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="54" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
@@ -2808,21 +2796,21 @@
       <c r="A24" s="22">
         <v>5</v>
       </c>
-      <c r="B24" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="75" t="s">
+      <c r="B24" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="77"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="59"/>
       <c r="M24" s="23" t="s">
         <v>85</v>
       </c>
@@ -2831,21 +2819,21 @@
       <c r="A25" s="22">
         <v>6</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="75" t="s">
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="77"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="59"/>
       <c r="M25" s="23" t="s">
         <v>85</v>
       </c>
@@ -2854,21 +2842,21 @@
       <c r="A26" s="22">
         <v>7</v>
       </c>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="75" t="s">
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="77"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
       <c r="M26" s="23" t="s">
         <v>85</v>
       </c>
@@ -2877,15 +2865,15 @@
       <c r="A27" s="22">
         <v>8</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="54" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H27" s="54"/>
       <c r="I27" s="54"/>
@@ -2900,21 +2888,21 @@
       <c r="A28" s="22">
         <v>9</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="75" t="s">
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="77"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="59"/>
       <c r="M28" s="30" t="s">
         <v>85</v>
       </c>
@@ -2923,15 +2911,15 @@
       <c r="A29" s="22">
         <v>10</v>
       </c>
-      <c r="B29" s="75" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="77"/>
+      <c r="B29" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
       <c r="G29" s="54" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H29" s="54"/>
       <c r="I29" s="54"/>
@@ -2946,15 +2934,15 @@
       <c r="A30" s="22">
         <v>11</v>
       </c>
-      <c r="B30" s="75" t="s">
-        <v>305</v>
-      </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="77"/>
+      <c r="B30" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="54" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H30" s="54"/>
       <c r="I30" s="54"/>
@@ -2969,21 +2957,21 @@
       <c r="A31" s="22">
         <v>12</v>
       </c>
-      <c r="B31" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="75" t="s">
+      <c r="B31" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
       <c r="M31" s="30" t="s">
         <v>85</v>
       </c>
@@ -2992,21 +2980,21 @@
       <c r="A32" s="22">
         <v>13</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="75" t="s">
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="77"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
       <c r="M32" s="30" t="s">
         <v>85</v>
       </c>
@@ -3015,74 +3003,74 @@
       <c r="A33" s="22">
         <v>14</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="75" t="s">
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="77"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
       <c r="M33" s="30" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="71"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="82"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="72"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="74"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="85"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="61" t="s">
+      <c r="F41" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -3096,14 +3084,14 @@
         <v>70</v>
       </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="62" t="s">
+      <c r="F42" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -3137,12 +3125,12 @@
       <c r="G47" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H47" s="63" t="s">
+      <c r="H47" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="65"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="76"/>
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -3158,12 +3146,12 @@
       <c r="G48" s="20">
         <v>1</v>
       </c>
-      <c r="H48" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="68"/>
+      <c r="H48" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="79"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -3191,12 +3179,12 @@
       <c r="G50" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="63" t="s">
+      <c r="H50" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="65"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="76"/>
       <c r="M50" s="5"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -3204,12 +3192,12 @@
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="66" t="s">
+      <c r="H51" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="68"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="79"/>
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -3225,20 +3213,20 @@
       <c r="A55" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="57" t="s">
+      <c r="C55" s="61"/>
+      <c r="D55" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="59"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="64"/>
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -3248,42 +3236,42 @@
       <c r="M57" s="5"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="60" t="s">
+      <c r="B58" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60" t="s">
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60" t="s">
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="60"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="65"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="22">
@@ -3313,14 +3301,14 @@
         <v>2</v>
       </c>
       <c r="B61" s="54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C61" s="54"/>
       <c r="D61" s="54"/>
       <c r="E61" s="54"/>
       <c r="F61" s="54"/>
       <c r="G61" s="54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H61" s="54"/>
       <c r="I61" s="54"/>
@@ -3336,14 +3324,14 @@
         <v>3</v>
       </c>
       <c r="B62" s="54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C62" s="54"/>
       <c r="D62" s="54"/>
       <c r="E62" s="54"/>
       <c r="F62" s="54"/>
       <c r="G62" s="54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H62" s="54"/>
       <c r="I62" s="54"/>
@@ -3359,14 +3347,14 @@
         <v>4</v>
       </c>
       <c r="B63" s="54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C63" s="54"/>
       <c r="D63" s="54"/>
       <c r="E63" s="54"/>
       <c r="F63" s="54"/>
       <c r="G63" s="54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H63" s="54"/>
       <c r="I63" s="54"/>
@@ -3382,14 +3370,14 @@
         <v>5</v>
       </c>
       <c r="B64" s="54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C64" s="54"/>
       <c r="D64" s="54"/>
       <c r="E64" s="54"/>
       <c r="F64" s="54"/>
       <c r="G64" s="54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H64" s="54"/>
       <c r="I64" s="54"/>
@@ -3401,54 +3389,54 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
-      <c r="J68" s="70"/>
-      <c r="K68" s="70"/>
-      <c r="L68" s="71"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="81"/>
+      <c r="J68" s="81"/>
+      <c r="K68" s="81"/>
+      <c r="L68" s="82"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="72"/>
-      <c r="B69" s="73"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="73"/>
-      <c r="K69" s="73"/>
-      <c r="L69" s="74"/>
+      <c r="A69" s="83"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="85"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E72" s="9"/>
-      <c r="F72" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61"/>
+      <c r="F72" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
+      <c r="K72" s="72"/>
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -3462,14 +3450,14 @@
         <v>70</v>
       </c>
       <c r="E73" s="9"/>
-      <c r="F73" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="G73" s="62"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="62"/>
+      <c r="F73" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="G73" s="73"/>
+      <c r="H73" s="73"/>
+      <c r="I73" s="73"/>
+      <c r="J73" s="73"/>
+      <c r="K73" s="73"/>
       <c r="M73" s="5"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -3503,12 +3491,12 @@
       <c r="G78" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H78" s="63" t="s">
+      <c r="H78" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I78" s="64"/>
-      <c r="J78" s="64"/>
-      <c r="K78" s="65"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="75"/>
+      <c r="K78" s="76"/>
       <c r="M78" s="5"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -3524,12 +3512,12 @@
       <c r="G79" s="20">
         <v>1</v>
       </c>
-      <c r="H79" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="I79" s="67"/>
-      <c r="J79" s="67"/>
-      <c r="K79" s="68"/>
+      <c r="H79" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="I79" s="78"/>
+      <c r="J79" s="78"/>
+      <c r="K79" s="79"/>
       <c r="M79" s="5"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -3557,12 +3545,12 @@
       <c r="G81" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H81" s="63" t="s">
+      <c r="H81" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I81" s="64"/>
-      <c r="J81" s="64"/>
-      <c r="K81" s="65"/>
+      <c r="I81" s="75"/>
+      <c r="J81" s="75"/>
+      <c r="K81" s="76"/>
       <c r="M81" s="5"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -3570,12 +3558,12 @@
       <c r="G82" s="20">
         <v>1</v>
       </c>
-      <c r="H82" s="66" t="s">
+      <c r="H82" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="I82" s="67"/>
-      <c r="J82" s="67"/>
-      <c r="K82" s="68"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="78"/>
+      <c r="K82" s="79"/>
       <c r="M82" s="5"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -3591,100 +3579,100 @@
       <c r="A86" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="56"/>
-      <c r="D86" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="E86" s="58"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="58"/>
-      <c r="K86" s="59"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="64"/>
       <c r="M86" s="5"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="56"/>
-      <c r="D87" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="58"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="58"/>
-      <c r="J87" s="58"/>
-      <c r="K87" s="59"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="63"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="63"/>
+      <c r="K87" s="64"/>
       <c r="M87" s="5"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="55" t="s">
+      <c r="B88" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="56"/>
-      <c r="D88" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="59"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="63"/>
+      <c r="K88" s="64"/>
       <c r="M88" s="5"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="55" t="s">
+      <c r="B89" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="56"/>
-      <c r="D89" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="59"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E89" s="63"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="63"/>
+      <c r="I89" s="63"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="64"/>
       <c r="M89" s="5"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="56"/>
-      <c r="D90" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="E90" s="58"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="59"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="E90" s="63"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="63"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="64"/>
       <c r="M90" s="5"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -3705,42 +3693,42 @@
       <c r="M92" s="5"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="60" t="s">
+      <c r="A93" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B93" s="60" t="s">
+      <c r="B93" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="60"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60" t="s">
+      <c r="C93" s="65"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H93" s="60"/>
-      <c r="I93" s="60"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="60" t="s">
+      <c r="H93" s="65"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="65"/>
+      <c r="L93" s="65"/>
+      <c r="M93" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="60"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="60"/>
-      <c r="H94" s="60"/>
-      <c r="I94" s="60"/>
-      <c r="J94" s="60"/>
-      <c r="K94" s="60"/>
-      <c r="L94" s="60"/>
-      <c r="M94" s="60"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="65"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="65"/>
+      <c r="L94" s="65"/>
+      <c r="M94" s="65"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="22">
@@ -3770,14 +3758,14 @@
         <v>2</v>
       </c>
       <c r="B96" s="54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C96" s="54"/>
       <c r="D96" s="54"/>
       <c r="E96" s="54"/>
       <c r="F96" s="54"/>
       <c r="G96" s="54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H96" s="54"/>
       <c r="I96" s="54"/>
@@ -3793,14 +3781,14 @@
         <v>3</v>
       </c>
       <c r="B97" s="54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C97" s="54"/>
       <c r="D97" s="54"/>
       <c r="E97" s="54"/>
       <c r="F97" s="54"/>
       <c r="G97" s="54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H97" s="54"/>
       <c r="I97" s="54"/>
@@ -3816,14 +3804,14 @@
         <v>4</v>
       </c>
       <c r="B98" s="54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C98" s="54"/>
       <c r="D98" s="54"/>
       <c r="E98" s="54"/>
       <c r="F98" s="54"/>
       <c r="G98" s="54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H98" s="54"/>
       <c r="I98" s="54"/>
@@ -3839,14 +3827,14 @@
         <v>5</v>
       </c>
       <c r="B99" s="54" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C99" s="54"/>
       <c r="D99" s="54"/>
       <c r="E99" s="54"/>
       <c r="F99" s="54"/>
       <c r="G99" s="54" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H99" s="54"/>
       <c r="I99" s="54"/>
@@ -3862,14 +3850,14 @@
         <v>6</v>
       </c>
       <c r="B100" s="54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C100" s="54"/>
       <c r="D100" s="54"/>
       <c r="E100" s="54"/>
       <c r="F100" s="54"/>
       <c r="G100" s="54" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H100" s="54"/>
       <c r="I100" s="54"/>
@@ -3885,14 +3873,14 @@
         <v>7</v>
       </c>
       <c r="B101" s="54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C101" s="54"/>
       <c r="D101" s="54"/>
       <c r="E101" s="54"/>
       <c r="F101" s="54"/>
       <c r="G101" s="54" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H101" s="54"/>
       <c r="I101" s="54"/>
@@ -3908,14 +3896,14 @@
         <v>8</v>
       </c>
       <c r="B102" s="54" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C102" s="54"/>
       <c r="D102" s="54"/>
       <c r="E102" s="54"/>
       <c r="F102" s="54"/>
       <c r="G102" s="54" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H102" s="54"/>
       <c r="I102" s="54"/>
@@ -3931,14 +3919,14 @@
         <v>9</v>
       </c>
       <c r="B103" s="54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C103" s="54"/>
       <c r="D103" s="54"/>
       <c r="E103" s="54"/>
       <c r="F103" s="54"/>
       <c r="G103" s="54" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H103" s="54"/>
       <c r="I103" s="54"/>
@@ -3954,14 +3942,14 @@
         <v>10</v>
       </c>
       <c r="B104" s="54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C104" s="54"/>
       <c r="D104" s="54"/>
       <c r="E104" s="54"/>
       <c r="F104" s="54"/>
       <c r="G104" s="54" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H104" s="54"/>
       <c r="I104" s="54"/>
@@ -3977,14 +3965,14 @@
         <v>11</v>
       </c>
       <c r="B105" s="54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C105" s="54"/>
       <c r="D105" s="54"/>
       <c r="E105" s="54"/>
       <c r="F105" s="54"/>
       <c r="G105" s="54" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H105" s="54"/>
       <c r="I105" s="54"/>
@@ -3996,54 +3984,54 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109" s="69" t="s">
+      <c r="A109" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B109" s="70"/>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
-      <c r="I109" s="70"/>
-      <c r="J109" s="70"/>
-      <c r="K109" s="70"/>
-      <c r="L109" s="71"/>
+      <c r="B109" s="81"/>
+      <c r="C109" s="81"/>
+      <c r="D109" s="81"/>
+      <c r="E109" s="81"/>
+      <c r="F109" s="81"/>
+      <c r="G109" s="81"/>
+      <c r="H109" s="81"/>
+      <c r="I109" s="81"/>
+      <c r="J109" s="81"/>
+      <c r="K109" s="81"/>
+      <c r="L109" s="82"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" s="72"/>
-      <c r="B110" s="73"/>
-      <c r="C110" s="73"/>
-      <c r="D110" s="73"/>
-      <c r="E110" s="73"/>
-      <c r="F110" s="73"/>
-      <c r="G110" s="73"/>
-      <c r="H110" s="73"/>
-      <c r="I110" s="73"/>
-      <c r="J110" s="73"/>
-      <c r="K110" s="73"/>
-      <c r="L110" s="74"/>
+      <c r="A110" s="83"/>
+      <c r="B110" s="84"/>
+      <c r="C110" s="84"/>
+      <c r="D110" s="84"/>
+      <c r="E110" s="84"/>
+      <c r="F110" s="84"/>
+      <c r="G110" s="84"/>
+      <c r="H110" s="84"/>
+      <c r="I110" s="84"/>
+      <c r="J110" s="84"/>
+      <c r="K110" s="84"/>
+      <c r="L110" s="85"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E113" s="9"/>
-      <c r="F113" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="G113" s="61"/>
-      <c r="H113" s="61"/>
-      <c r="I113" s="61"/>
-      <c r="J113" s="61"/>
-      <c r="K113" s="61"/>
+      <c r="F113" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="G113" s="72"/>
+      <c r="H113" s="72"/>
+      <c r="I113" s="72"/>
+      <c r="J113" s="72"/>
+      <c r="K113" s="72"/>
       <c r="M113" s="5"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -4057,14 +4045,14 @@
         <v>70</v>
       </c>
       <c r="E114" s="9"/>
-      <c r="F114" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="G114" s="62"/>
-      <c r="H114" s="62"/>
-      <c r="I114" s="62"/>
-      <c r="J114" s="62"/>
-      <c r="K114" s="62"/>
+      <c r="F114" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="G114" s="73"/>
+      <c r="H114" s="73"/>
+      <c r="I114" s="73"/>
+      <c r="J114" s="73"/>
+      <c r="K114" s="73"/>
       <c r="M114" s="5"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -4098,12 +4086,12 @@
       <c r="G119" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H119" s="63" t="s">
+      <c r="H119" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I119" s="64"/>
-      <c r="J119" s="64"/>
-      <c r="K119" s="65"/>
+      <c r="I119" s="75"/>
+      <c r="J119" s="75"/>
+      <c r="K119" s="76"/>
       <c r="M119" s="5"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -4119,12 +4107,12 @@
       <c r="G120" s="20">
         <v>1</v>
       </c>
-      <c r="H120" s="66" t="s">
-        <v>206</v>
-      </c>
-      <c r="I120" s="67"/>
-      <c r="J120" s="67"/>
-      <c r="K120" s="68"/>
+      <c r="H120" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="I120" s="78"/>
+      <c r="J120" s="78"/>
+      <c r="K120" s="79"/>
       <c r="M120" s="5"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -4152,12 +4140,12 @@
       <c r="G122" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H122" s="63" t="s">
+      <c r="H122" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I122" s="64"/>
-      <c r="J122" s="64"/>
-      <c r="K122" s="65"/>
+      <c r="I122" s="75"/>
+      <c r="J122" s="75"/>
+      <c r="K122" s="76"/>
       <c r="M122" s="5"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -4165,24 +4153,24 @@
       <c r="G123" s="20">
         <v>1</v>
       </c>
-      <c r="H123" s="66" t="s">
+      <c r="H123" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="I123" s="67"/>
-      <c r="J123" s="67"/>
-      <c r="K123" s="68"/>
+      <c r="I123" s="78"/>
+      <c r="J123" s="78"/>
+      <c r="K123" s="79"/>
       <c r="M123" s="5"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G124" s="20">
-        <v>1</v>
-      </c>
-      <c r="H124" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="I124" s="67"/>
-      <c r="J124" s="67"/>
-      <c r="K124" s="68"/>
+        <v>2</v>
+      </c>
+      <c r="H124" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="I124" s="78"/>
+      <c r="J124" s="78"/>
+      <c r="K124" s="79"/>
       <c r="M124" s="5"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -4195,20 +4183,20 @@
       <c r="A127" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B127" s="55" t="s">
+      <c r="B127" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C127" s="56"/>
-      <c r="D127" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="E127" s="58"/>
-      <c r="F127" s="58"/>
-      <c r="G127" s="58"/>
-      <c r="H127" s="58"/>
-      <c r="I127" s="58"/>
-      <c r="J127" s="58"/>
-      <c r="K127" s="59"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="E127" s="63"/>
+      <c r="F127" s="63"/>
+      <c r="G127" s="63"/>
+      <c r="H127" s="63"/>
+      <c r="I127" s="63"/>
+      <c r="J127" s="63"/>
+      <c r="K127" s="64"/>
       <c r="M127" s="5"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -4229,42 +4217,42 @@
       <c r="M129" s="5"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130" s="60" t="s">
+      <c r="A130" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B130" s="60" t="s">
+      <c r="B130" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C130" s="60"/>
-      <c r="D130" s="60"/>
-      <c r="E130" s="60"/>
-      <c r="F130" s="60"/>
-      <c r="G130" s="60" t="s">
+      <c r="C130" s="65"/>
+      <c r="D130" s="65"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H130" s="60"/>
-      <c r="I130" s="60"/>
-      <c r="J130" s="60"/>
-      <c r="K130" s="60"/>
-      <c r="L130" s="60"/>
-      <c r="M130" s="60" t="s">
+      <c r="H130" s="65"/>
+      <c r="I130" s="65"/>
+      <c r="J130" s="65"/>
+      <c r="K130" s="65"/>
+      <c r="L130" s="65"/>
+      <c r="M130" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A131" s="60"/>
-      <c r="B131" s="60"/>
-      <c r="C131" s="60"/>
-      <c r="D131" s="60"/>
-      <c r="E131" s="60"/>
-      <c r="F131" s="60"/>
-      <c r="G131" s="60"/>
-      <c r="H131" s="60"/>
-      <c r="I131" s="60"/>
-      <c r="J131" s="60"/>
-      <c r="K131" s="60"/>
-      <c r="L131" s="60"/>
-      <c r="M131" s="60"/>
+      <c r="A131" s="65"/>
+      <c r="B131" s="65"/>
+      <c r="C131" s="65"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="65"/>
+      <c r="J131" s="65"/>
+      <c r="K131" s="65"/>
+      <c r="L131" s="65"/>
+      <c r="M131" s="65"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="22">
@@ -4294,14 +4282,14 @@
         <v>2</v>
       </c>
       <c r="B133" s="54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C133" s="54"/>
       <c r="D133" s="54"/>
       <c r="E133" s="54"/>
       <c r="F133" s="54"/>
       <c r="G133" s="54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H133" s="54"/>
       <c r="I133" s="54"/>
@@ -4317,14 +4305,14 @@
         <v>3</v>
       </c>
       <c r="B134" s="54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C134" s="54"/>
       <c r="D134" s="54"/>
       <c r="E134" s="54"/>
       <c r="F134" s="54"/>
       <c r="G134" s="54" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H134" s="54"/>
       <c r="I134" s="54"/>
@@ -4340,14 +4328,14 @@
         <v>4</v>
       </c>
       <c r="B135" s="54" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C135" s="54"/>
       <c r="D135" s="54"/>
       <c r="E135" s="54"/>
       <c r="F135" s="54"/>
       <c r="G135" s="54" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H135" s="54"/>
       <c r="I135" s="54"/>
@@ -4363,14 +4351,14 @@
         <v>5</v>
       </c>
       <c r="B136" s="54" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C136" s="54"/>
       <c r="D136" s="54"/>
       <c r="E136" s="54"/>
       <c r="F136" s="54"/>
       <c r="G136" s="54" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H136" s="54"/>
       <c r="I136" s="54"/>
@@ -4386,14 +4374,14 @@
         <v>6</v>
       </c>
       <c r="B137" s="54" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C137" s="54"/>
       <c r="D137" s="54"/>
       <c r="E137" s="54"/>
       <c r="F137" s="54"/>
       <c r="G137" s="54" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H137" s="54"/>
       <c r="I137" s="54"/>
@@ -4409,14 +4397,14 @@
         <v>7</v>
       </c>
       <c r="B138" s="54" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C138" s="54"/>
       <c r="D138" s="54"/>
       <c r="E138" s="54"/>
       <c r="F138" s="54"/>
       <c r="G138" s="54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H138" s="54"/>
       <c r="I138" s="54"/>
@@ -4432,14 +4420,14 @@
         <v>8</v>
       </c>
       <c r="B139" s="54" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C139" s="54"/>
       <c r="D139" s="54"/>
       <c r="E139" s="54"/>
       <c r="F139" s="54"/>
       <c r="G139" s="54" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H139" s="54"/>
       <c r="I139" s="54"/>
@@ -4455,14 +4443,14 @@
         <v>9</v>
       </c>
       <c r="B140" s="54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C140" s="54"/>
       <c r="D140" s="54"/>
       <c r="E140" s="54"/>
       <c r="F140" s="54"/>
       <c r="G140" s="54" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H140" s="54"/>
       <c r="I140" s="54"/>
@@ -4477,15 +4465,15 @@
       <c r="A141" s="22">
         <v>10</v>
       </c>
-      <c r="B141" s="78" t="s">
-        <v>308</v>
-      </c>
-      <c r="C141" s="78"/>
-      <c r="D141" s="78"/>
-      <c r="E141" s="78"/>
-      <c r="F141" s="78"/>
+      <c r="B141" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="C141" s="56"/>
+      <c r="D141" s="56"/>
+      <c r="E141" s="56"/>
+      <c r="F141" s="56"/>
       <c r="G141" s="54" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H141" s="54"/>
       <c r="I141" s="54"/>
@@ -4500,15 +4488,15 @@
       <c r="A142" s="22">
         <v>11</v>
       </c>
-      <c r="B142" s="78" t="s">
-        <v>309</v>
-      </c>
-      <c r="C142" s="78"/>
-      <c r="D142" s="78"/>
-      <c r="E142" s="78"/>
-      <c r="F142" s="78"/>
+      <c r="B142" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="C142" s="56"/>
+      <c r="D142" s="56"/>
+      <c r="E142" s="56"/>
+      <c r="F142" s="56"/>
       <c r="G142" s="54" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H142" s="54"/>
       <c r="I142" s="54"/>
@@ -4523,15 +4511,15 @@
       <c r="A143" s="22">
         <v>12</v>
       </c>
-      <c r="B143" s="78" t="s">
-        <v>310</v>
-      </c>
-      <c r="C143" s="78"/>
-      <c r="D143" s="78"/>
-      <c r="E143" s="78"/>
-      <c r="F143" s="78"/>
-      <c r="G143" s="77" t="s">
-        <v>185</v>
+      <c r="B143" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C143" s="56"/>
+      <c r="D143" s="56"/>
+      <c r="E143" s="56"/>
+      <c r="F143" s="56"/>
+      <c r="G143" s="59" t="s">
+        <v>183</v>
       </c>
       <c r="H143" s="54"/>
       <c r="I143" s="54"/>
@@ -4546,15 +4534,15 @@
       <c r="A144" s="22">
         <v>10</v>
       </c>
-      <c r="B144" s="78" t="s">
-        <v>312</v>
-      </c>
-      <c r="C144" s="78"/>
-      <c r="D144" s="78"/>
-      <c r="E144" s="78"/>
-      <c r="F144" s="78"/>
+      <c r="B144" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C144" s="56"/>
+      <c r="D144" s="56"/>
+      <c r="E144" s="56"/>
+      <c r="F144" s="56"/>
       <c r="G144" s="54" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H144" s="54"/>
       <c r="I144" s="54"/>
@@ -4569,15 +4557,15 @@
       <c r="A145" s="22">
         <v>11</v>
       </c>
-      <c r="B145" s="78" t="s">
-        <v>311</v>
-      </c>
-      <c r="C145" s="78"/>
-      <c r="D145" s="78"/>
-      <c r="E145" s="78"/>
-      <c r="F145" s="78"/>
+      <c r="B145" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="C145" s="56"/>
+      <c r="D145" s="56"/>
+      <c r="E145" s="56"/>
+      <c r="F145" s="56"/>
       <c r="G145" s="54" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H145" s="54"/>
       <c r="I145" s="54"/>
@@ -4593,14 +4581,14 @@
         <v>12</v>
       </c>
       <c r="B146" s="54" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C146" s="54"/>
       <c r="D146" s="54"/>
       <c r="E146" s="54"/>
       <c r="F146" s="54"/>
-      <c r="G146" s="77" t="s">
-        <v>185</v>
+      <c r="G146" s="59" t="s">
+        <v>183</v>
       </c>
       <c r="H146" s="54"/>
       <c r="I146" s="54"/>
@@ -4615,15 +4603,15 @@
       <c r="A147" s="22">
         <v>13</v>
       </c>
-      <c r="B147" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="C147" s="78"/>
-      <c r="D147" s="78"/>
-      <c r="E147" s="78"/>
-      <c r="F147" s="78"/>
+      <c r="B147" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="C147" s="56"/>
+      <c r="D147" s="56"/>
+      <c r="E147" s="56"/>
+      <c r="F147" s="56"/>
       <c r="G147" s="54" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="H147" s="54"/>
       <c r="I147" s="54"/>
@@ -4638,21 +4626,21 @@
       <c r="A148" s="22">
         <v>14</v>
       </c>
-      <c r="B148" s="78" t="s">
-        <v>329</v>
-      </c>
-      <c r="C148" s="78"/>
-      <c r="D148" s="78"/>
-      <c r="E148" s="78"/>
-      <c r="F148" s="78"/>
-      <c r="G148" s="75" t="s">
-        <v>343</v>
-      </c>
-      <c r="H148" s="76"/>
-      <c r="I148" s="76"/>
-      <c r="J148" s="76"/>
-      <c r="K148" s="76"/>
-      <c r="L148" s="77"/>
+      <c r="B148" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="C148" s="56"/>
+      <c r="D148" s="56"/>
+      <c r="E148" s="56"/>
+      <c r="F148" s="56"/>
+      <c r="G148" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="H148" s="58"/>
+      <c r="I148" s="58"/>
+      <c r="J148" s="58"/>
+      <c r="K148" s="58"/>
+      <c r="L148" s="59"/>
       <c r="M148" s="23" t="s">
         <v>85</v>
       </c>
@@ -4661,15 +4649,15 @@
       <c r="A149" s="22">
         <v>15</v>
       </c>
-      <c r="B149" s="78" t="s">
-        <v>315</v>
-      </c>
-      <c r="C149" s="78"/>
-      <c r="D149" s="78"/>
-      <c r="E149" s="78"/>
-      <c r="F149" s="78"/>
-      <c r="G149" s="77" t="s">
-        <v>185</v>
+      <c r="B149" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C149" s="56"/>
+      <c r="D149" s="56"/>
+      <c r="E149" s="56"/>
+      <c r="F149" s="56"/>
+      <c r="G149" s="59" t="s">
+        <v>183</v>
       </c>
       <c r="H149" s="54"/>
       <c r="I149" s="54"/>
@@ -4684,21 +4672,21 @@
       <c r="A150" s="22">
         <v>16</v>
       </c>
-      <c r="B150" s="78" t="s">
-        <v>327</v>
-      </c>
-      <c r="C150" s="78"/>
-      <c r="D150" s="78"/>
-      <c r="E150" s="78"/>
-      <c r="F150" s="78"/>
-      <c r="G150" s="75" t="s">
-        <v>344</v>
-      </c>
-      <c r="H150" s="76"/>
-      <c r="I150" s="76"/>
-      <c r="J150" s="76"/>
-      <c r="K150" s="76"/>
-      <c r="L150" s="77"/>
+      <c r="B150" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="C150" s="56"/>
+      <c r="D150" s="56"/>
+      <c r="E150" s="56"/>
+      <c r="F150" s="56"/>
+      <c r="G150" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="H150" s="58"/>
+      <c r="I150" s="58"/>
+      <c r="J150" s="58"/>
+      <c r="K150" s="58"/>
+      <c r="L150" s="59"/>
       <c r="M150" s="23" t="s">
         <v>85</v>
       </c>
@@ -4707,21 +4695,21 @@
       <c r="A151" s="22">
         <v>17</v>
       </c>
-      <c r="B151" s="78" t="s">
-        <v>328</v>
-      </c>
-      <c r="C151" s="78"/>
-      <c r="D151" s="78"/>
-      <c r="E151" s="78"/>
-      <c r="F151" s="78"/>
-      <c r="G151" s="75" t="s">
-        <v>344</v>
-      </c>
-      <c r="H151" s="76"/>
-      <c r="I151" s="76"/>
-      <c r="J151" s="76"/>
-      <c r="K151" s="76"/>
-      <c r="L151" s="77"/>
+      <c r="B151" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C151" s="56"/>
+      <c r="D151" s="56"/>
+      <c r="E151" s="56"/>
+      <c r="F151" s="56"/>
+      <c r="G151" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="H151" s="58"/>
+      <c r="I151" s="58"/>
+      <c r="J151" s="58"/>
+      <c r="K151" s="58"/>
+      <c r="L151" s="59"/>
       <c r="M151" s="23" t="s">
         <v>85</v>
       </c>
@@ -4730,15 +4718,15 @@
       <c r="A152" s="22">
         <v>18</v>
       </c>
-      <c r="B152" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="C152" s="78"/>
-      <c r="D152" s="78"/>
-      <c r="E152" s="78"/>
-      <c r="F152" s="78"/>
-      <c r="G152" s="77" t="s">
-        <v>185</v>
+      <c r="B152" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C152" s="56"/>
+      <c r="D152" s="56"/>
+      <c r="E152" s="56"/>
+      <c r="F152" s="56"/>
+      <c r="G152" s="59" t="s">
+        <v>183</v>
       </c>
       <c r="H152" s="54"/>
       <c r="I152" s="54"/>
@@ -4754,14 +4742,14 @@
         <v>19</v>
       </c>
       <c r="B153" s="54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C153" s="54"/>
       <c r="D153" s="54"/>
       <c r="E153" s="54"/>
       <c r="F153" s="54"/>
       <c r="G153" s="54" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H153" s="54"/>
       <c r="I153" s="54"/>
@@ -4777,14 +4765,14 @@
         <v>20</v>
       </c>
       <c r="B154" s="54" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C154" s="54"/>
       <c r="D154" s="54"/>
       <c r="E154" s="54"/>
       <c r="F154" s="54"/>
       <c r="G154" s="54" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H154" s="54"/>
       <c r="I154" s="54"/>
@@ -4800,14 +4788,14 @@
         <v>21</v>
       </c>
       <c r="B155" s="54" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C155" s="54"/>
       <c r="D155" s="54"/>
       <c r="E155" s="54"/>
       <c r="F155" s="54"/>
       <c r="G155" s="54" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H155" s="54"/>
       <c r="I155" s="54"/>
@@ -4819,54 +4807,54 @@
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A158" s="69" t="s">
+      <c r="A158" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B158" s="70"/>
-      <c r="C158" s="70"/>
-      <c r="D158" s="70"/>
-      <c r="E158" s="70"/>
-      <c r="F158" s="70"/>
-      <c r="G158" s="70"/>
-      <c r="H158" s="70"/>
-      <c r="I158" s="70"/>
-      <c r="J158" s="70"/>
-      <c r="K158" s="70"/>
-      <c r="L158" s="71"/>
+      <c r="B158" s="81"/>
+      <c r="C158" s="81"/>
+      <c r="D158" s="81"/>
+      <c r="E158" s="81"/>
+      <c r="F158" s="81"/>
+      <c r="G158" s="81"/>
+      <c r="H158" s="81"/>
+      <c r="I158" s="81"/>
+      <c r="J158" s="81"/>
+      <c r="K158" s="81"/>
+      <c r="L158" s="82"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A159" s="72"/>
-      <c r="B159" s="73"/>
-      <c r="C159" s="73"/>
-      <c r="D159" s="73"/>
-      <c r="E159" s="73"/>
-      <c r="F159" s="73"/>
-      <c r="G159" s="73"/>
-      <c r="H159" s="73"/>
-      <c r="I159" s="73"/>
-      <c r="J159" s="73"/>
-      <c r="K159" s="73"/>
-      <c r="L159" s="74"/>
+      <c r="A159" s="83"/>
+      <c r="B159" s="84"/>
+      <c r="C159" s="84"/>
+      <c r="D159" s="84"/>
+      <c r="E159" s="84"/>
+      <c r="F159" s="84"/>
+      <c r="G159" s="84"/>
+      <c r="H159" s="84"/>
+      <c r="I159" s="84"/>
+      <c r="J159" s="84"/>
+      <c r="K159" s="84"/>
+      <c r="L159" s="85"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E162" s="9"/>
-      <c r="F162" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="G162" s="61"/>
-      <c r="H162" s="61"/>
-      <c r="I162" s="61"/>
-      <c r="J162" s="61"/>
-      <c r="K162" s="61"/>
+      <c r="F162" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="G162" s="72"/>
+      <c r="H162" s="72"/>
+      <c r="I162" s="72"/>
+      <c r="J162" s="72"/>
+      <c r="K162" s="72"/>
       <c r="M162" s="5"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
@@ -4880,14 +4868,14 @@
         <v>70</v>
       </c>
       <c r="E163" s="9"/>
-      <c r="F163" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="G163" s="62"/>
-      <c r="H163" s="62"/>
-      <c r="I163" s="62"/>
-      <c r="J163" s="62"/>
-      <c r="K163" s="62"/>
+      <c r="F163" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="G163" s="73"/>
+      <c r="H163" s="73"/>
+      <c r="I163" s="73"/>
+      <c r="J163" s="73"/>
+      <c r="K163" s="73"/>
       <c r="M163" s="5"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
@@ -4921,12 +4909,12 @@
       <c r="G168" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H168" s="63" t="s">
+      <c r="H168" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I168" s="64"/>
-      <c r="J168" s="64"/>
-      <c r="K168" s="65"/>
+      <c r="I168" s="75"/>
+      <c r="J168" s="75"/>
+      <c r="K168" s="76"/>
       <c r="M168" s="5"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
@@ -4942,12 +4930,12 @@
       <c r="G169" s="20">
         <v>1</v>
       </c>
-      <c r="H169" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="I169" s="67"/>
-      <c r="J169" s="67"/>
-      <c r="K169" s="68"/>
+      <c r="H169" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="I169" s="78"/>
+      <c r="J169" s="78"/>
+      <c r="K169" s="79"/>
       <c r="M169" s="5"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
@@ -4975,12 +4963,12 @@
       <c r="G171" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H171" s="63" t="s">
+      <c r="H171" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I171" s="64"/>
-      <c r="J171" s="64"/>
-      <c r="K171" s="65"/>
+      <c r="I171" s="75"/>
+      <c r="J171" s="75"/>
+      <c r="K171" s="76"/>
       <c r="M171" s="5"/>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
@@ -4988,24 +4976,24 @@
       <c r="G172" s="20">
         <v>1</v>
       </c>
-      <c r="H172" s="66" t="s">
+      <c r="H172" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="I172" s="67"/>
-      <c r="J172" s="67"/>
-      <c r="K172" s="68"/>
+      <c r="I172" s="78"/>
+      <c r="J172" s="78"/>
+      <c r="K172" s="79"/>
       <c r="M172" s="5"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G173" s="20">
-        <v>1</v>
-      </c>
-      <c r="H173" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="I173" s="67"/>
-      <c r="J173" s="67"/>
-      <c r="K173" s="68"/>
+        <v>2</v>
+      </c>
+      <c r="H173" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="I173" s="78"/>
+      <c r="J173" s="78"/>
+      <c r="K173" s="79"/>
       <c r="M173" s="5"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -5018,40 +5006,40 @@
       <c r="A176" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B176" s="55" t="s">
+      <c r="B176" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C176" s="56"/>
-      <c r="D176" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="E176" s="58"/>
-      <c r="F176" s="58"/>
-      <c r="G176" s="58"/>
-      <c r="H176" s="58"/>
-      <c r="I176" s="58"/>
-      <c r="J176" s="58"/>
-      <c r="K176" s="59"/>
+      <c r="C176" s="61"/>
+      <c r="D176" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="E176" s="63"/>
+      <c r="F176" s="63"/>
+      <c r="G176" s="63"/>
+      <c r="H176" s="63"/>
+      <c r="I176" s="63"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="64"/>
       <c r="M176" s="5"/>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B177" s="55" t="s">
+      <c r="B177" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C177" s="56"/>
-      <c r="D177" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="E177" s="58"/>
-      <c r="F177" s="58"/>
-      <c r="G177" s="58"/>
-      <c r="H177" s="58"/>
-      <c r="I177" s="58"/>
-      <c r="J177" s="58"/>
-      <c r="K177" s="59"/>
+      <c r="C177" s="61"/>
+      <c r="D177" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="E177" s="63"/>
+      <c r="F177" s="63"/>
+      <c r="G177" s="63"/>
+      <c r="H177" s="63"/>
+      <c r="I177" s="63"/>
+      <c r="J177" s="63"/>
+      <c r="K177" s="64"/>
       <c r="M177" s="5"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
@@ -5072,42 +5060,42 @@
       <c r="M179" s="5"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A180" s="60" t="s">
+      <c r="A180" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B180" s="60" t="s">
+      <c r="B180" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C180" s="60"/>
-      <c r="D180" s="60"/>
-      <c r="E180" s="60"/>
-      <c r="F180" s="60"/>
-      <c r="G180" s="60" t="s">
+      <c r="C180" s="65"/>
+      <c r="D180" s="65"/>
+      <c r="E180" s="65"/>
+      <c r="F180" s="65"/>
+      <c r="G180" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H180" s="60"/>
-      <c r="I180" s="60"/>
-      <c r="J180" s="60"/>
-      <c r="K180" s="60"/>
-      <c r="L180" s="60"/>
-      <c r="M180" s="60" t="s">
+      <c r="H180" s="65"/>
+      <c r="I180" s="65"/>
+      <c r="J180" s="65"/>
+      <c r="K180" s="65"/>
+      <c r="L180" s="65"/>
+      <c r="M180" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A181" s="60"/>
-      <c r="B181" s="60"/>
-      <c r="C181" s="60"/>
-      <c r="D181" s="60"/>
-      <c r="E181" s="60"/>
-      <c r="F181" s="60"/>
-      <c r="G181" s="60"/>
-      <c r="H181" s="60"/>
-      <c r="I181" s="60"/>
-      <c r="J181" s="60"/>
-      <c r="K181" s="60"/>
-      <c r="L181" s="60"/>
-      <c r="M181" s="60"/>
+      <c r="A181" s="65"/>
+      <c r="B181" s="65"/>
+      <c r="C181" s="65"/>
+      <c r="D181" s="65"/>
+      <c r="E181" s="65"/>
+      <c r="F181" s="65"/>
+      <c r="G181" s="65"/>
+      <c r="H181" s="65"/>
+      <c r="I181" s="65"/>
+      <c r="J181" s="65"/>
+      <c r="K181" s="65"/>
+      <c r="L181" s="65"/>
+      <c r="M181" s="65"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="22">
@@ -5137,14 +5125,14 @@
         <v>2</v>
       </c>
       <c r="B183" s="54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C183" s="54"/>
       <c r="D183" s="54"/>
       <c r="E183" s="54"/>
       <c r="F183" s="54"/>
       <c r="G183" s="54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H183" s="54"/>
       <c r="I183" s="54"/>
@@ -5160,14 +5148,14 @@
         <v>3</v>
       </c>
       <c r="B184" s="54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C184" s="54"/>
       <c r="D184" s="54"/>
       <c r="E184" s="54"/>
       <c r="F184" s="54"/>
       <c r="G184" s="54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H184" s="54"/>
       <c r="I184" s="54"/>
@@ -5183,14 +5171,14 @@
         <v>4</v>
       </c>
       <c r="B185" s="54" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C185" s="54"/>
       <c r="D185" s="54"/>
       <c r="E185" s="54"/>
       <c r="F185" s="54"/>
       <c r="G185" s="54" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H185" s="54"/>
       <c r="I185" s="54"/>
@@ -5206,14 +5194,14 @@
         <v>5</v>
       </c>
       <c r="B186" s="54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C186" s="54"/>
       <c r="D186" s="54"/>
       <c r="E186" s="54"/>
       <c r="F186" s="54"/>
       <c r="G186" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H186" s="54"/>
       <c r="I186" s="54"/>
@@ -5225,54 +5213,54 @@
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A190" s="69" t="s">
+      <c r="A190" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B190" s="70"/>
-      <c r="C190" s="70"/>
-      <c r="D190" s="70"/>
-      <c r="E190" s="70"/>
-      <c r="F190" s="70"/>
-      <c r="G190" s="70"/>
-      <c r="H190" s="70"/>
-      <c r="I190" s="70"/>
-      <c r="J190" s="70"/>
-      <c r="K190" s="70"/>
-      <c r="L190" s="71"/>
+      <c r="B190" s="81"/>
+      <c r="C190" s="81"/>
+      <c r="D190" s="81"/>
+      <c r="E190" s="81"/>
+      <c r="F190" s="81"/>
+      <c r="G190" s="81"/>
+      <c r="H190" s="81"/>
+      <c r="I190" s="81"/>
+      <c r="J190" s="81"/>
+      <c r="K190" s="81"/>
+      <c r="L190" s="82"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A191" s="72"/>
-      <c r="B191" s="73"/>
-      <c r="C191" s="73"/>
-      <c r="D191" s="73"/>
-      <c r="E191" s="73"/>
-      <c r="F191" s="73"/>
-      <c r="G191" s="73"/>
-      <c r="H191" s="73"/>
-      <c r="I191" s="73"/>
-      <c r="J191" s="73"/>
-      <c r="K191" s="73"/>
-      <c r="L191" s="74"/>
+      <c r="A191" s="83"/>
+      <c r="B191" s="84"/>
+      <c r="C191" s="84"/>
+      <c r="D191" s="84"/>
+      <c r="E191" s="84"/>
+      <c r="F191" s="84"/>
+      <c r="G191" s="84"/>
+      <c r="H191" s="84"/>
+      <c r="I191" s="84"/>
+      <c r="J191" s="84"/>
+      <c r="K191" s="84"/>
+      <c r="L191" s="85"/>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E194" s="9"/>
-      <c r="F194" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="G194" s="61"/>
-      <c r="H194" s="61"/>
-      <c r="I194" s="61"/>
-      <c r="J194" s="61"/>
-      <c r="K194" s="61"/>
+      <c r="F194" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="G194" s="72"/>
+      <c r="H194" s="72"/>
+      <c r="I194" s="72"/>
+      <c r="J194" s="72"/>
+      <c r="K194" s="72"/>
       <c r="M194" s="5"/>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
@@ -5286,14 +5274,14 @@
         <v>70</v>
       </c>
       <c r="E195" s="9"/>
-      <c r="F195" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="G195" s="62"/>
-      <c r="H195" s="62"/>
-      <c r="I195" s="62"/>
-      <c r="J195" s="62"/>
-      <c r="K195" s="62"/>
+      <c r="F195" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="G195" s="73"/>
+      <c r="H195" s="73"/>
+      <c r="I195" s="73"/>
+      <c r="J195" s="73"/>
+      <c r="K195" s="73"/>
       <c r="M195" s="5"/>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.2">
@@ -5327,12 +5315,12 @@
       <c r="G200" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H200" s="63" t="s">
+      <c r="H200" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I200" s="64"/>
-      <c r="J200" s="64"/>
-      <c r="K200" s="65"/>
+      <c r="I200" s="75"/>
+      <c r="J200" s="75"/>
+      <c r="K200" s="76"/>
       <c r="M200" s="5"/>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
@@ -5348,12 +5336,12 @@
       <c r="G201" s="20">
         <v>1</v>
       </c>
-      <c r="H201" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="I201" s="67"/>
-      <c r="J201" s="67"/>
-      <c r="K201" s="68"/>
+      <c r="H201" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="I201" s="78"/>
+      <c r="J201" s="78"/>
+      <c r="K201" s="79"/>
       <c r="M201" s="5"/>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
@@ -5381,12 +5369,12 @@
       <c r="G203" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H203" s="63" t="s">
+      <c r="H203" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I203" s="64"/>
-      <c r="J203" s="64"/>
-      <c r="K203" s="65"/>
+      <c r="I203" s="75"/>
+      <c r="J203" s="75"/>
+      <c r="K203" s="76"/>
       <c r="M203" s="5"/>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.2">
@@ -5394,24 +5382,24 @@
       <c r="G204" s="20">
         <v>1</v>
       </c>
-      <c r="H204" s="66" t="s">
+      <c r="H204" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="I204" s="67"/>
-      <c r="J204" s="67"/>
-      <c r="K204" s="68"/>
+      <c r="I204" s="78"/>
+      <c r="J204" s="78"/>
+      <c r="K204" s="79"/>
       <c r="M204" s="5"/>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G205" s="20">
-        <v>1</v>
-      </c>
-      <c r="H205" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="I205" s="67"/>
-      <c r="J205" s="67"/>
-      <c r="K205" s="68"/>
+        <v>2</v>
+      </c>
+      <c r="H205" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="I205" s="78"/>
+      <c r="J205" s="78"/>
+      <c r="K205" s="79"/>
       <c r="M205" s="5"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
@@ -5421,40 +5409,40 @@
       <c r="A207" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B207" s="55" t="s">
+      <c r="B207" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C207" s="56"/>
-      <c r="D207" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="E207" s="58"/>
-      <c r="F207" s="58"/>
-      <c r="G207" s="58"/>
-      <c r="H207" s="58"/>
-      <c r="I207" s="58"/>
-      <c r="J207" s="58"/>
-      <c r="K207" s="59"/>
+      <c r="C207" s="61"/>
+      <c r="D207" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="E207" s="63"/>
+      <c r="F207" s="63"/>
+      <c r="G207" s="63"/>
+      <c r="H207" s="63"/>
+      <c r="I207" s="63"/>
+      <c r="J207" s="63"/>
+      <c r="K207" s="64"/>
       <c r="M207" s="5"/>
     </row>
     <row r="208" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B208" s="55" t="s">
+      <c r="B208" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C208" s="56"/>
-      <c r="D208" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="E208" s="58"/>
-      <c r="F208" s="58"/>
-      <c r="G208" s="58"/>
-      <c r="H208" s="58"/>
-      <c r="I208" s="58"/>
-      <c r="J208" s="58"/>
-      <c r="K208" s="59"/>
+      <c r="C208" s="61"/>
+      <c r="D208" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="E208" s="63"/>
+      <c r="F208" s="63"/>
+      <c r="G208" s="63"/>
+      <c r="H208" s="63"/>
+      <c r="I208" s="63"/>
+      <c r="J208" s="63"/>
+      <c r="K208" s="64"/>
       <c r="M208" s="5"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
@@ -5475,42 +5463,42 @@
       <c r="M210" s="5"/>
     </row>
     <row r="211" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="60" t="s">
+      <c r="A211" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B211" s="60" t="s">
+      <c r="B211" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C211" s="60"/>
-      <c r="D211" s="60"/>
-      <c r="E211" s="60"/>
-      <c r="F211" s="60"/>
-      <c r="G211" s="79" t="s">
+      <c r="C211" s="65"/>
+      <c r="D211" s="65"/>
+      <c r="E211" s="65"/>
+      <c r="F211" s="65"/>
+      <c r="G211" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="H211" s="80"/>
-      <c r="I211" s="80"/>
-      <c r="J211" s="80"/>
-      <c r="K211" s="80"/>
-      <c r="L211" s="81"/>
-      <c r="M211" s="60" t="s">
+      <c r="H211" s="67"/>
+      <c r="I211" s="67"/>
+      <c r="J211" s="67"/>
+      <c r="K211" s="67"/>
+      <c r="L211" s="68"/>
+      <c r="M211" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A212" s="60"/>
-      <c r="B212" s="60"/>
-      <c r="C212" s="60"/>
-      <c r="D212" s="60"/>
-      <c r="E212" s="60"/>
-      <c r="F212" s="60"/>
-      <c r="G212" s="82"/>
-      <c r="H212" s="83"/>
-      <c r="I212" s="83"/>
-      <c r="J212" s="83"/>
-      <c r="K212" s="83"/>
-      <c r="L212" s="84"/>
-      <c r="M212" s="60"/>
+      <c r="A212" s="65"/>
+      <c r="B212" s="65"/>
+      <c r="C212" s="65"/>
+      <c r="D212" s="65"/>
+      <c r="E212" s="65"/>
+      <c r="F212" s="65"/>
+      <c r="G212" s="69"/>
+      <c r="H212" s="70"/>
+      <c r="I212" s="70"/>
+      <c r="J212" s="70"/>
+      <c r="K212" s="70"/>
+      <c r="L212" s="71"/>
+      <c r="M212" s="65"/>
     </row>
     <row r="213" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="22">
@@ -5540,14 +5528,14 @@
         <v>2</v>
       </c>
       <c r="B214" s="54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C214" s="54"/>
       <c r="D214" s="54"/>
       <c r="E214" s="54"/>
       <c r="F214" s="54"/>
       <c r="G214" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H214" s="54"/>
       <c r="I214" s="54"/>
@@ -5563,14 +5551,14 @@
         <v>3</v>
       </c>
       <c r="B215" s="54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C215" s="54"/>
       <c r="D215" s="54"/>
       <c r="E215" s="54"/>
       <c r="F215" s="54"/>
       <c r="G215" s="54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H215" s="54"/>
       <c r="I215" s="54"/>
@@ -5586,14 +5574,14 @@
         <v>4</v>
       </c>
       <c r="B216" s="54" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C216" s="54"/>
       <c r="D216" s="54"/>
       <c r="E216" s="54"/>
       <c r="F216" s="54"/>
       <c r="G216" s="54" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H216" s="54"/>
       <c r="I216" s="54"/>
@@ -5609,20 +5597,20 @@
         <v>5</v>
       </c>
       <c r="B217" s="54" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C217" s="54"/>
       <c r="D217" s="54"/>
       <c r="E217" s="54"/>
       <c r="F217" s="54"/>
-      <c r="G217" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="H217" s="76"/>
-      <c r="I217" s="76"/>
-      <c r="J217" s="76"/>
-      <c r="K217" s="76"/>
-      <c r="L217" s="77"/>
+      <c r="G217" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="H217" s="58"/>
+      <c r="I217" s="58"/>
+      <c r="J217" s="58"/>
+      <c r="K217" s="58"/>
+      <c r="L217" s="59"/>
       <c r="M217" s="23" t="s">
         <v>85</v>
       </c>
@@ -5632,14 +5620,14 @@
         <v>6</v>
       </c>
       <c r="B218" s="54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C218" s="54"/>
       <c r="D218" s="54"/>
       <c r="E218" s="54"/>
       <c r="F218" s="54"/>
       <c r="G218" s="54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H218" s="54"/>
       <c r="I218" s="54"/>
@@ -5655,14 +5643,14 @@
         <v>7</v>
       </c>
       <c r="B219" s="54" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C219" s="54"/>
       <c r="D219" s="54"/>
       <c r="E219" s="54"/>
       <c r="F219" s="54"/>
       <c r="G219" s="54" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H219" s="54"/>
       <c r="I219" s="54"/>
@@ -5678,14 +5666,14 @@
         <v>8</v>
       </c>
       <c r="B220" s="54" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C220" s="54"/>
       <c r="D220" s="54"/>
       <c r="E220" s="54"/>
       <c r="F220" s="54"/>
       <c r="G220" s="54" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H220" s="54"/>
       <c r="I220" s="54"/>
@@ -5701,14 +5689,14 @@
         <v>9</v>
       </c>
       <c r="B221" s="54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C221" s="54"/>
       <c r="D221" s="54"/>
       <c r="E221" s="54"/>
       <c r="F221" s="54"/>
       <c r="G221" s="54" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H221" s="54"/>
       <c r="I221" s="54"/>
@@ -5724,14 +5712,14 @@
         <v>10</v>
       </c>
       <c r="B222" s="54" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C222" s="54"/>
       <c r="D222" s="54"/>
       <c r="E222" s="54"/>
       <c r="F222" s="54"/>
       <c r="G222" s="54" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H222" s="54"/>
       <c r="I222" s="54"/>
@@ -5747,14 +5735,14 @@
         <v>11</v>
       </c>
       <c r="B223" s="54" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C223" s="54"/>
       <c r="D223" s="54"/>
       <c r="E223" s="54"/>
       <c r="F223" s="54"/>
       <c r="G223" s="54" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H223" s="54"/>
       <c r="I223" s="54"/>
@@ -5769,15 +5757,15 @@
       <c r="A224" s="22">
         <v>12</v>
       </c>
-      <c r="B224" s="78" t="s">
-        <v>316</v>
-      </c>
-      <c r="C224" s="78"/>
-      <c r="D224" s="78"/>
-      <c r="E224" s="78"/>
-      <c r="F224" s="78"/>
+      <c r="B224" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="C224" s="56"/>
+      <c r="D224" s="56"/>
+      <c r="E224" s="56"/>
+      <c r="F224" s="56"/>
       <c r="G224" s="54" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H224" s="54"/>
       <c r="I224" s="54"/>
@@ -5792,15 +5780,15 @@
       <c r="A225" s="22">
         <v>13</v>
       </c>
-      <c r="B225" s="78" t="s">
-        <v>317</v>
-      </c>
-      <c r="C225" s="78"/>
-      <c r="D225" s="78"/>
-      <c r="E225" s="78"/>
-      <c r="F225" s="78"/>
+      <c r="B225" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="C225" s="56"/>
+      <c r="D225" s="56"/>
+      <c r="E225" s="56"/>
+      <c r="F225" s="56"/>
       <c r="G225" s="54" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H225" s="54"/>
       <c r="I225" s="54"/>
@@ -5815,15 +5803,15 @@
       <c r="A226" s="22">
         <v>14</v>
       </c>
-      <c r="B226" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="C226" s="78"/>
-      <c r="D226" s="78"/>
-      <c r="E226" s="78"/>
-      <c r="F226" s="78"/>
+      <c r="B226" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C226" s="56"/>
+      <c r="D226" s="56"/>
+      <c r="E226" s="56"/>
+      <c r="F226" s="56"/>
       <c r="G226" s="54" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H226" s="54"/>
       <c r="I226" s="54"/>
@@ -5838,15 +5826,15 @@
       <c r="A227" s="22">
         <v>15</v>
       </c>
-      <c r="B227" s="78" t="s">
-        <v>318</v>
-      </c>
-      <c r="C227" s="78"/>
-      <c r="D227" s="78"/>
-      <c r="E227" s="78"/>
-      <c r="F227" s="78"/>
+      <c r="B227" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C227" s="56"/>
+      <c r="D227" s="56"/>
+      <c r="E227" s="56"/>
+      <c r="F227" s="56"/>
       <c r="G227" s="54" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H227" s="54"/>
       <c r="I227" s="54"/>
@@ -5861,15 +5849,15 @@
       <c r="A228" s="22">
         <v>16</v>
       </c>
-      <c r="B228" s="78" t="s">
-        <v>319</v>
-      </c>
-      <c r="C228" s="78"/>
-      <c r="D228" s="78"/>
-      <c r="E228" s="78"/>
-      <c r="F228" s="78"/>
+      <c r="B228" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="C228" s="56"/>
+      <c r="D228" s="56"/>
+      <c r="E228" s="56"/>
+      <c r="F228" s="56"/>
       <c r="G228" s="54" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H228" s="54"/>
       <c r="I228" s="54"/>
@@ -5884,15 +5872,15 @@
       <c r="A229" s="22">
         <v>17</v>
       </c>
-      <c r="B229" s="78" t="s">
-        <v>219</v>
-      </c>
-      <c r="C229" s="78"/>
-      <c r="D229" s="78"/>
-      <c r="E229" s="78"/>
-      <c r="F229" s="78"/>
+      <c r="B229" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="C229" s="56"/>
+      <c r="D229" s="56"/>
+      <c r="E229" s="56"/>
+      <c r="F229" s="56"/>
       <c r="G229" s="54" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H229" s="54"/>
       <c r="I229" s="54"/>
@@ -5907,21 +5895,21 @@
       <c r="A230" s="22">
         <v>13</v>
       </c>
-      <c r="B230" s="78" t="s">
-        <v>331</v>
-      </c>
-      <c r="C230" s="78"/>
-      <c r="D230" s="78"/>
-      <c r="E230" s="78"/>
-      <c r="F230" s="78"/>
-      <c r="G230" s="75" t="s">
-        <v>351</v>
-      </c>
-      <c r="H230" s="76"/>
-      <c r="I230" s="76"/>
-      <c r="J230" s="76"/>
-      <c r="K230" s="76"/>
-      <c r="L230" s="77"/>
+      <c r="B230" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="C230" s="56"/>
+      <c r="D230" s="56"/>
+      <c r="E230" s="56"/>
+      <c r="F230" s="56"/>
+      <c r="G230" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="H230" s="58"/>
+      <c r="I230" s="58"/>
+      <c r="J230" s="58"/>
+      <c r="K230" s="58"/>
+      <c r="L230" s="59"/>
       <c r="M230" s="23" t="s">
         <v>85</v>
       </c>
@@ -5930,21 +5918,21 @@
       <c r="A231" s="22">
         <v>14</v>
       </c>
-      <c r="B231" s="78" t="s">
-        <v>332</v>
-      </c>
-      <c r="C231" s="78"/>
-      <c r="D231" s="78"/>
-      <c r="E231" s="78"/>
-      <c r="F231" s="78"/>
-      <c r="G231" s="75" t="s">
-        <v>351</v>
-      </c>
-      <c r="H231" s="76"/>
-      <c r="I231" s="76"/>
-      <c r="J231" s="76"/>
-      <c r="K231" s="76"/>
-      <c r="L231" s="77"/>
+      <c r="B231" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="C231" s="56"/>
+      <c r="D231" s="56"/>
+      <c r="E231" s="56"/>
+      <c r="F231" s="56"/>
+      <c r="G231" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="H231" s="58"/>
+      <c r="I231" s="58"/>
+      <c r="J231" s="58"/>
+      <c r="K231" s="58"/>
+      <c r="L231" s="59"/>
       <c r="M231" s="23" t="s">
         <v>85</v>
       </c>
@@ -5953,15 +5941,15 @@
       <c r="A232" s="22">
         <v>15</v>
       </c>
-      <c r="B232" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="C232" s="78"/>
-      <c r="D232" s="78"/>
-      <c r="E232" s="78"/>
-      <c r="F232" s="78"/>
+      <c r="B232" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="C232" s="56"/>
+      <c r="D232" s="56"/>
+      <c r="E232" s="56"/>
+      <c r="F232" s="56"/>
       <c r="G232" s="54" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H232" s="54"/>
       <c r="I232" s="54"/>
@@ -5976,21 +5964,21 @@
       <c r="A233" s="22">
         <v>16</v>
       </c>
-      <c r="B233" s="78" t="s">
-        <v>327</v>
-      </c>
-      <c r="C233" s="78"/>
-      <c r="D233" s="78"/>
-      <c r="E233" s="78"/>
-      <c r="F233" s="78"/>
-      <c r="G233" s="75" t="s">
-        <v>352</v>
-      </c>
-      <c r="H233" s="76"/>
-      <c r="I233" s="76"/>
-      <c r="J233" s="76"/>
-      <c r="K233" s="76"/>
-      <c r="L233" s="77"/>
+      <c r="B233" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="C233" s="56"/>
+      <c r="D233" s="56"/>
+      <c r="E233" s="56"/>
+      <c r="F233" s="56"/>
+      <c r="G233" s="57" t="s">
+        <v>344</v>
+      </c>
+      <c r="H233" s="58"/>
+      <c r="I233" s="58"/>
+      <c r="J233" s="58"/>
+      <c r="K233" s="58"/>
+      <c r="L233" s="59"/>
       <c r="M233" s="23" t="s">
         <v>85</v>
       </c>
@@ -5999,21 +5987,21 @@
       <c r="A234" s="22">
         <v>17</v>
       </c>
-      <c r="B234" s="78" t="s">
-        <v>330</v>
-      </c>
-      <c r="C234" s="78"/>
-      <c r="D234" s="78"/>
-      <c r="E234" s="78"/>
-      <c r="F234" s="78"/>
-      <c r="G234" s="75" t="s">
-        <v>352</v>
-      </c>
-      <c r="H234" s="76"/>
-      <c r="I234" s="76"/>
-      <c r="J234" s="76"/>
-      <c r="K234" s="76"/>
-      <c r="L234" s="77"/>
+      <c r="B234" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C234" s="56"/>
+      <c r="D234" s="56"/>
+      <c r="E234" s="56"/>
+      <c r="F234" s="56"/>
+      <c r="G234" s="57" t="s">
+        <v>344</v>
+      </c>
+      <c r="H234" s="58"/>
+      <c r="I234" s="58"/>
+      <c r="J234" s="58"/>
+      <c r="K234" s="58"/>
+      <c r="L234" s="59"/>
       <c r="M234" s="23" t="s">
         <v>85</v>
       </c>
@@ -6022,15 +6010,15 @@
       <c r="A235" s="22">
         <v>18</v>
       </c>
-      <c r="B235" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C235" s="85"/>
-      <c r="D235" s="85"/>
-      <c r="E235" s="85"/>
-      <c r="F235" s="85"/>
+      <c r="B235" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="C235" s="55"/>
+      <c r="D235" s="55"/>
+      <c r="E235" s="55"/>
+      <c r="F235" s="55"/>
       <c r="G235" s="54" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H235" s="54"/>
       <c r="I235" s="54"/>
@@ -6046,14 +6034,14 @@
         <v>19</v>
       </c>
       <c r="B236" s="54" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C236" s="54"/>
       <c r="D236" s="54"/>
       <c r="E236" s="54"/>
       <c r="F236" s="54"/>
       <c r="G236" s="54" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H236" s="54"/>
       <c r="I236" s="54"/>
@@ -6066,6 +6054,240 @@
     </row>
   </sheetData>
   <mergeCells count="258">
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="G105:L105"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="G103:L103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="G104:L104"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="G99:L99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="G100:L100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="G101:L101"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="G98:L98"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:K87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:K88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:K89"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="G95:L95"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="G96:L96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="G97:L97"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:K86"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:F94"/>
+    <mergeCell ref="G93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="F72:K72"/>
+    <mergeCell ref="F73:K73"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="A68:L69"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="G64:L64"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:F59"/>
+    <mergeCell ref="G58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:K55"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="A37:L38"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A109:L110"/>
+    <mergeCell ref="F113:K113"/>
+    <mergeCell ref="F114:K114"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:K127"/>
+    <mergeCell ref="M130:M131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="G132:L132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="G133:L133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="G134:L134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="G135:L135"/>
+    <mergeCell ref="B130:F131"/>
+    <mergeCell ref="G130:L131"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="G141:L141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="G142:L142"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="A158:L159"/>
+    <mergeCell ref="F162:K162"/>
+    <mergeCell ref="F163:K163"/>
+    <mergeCell ref="H168:K168"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="G136:L136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="G137:L137"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="G138:L138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="G139:L139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="G140:L140"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="G154:L154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="G155:L155"/>
+    <mergeCell ref="H169:K169"/>
+    <mergeCell ref="H171:K171"/>
+    <mergeCell ref="H172:K172"/>
+    <mergeCell ref="H173:K173"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="D176:K176"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:F181"/>
+    <mergeCell ref="G180:L181"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="D177:K177"/>
+    <mergeCell ref="M180:M181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="G182:L182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="G183:L183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="G184:L184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="G185:L185"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="G186:L186"/>
+    <mergeCell ref="A190:L191"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="G143:L143"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="G144:L144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="G145:L145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="G146:L146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="G147:L147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="G148:L148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="G149:L149"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="G150:L150"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="G152:L152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="G153:L153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="F194:K194"/>
+    <mergeCell ref="F195:K195"/>
+    <mergeCell ref="H200:K200"/>
+    <mergeCell ref="H201:K201"/>
+    <mergeCell ref="H203:K203"/>
+    <mergeCell ref="H204:K204"/>
+    <mergeCell ref="H205:K205"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:K207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:F212"/>
+    <mergeCell ref="G211:L212"/>
+    <mergeCell ref="M211:M212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="G213:L213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="G214:L214"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="G215:L215"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="G216:L216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="G217:L217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="G218:L218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="G219:L219"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="G229:L229"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="G220:L220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="G221:L221"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="G222:L222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="G223:L223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="G224:L224"/>
     <mergeCell ref="B236:F236"/>
     <mergeCell ref="G236:L236"/>
     <mergeCell ref="B235:F235"/>
@@ -6090,240 +6312,6 @@
     <mergeCell ref="G227:L227"/>
     <mergeCell ref="B228:F228"/>
     <mergeCell ref="G228:L228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="G229:L229"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="G220:L220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="G221:L221"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="G222:L222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="G223:L223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="G224:L224"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="G215:L215"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="G216:L216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="G217:L217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="G218:L218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="G219:L219"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:F212"/>
-    <mergeCell ref="G211:L212"/>
-    <mergeCell ref="M211:M212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="G213:L213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="G214:L214"/>
-    <mergeCell ref="F194:K194"/>
-    <mergeCell ref="F195:K195"/>
-    <mergeCell ref="H200:K200"/>
-    <mergeCell ref="H201:K201"/>
-    <mergeCell ref="H203:K203"/>
-    <mergeCell ref="H204:K204"/>
-    <mergeCell ref="H205:K205"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D207:K207"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="G186:L186"/>
-    <mergeCell ref="A190:L191"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="G143:L143"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="G144:L144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="G145:L145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="G146:L146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="G147:L147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="G148:L148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="G149:L149"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="G150:L150"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="G152:L152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="G153:L153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="M180:M181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="G182:L182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="G183:L183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="G184:L184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="G185:L185"/>
-    <mergeCell ref="H169:K169"/>
-    <mergeCell ref="H171:K171"/>
-    <mergeCell ref="H172:K172"/>
-    <mergeCell ref="H173:K173"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="D176:K176"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:F181"/>
-    <mergeCell ref="G180:L181"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="D177:K177"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="G141:L141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="G142:L142"/>
-    <mergeCell ref="H124:K124"/>
-    <mergeCell ref="A158:L159"/>
-    <mergeCell ref="F162:K162"/>
-    <mergeCell ref="F163:K163"/>
-    <mergeCell ref="H168:K168"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="G136:L136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="G137:L137"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="G138:L138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="G139:L139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="G140:L140"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="G154:L154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="G155:L155"/>
-    <mergeCell ref="M130:M131"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="G132:L132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="G133:L133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="G134:L134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="G135:L135"/>
-    <mergeCell ref="B130:F131"/>
-    <mergeCell ref="G130:L131"/>
-    <mergeCell ref="A109:L110"/>
-    <mergeCell ref="F113:K113"/>
-    <mergeCell ref="F114:K114"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:K127"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="A37:L38"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:F59"/>
-    <mergeCell ref="G58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="G60:L60"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:K55"/>
-    <mergeCell ref="A68:L69"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="G64:L64"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="G62:L62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:K86"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:F94"/>
-    <mergeCell ref="G93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:K90"/>
-    <mergeCell ref="F72:K72"/>
-    <mergeCell ref="F73:K73"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="G98:L98"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:K87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:K88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:K89"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="G95:L95"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="G96:L96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="G97:L97"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="G105:L105"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="G103:L103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="G104:L104"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="G99:L99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="G100:L100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="G101:L101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6334,8 +6322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA41EE7-18A2-5847-8921-1B401338AF3E}">
   <dimension ref="A3:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6348,21 +6336,21 @@
         <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="61" t="s">
-        <v>281</v>
-      </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="F3" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
       <c r="L3" s="50"/>
       <c r="M3" s="5"/>
     </row>
@@ -6378,14 +6366,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="62" t="s">
-        <v>282</v>
-      </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
+      <c r="F4" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
       <c r="L4" s="50"/>
       <c r="M4" s="5"/>
     </row>
@@ -6467,12 +6455,12 @@
       <c r="G9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="50"/>
       <c r="M9" s="5"/>
     </row>
@@ -6490,10 +6478,10 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="68"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
       <c r="L10" s="50"/>
       <c r="M10" s="5"/>
     </row>
@@ -6530,12 +6518,12 @@
       <c r="G12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="50"/>
       <c r="M12" s="5"/>
     </row>
@@ -6549,12 +6537,12 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
+      <c r="H13" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
       <c r="L13" s="50"/>
       <c r="M13" s="5"/>
     </row>
@@ -6592,20 +6580,20 @@
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57" t="s">
-        <v>284</v>
-      </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
+      <c r="B16" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="50"/>
       <c r="M16" s="5"/>
     </row>
@@ -6640,56 +6628,56 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60" t="s">
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>1</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
@@ -6705,14 +6693,14 @@
         <v>2</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H22" s="54"/>
       <c r="I22" s="54"/>
@@ -6769,35 +6757,35 @@
       <c r="M25" s="50"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="82"/>
       <c r="M26" s="50"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="72"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="74"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="85"/>
       <c r="M27" s="50"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -6805,21 +6793,21 @@
         <v>66</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C31" s="50"/>
       <c r="D31" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="61" t="s">
-        <v>288</v>
-      </c>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
+      <c r="F31" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
       <c r="L31" s="50"/>
       <c r="M31" s="5"/>
     </row>
@@ -6835,14 +6823,14 @@
         <v>70</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="62" t="s">
-        <v>289</v>
-      </c>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
+      <c r="F32" s="73" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
       <c r="L32" s="50"/>
       <c r="M32" s="5"/>
     </row>
@@ -6924,12 +6912,12 @@
       <c r="G37" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="63" t="s">
+      <c r="H37" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="65"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="76"/>
       <c r="L37" s="50"/>
       <c r="M37" s="5"/>
     </row>
@@ -6947,12 +6935,12 @@
       <c r="G38" s="20">
         <v>1</v>
       </c>
-      <c r="H38" s="66" t="s">
-        <v>290</v>
-      </c>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="68"/>
+      <c r="H38" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="79"/>
       <c r="L38" s="50"/>
       <c r="M38" s="5"/>
     </row>
@@ -6989,12 +6977,12 @@
       <c r="G40" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="63" t="s">
+      <c r="H40" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="65"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="76"/>
       <c r="L40" s="50"/>
       <c r="M40" s="5"/>
     </row>
@@ -7008,12 +6996,12 @@
       <c r="G41" s="20">
         <v>1</v>
       </c>
-      <c r="H41" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="68"/>
+      <c r="H41" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="79"/>
       <c r="L41" s="50"/>
       <c r="M41" s="5"/>
     </row>
@@ -7051,20 +7039,20 @@
       <c r="A44" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="59"/>
+      <c r="B44" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" s="61"/>
+      <c r="D44" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="64"/>
       <c r="L44" s="50"/>
       <c r="M44" s="5"/>
     </row>
@@ -7099,56 +7087,56 @@
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="60" t="s">
+      <c r="A47" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60" t="s">
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="60"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
         <v>1</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C49" s="54"/>
       <c r="D49" s="54"/>
       <c r="E49" s="54"/>
       <c r="F49" s="54"/>
       <c r="G49" s="54" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H49" s="54"/>
       <c r="I49" s="54"/>
@@ -7164,14 +7152,14 @@
         <v>2</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C50" s="54"/>
       <c r="D50" s="54"/>
       <c r="E50" s="54"/>
       <c r="F50" s="54"/>
       <c r="G50" s="54" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H50" s="54"/>
       <c r="I50" s="54"/>
@@ -7187,14 +7175,14 @@
         <v>3</v>
       </c>
       <c r="B51" s="54" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C51" s="54"/>
       <c r="D51" s="54"/>
       <c r="E51" s="54"/>
       <c r="F51" s="54"/>
       <c r="G51" s="54" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H51" s="54"/>
       <c r="I51" s="54"/>
@@ -7210,14 +7198,14 @@
         <v>4</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C52" s="54"/>
       <c r="D52" s="54"/>
       <c r="E52" s="54"/>
       <c r="F52" s="54"/>
       <c r="G52" s="54" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H52" s="54"/>
       <c r="I52" s="54"/>
@@ -7233,14 +7221,14 @@
         <v>5</v>
       </c>
       <c r="B53" s="54" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C53" s="54"/>
       <c r="D53" s="54"/>
       <c r="E53" s="54"/>
       <c r="F53" s="54"/>
       <c r="G53" s="54" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H53" s="54"/>
       <c r="I53" s="54"/>
@@ -7253,34 +7241,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:F20"/>
-    <mergeCell ref="G19:L20"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="A26:L27"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:K44"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:F48"/>
-    <mergeCell ref="G47:L48"/>
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="G52:L52"/>
     <mergeCell ref="B53:F53"/>
@@ -7292,6 +7252,34 @@
     <mergeCell ref="G50:L50"/>
     <mergeCell ref="B51:F51"/>
     <mergeCell ref="G51:L51"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:F48"/>
+    <mergeCell ref="G47:L48"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="A26:L27"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:F20"/>
+    <mergeCell ref="G19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7301,7 +7289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD90F54-04F9-2948-B228-7AEC85B49338}">
   <dimension ref="A3:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="G52" sqref="G52:L52"/>
     </sheetView>
   </sheetViews>
@@ -7316,21 +7304,21 @@
         <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="F3" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
       <c r="L3" s="34"/>
       <c r="M3" s="5"/>
     </row>
@@ -7346,14 +7334,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
+      <c r="F4" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
       <c r="L4" s="34"/>
       <c r="M4" s="5"/>
     </row>
@@ -7435,12 +7423,12 @@
       <c r="G9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="34"/>
       <c r="M9" s="5"/>
     </row>
@@ -7458,12 +7446,12 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="66" t="s">
-        <v>260</v>
-      </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="68"/>
+      <c r="H10" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
       <c r="L10" s="34"/>
       <c r="M10" s="5"/>
     </row>
@@ -7500,12 +7488,12 @@
       <c r="G12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="34"/>
       <c r="M12" s="5"/>
     </row>
@@ -7519,12 +7507,12 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
+      <c r="H13" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
       <c r="L13" s="34"/>
       <c r="M13" s="5"/>
     </row>
@@ -7562,20 +7550,20 @@
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="34"/>
       <c r="M16" s="5"/>
     </row>
@@ -7610,56 +7598,56 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60" t="s">
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
     </row>
     <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>1</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
@@ -7675,14 +7663,14 @@
         <v>2</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H22" s="54"/>
       <c r="I22" s="54"/>
@@ -7698,14 +7686,14 @@
         <v>3</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
       <c r="G23" s="54" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
@@ -7762,35 +7750,35 @@
       <c r="M26" s="34"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="71"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="82"/>
       <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="74"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="85"/>
       <c r="M28" s="34"/>
     </row>
     <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7798,21 +7786,21 @@
         <v>66</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C32" s="46"/>
       <c r="D32" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
+      <c r="F32" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
       <c r="L32" s="46"/>
       <c r="M32" s="5"/>
     </row>
@@ -7828,14 +7816,14 @@
         <v>70</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="62" t="s">
-        <v>265</v>
-      </c>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
+      <c r="F33" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
       <c r="L33" s="46"/>
       <c r="M33" s="5"/>
     </row>
@@ -7917,12 +7905,12 @@
       <c r="G38" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="63" t="s">
+      <c r="H38" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="65"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="76"/>
       <c r="L38" s="46"/>
       <c r="M38" s="5"/>
     </row>
@@ -7940,12 +7928,12 @@
       <c r="G39" s="20">
         <v>1</v>
       </c>
-      <c r="H39" s="66" t="s">
-        <v>266</v>
-      </c>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="68"/>
+      <c r="H39" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="79"/>
       <c r="L39" s="46"/>
       <c r="M39" s="5"/>
     </row>
@@ -7982,12 +7970,12 @@
       <c r="G41" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H41" s="63" t="s">
+      <c r="H41" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="65"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="76"/>
       <c r="L41" s="46"/>
       <c r="M41" s="5"/>
     </row>
@@ -8001,12 +7989,12 @@
       <c r="G42" s="20">
         <v>1</v>
       </c>
-      <c r="H42" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="68"/>
+      <c r="H42" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="79"/>
       <c r="L42" s="46"/>
       <c r="M42" s="5"/>
     </row>
@@ -8044,20 +8032,20 @@
       <c r="A45" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="57" t="s">
+      <c r="C45" s="61"/>
+      <c r="D45" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="59"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="64"/>
       <c r="L45" s="46"/>
       <c r="M45" s="5"/>
     </row>
@@ -8092,56 +8080,56 @@
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60" t="s">
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60" t="s">
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="60"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
         <v>1</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C50" s="54"/>
       <c r="D50" s="54"/>
       <c r="E50" s="54"/>
       <c r="F50" s="54"/>
       <c r="G50" s="54" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H50" s="54"/>
       <c r="I50" s="54"/>
@@ -8157,14 +8145,14 @@
         <v>2</v>
       </c>
       <c r="B51" s="54" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C51" s="54"/>
       <c r="D51" s="54"/>
       <c r="E51" s="54"/>
       <c r="F51" s="54"/>
       <c r="G51" s="54" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H51" s="54"/>
       <c r="I51" s="54"/>
@@ -8180,14 +8168,14 @@
         <v>3</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C52" s="54"/>
       <c r="D52" s="54"/>
       <c r="E52" s="54"/>
       <c r="F52" s="54"/>
       <c r="G52" s="54" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H52" s="54"/>
       <c r="I52" s="54"/>
@@ -8203,14 +8191,14 @@
         <v>4</v>
       </c>
       <c r="B53" s="54" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C53" s="54"/>
       <c r="D53" s="54"/>
       <c r="E53" s="54"/>
       <c r="F53" s="54"/>
       <c r="G53" s="54" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H53" s="54"/>
       <c r="I53" s="54"/>
@@ -8223,26 +8211,14 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="G52:L52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="G50:L50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:F49"/>
-    <mergeCell ref="G48:L49"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="F4:K4"/>
     <mergeCell ref="A27:L28"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="A19:A20"/>
@@ -8254,14 +8230,26 @@
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="B19:F20"/>
     <mergeCell ref="G19:L20"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:F49"/>
+    <mergeCell ref="G48:L49"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="G51:L51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8271,7 +8259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C897490-27CA-B94E-89C9-9DC49B971AE2}">
   <dimension ref="A3:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -8285,21 +8273,21 @@
         <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="61" t="s">
-        <v>248</v>
-      </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="F3" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
       <c r="L3" s="46"/>
       <c r="M3" s="5"/>
     </row>
@@ -8315,14 +8303,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
+      <c r="F4" s="73" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
       <c r="L4" s="46"/>
       <c r="M4" s="5"/>
     </row>
@@ -8404,12 +8392,12 @@
       <c r="G9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="46"/>
       <c r="M9" s="5"/>
     </row>
@@ -8427,10 +8415,10 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="68"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
       <c r="L10" s="46"/>
       <c r="M10" s="5"/>
     </row>
@@ -8467,12 +8455,12 @@
       <c r="G12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="46"/>
       <c r="M12" s="5"/>
     </row>
@@ -8486,12 +8474,12 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="66" t="s">
-        <v>239</v>
-      </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
+      <c r="H13" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
       <c r="L13" s="46"/>
       <c r="M13" s="5"/>
     </row>
@@ -8529,20 +8517,20 @@
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="46"/>
       <c r="M16" s="5"/>
     </row>
@@ -8577,56 +8565,56 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60" t="s">
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>1</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
@@ -8642,14 +8630,14 @@
         <v>2</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H22" s="54"/>
       <c r="I22" s="54"/>
@@ -8662,22 +8650,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:F20"/>
-    <mergeCell ref="G19:L20"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:F20"/>
+    <mergeCell ref="G19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8687,7 +8675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB14FEB4-33E8-D841-8B65-9CED955CEC0D}">
   <dimension ref="A3:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
@@ -8701,21 +8689,21 @@
         <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="F3" s="72" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
       <c r="L3" s="41"/>
       <c r="M3" s="5"/>
     </row>
@@ -8731,14 +8719,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
+      <c r="F4" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
       <c r="L4" s="41"/>
       <c r="M4" s="5"/>
     </row>
@@ -8820,12 +8808,12 @@
       <c r="G9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="41"/>
       <c r="M9" s="5"/>
     </row>
@@ -8843,10 +8831,10 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="68"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
       <c r="L10" s="41"/>
       <c r="M10" s="5"/>
     </row>
@@ -8883,12 +8871,12 @@
       <c r="G12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="41"/>
       <c r="M12" s="5"/>
     </row>
@@ -8902,12 +8890,12 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="66" t="s">
-        <v>239</v>
-      </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
+      <c r="H13" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
       <c r="L13" s="41"/>
       <c r="M13" s="5"/>
     </row>
@@ -8945,20 +8933,20 @@
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="41"/>
       <c r="M16" s="5"/>
     </row>
@@ -8966,20 +8954,20 @@
       <c r="A17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57" t="s">
-        <v>245</v>
-      </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -9013,56 +9001,56 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60" t="s">
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>1</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H22" s="54"/>
       <c r="I22" s="54"/>
@@ -9078,14 +9066,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
       <c r="G23" s="54" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
@@ -9101,14 +9089,14 @@
         <v>4</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
       <c r="G24" s="54" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H24" s="54"/>
       <c r="I24" s="54"/>
@@ -9165,35 +9153,35 @@
       <c r="M27" s="41"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="82"/>
       <c r="M28" s="41"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="72"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="74"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="85"/>
       <c r="M29" s="41"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -9201,11 +9189,25 @@
         <v>14.15</v>
       </c>
       <c r="B33" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:L21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
     <mergeCell ref="A28:L29"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="G22:L22"/>
@@ -9213,20 +9215,6 @@
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:L21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9235,10 +9223,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4805ACE8-3721-304D-9C9A-16E244B30454}">
-  <dimension ref="A2:M51"/>
+  <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9248,21 +9236,21 @@
         <v>66</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="F2" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
       <c r="L2" s="34"/>
       <c r="M2" s="5"/>
     </row>
@@ -9278,14 +9266,14 @@
         <v>70</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="F3" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
       <c r="L3" s="34"/>
       <c r="M3" s="5"/>
     </row>
@@ -9367,12 +9355,12 @@
       <c r="G8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="76"/>
       <c r="L8" s="34"/>
       <c r="M8" s="5"/>
     </row>
@@ -9390,12 +9378,12 @@
       <c r="G9" s="20">
         <v>1</v>
       </c>
-      <c r="H9" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="68"/>
+      <c r="H9" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="79"/>
       <c r="L9" s="34"/>
       <c r="M9" s="5"/>
     </row>
@@ -9432,12 +9420,12 @@
       <c r="G11" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="76"/>
       <c r="L11" s="34"/>
       <c r="M11" s="5"/>
     </row>
@@ -9451,12 +9439,12 @@
       <c r="G12" s="20">
         <v>1</v>
       </c>
-      <c r="H12" s="66" t="s">
-        <v>233</v>
-      </c>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="68"/>
+      <c r="H12" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
       <c r="L12" s="34"/>
       <c r="M12" s="5"/>
     </row>
@@ -9494,20 +9482,20 @@
       <c r="A15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
       <c r="L15" s="34"/>
       <c r="M15" s="5"/>
     </row>
@@ -9542,56 +9530,56 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60" t="s">
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <v>1</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="54"/>
       <c r="E20" s="54"/>
       <c r="F20" s="54"/>
       <c r="G20" s="54" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
@@ -9607,14 +9595,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
@@ -9630,14 +9618,14 @@
         <v>3</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H22" s="54"/>
       <c r="I22" s="54"/>
@@ -9653,14 +9641,14 @@
         <v>4</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
       <c r="G23" s="54" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
@@ -9676,14 +9664,14 @@
         <v>5</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
       <c r="G24" s="54" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H24" s="54"/>
       <c r="I24" s="54"/>
@@ -9740,410 +9728,39 @@
       <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="82"/>
       <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="72"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="74"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="85"/>
       <c r="M29" s="34"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="5"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="5"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J37" s="37"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="20">
-        <v>1</v>
-      </c>
-      <c r="H40" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="23">
-        <v>1</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="5"/>
-    </row>
-    <row r="42" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="23">
-        <v>2</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H42" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="5"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="20">
-        <v>1</v>
-      </c>
-      <c r="H43" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="5"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="5"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="5"/>
-    </row>
-    <row r="46" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="5"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="5"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="5"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="60"/>
-      <c r="M50" s="60"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="22">
-        <v>1</v>
-      </c>
-      <c r="B51" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54" t="s">
-        <v>358</v>
-      </c>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="F33:K33"/>
+  <mergeCells count="23">
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="G20:L20"/>
@@ -10156,19 +9773,17 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="A28:L29"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:F50"/>
-    <mergeCell ref="G49:L50"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10199,14 +9814,14 @@
         <v>67</v>
       </c>
       <c r="E1" s="9"/>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -10220,14 +9835,14 @@
         <v>70</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -10261,12 +9876,12 @@
       <c r="G7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="76"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -10282,12 +9897,12 @@
       <c r="G8" s="20">
         <v>1</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="68"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="79"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -10315,12 +9930,12 @@
       <c r="G10" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="76"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -10328,12 +9943,12 @@
       <c r="G11" s="20">
         <v>1</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="68"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10349,20 +9964,20 @@
       <c r="A15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -10372,42 +9987,42 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60" t="s">
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
@@ -10471,34 +10086,34 @@
       <c r="M22" s="25"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="71"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="82"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="74"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="85"/>
     </row>
     <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
@@ -10511,14 +10126,14 @@
         <v>67</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10532,14 +10147,14 @@
         <v>70</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="62" t="s">
+      <c r="F30" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -10573,12 +10188,12 @@
       <c r="G35" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="63" t="s">
+      <c r="H35" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="65"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="76"/>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -10594,12 +10209,12 @@
       <c r="G36" s="20">
         <v>1</v>
       </c>
-      <c r="H36" s="66" t="s">
+      <c r="H36" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="68"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="79"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -10623,12 +10238,12 @@
       <c r="G38" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="63" t="s">
+      <c r="H38" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="65"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="76"/>
       <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10636,12 +10251,12 @@
       <c r="G39" s="20">
         <v>1</v>
       </c>
-      <c r="H39" s="66" t="s">
+      <c r="H39" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="68"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="79"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -10657,20 +10272,20 @@
       <c r="A43" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="57" t="s">
+      <c r="C43" s="61"/>
+      <c r="D43" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="59"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="64"/>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -10680,42 +10295,42 @@
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60" t="s">
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60" t="s">
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="22">
@@ -10764,34 +10379,34 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="71"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="82"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="72"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="74"/>
+      <c r="A54" s="83"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="85"/>
     </row>
     <row r="57" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
@@ -10804,14 +10419,14 @@
         <v>67</v>
       </c>
       <c r="E57" s="9"/>
-      <c r="F57" s="61" t="s">
+      <c r="F57" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
       <c r="M57" s="5"/>
     </row>
     <row r="58" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10825,14 +10440,14 @@
         <v>70</v>
       </c>
       <c r="E58" s="9"/>
-      <c r="F58" s="62" t="s">
+      <c r="F58" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="62"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -10866,12 +10481,12 @@
       <c r="G63" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H63" s="63" t="s">
+      <c r="H63" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I63" s="64"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="65"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="76"/>
       <c r="M63" s="5"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -10887,12 +10502,12 @@
       <c r="G64" s="20">
         <v>1</v>
       </c>
-      <c r="H64" s="66" t="s">
+      <c r="H64" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="68"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="78"/>
+      <c r="K64" s="79"/>
       <c r="M64" s="5"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -10920,12 +10535,12 @@
       <c r="G66" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H66" s="63" t="s">
+      <c r="H66" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="65"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="75"/>
+      <c r="K66" s="76"/>
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -10933,24 +10548,24 @@
       <c r="G67" s="20">
         <v>1</v>
       </c>
-      <c r="H67" s="66" t="s">
-        <v>333</v>
-      </c>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="68"/>
+      <c r="H67" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="79"/>
       <c r="M67" s="5"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G68" s="20">
         <v>2</v>
       </c>
-      <c r="H68" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="I68" s="67"/>
-      <c r="J68" s="67"/>
-      <c r="K68" s="68"/>
+      <c r="H68" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="I68" s="78"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="79"/>
       <c r="M68" s="5"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -10960,20 +10575,20 @@
       <c r="A70" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="56"/>
-      <c r="D70" s="57" t="s">
+      <c r="C70" s="61"/>
+      <c r="D70" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="59"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="64"/>
       <c r="M70" s="5"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -10983,56 +10598,56 @@
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="60" t="s">
+      <c r="A73" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="60" t="s">
+      <c r="B73" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60" t="s">
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="60"/>
-      <c r="L73" s="60"/>
-      <c r="M73" s="60" t="s">
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65"/>
+      <c r="M73" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="60"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="60"/>
-      <c r="L74" s="60"/>
-      <c r="M74" s="60"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="65"/>
+      <c r="L74" s="65"/>
+      <c r="M74" s="65"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="22">
         <v>1</v>
       </c>
       <c r="B75" s="54" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C75" s="54"/>
       <c r="D75" s="54"/>
       <c r="E75" s="54"/>
       <c r="F75" s="54"/>
       <c r="G75" s="54" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H75" s="54"/>
       <c r="I75" s="54"/>
@@ -11048,14 +10663,14 @@
         <v>2</v>
       </c>
       <c r="B76" s="54" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C76" s="54"/>
       <c r="D76" s="54"/>
       <c r="E76" s="54"/>
       <c r="F76" s="54"/>
       <c r="G76" s="54" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H76" s="54"/>
       <c r="I76" s="54"/>
@@ -11068,30 +10683,22 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="A25:L26"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="G76:L76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:F74"/>
+    <mergeCell ref="G73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="G75:L75"/>
+    <mergeCell ref="F58:K58"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:K70"/>
+    <mergeCell ref="H68:K68"/>
     <mergeCell ref="F57:K57"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:K43"/>
@@ -11103,22 +10710,30 @@
     <mergeCell ref="B49:F49"/>
     <mergeCell ref="G49:L49"/>
     <mergeCell ref="A53:L54"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="G75:L75"/>
-    <mergeCell ref="F58:K58"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:K70"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="G76:L76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:F74"/>
-    <mergeCell ref="G73:L74"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="A25:L26"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11136,7 +10751,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
+++ b/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berkozdoruk/Desktop/GitHub/Elixir-Documentation/Test Reports and Test Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1183DCB6-E7F0-4945-B9C7-7AA0CE920AD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0708CF-27B7-3043-B29B-5191CE5EC0F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14080" firstSheet="1" activeTab="6" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14080" firstSheet="1" activeTab="1" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -1593,17 +1593,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1620,24 +1609,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1682,6 +1653,35 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="%20 - Vurgu1" xfId="4" builtinId="30"/>
@@ -2470,7 +2470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D5A933-5288-C94E-BF55-FF09BD47810B}">
   <dimension ref="A1:M236"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
       <selection activeCell="M206" sqref="M206"/>
     </sheetView>
   </sheetViews>
@@ -2490,14 +2490,14 @@
         <v>67</v>
       </c>
       <c r="E1" s="9"/>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2511,14 +2511,14 @@
         <v>70</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2552,12 +2552,12 @@
       <c r="G7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2573,12 +2573,12 @@
       <c r="G8" s="20">
         <v>1</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="79"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="68"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -2606,12 +2606,12 @@
       <c r="G10" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="76"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -2619,12 +2619,12 @@
       <c r="G11" s="20">
         <v>1</v>
       </c>
-      <c r="H11" s="77" t="s">
+      <c r="H11" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="79"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -2640,20 +2640,20 @@
       <c r="A15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -2663,42 +2663,42 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65" t="s">
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
@@ -2773,13 +2773,13 @@
       <c r="A23" s="22">
         <v>4</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="75" t="s">
         <v>299</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
       <c r="G23" s="54" t="s">
         <v>337</v>
       </c>
@@ -2796,21 +2796,21 @@
       <c r="A24" s="22">
         <v>5</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="57" t="s">
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="59"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="77"/>
       <c r="M24" s="23" t="s">
         <v>85</v>
       </c>
@@ -2819,21 +2819,21 @@
       <c r="A25" s="22">
         <v>6</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="57" t="s">
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="59"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="77"/>
       <c r="M25" s="23" t="s">
         <v>85</v>
       </c>
@@ -2842,21 +2842,21 @@
       <c r="A26" s="22">
         <v>7</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="57" t="s">
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="77"/>
       <c r="M26" s="23" t="s">
         <v>85</v>
       </c>
@@ -2865,13 +2865,13 @@
       <c r="A27" s="22">
         <v>8</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
       <c r="G27" s="54" t="s">
         <v>338</v>
       </c>
@@ -2888,21 +2888,21 @@
       <c r="A28" s="22">
         <v>9</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="57" t="s">
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="59"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="77"/>
       <c r="M28" s="30" t="s">
         <v>85</v>
       </c>
@@ -2911,13 +2911,13 @@
       <c r="A29" s="22">
         <v>10</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="59"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="54" t="s">
         <v>339</v>
       </c>
@@ -2934,13 +2934,13 @@
       <c r="A30" s="22">
         <v>11</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="59"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="77"/>
       <c r="G30" s="54" t="s">
         <v>339</v>
       </c>
@@ -2957,21 +2957,21 @@
       <c r="A31" s="22">
         <v>12</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="57" t="s">
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
       <c r="M31" s="30" t="s">
         <v>85</v>
       </c>
@@ -2980,21 +2980,21 @@
       <c r="A32" s="22">
         <v>13</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="57" t="s">
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="59"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
       <c r="M32" s="30" t="s">
         <v>85</v>
       </c>
@@ -3003,54 +3003,54 @@
       <c r="A33" s="22">
         <v>14</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="57" t="s">
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="59"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="77"/>
       <c r="M33" s="30" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="82"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="71"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="83"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="85"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="74"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
@@ -3063,14 +3063,14 @@
         <v>67</v>
       </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="72" t="s">
+      <c r="F41" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -3084,14 +3084,14 @@
         <v>70</v>
       </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="73" t="s">
+      <c r="F42" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -3125,12 +3125,12 @@
       <c r="G47" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H47" s="74" t="s">
+      <c r="H47" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="76"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="65"/>
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -3146,12 +3146,12 @@
       <c r="G48" s="20">
         <v>1</v>
       </c>
-      <c r="H48" s="77" t="s">
+      <c r="H48" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="79"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="68"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -3179,12 +3179,12 @@
       <c r="G50" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="74" t="s">
+      <c r="H50" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="76"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="65"/>
       <c r="M50" s="5"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -3192,12 +3192,12 @@
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="77" t="s">
+      <c r="H51" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="79"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="68"/>
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -3213,20 +3213,20 @@
       <c r="A55" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="61"/>
-      <c r="D55" s="62" t="s">
+      <c r="C55" s="56"/>
+      <c r="D55" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="64"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="59"/>
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -3236,42 +3236,42 @@
       <c r="M57" s="5"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="65" t="s">
+      <c r="B58" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65" t="s">
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
-      <c r="M58" s="65" t="s">
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="65"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
-      <c r="M59" s="65"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="60"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="22">
@@ -3389,34 +3389,34 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="80" t="s">
+      <c r="A68" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="81"/>
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="81"/>
-      <c r="I68" s="81"/>
-      <c r="J68" s="81"/>
-      <c r="K68" s="81"/>
-      <c r="L68" s="82"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="70"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="71"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="83"/>
-      <c r="B69" s="84"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="84"/>
-      <c r="J69" s="84"/>
-      <c r="K69" s="84"/>
-      <c r="L69" s="85"/>
+      <c r="A69" s="72"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="73"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="74"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
@@ -3429,14 +3429,14 @@
         <v>67</v>
       </c>
       <c r="E72" s="9"/>
-      <c r="F72" s="72" t="s">
+      <c r="F72" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="72"/>
-      <c r="J72" s="72"/>
-      <c r="K72" s="72"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -3450,14 +3450,14 @@
         <v>70</v>
       </c>
       <c r="E73" s="9"/>
-      <c r="F73" s="73" t="s">
+      <c r="F73" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="G73" s="73"/>
-      <c r="H73" s="73"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="73"/>
-      <c r="K73" s="73"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="62"/>
       <c r="M73" s="5"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -3491,12 +3491,12 @@
       <c r="G78" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H78" s="74" t="s">
+      <c r="H78" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I78" s="75"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="76"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="64"/>
+      <c r="K78" s="65"/>
       <c r="M78" s="5"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -3512,12 +3512,12 @@
       <c r="G79" s="20">
         <v>1</v>
       </c>
-      <c r="H79" s="77" t="s">
+      <c r="H79" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="I79" s="78"/>
-      <c r="J79" s="78"/>
-      <c r="K79" s="79"/>
+      <c r="I79" s="67"/>
+      <c r="J79" s="67"/>
+      <c r="K79" s="68"/>
       <c r="M79" s="5"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -3545,12 +3545,12 @@
       <c r="G81" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H81" s="74" t="s">
+      <c r="H81" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I81" s="75"/>
-      <c r="J81" s="75"/>
-      <c r="K81" s="76"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="64"/>
+      <c r="K81" s="65"/>
       <c r="M81" s="5"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -3558,12 +3558,12 @@
       <c r="G82" s="20">
         <v>1</v>
       </c>
-      <c r="H82" s="77" t="s">
+      <c r="H82" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="I82" s="78"/>
-      <c r="J82" s="78"/>
-      <c r="K82" s="79"/>
+      <c r="I82" s="67"/>
+      <c r="J82" s="67"/>
+      <c r="K82" s="68"/>
       <c r="M82" s="5"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -3579,100 +3579,100 @@
       <c r="A86" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="60" t="s">
+      <c r="B86" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="61"/>
-      <c r="D86" s="62" t="s">
+      <c r="C86" s="56"/>
+      <c r="D86" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="63"/>
-      <c r="K86" s="64"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="58"/>
+      <c r="J86" s="58"/>
+      <c r="K86" s="59"/>
       <c r="M86" s="5"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="61"/>
-      <c r="D87" s="62" t="s">
+      <c r="C87" s="56"/>
+      <c r="D87" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="E87" s="63"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="63"/>
-      <c r="H87" s="63"/>
-      <c r="I87" s="63"/>
-      <c r="J87" s="63"/>
-      <c r="K87" s="64"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="58"/>
+      <c r="J87" s="58"/>
+      <c r="K87" s="59"/>
       <c r="M87" s="5"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="60" t="s">
+      <c r="B88" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="61"/>
-      <c r="D88" s="62" t="s">
+      <c r="C88" s="56"/>
+      <c r="D88" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="63"/>
-      <c r="K88" s="64"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="58"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="59"/>
       <c r="M88" s="5"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="60" t="s">
+      <c r="B89" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="61"/>
-      <c r="D89" s="62" t="s">
+      <c r="C89" s="56"/>
+      <c r="D89" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="E89" s="63"/>
-      <c r="F89" s="63"/>
-      <c r="G89" s="63"/>
-      <c r="H89" s="63"/>
-      <c r="I89" s="63"/>
-      <c r="J89" s="63"/>
-      <c r="K89" s="64"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="58"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="59"/>
       <c r="M89" s="5"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="60" t="s">
+      <c r="B90" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="61"/>
-      <c r="D90" s="62" t="s">
+      <c r="C90" s="56"/>
+      <c r="D90" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="E90" s="63"/>
-      <c r="F90" s="63"/>
-      <c r="G90" s="63"/>
-      <c r="H90" s="63"/>
-      <c r="I90" s="63"/>
-      <c r="J90" s="63"/>
-      <c r="K90" s="64"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="58"/>
+      <c r="J90" s="58"/>
+      <c r="K90" s="59"/>
       <c r="M90" s="5"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -3693,42 +3693,42 @@
       <c r="M92" s="5"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="65" t="s">
+      <c r="A93" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B93" s="65" t="s">
+      <c r="B93" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="65"/>
-      <c r="D93" s="65"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="65" t="s">
+      <c r="C93" s="60"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H93" s="65"/>
-      <c r="I93" s="65"/>
-      <c r="J93" s="65"/>
-      <c r="K93" s="65"/>
-      <c r="L93" s="65"/>
-      <c r="M93" s="65" t="s">
+      <c r="H93" s="60"/>
+      <c r="I93" s="60"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="60"/>
+      <c r="L93" s="60"/>
+      <c r="M93" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="65"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="65"/>
-      <c r="H94" s="65"/>
-      <c r="I94" s="65"/>
-      <c r="J94" s="65"/>
-      <c r="K94" s="65"/>
-      <c r="L94" s="65"/>
-      <c r="M94" s="65"/>
+      <c r="A94" s="60"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="60"/>
+      <c r="J94" s="60"/>
+      <c r="K94" s="60"/>
+      <c r="L94" s="60"/>
+      <c r="M94" s="60"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="22">
@@ -3984,34 +3984,34 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109" s="80" t="s">
+      <c r="A109" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B109" s="81"/>
-      <c r="C109" s="81"/>
-      <c r="D109" s="81"/>
-      <c r="E109" s="81"/>
-      <c r="F109" s="81"/>
-      <c r="G109" s="81"/>
-      <c r="H109" s="81"/>
-      <c r="I109" s="81"/>
-      <c r="J109" s="81"/>
-      <c r="K109" s="81"/>
-      <c r="L109" s="82"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="70"/>
+      <c r="H109" s="70"/>
+      <c r="I109" s="70"/>
+      <c r="J109" s="70"/>
+      <c r="K109" s="70"/>
+      <c r="L109" s="71"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" s="83"/>
-      <c r="B110" s="84"/>
-      <c r="C110" s="84"/>
-      <c r="D110" s="84"/>
-      <c r="E110" s="84"/>
-      <c r="F110" s="84"/>
-      <c r="G110" s="84"/>
-      <c r="H110" s="84"/>
-      <c r="I110" s="84"/>
-      <c r="J110" s="84"/>
-      <c r="K110" s="84"/>
-      <c r="L110" s="85"/>
+      <c r="A110" s="72"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="73"/>
+      <c r="D110" s="73"/>
+      <c r="E110" s="73"/>
+      <c r="F110" s="73"/>
+      <c r="G110" s="73"/>
+      <c r="H110" s="73"/>
+      <c r="I110" s="73"/>
+      <c r="J110" s="73"/>
+      <c r="K110" s="73"/>
+      <c r="L110" s="74"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
@@ -4024,14 +4024,14 @@
         <v>67</v>
       </c>
       <c r="E113" s="9"/>
-      <c r="F113" s="72" t="s">
+      <c r="F113" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="G113" s="72"/>
-      <c r="H113" s="72"/>
-      <c r="I113" s="72"/>
-      <c r="J113" s="72"/>
-      <c r="K113" s="72"/>
+      <c r="G113" s="61"/>
+      <c r="H113" s="61"/>
+      <c r="I113" s="61"/>
+      <c r="J113" s="61"/>
+      <c r="K113" s="61"/>
       <c r="M113" s="5"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -4045,14 +4045,14 @@
         <v>70</v>
       </c>
       <c r="E114" s="9"/>
-      <c r="F114" s="73" t="s">
+      <c r="F114" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="G114" s="73"/>
-      <c r="H114" s="73"/>
-      <c r="I114" s="73"/>
-      <c r="J114" s="73"/>
-      <c r="K114" s="73"/>
+      <c r="G114" s="62"/>
+      <c r="H114" s="62"/>
+      <c r="I114" s="62"/>
+      <c r="J114" s="62"/>
+      <c r="K114" s="62"/>
       <c r="M114" s="5"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -4086,12 +4086,12 @@
       <c r="G119" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H119" s="74" t="s">
+      <c r="H119" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I119" s="75"/>
-      <c r="J119" s="75"/>
-      <c r="K119" s="76"/>
+      <c r="I119" s="64"/>
+      <c r="J119" s="64"/>
+      <c r="K119" s="65"/>
       <c r="M119" s="5"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -4107,12 +4107,12 @@
       <c r="G120" s="20">
         <v>1</v>
       </c>
-      <c r="H120" s="77" t="s">
+      <c r="H120" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="I120" s="78"/>
-      <c r="J120" s="78"/>
-      <c r="K120" s="79"/>
+      <c r="I120" s="67"/>
+      <c r="J120" s="67"/>
+      <c r="K120" s="68"/>
       <c r="M120" s="5"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -4140,12 +4140,12 @@
       <c r="G122" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H122" s="74" t="s">
+      <c r="H122" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I122" s="75"/>
-      <c r="J122" s="75"/>
-      <c r="K122" s="76"/>
+      <c r="I122" s="64"/>
+      <c r="J122" s="64"/>
+      <c r="K122" s="65"/>
       <c r="M122" s="5"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -4153,24 +4153,24 @@
       <c r="G123" s="20">
         <v>1</v>
       </c>
-      <c r="H123" s="77" t="s">
+      <c r="H123" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="I123" s="78"/>
-      <c r="J123" s="78"/>
-      <c r="K123" s="79"/>
+      <c r="I123" s="67"/>
+      <c r="J123" s="67"/>
+      <c r="K123" s="68"/>
       <c r="M123" s="5"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G124" s="20">
         <v>2</v>
       </c>
-      <c r="H124" s="77" t="s">
+      <c r="H124" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="I124" s="78"/>
-      <c r="J124" s="78"/>
-      <c r="K124" s="79"/>
+      <c r="I124" s="67"/>
+      <c r="J124" s="67"/>
+      <c r="K124" s="68"/>
       <c r="M124" s="5"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -4183,20 +4183,20 @@
       <c r="A127" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B127" s="60" t="s">
+      <c r="B127" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C127" s="61"/>
-      <c r="D127" s="62" t="s">
+      <c r="C127" s="56"/>
+      <c r="D127" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="E127" s="63"/>
-      <c r="F127" s="63"/>
-      <c r="G127" s="63"/>
-      <c r="H127" s="63"/>
-      <c r="I127" s="63"/>
-      <c r="J127" s="63"/>
-      <c r="K127" s="64"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="58"/>
+      <c r="G127" s="58"/>
+      <c r="H127" s="58"/>
+      <c r="I127" s="58"/>
+      <c r="J127" s="58"/>
+      <c r="K127" s="59"/>
       <c r="M127" s="5"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -4217,42 +4217,42 @@
       <c r="M129" s="5"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130" s="65" t="s">
+      <c r="A130" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B130" s="65" t="s">
+      <c r="B130" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C130" s="65"/>
-      <c r="D130" s="65"/>
-      <c r="E130" s="65"/>
-      <c r="F130" s="65"/>
-      <c r="G130" s="65" t="s">
+      <c r="C130" s="60"/>
+      <c r="D130" s="60"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="60"/>
+      <c r="G130" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H130" s="65"/>
-      <c r="I130" s="65"/>
-      <c r="J130" s="65"/>
-      <c r="K130" s="65"/>
-      <c r="L130" s="65"/>
-      <c r="M130" s="65" t="s">
+      <c r="H130" s="60"/>
+      <c r="I130" s="60"/>
+      <c r="J130" s="60"/>
+      <c r="K130" s="60"/>
+      <c r="L130" s="60"/>
+      <c r="M130" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A131" s="65"/>
-      <c r="B131" s="65"/>
-      <c r="C131" s="65"/>
-      <c r="D131" s="65"/>
-      <c r="E131" s="65"/>
-      <c r="F131" s="65"/>
-      <c r="G131" s="65"/>
-      <c r="H131" s="65"/>
-      <c r="I131" s="65"/>
-      <c r="J131" s="65"/>
-      <c r="K131" s="65"/>
-      <c r="L131" s="65"/>
-      <c r="M131" s="65"/>
+      <c r="A131" s="60"/>
+      <c r="B131" s="60"/>
+      <c r="C131" s="60"/>
+      <c r="D131" s="60"/>
+      <c r="E131" s="60"/>
+      <c r="F131" s="60"/>
+      <c r="G131" s="60"/>
+      <c r="H131" s="60"/>
+      <c r="I131" s="60"/>
+      <c r="J131" s="60"/>
+      <c r="K131" s="60"/>
+      <c r="L131" s="60"/>
+      <c r="M131" s="60"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="22">
@@ -4465,13 +4465,13 @@
       <c r="A141" s="22">
         <v>10</v>
       </c>
-      <c r="B141" s="56" t="s">
+      <c r="B141" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C141" s="56"/>
-      <c r="D141" s="56"/>
-      <c r="E141" s="56"/>
-      <c r="F141" s="56"/>
+      <c r="C141" s="78"/>
+      <c r="D141" s="78"/>
+      <c r="E141" s="78"/>
+      <c r="F141" s="78"/>
       <c r="G141" s="54" t="s">
         <v>336</v>
       </c>
@@ -4488,13 +4488,13 @@
       <c r="A142" s="22">
         <v>11</v>
       </c>
-      <c r="B142" s="56" t="s">
+      <c r="B142" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="C142" s="56"/>
-      <c r="D142" s="56"/>
-      <c r="E142" s="56"/>
-      <c r="F142" s="56"/>
+      <c r="C142" s="78"/>
+      <c r="D142" s="78"/>
+      <c r="E142" s="78"/>
+      <c r="F142" s="78"/>
       <c r="G142" s="54" t="s">
         <v>336</v>
       </c>
@@ -4511,14 +4511,14 @@
       <c r="A143" s="22">
         <v>12</v>
       </c>
-      <c r="B143" s="56" t="s">
+      <c r="B143" s="78" t="s">
         <v>305</v>
       </c>
-      <c r="C143" s="56"/>
-      <c r="D143" s="56"/>
-      <c r="E143" s="56"/>
-      <c r="F143" s="56"/>
-      <c r="G143" s="59" t="s">
+      <c r="C143" s="78"/>
+      <c r="D143" s="78"/>
+      <c r="E143" s="78"/>
+      <c r="F143" s="78"/>
+      <c r="G143" s="77" t="s">
         <v>183</v>
       </c>
       <c r="H143" s="54"/>
@@ -4534,13 +4534,13 @@
       <c r="A144" s="22">
         <v>10</v>
       </c>
-      <c r="B144" s="56" t="s">
+      <c r="B144" s="78" t="s">
         <v>307</v>
       </c>
-      <c r="C144" s="56"/>
-      <c r="D144" s="56"/>
-      <c r="E144" s="56"/>
-      <c r="F144" s="56"/>
+      <c r="C144" s="78"/>
+      <c r="D144" s="78"/>
+      <c r="E144" s="78"/>
+      <c r="F144" s="78"/>
       <c r="G144" s="54" t="s">
         <v>352</v>
       </c>
@@ -4557,13 +4557,13 @@
       <c r="A145" s="22">
         <v>11</v>
       </c>
-      <c r="B145" s="56" t="s">
+      <c r="B145" s="78" t="s">
         <v>306</v>
       </c>
-      <c r="C145" s="56"/>
-      <c r="D145" s="56"/>
-      <c r="E145" s="56"/>
-      <c r="F145" s="56"/>
+      <c r="C145" s="78"/>
+      <c r="D145" s="78"/>
+      <c r="E145" s="78"/>
+      <c r="F145" s="78"/>
       <c r="G145" s="54" t="s">
         <v>352</v>
       </c>
@@ -4587,7 +4587,7 @@
       <c r="D146" s="54"/>
       <c r="E146" s="54"/>
       <c r="F146" s="54"/>
-      <c r="G146" s="59" t="s">
+      <c r="G146" s="77" t="s">
         <v>183</v>
       </c>
       <c r="H146" s="54"/>
@@ -4603,13 +4603,13 @@
       <c r="A147" s="22">
         <v>13</v>
       </c>
-      <c r="B147" s="56" t="s">
+      <c r="B147" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="C147" s="56"/>
-      <c r="D147" s="56"/>
-      <c r="E147" s="56"/>
-      <c r="F147" s="56"/>
+      <c r="C147" s="78"/>
+      <c r="D147" s="78"/>
+      <c r="E147" s="78"/>
+      <c r="F147" s="78"/>
       <c r="G147" s="54" t="s">
         <v>353</v>
       </c>
@@ -4626,21 +4626,21 @@
       <c r="A148" s="22">
         <v>14</v>
       </c>
-      <c r="B148" s="56" t="s">
+      <c r="B148" s="78" t="s">
         <v>324</v>
       </c>
-      <c r="C148" s="56"/>
-      <c r="D148" s="56"/>
-      <c r="E148" s="56"/>
-      <c r="F148" s="56"/>
-      <c r="G148" s="57" t="s">
+      <c r="C148" s="78"/>
+      <c r="D148" s="78"/>
+      <c r="E148" s="78"/>
+      <c r="F148" s="78"/>
+      <c r="G148" s="75" t="s">
         <v>353</v>
       </c>
-      <c r="H148" s="58"/>
-      <c r="I148" s="58"/>
-      <c r="J148" s="58"/>
-      <c r="K148" s="58"/>
-      <c r="L148" s="59"/>
+      <c r="H148" s="76"/>
+      <c r="I148" s="76"/>
+      <c r="J148" s="76"/>
+      <c r="K148" s="76"/>
+      <c r="L148" s="77"/>
       <c r="M148" s="23" t="s">
         <v>85</v>
       </c>
@@ -4649,14 +4649,14 @@
       <c r="A149" s="22">
         <v>15</v>
       </c>
-      <c r="B149" s="56" t="s">
+      <c r="B149" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="C149" s="56"/>
-      <c r="D149" s="56"/>
-      <c r="E149" s="56"/>
-      <c r="F149" s="56"/>
-      <c r="G149" s="59" t="s">
+      <c r="C149" s="78"/>
+      <c r="D149" s="78"/>
+      <c r="E149" s="78"/>
+      <c r="F149" s="78"/>
+      <c r="G149" s="77" t="s">
         <v>183</v>
       </c>
       <c r="H149" s="54"/>
@@ -4672,21 +4672,21 @@
       <c r="A150" s="22">
         <v>16</v>
       </c>
-      <c r="B150" s="56" t="s">
+      <c r="B150" s="78" t="s">
         <v>322</v>
       </c>
-      <c r="C150" s="56"/>
-      <c r="D150" s="56"/>
-      <c r="E150" s="56"/>
-      <c r="F150" s="56"/>
-      <c r="G150" s="57" t="s">
+      <c r="C150" s="78"/>
+      <c r="D150" s="78"/>
+      <c r="E150" s="78"/>
+      <c r="F150" s="78"/>
+      <c r="G150" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="H150" s="58"/>
-      <c r="I150" s="58"/>
-      <c r="J150" s="58"/>
-      <c r="K150" s="58"/>
-      <c r="L150" s="59"/>
+      <c r="H150" s="76"/>
+      <c r="I150" s="76"/>
+      <c r="J150" s="76"/>
+      <c r="K150" s="76"/>
+      <c r="L150" s="77"/>
       <c r="M150" s="23" t="s">
         <v>85</v>
       </c>
@@ -4695,21 +4695,21 @@
       <c r="A151" s="22">
         <v>17</v>
       </c>
-      <c r="B151" s="56" t="s">
+      <c r="B151" s="78" t="s">
         <v>323</v>
       </c>
-      <c r="C151" s="56"/>
-      <c r="D151" s="56"/>
-      <c r="E151" s="56"/>
-      <c r="F151" s="56"/>
-      <c r="G151" s="57" t="s">
+      <c r="C151" s="78"/>
+      <c r="D151" s="78"/>
+      <c r="E151" s="78"/>
+      <c r="F151" s="78"/>
+      <c r="G151" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="H151" s="58"/>
-      <c r="I151" s="58"/>
-      <c r="J151" s="58"/>
-      <c r="K151" s="58"/>
-      <c r="L151" s="59"/>
+      <c r="H151" s="76"/>
+      <c r="I151" s="76"/>
+      <c r="J151" s="76"/>
+      <c r="K151" s="76"/>
+      <c r="L151" s="77"/>
       <c r="M151" s="23" t="s">
         <v>85</v>
       </c>
@@ -4718,14 +4718,14 @@
       <c r="A152" s="22">
         <v>18</v>
       </c>
-      <c r="B152" s="56" t="s">
+      <c r="B152" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C152" s="56"/>
-      <c r="D152" s="56"/>
-      <c r="E152" s="56"/>
-      <c r="F152" s="56"/>
-      <c r="G152" s="59" t="s">
+      <c r="C152" s="78"/>
+      <c r="D152" s="78"/>
+      <c r="E152" s="78"/>
+      <c r="F152" s="78"/>
+      <c r="G152" s="77" t="s">
         <v>183</v>
       </c>
       <c r="H152" s="54"/>
@@ -4807,34 +4807,34 @@
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A158" s="80" t="s">
+      <c r="A158" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B158" s="81"/>
-      <c r="C158" s="81"/>
-      <c r="D158" s="81"/>
-      <c r="E158" s="81"/>
-      <c r="F158" s="81"/>
-      <c r="G158" s="81"/>
-      <c r="H158" s="81"/>
-      <c r="I158" s="81"/>
-      <c r="J158" s="81"/>
-      <c r="K158" s="81"/>
-      <c r="L158" s="82"/>
+      <c r="B158" s="70"/>
+      <c r="C158" s="70"/>
+      <c r="D158" s="70"/>
+      <c r="E158" s="70"/>
+      <c r="F158" s="70"/>
+      <c r="G158" s="70"/>
+      <c r="H158" s="70"/>
+      <c r="I158" s="70"/>
+      <c r="J158" s="70"/>
+      <c r="K158" s="70"/>
+      <c r="L158" s="71"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A159" s="83"/>
-      <c r="B159" s="84"/>
-      <c r="C159" s="84"/>
-      <c r="D159" s="84"/>
-      <c r="E159" s="84"/>
-      <c r="F159" s="84"/>
-      <c r="G159" s="84"/>
-      <c r="H159" s="84"/>
-      <c r="I159" s="84"/>
-      <c r="J159" s="84"/>
-      <c r="K159" s="84"/>
-      <c r="L159" s="85"/>
+      <c r="A159" s="72"/>
+      <c r="B159" s="73"/>
+      <c r="C159" s="73"/>
+      <c r="D159" s="73"/>
+      <c r="E159" s="73"/>
+      <c r="F159" s="73"/>
+      <c r="G159" s="73"/>
+      <c r="H159" s="73"/>
+      <c r="I159" s="73"/>
+      <c r="J159" s="73"/>
+      <c r="K159" s="73"/>
+      <c r="L159" s="74"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
@@ -4847,14 +4847,14 @@
         <v>67</v>
       </c>
       <c r="E162" s="9"/>
-      <c r="F162" s="72" t="s">
+      <c r="F162" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="G162" s="72"/>
-      <c r="H162" s="72"/>
-      <c r="I162" s="72"/>
-      <c r="J162" s="72"/>
-      <c r="K162" s="72"/>
+      <c r="G162" s="61"/>
+      <c r="H162" s="61"/>
+      <c r="I162" s="61"/>
+      <c r="J162" s="61"/>
+      <c r="K162" s="61"/>
       <c r="M162" s="5"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
@@ -4868,14 +4868,14 @@
         <v>70</v>
       </c>
       <c r="E163" s="9"/>
-      <c r="F163" s="73" t="s">
+      <c r="F163" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="G163" s="73"/>
-      <c r="H163" s="73"/>
-      <c r="I163" s="73"/>
-      <c r="J163" s="73"/>
-      <c r="K163" s="73"/>
+      <c r="G163" s="62"/>
+      <c r="H163" s="62"/>
+      <c r="I163" s="62"/>
+      <c r="J163" s="62"/>
+      <c r="K163" s="62"/>
       <c r="M163" s="5"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
@@ -4909,12 +4909,12 @@
       <c r="G168" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H168" s="74" t="s">
+      <c r="H168" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I168" s="75"/>
-      <c r="J168" s="75"/>
-      <c r="K168" s="76"/>
+      <c r="I168" s="64"/>
+      <c r="J168" s="64"/>
+      <c r="K168" s="65"/>
       <c r="M168" s="5"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
@@ -4930,12 +4930,12 @@
       <c r="G169" s="20">
         <v>1</v>
       </c>
-      <c r="H169" s="77" t="s">
+      <c r="H169" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="I169" s="78"/>
-      <c r="J169" s="78"/>
-      <c r="K169" s="79"/>
+      <c r="I169" s="67"/>
+      <c r="J169" s="67"/>
+      <c r="K169" s="68"/>
       <c r="M169" s="5"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
@@ -4963,12 +4963,12 @@
       <c r="G171" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H171" s="74" t="s">
+      <c r="H171" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I171" s="75"/>
-      <c r="J171" s="75"/>
-      <c r="K171" s="76"/>
+      <c r="I171" s="64"/>
+      <c r="J171" s="64"/>
+      <c r="K171" s="65"/>
       <c r="M171" s="5"/>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
@@ -4976,24 +4976,24 @@
       <c r="G172" s="20">
         <v>1</v>
       </c>
-      <c r="H172" s="77" t="s">
+      <c r="H172" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="I172" s="78"/>
-      <c r="J172" s="78"/>
-      <c r="K172" s="79"/>
+      <c r="I172" s="67"/>
+      <c r="J172" s="67"/>
+      <c r="K172" s="68"/>
       <c r="M172" s="5"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G173" s="20">
         <v>2</v>
       </c>
-      <c r="H173" s="77" t="s">
+      <c r="H173" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="I173" s="78"/>
-      <c r="J173" s="78"/>
-      <c r="K173" s="79"/>
+      <c r="I173" s="67"/>
+      <c r="J173" s="67"/>
+      <c r="K173" s="68"/>
       <c r="M173" s="5"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -5006,40 +5006,40 @@
       <c r="A176" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B176" s="60" t="s">
+      <c r="B176" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C176" s="61"/>
-      <c r="D176" s="62" t="s">
+      <c r="C176" s="56"/>
+      <c r="D176" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="E176" s="63"/>
-      <c r="F176" s="63"/>
-      <c r="G176" s="63"/>
-      <c r="H176" s="63"/>
-      <c r="I176" s="63"/>
-      <c r="J176" s="63"/>
-      <c r="K176" s="64"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="58"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="58"/>
+      <c r="J176" s="58"/>
+      <c r="K176" s="59"/>
       <c r="M176" s="5"/>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B177" s="60" t="s">
+      <c r="B177" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C177" s="61"/>
-      <c r="D177" s="62" t="s">
+      <c r="C177" s="56"/>
+      <c r="D177" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="E177" s="63"/>
-      <c r="F177" s="63"/>
-      <c r="G177" s="63"/>
-      <c r="H177" s="63"/>
-      <c r="I177" s="63"/>
-      <c r="J177" s="63"/>
-      <c r="K177" s="64"/>
+      <c r="E177" s="58"/>
+      <c r="F177" s="58"/>
+      <c r="G177" s="58"/>
+      <c r="H177" s="58"/>
+      <c r="I177" s="58"/>
+      <c r="J177" s="58"/>
+      <c r="K177" s="59"/>
       <c r="M177" s="5"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
@@ -5060,42 +5060,42 @@
       <c r="M179" s="5"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A180" s="65" t="s">
+      <c r="A180" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B180" s="65" t="s">
+      <c r="B180" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C180" s="65"/>
-      <c r="D180" s="65"/>
-      <c r="E180" s="65"/>
-      <c r="F180" s="65"/>
-      <c r="G180" s="65" t="s">
+      <c r="C180" s="60"/>
+      <c r="D180" s="60"/>
+      <c r="E180" s="60"/>
+      <c r="F180" s="60"/>
+      <c r="G180" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H180" s="65"/>
-      <c r="I180" s="65"/>
-      <c r="J180" s="65"/>
-      <c r="K180" s="65"/>
-      <c r="L180" s="65"/>
-      <c r="M180" s="65" t="s">
+      <c r="H180" s="60"/>
+      <c r="I180" s="60"/>
+      <c r="J180" s="60"/>
+      <c r="K180" s="60"/>
+      <c r="L180" s="60"/>
+      <c r="M180" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A181" s="65"/>
-      <c r="B181" s="65"/>
-      <c r="C181" s="65"/>
-      <c r="D181" s="65"/>
-      <c r="E181" s="65"/>
-      <c r="F181" s="65"/>
-      <c r="G181" s="65"/>
-      <c r="H181" s="65"/>
-      <c r="I181" s="65"/>
-      <c r="J181" s="65"/>
-      <c r="K181" s="65"/>
-      <c r="L181" s="65"/>
-      <c r="M181" s="65"/>
+      <c r="A181" s="60"/>
+      <c r="B181" s="60"/>
+      <c r="C181" s="60"/>
+      <c r="D181" s="60"/>
+      <c r="E181" s="60"/>
+      <c r="F181" s="60"/>
+      <c r="G181" s="60"/>
+      <c r="H181" s="60"/>
+      <c r="I181" s="60"/>
+      <c r="J181" s="60"/>
+      <c r="K181" s="60"/>
+      <c r="L181" s="60"/>
+      <c r="M181" s="60"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="22">
@@ -5213,34 +5213,34 @@
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A190" s="80" t="s">
+      <c r="A190" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B190" s="81"/>
-      <c r="C190" s="81"/>
-      <c r="D190" s="81"/>
-      <c r="E190" s="81"/>
-      <c r="F190" s="81"/>
-      <c r="G190" s="81"/>
-      <c r="H190" s="81"/>
-      <c r="I190" s="81"/>
-      <c r="J190" s="81"/>
-      <c r="K190" s="81"/>
-      <c r="L190" s="82"/>
+      <c r="B190" s="70"/>
+      <c r="C190" s="70"/>
+      <c r="D190" s="70"/>
+      <c r="E190" s="70"/>
+      <c r="F190" s="70"/>
+      <c r="G190" s="70"/>
+      <c r="H190" s="70"/>
+      <c r="I190" s="70"/>
+      <c r="J190" s="70"/>
+      <c r="K190" s="70"/>
+      <c r="L190" s="71"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A191" s="83"/>
-      <c r="B191" s="84"/>
-      <c r="C191" s="84"/>
-      <c r="D191" s="84"/>
-      <c r="E191" s="84"/>
-      <c r="F191" s="84"/>
-      <c r="G191" s="84"/>
-      <c r="H191" s="84"/>
-      <c r="I191" s="84"/>
-      <c r="J191" s="84"/>
-      <c r="K191" s="84"/>
-      <c r="L191" s="85"/>
+      <c r="A191" s="72"/>
+      <c r="B191" s="73"/>
+      <c r="C191" s="73"/>
+      <c r="D191" s="73"/>
+      <c r="E191" s="73"/>
+      <c r="F191" s="73"/>
+      <c r="G191" s="73"/>
+      <c r="H191" s="73"/>
+      <c r="I191" s="73"/>
+      <c r="J191" s="73"/>
+      <c r="K191" s="73"/>
+      <c r="L191" s="74"/>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
@@ -5253,14 +5253,14 @@
         <v>67</v>
       </c>
       <c r="E194" s="9"/>
-      <c r="F194" s="72" t="s">
+      <c r="F194" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="G194" s="72"/>
-      <c r="H194" s="72"/>
-      <c r="I194" s="72"/>
-      <c r="J194" s="72"/>
-      <c r="K194" s="72"/>
+      <c r="G194" s="61"/>
+      <c r="H194" s="61"/>
+      <c r="I194" s="61"/>
+      <c r="J194" s="61"/>
+      <c r="K194" s="61"/>
       <c r="M194" s="5"/>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
@@ -5274,14 +5274,14 @@
         <v>70</v>
       </c>
       <c r="E195" s="9"/>
-      <c r="F195" s="73" t="s">
+      <c r="F195" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="G195" s="73"/>
-      <c r="H195" s="73"/>
-      <c r="I195" s="73"/>
-      <c r="J195" s="73"/>
-      <c r="K195" s="73"/>
+      <c r="G195" s="62"/>
+      <c r="H195" s="62"/>
+      <c r="I195" s="62"/>
+      <c r="J195" s="62"/>
+      <c r="K195" s="62"/>
       <c r="M195" s="5"/>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.2">
@@ -5315,12 +5315,12 @@
       <c r="G200" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H200" s="74" t="s">
+      <c r="H200" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I200" s="75"/>
-      <c r="J200" s="75"/>
-      <c r="K200" s="76"/>
+      <c r="I200" s="64"/>
+      <c r="J200" s="64"/>
+      <c r="K200" s="65"/>
       <c r="M200" s="5"/>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
@@ -5336,12 +5336,12 @@
       <c r="G201" s="20">
         <v>1</v>
       </c>
-      <c r="H201" s="77" t="s">
+      <c r="H201" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="I201" s="78"/>
-      <c r="J201" s="78"/>
-      <c r="K201" s="79"/>
+      <c r="I201" s="67"/>
+      <c r="J201" s="67"/>
+      <c r="K201" s="68"/>
       <c r="M201" s="5"/>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
@@ -5369,12 +5369,12 @@
       <c r="G203" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H203" s="74" t="s">
+      <c r="H203" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I203" s="75"/>
-      <c r="J203" s="75"/>
-      <c r="K203" s="76"/>
+      <c r="I203" s="64"/>
+      <c r="J203" s="64"/>
+      <c r="K203" s="65"/>
       <c r="M203" s="5"/>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.2">
@@ -5382,24 +5382,24 @@
       <c r="G204" s="20">
         <v>1</v>
       </c>
-      <c r="H204" s="77" t="s">
+      <c r="H204" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="I204" s="78"/>
-      <c r="J204" s="78"/>
-      <c r="K204" s="79"/>
+      <c r="I204" s="67"/>
+      <c r="J204" s="67"/>
+      <c r="K204" s="68"/>
       <c r="M204" s="5"/>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G205" s="20">
         <v>2</v>
       </c>
-      <c r="H205" s="77" t="s">
+      <c r="H205" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="I205" s="78"/>
-      <c r="J205" s="78"/>
-      <c r="K205" s="79"/>
+      <c r="I205" s="67"/>
+      <c r="J205" s="67"/>
+      <c r="K205" s="68"/>
       <c r="M205" s="5"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
@@ -5409,40 +5409,40 @@
       <c r="A207" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B207" s="60" t="s">
+      <c r="B207" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C207" s="61"/>
-      <c r="D207" s="62" t="s">
+      <c r="C207" s="56"/>
+      <c r="D207" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="E207" s="63"/>
-      <c r="F207" s="63"/>
-      <c r="G207" s="63"/>
-      <c r="H207" s="63"/>
-      <c r="I207" s="63"/>
-      <c r="J207" s="63"/>
-      <c r="K207" s="64"/>
+      <c r="E207" s="58"/>
+      <c r="F207" s="58"/>
+      <c r="G207" s="58"/>
+      <c r="H207" s="58"/>
+      <c r="I207" s="58"/>
+      <c r="J207" s="58"/>
+      <c r="K207" s="59"/>
       <c r="M207" s="5"/>
     </row>
     <row r="208" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B208" s="60" t="s">
+      <c r="B208" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C208" s="61"/>
-      <c r="D208" s="62" t="s">
+      <c r="C208" s="56"/>
+      <c r="D208" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="E208" s="63"/>
-      <c r="F208" s="63"/>
-      <c r="G208" s="63"/>
-      <c r="H208" s="63"/>
-      <c r="I208" s="63"/>
-      <c r="J208" s="63"/>
-      <c r="K208" s="64"/>
+      <c r="E208" s="58"/>
+      <c r="F208" s="58"/>
+      <c r="G208" s="58"/>
+      <c r="H208" s="58"/>
+      <c r="I208" s="58"/>
+      <c r="J208" s="58"/>
+      <c r="K208" s="59"/>
       <c r="M208" s="5"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
@@ -5463,42 +5463,42 @@
       <c r="M210" s="5"/>
     </row>
     <row r="211" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="65" t="s">
+      <c r="A211" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B211" s="65" t="s">
+      <c r="B211" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C211" s="65"/>
-      <c r="D211" s="65"/>
-      <c r="E211" s="65"/>
-      <c r="F211" s="65"/>
-      <c r="G211" s="66" t="s">
+      <c r="C211" s="60"/>
+      <c r="D211" s="60"/>
+      <c r="E211" s="60"/>
+      <c r="F211" s="60"/>
+      <c r="G211" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="H211" s="67"/>
-      <c r="I211" s="67"/>
-      <c r="J211" s="67"/>
-      <c r="K211" s="67"/>
-      <c r="L211" s="68"/>
-      <c r="M211" s="65" t="s">
+      <c r="H211" s="80"/>
+      <c r="I211" s="80"/>
+      <c r="J211" s="80"/>
+      <c r="K211" s="80"/>
+      <c r="L211" s="81"/>
+      <c r="M211" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A212" s="65"/>
-      <c r="B212" s="65"/>
-      <c r="C212" s="65"/>
-      <c r="D212" s="65"/>
-      <c r="E212" s="65"/>
-      <c r="F212" s="65"/>
-      <c r="G212" s="69"/>
-      <c r="H212" s="70"/>
-      <c r="I212" s="70"/>
-      <c r="J212" s="70"/>
-      <c r="K212" s="70"/>
-      <c r="L212" s="71"/>
-      <c r="M212" s="65"/>
+      <c r="A212" s="60"/>
+      <c r="B212" s="60"/>
+      <c r="C212" s="60"/>
+      <c r="D212" s="60"/>
+      <c r="E212" s="60"/>
+      <c r="F212" s="60"/>
+      <c r="G212" s="82"/>
+      <c r="H212" s="83"/>
+      <c r="I212" s="83"/>
+      <c r="J212" s="83"/>
+      <c r="K212" s="83"/>
+      <c r="L212" s="84"/>
+      <c r="M212" s="60"/>
     </row>
     <row r="213" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="22">
@@ -5603,14 +5603,14 @@
       <c r="D217" s="54"/>
       <c r="E217" s="54"/>
       <c r="F217" s="54"/>
-      <c r="G217" s="57" t="s">
+      <c r="G217" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="H217" s="58"/>
-      <c r="I217" s="58"/>
-      <c r="J217" s="58"/>
-      <c r="K217" s="58"/>
-      <c r="L217" s="59"/>
+      <c r="H217" s="76"/>
+      <c r="I217" s="76"/>
+      <c r="J217" s="76"/>
+      <c r="K217" s="76"/>
+      <c r="L217" s="77"/>
       <c r="M217" s="23" t="s">
         <v>85</v>
       </c>
@@ -5757,13 +5757,13 @@
       <c r="A224" s="22">
         <v>12</v>
       </c>
-      <c r="B224" s="56" t="s">
+      <c r="B224" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="C224" s="56"/>
-      <c r="D224" s="56"/>
-      <c r="E224" s="56"/>
-      <c r="F224" s="56"/>
+      <c r="C224" s="78"/>
+      <c r="D224" s="78"/>
+      <c r="E224" s="78"/>
+      <c r="F224" s="78"/>
       <c r="G224" s="54" t="s">
         <v>341</v>
       </c>
@@ -5780,13 +5780,13 @@
       <c r="A225" s="22">
         <v>13</v>
       </c>
-      <c r="B225" s="56" t="s">
+      <c r="B225" s="78" t="s">
         <v>312</v>
       </c>
-      <c r="C225" s="56"/>
-      <c r="D225" s="56"/>
-      <c r="E225" s="56"/>
-      <c r="F225" s="56"/>
+      <c r="C225" s="78"/>
+      <c r="D225" s="78"/>
+      <c r="E225" s="78"/>
+      <c r="F225" s="78"/>
       <c r="G225" s="54" t="s">
         <v>341</v>
       </c>
@@ -5803,13 +5803,13 @@
       <c r="A226" s="22">
         <v>14</v>
       </c>
-      <c r="B226" s="56" t="s">
+      <c r="B226" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="C226" s="56"/>
-      <c r="D226" s="56"/>
-      <c r="E226" s="56"/>
-      <c r="F226" s="56"/>
+      <c r="C226" s="78"/>
+      <c r="D226" s="78"/>
+      <c r="E226" s="78"/>
+      <c r="F226" s="78"/>
       <c r="G226" s="54" t="s">
         <v>345</v>
       </c>
@@ -5826,13 +5826,13 @@
       <c r="A227" s="22">
         <v>15</v>
       </c>
-      <c r="B227" s="56" t="s">
+      <c r="B227" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="C227" s="56"/>
-      <c r="D227" s="56"/>
-      <c r="E227" s="56"/>
-      <c r="F227" s="56"/>
+      <c r="C227" s="78"/>
+      <c r="D227" s="78"/>
+      <c r="E227" s="78"/>
+      <c r="F227" s="78"/>
       <c r="G227" s="54" t="s">
         <v>342</v>
       </c>
@@ -5849,13 +5849,13 @@
       <c r="A228" s="22">
         <v>16</v>
       </c>
-      <c r="B228" s="56" t="s">
+      <c r="B228" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="C228" s="56"/>
-      <c r="D228" s="56"/>
-      <c r="E228" s="56"/>
-      <c r="F228" s="56"/>
+      <c r="C228" s="78"/>
+      <c r="D228" s="78"/>
+      <c r="E228" s="78"/>
+      <c r="F228" s="78"/>
       <c r="G228" s="54" t="s">
         <v>342</v>
       </c>
@@ -5872,13 +5872,13 @@
       <c r="A229" s="22">
         <v>17</v>
       </c>
-      <c r="B229" s="56" t="s">
+      <c r="B229" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="C229" s="56"/>
-      <c r="D229" s="56"/>
-      <c r="E229" s="56"/>
-      <c r="F229" s="56"/>
+      <c r="C229" s="78"/>
+      <c r="D229" s="78"/>
+      <c r="E229" s="78"/>
+      <c r="F229" s="78"/>
       <c r="G229" s="54" t="s">
         <v>345</v>
       </c>
@@ -5895,21 +5895,21 @@
       <c r="A230" s="22">
         <v>13</v>
       </c>
-      <c r="B230" s="56" t="s">
+      <c r="B230" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="C230" s="56"/>
-      <c r="D230" s="56"/>
-      <c r="E230" s="56"/>
-      <c r="F230" s="56"/>
-      <c r="G230" s="57" t="s">
+      <c r="C230" s="78"/>
+      <c r="D230" s="78"/>
+      <c r="E230" s="78"/>
+      <c r="F230" s="78"/>
+      <c r="G230" s="75" t="s">
         <v>343</v>
       </c>
-      <c r="H230" s="58"/>
-      <c r="I230" s="58"/>
-      <c r="J230" s="58"/>
-      <c r="K230" s="58"/>
-      <c r="L230" s="59"/>
+      <c r="H230" s="76"/>
+      <c r="I230" s="76"/>
+      <c r="J230" s="76"/>
+      <c r="K230" s="76"/>
+      <c r="L230" s="77"/>
       <c r="M230" s="23" t="s">
         <v>85</v>
       </c>
@@ -5918,21 +5918,21 @@
       <c r="A231" s="22">
         <v>14</v>
       </c>
-      <c r="B231" s="56" t="s">
+      <c r="B231" s="78" t="s">
         <v>327</v>
       </c>
-      <c r="C231" s="56"/>
-      <c r="D231" s="56"/>
-      <c r="E231" s="56"/>
-      <c r="F231" s="56"/>
-      <c r="G231" s="57" t="s">
+      <c r="C231" s="78"/>
+      <c r="D231" s="78"/>
+      <c r="E231" s="78"/>
+      <c r="F231" s="78"/>
+      <c r="G231" s="75" t="s">
         <v>343</v>
       </c>
-      <c r="H231" s="58"/>
-      <c r="I231" s="58"/>
-      <c r="J231" s="58"/>
-      <c r="K231" s="58"/>
-      <c r="L231" s="59"/>
+      <c r="H231" s="76"/>
+      <c r="I231" s="76"/>
+      <c r="J231" s="76"/>
+      <c r="K231" s="76"/>
+      <c r="L231" s="77"/>
       <c r="M231" s="23" t="s">
         <v>85</v>
       </c>
@@ -5941,13 +5941,13 @@
       <c r="A232" s="22">
         <v>15</v>
       </c>
-      <c r="B232" s="56" t="s">
+      <c r="B232" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="C232" s="56"/>
-      <c r="D232" s="56"/>
-      <c r="E232" s="56"/>
-      <c r="F232" s="56"/>
+      <c r="C232" s="78"/>
+      <c r="D232" s="78"/>
+      <c r="E232" s="78"/>
+      <c r="F232" s="78"/>
       <c r="G232" s="54" t="s">
         <v>345</v>
       </c>
@@ -5964,21 +5964,21 @@
       <c r="A233" s="22">
         <v>16</v>
       </c>
-      <c r="B233" s="56" t="s">
+      <c r="B233" s="78" t="s">
         <v>322</v>
       </c>
-      <c r="C233" s="56"/>
-      <c r="D233" s="56"/>
-      <c r="E233" s="56"/>
-      <c r="F233" s="56"/>
-      <c r="G233" s="57" t="s">
+      <c r="C233" s="78"/>
+      <c r="D233" s="78"/>
+      <c r="E233" s="78"/>
+      <c r="F233" s="78"/>
+      <c r="G233" s="75" t="s">
         <v>344</v>
       </c>
-      <c r="H233" s="58"/>
-      <c r="I233" s="58"/>
-      <c r="J233" s="58"/>
-      <c r="K233" s="58"/>
-      <c r="L233" s="59"/>
+      <c r="H233" s="76"/>
+      <c r="I233" s="76"/>
+      <c r="J233" s="76"/>
+      <c r="K233" s="76"/>
+      <c r="L233" s="77"/>
       <c r="M233" s="23" t="s">
         <v>85</v>
       </c>
@@ -5987,21 +5987,21 @@
       <c r="A234" s="22">
         <v>17</v>
       </c>
-      <c r="B234" s="56" t="s">
+      <c r="B234" s="78" t="s">
         <v>325</v>
       </c>
-      <c r="C234" s="56"/>
-      <c r="D234" s="56"/>
-      <c r="E234" s="56"/>
-      <c r="F234" s="56"/>
-      <c r="G234" s="57" t="s">
+      <c r="C234" s="78"/>
+      <c r="D234" s="78"/>
+      <c r="E234" s="78"/>
+      <c r="F234" s="78"/>
+      <c r="G234" s="75" t="s">
         <v>344</v>
       </c>
-      <c r="H234" s="58"/>
-      <c r="I234" s="58"/>
-      <c r="J234" s="58"/>
-      <c r="K234" s="58"/>
-      <c r="L234" s="59"/>
+      <c r="H234" s="76"/>
+      <c r="I234" s="76"/>
+      <c r="J234" s="76"/>
+      <c r="K234" s="76"/>
+      <c r="L234" s="77"/>
       <c r="M234" s="23" t="s">
         <v>85</v>
       </c>
@@ -6010,13 +6010,13 @@
       <c r="A235" s="22">
         <v>18</v>
       </c>
-      <c r="B235" s="55" t="s">
+      <c r="B235" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="C235" s="55"/>
-      <c r="D235" s="55"/>
-      <c r="E235" s="55"/>
-      <c r="F235" s="55"/>
+      <c r="C235" s="85"/>
+      <c r="D235" s="85"/>
+      <c r="E235" s="85"/>
+      <c r="F235" s="85"/>
       <c r="G235" s="54" t="s">
         <v>345</v>
       </c>
@@ -6054,175 +6054,71 @@
     </row>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="G105:L105"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="G103:L103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="G104:L104"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="G99:L99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="G100:L100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="G101:L101"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="G98:L98"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:K87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:K88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:K89"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="G95:L95"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="G96:L96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="G97:L97"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:K86"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:F94"/>
-    <mergeCell ref="G93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:K90"/>
-    <mergeCell ref="F72:K72"/>
-    <mergeCell ref="F73:K73"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="A68:L69"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="G64:L64"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="G62:L62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:F59"/>
-    <mergeCell ref="G58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="G60:L60"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:K55"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="A37:L38"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A109:L110"/>
-    <mergeCell ref="F113:K113"/>
-    <mergeCell ref="F114:K114"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:K127"/>
-    <mergeCell ref="M130:M131"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="G132:L132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="G133:L133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="G134:L134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="G135:L135"/>
-    <mergeCell ref="B130:F131"/>
-    <mergeCell ref="G130:L131"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="G141:L141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="G142:L142"/>
-    <mergeCell ref="H124:K124"/>
-    <mergeCell ref="A158:L159"/>
-    <mergeCell ref="F162:K162"/>
-    <mergeCell ref="F163:K163"/>
-    <mergeCell ref="H168:K168"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="G136:L136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="G137:L137"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="G138:L138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="G139:L139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="G140:L140"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="G154:L154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="G155:L155"/>
-    <mergeCell ref="H169:K169"/>
-    <mergeCell ref="H171:K171"/>
-    <mergeCell ref="H172:K172"/>
-    <mergeCell ref="H173:K173"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="D176:K176"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:F181"/>
-    <mergeCell ref="G180:L181"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="D177:K177"/>
-    <mergeCell ref="M180:M181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="G182:L182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="G183:L183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="G184:L184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="G185:L185"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="G236:L236"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="G235:L235"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="G151:L151"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="G230:L230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="G231:L231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="G232:L232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="G233:L233"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="G234:L234"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="G225:L225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="G226:L226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="G227:L227"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="G228:L228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="G229:L229"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="G220:L220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="G221:L221"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="G222:L222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="G223:L223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="G224:L224"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="G215:L215"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="G216:L216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="G217:L217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="G218:L218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="G219:L219"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:F212"/>
+    <mergeCell ref="G211:L212"/>
+    <mergeCell ref="M211:M212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="G213:L213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="G214:L214"/>
+    <mergeCell ref="F194:K194"/>
+    <mergeCell ref="F195:K195"/>
+    <mergeCell ref="H200:K200"/>
+    <mergeCell ref="H201:K201"/>
+    <mergeCell ref="H203:K203"/>
+    <mergeCell ref="H204:K204"/>
+    <mergeCell ref="H205:K205"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:K207"/>
     <mergeCell ref="B186:F186"/>
     <mergeCell ref="G186:L186"/>
     <mergeCell ref="A190:L191"/>
@@ -6247,71 +6143,175 @@
     <mergeCell ref="B153:F153"/>
     <mergeCell ref="G153:L153"/>
     <mergeCell ref="B154:F154"/>
-    <mergeCell ref="F194:K194"/>
-    <mergeCell ref="F195:K195"/>
-    <mergeCell ref="H200:K200"/>
-    <mergeCell ref="H201:K201"/>
-    <mergeCell ref="H203:K203"/>
-    <mergeCell ref="H204:K204"/>
-    <mergeCell ref="H205:K205"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D207:K207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:F212"/>
-    <mergeCell ref="G211:L212"/>
-    <mergeCell ref="M211:M212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="G213:L213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="G214:L214"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="G215:L215"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="G216:L216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="G217:L217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="G218:L218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="G219:L219"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="G229:L229"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="G220:L220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="G221:L221"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="G222:L222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="G223:L223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="G224:L224"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="G236:L236"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="G235:L235"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="G151:L151"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="G230:L230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="G231:L231"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="G232:L232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="G233:L233"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="G234:L234"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="G225:L225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="G226:L226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="G227:L227"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="G228:L228"/>
+    <mergeCell ref="M180:M181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="G182:L182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="G183:L183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="G184:L184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="G185:L185"/>
+    <mergeCell ref="H169:K169"/>
+    <mergeCell ref="H171:K171"/>
+    <mergeCell ref="H172:K172"/>
+    <mergeCell ref="H173:K173"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="D176:K176"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:F181"/>
+    <mergeCell ref="G180:L181"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="D177:K177"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="G141:L141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="G142:L142"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="A158:L159"/>
+    <mergeCell ref="F162:K162"/>
+    <mergeCell ref="F163:K163"/>
+    <mergeCell ref="H168:K168"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="G136:L136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="G137:L137"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="G138:L138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="G139:L139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="G140:L140"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="G154:L154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="G155:L155"/>
+    <mergeCell ref="M130:M131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="G132:L132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="G133:L133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="G134:L134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="G135:L135"/>
+    <mergeCell ref="B130:F131"/>
+    <mergeCell ref="G130:L131"/>
+    <mergeCell ref="A109:L110"/>
+    <mergeCell ref="F113:K113"/>
+    <mergeCell ref="F114:K114"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:K127"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="A37:L38"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:F59"/>
+    <mergeCell ref="G58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:K55"/>
+    <mergeCell ref="A68:L69"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="G64:L64"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:K86"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:F94"/>
+    <mergeCell ref="G93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="F72:K72"/>
+    <mergeCell ref="F73:K73"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="G98:L98"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:K87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:K88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:K89"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="G95:L95"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="G96:L96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="G97:L97"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="G105:L105"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="G103:L103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="G104:L104"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="G99:L99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="G100:L100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="G101:L101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6343,14 +6343,14 @@
         <v>67</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="50"/>
       <c r="M3" s="5"/>
     </row>
@@ -6366,14 +6366,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="50"/>
       <c r="M4" s="5"/>
     </row>
@@ -6455,12 +6455,12 @@
       <c r="G9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="76"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="50"/>
       <c r="M9" s="5"/>
     </row>
@@ -6478,10 +6478,10 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="79"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
       <c r="L10" s="50"/>
       <c r="M10" s="5"/>
     </row>
@@ -6518,12 +6518,12 @@
       <c r="G12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="76"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="50"/>
       <c r="M12" s="5"/>
     </row>
@@ -6537,12 +6537,12 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="77" t="s">
+      <c r="H13" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="79"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
       <c r="L13" s="50"/>
       <c r="M13" s="5"/>
     </row>
@@ -6580,20 +6580,20 @@
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="50"/>
       <c r="M16" s="5"/>
     </row>
@@ -6628,42 +6628,42 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65" t="s">
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
@@ -6757,35 +6757,35 @@
       <c r="M25" s="50"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="82"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="71"/>
       <c r="M26" s="50"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="83"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="85"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="74"/>
       <c r="M27" s="50"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -6800,14 +6800,14 @@
         <v>67</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="72" t="s">
+      <c r="F31" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
       <c r="L31" s="50"/>
       <c r="M31" s="5"/>
     </row>
@@ -6823,14 +6823,14 @@
         <v>70</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="73" t="s">
+      <c r="F32" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
       <c r="L32" s="50"/>
       <c r="M32" s="5"/>
     </row>
@@ -6912,12 +6912,12 @@
       <c r="G37" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="74" t="s">
+      <c r="H37" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="76"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="65"/>
       <c r="L37" s="50"/>
       <c r="M37" s="5"/>
     </row>
@@ -6935,12 +6935,12 @@
       <c r="G38" s="20">
         <v>1</v>
       </c>
-      <c r="H38" s="77" t="s">
+      <c r="H38" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="79"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="68"/>
       <c r="L38" s="50"/>
       <c r="M38" s="5"/>
     </row>
@@ -6977,12 +6977,12 @@
       <c r="G40" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="74" t="s">
+      <c r="H40" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="76"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="65"/>
       <c r="L40" s="50"/>
       <c r="M40" s="5"/>
     </row>
@@ -6996,12 +6996,12 @@
       <c r="G41" s="20">
         <v>1</v>
       </c>
-      <c r="H41" s="77" t="s">
+      <c r="H41" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="79"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="68"/>
       <c r="L41" s="50"/>
       <c r="M41" s="5"/>
     </row>
@@ -7039,20 +7039,20 @@
       <c r="A44" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="62" t="s">
+      <c r="C44" s="56"/>
+      <c r="D44" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="64"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="59"/>
       <c r="L44" s="50"/>
       <c r="M44" s="5"/>
     </row>
@@ -7087,42 +7087,42 @@
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65" t="s">
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65" t="s">
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
@@ -7241,6 +7241,34 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:F20"/>
+    <mergeCell ref="G19:L20"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="A26:L27"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:F48"/>
+    <mergeCell ref="G47:L48"/>
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="G52:L52"/>
     <mergeCell ref="B53:F53"/>
@@ -7252,34 +7280,6 @@
     <mergeCell ref="G50:L50"/>
     <mergeCell ref="B51:F51"/>
     <mergeCell ref="G51:L51"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:K44"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:F48"/>
-    <mergeCell ref="G47:L48"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="A26:L27"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:F20"/>
-    <mergeCell ref="G19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7311,14 +7311,14 @@
         <v>67</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="34"/>
       <c r="M3" s="5"/>
     </row>
@@ -7334,14 +7334,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="34"/>
       <c r="M4" s="5"/>
     </row>
@@ -7423,12 +7423,12 @@
       <c r="G9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="76"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="34"/>
       <c r="M9" s="5"/>
     </row>
@@ -7446,12 +7446,12 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="79"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
       <c r="L10" s="34"/>
       <c r="M10" s="5"/>
     </row>
@@ -7488,12 +7488,12 @@
       <c r="G12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="76"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="34"/>
       <c r="M12" s="5"/>
     </row>
@@ -7507,12 +7507,12 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="77" t="s">
+      <c r="H13" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="79"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
       <c r="L13" s="34"/>
       <c r="M13" s="5"/>
     </row>
@@ -7550,20 +7550,20 @@
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="34"/>
       <c r="M16" s="5"/>
     </row>
@@ -7598,42 +7598,42 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65" t="s">
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
     </row>
     <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
@@ -7750,35 +7750,35 @@
       <c r="M26" s="34"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="82"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="71"/>
       <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="83"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="85"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="74"/>
       <c r="M28" s="34"/>
     </row>
     <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7793,14 +7793,14 @@
         <v>67</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="72" t="s">
+      <c r="F32" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
       <c r="L32" s="46"/>
       <c r="M32" s="5"/>
     </row>
@@ -7816,14 +7816,14 @@
         <v>70</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="73" t="s">
+      <c r="F33" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
       <c r="L33" s="46"/>
       <c r="M33" s="5"/>
     </row>
@@ -7905,12 +7905,12 @@
       <c r="G38" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="74" t="s">
+      <c r="H38" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="76"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="65"/>
       <c r="L38" s="46"/>
       <c r="M38" s="5"/>
     </row>
@@ -7928,12 +7928,12 @@
       <c r="G39" s="20">
         <v>1</v>
       </c>
-      <c r="H39" s="77" t="s">
+      <c r="H39" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="79"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="68"/>
       <c r="L39" s="46"/>
       <c r="M39" s="5"/>
     </row>
@@ -7970,12 +7970,12 @@
       <c r="G41" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H41" s="74" t="s">
+      <c r="H41" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="76"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="65"/>
       <c r="L41" s="46"/>
       <c r="M41" s="5"/>
     </row>
@@ -7989,12 +7989,12 @@
       <c r="G42" s="20">
         <v>1</v>
       </c>
-      <c r="H42" s="77" t="s">
+      <c r="H42" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="79"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="68"/>
       <c r="L42" s="46"/>
       <c r="M42" s="5"/>
     </row>
@@ -8032,20 +8032,20 @@
       <c r="A45" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="61"/>
-      <c r="D45" s="62" t="s">
+      <c r="C45" s="56"/>
+      <c r="D45" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="64"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="59"/>
       <c r="L45" s="46"/>
       <c r="M45" s="5"/>
     </row>
@@ -8080,42 +8080,42 @@
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65" t="s">
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65" t="s">
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
@@ -8211,14 +8211,26 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:F49"/>
+    <mergeCell ref="G48:L49"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="A27:L28"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="A19:A20"/>
@@ -8230,26 +8242,14 @@
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="B19:F20"/>
     <mergeCell ref="G19:L20"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:F49"/>
-    <mergeCell ref="G48:L49"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="G52:L52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="G50:L50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="F4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8280,14 +8280,14 @@
         <v>67</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="46"/>
       <c r="M3" s="5"/>
     </row>
@@ -8303,14 +8303,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="46"/>
       <c r="M4" s="5"/>
     </row>
@@ -8392,12 +8392,12 @@
       <c r="G9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="76"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="46"/>
       <c r="M9" s="5"/>
     </row>
@@ -8415,10 +8415,10 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="79"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
       <c r="L10" s="46"/>
       <c r="M10" s="5"/>
     </row>
@@ -8455,12 +8455,12 @@
       <c r="G12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="76"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="46"/>
       <c r="M12" s="5"/>
     </row>
@@ -8474,12 +8474,12 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="77" t="s">
+      <c r="H13" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="79"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
       <c r="L13" s="46"/>
       <c r="M13" s="5"/>
     </row>
@@ -8517,20 +8517,20 @@
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="46"/>
       <c r="M16" s="5"/>
     </row>
@@ -8565,42 +8565,42 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65" t="s">
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
@@ -8650,22 +8650,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:F20"/>
+    <mergeCell ref="G19:L20"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:F20"/>
-    <mergeCell ref="G19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8696,14 +8696,14 @@
         <v>67</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="41"/>
       <c r="M3" s="5"/>
     </row>
@@ -8719,14 +8719,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="41"/>
       <c r="M4" s="5"/>
     </row>
@@ -8808,12 +8808,12 @@
       <c r="G9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="76"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="41"/>
       <c r="M9" s="5"/>
     </row>
@@ -8831,10 +8831,10 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="79"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
       <c r="L10" s="41"/>
       <c r="M10" s="5"/>
     </row>
@@ -8871,12 +8871,12 @@
       <c r="G12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="76"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="41"/>
       <c r="M12" s="5"/>
     </row>
@@ -8890,12 +8890,12 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="77" t="s">
+      <c r="H13" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="79"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
       <c r="L13" s="41"/>
       <c r="M13" s="5"/>
     </row>
@@ -8933,20 +8933,20 @@
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="41"/>
       <c r="M16" s="5"/>
     </row>
@@ -8954,20 +8954,20 @@
       <c r="A17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -9001,42 +9001,42 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65" t="s">
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65" t="s">
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
@@ -9153,35 +9153,35 @@
       <c r="M27" s="41"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="82"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="71"/>
       <c r="M28" s="41"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="83"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="85"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="74"/>
       <c r="M29" s="41"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -9194,6 +9194,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A28:L29"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:L21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="F4:K4"/>
@@ -9201,20 +9215,6 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:L21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="A28:L29"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:L24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9225,7 +9225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4805ACE8-3721-304D-9C9A-16E244B30454}">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
@@ -9243,14 +9243,14 @@
         <v>67</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="34"/>
       <c r="M2" s="5"/>
     </row>
@@ -9266,14 +9266,14 @@
         <v>70</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="34"/>
       <c r="M3" s="5"/>
     </row>
@@ -9355,12 +9355,12 @@
       <c r="G8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="76"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
       <c r="L8" s="34"/>
       <c r="M8" s="5"/>
     </row>
@@ -9378,12 +9378,12 @@
       <c r="G9" s="20">
         <v>1</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="79"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
       <c r="L9" s="34"/>
       <c r="M9" s="5"/>
     </row>
@@ -9420,12 +9420,12 @@
       <c r="G11" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="74" t="s">
+      <c r="H11" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="76"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
       <c r="L11" s="34"/>
       <c r="M11" s="5"/>
     </row>
@@ -9439,12 +9439,12 @@
       <c r="G12" s="20">
         <v>1</v>
       </c>
-      <c r="H12" s="77" t="s">
+      <c r="H12" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="79"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
       <c r="L12" s="34"/>
       <c r="M12" s="5"/>
     </row>
@@ -9482,20 +9482,20 @@
       <c r="A15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="34"/>
       <c r="M15" s="5"/>
     </row>
@@ -9530,42 +9530,42 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65" t="s">
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
@@ -9728,62 +9728,62 @@
       <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="82"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="71"/>
       <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="83"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="85"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="74"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A28:L29"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="G22:L22"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="A28:L29"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9814,14 +9814,14 @@
         <v>67</v>
       </c>
       <c r="E1" s="9"/>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -9835,14 +9835,14 @@
         <v>70</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -9876,12 +9876,12 @@
       <c r="G7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -9897,12 +9897,12 @@
       <c r="G8" s="20">
         <v>1</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="79"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="68"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -9930,12 +9930,12 @@
       <c r="G10" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="76"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -9943,12 +9943,12 @@
       <c r="G11" s="20">
         <v>1</v>
       </c>
-      <c r="H11" s="77" t="s">
+      <c r="H11" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="79"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9964,20 +9964,20 @@
       <c r="A15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -9987,42 +9987,42 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65" t="s">
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
@@ -10086,34 +10086,34 @@
       <c r="M22" s="25"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="82"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="71"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="83"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="85"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="74"/>
     </row>
     <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
@@ -10126,14 +10126,14 @@
         <v>67</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="72" t="s">
+      <c r="F29" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10147,14 +10147,14 @@
         <v>70</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="73" t="s">
+      <c r="F30" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -10188,12 +10188,12 @@
       <c r="G35" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="74" t="s">
+      <c r="H35" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="76"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="65"/>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -10209,12 +10209,12 @@
       <c r="G36" s="20">
         <v>1</v>
       </c>
-      <c r="H36" s="77" t="s">
+      <c r="H36" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="79"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="68"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -10238,12 +10238,12 @@
       <c r="G38" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="74" t="s">
+      <c r="H38" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="76"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="65"/>
       <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10251,12 +10251,12 @@
       <c r="G39" s="20">
         <v>1</v>
       </c>
-      <c r="H39" s="77" t="s">
+      <c r="H39" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="79"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="68"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -10272,20 +10272,20 @@
       <c r="A43" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="62" t="s">
+      <c r="C43" s="56"/>
+      <c r="D43" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="64"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="59"/>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -10295,42 +10295,42 @@
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65" t="s">
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65" t="s">
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="65"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="22">
@@ -10379,34 +10379,34 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="80" t="s">
+      <c r="A53" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="81"/>
-      <c r="L53" s="82"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="71"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="83"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="85"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="74"/>
     </row>
     <row r="57" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
@@ -10419,14 +10419,14 @@
         <v>67</v>
       </c>
       <c r="E57" s="9"/>
-      <c r="F57" s="72" t="s">
+      <c r="F57" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
       <c r="M57" s="5"/>
     </row>
     <row r="58" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10440,14 +10440,14 @@
         <v>70</v>
       </c>
       <c r="E58" s="9"/>
-      <c r="F58" s="73" t="s">
+      <c r="F58" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="73"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="62"/>
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -10481,12 +10481,12 @@
       <c r="G63" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H63" s="74" t="s">
+      <c r="H63" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I63" s="75"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="76"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="65"/>
       <c r="M63" s="5"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -10502,12 +10502,12 @@
       <c r="G64" s="20">
         <v>1</v>
       </c>
-      <c r="H64" s="77" t="s">
+      <c r="H64" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="I64" s="78"/>
-      <c r="J64" s="78"/>
-      <c r="K64" s="79"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="68"/>
       <c r="M64" s="5"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -10535,12 +10535,12 @@
       <c r="G66" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H66" s="74" t="s">
+      <c r="H66" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I66" s="75"/>
-      <c r="J66" s="75"/>
-      <c r="K66" s="76"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="65"/>
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -10548,24 +10548,24 @@
       <c r="G67" s="20">
         <v>1</v>
       </c>
-      <c r="H67" s="77" t="s">
+      <c r="H67" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
-      <c r="K67" s="79"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="68"/>
       <c r="M67" s="5"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G68" s="20">
         <v>2</v>
       </c>
-      <c r="H68" s="77" t="s">
+      <c r="H68" s="66" t="s">
         <v>331</v>
       </c>
-      <c r="I68" s="78"/>
-      <c r="J68" s="78"/>
-      <c r="K68" s="79"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="68"/>
       <c r="M68" s="5"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -10575,20 +10575,20 @@
       <c r="A70" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="60" t="s">
+      <c r="B70" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="61"/>
-      <c r="D70" s="62" t="s">
+      <c r="C70" s="56"/>
+      <c r="D70" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="E70" s="63"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="63"/>
-      <c r="K70" s="64"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="58"/>
+      <c r="J70" s="58"/>
+      <c r="K70" s="59"/>
       <c r="M70" s="5"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -10598,42 +10598,42 @@
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="65" t="s">
+      <c r="A73" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65" t="s">
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H73" s="65"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="65"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="65"/>
-      <c r="M73" s="65" t="s">
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="60"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="65"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
-      <c r="J74" s="65"/>
-      <c r="K74" s="65"/>
-      <c r="L74" s="65"/>
-      <c r="M74" s="65"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="60"/>
+      <c r="L74" s="60"/>
+      <c r="M74" s="60"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="22">
@@ -10683,11 +10683,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="G76:L76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:F74"/>
-    <mergeCell ref="G73:L74"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="A25:L26"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="F57:K57"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:K43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:F47"/>
+    <mergeCell ref="G46:L47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:L48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:L49"/>
+    <mergeCell ref="A53:L54"/>
     <mergeCell ref="M73:M74"/>
     <mergeCell ref="B75:F75"/>
     <mergeCell ref="G75:L75"/>
@@ -10699,41 +10729,11 @@
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="D70:K70"/>
     <mergeCell ref="H68:K68"/>
-    <mergeCell ref="F57:K57"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:K43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:F47"/>
-    <mergeCell ref="G46:L47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="G48:L48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:L49"/>
-    <mergeCell ref="A53:L54"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="A25:L26"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="G76:L76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:F74"/>
+    <mergeCell ref="G73:L74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
+++ b/Test Reports and Test Cases/ELIXIR_TEST_CASE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berkozdoruk/Desktop/GitHub/Elixir-Documentation/Test Reports and Test Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0708CF-27B7-3043-B29B-5191CE5EC0F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58A30A0-037A-2D49-94A0-E31202232155}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14080" firstSheet="1" activeTab="1" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14080" firstSheet="3" activeTab="3" xr2:uid="{3BEC5313-EFE1-564D-8A9E-D64796F7F751}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -1593,6 +1593,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1609,6 +1620,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1653,35 +1682,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="%20 - Vurgu1" xfId="4" builtinId="30"/>
@@ -2470,7 +2470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D5A933-5288-C94E-BF55-FF09BD47810B}">
   <dimension ref="A1:M236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A228" workbookViewId="0">
       <selection activeCell="M206" sqref="M206"/>
     </sheetView>
   </sheetViews>
@@ -2490,14 +2490,14 @@
         <v>67</v>
       </c>
       <c r="E1" s="9"/>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2511,14 +2511,14 @@
         <v>70</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2552,12 +2552,12 @@
       <c r="G7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="76"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2573,12 +2573,12 @@
       <c r="G8" s="20">
         <v>1</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="68"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="79"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -2606,12 +2606,12 @@
       <c r="G10" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="76"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -2619,12 +2619,12 @@
       <c r="G11" s="20">
         <v>1</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="68"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -2640,20 +2640,20 @@
       <c r="A15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -2663,42 +2663,42 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60" t="s">
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
@@ -2773,13 +2773,13 @@
       <c r="A23" s="22">
         <v>4</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="77"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="54" t="s">
         <v>337</v>
       </c>
@@ -2796,21 +2796,21 @@
       <c r="A24" s="22">
         <v>5</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="75" t="s">
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="77"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="59"/>
       <c r="M24" s="23" t="s">
         <v>85</v>
       </c>
@@ -2819,21 +2819,21 @@
       <c r="A25" s="22">
         <v>6</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="75" t="s">
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="77"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="59"/>
       <c r="M25" s="23" t="s">
         <v>85</v>
       </c>
@@ -2842,21 +2842,21 @@
       <c r="A26" s="22">
         <v>7</v>
       </c>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="75" t="s">
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="77"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
       <c r="M26" s="23" t="s">
         <v>85</v>
       </c>
@@ -2865,13 +2865,13 @@
       <c r="A27" s="22">
         <v>8</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="54" t="s">
         <v>338</v>
       </c>
@@ -2888,21 +2888,21 @@
       <c r="A28" s="22">
         <v>9</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="75" t="s">
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="77"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="59"/>
       <c r="M28" s="30" t="s">
         <v>85</v>
       </c>
@@ -2911,13 +2911,13 @@
       <c r="A29" s="22">
         <v>10</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="77"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
       <c r="G29" s="54" t="s">
         <v>339</v>
       </c>
@@ -2934,13 +2934,13 @@
       <c r="A30" s="22">
         <v>11</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="77"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="54" t="s">
         <v>339</v>
       </c>
@@ -2957,21 +2957,21 @@
       <c r="A31" s="22">
         <v>12</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="75" t="s">
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
       <c r="M31" s="30" t="s">
         <v>85</v>
       </c>
@@ -2980,21 +2980,21 @@
       <c r="A32" s="22">
         <v>13</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="75" t="s">
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="77"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
       <c r="M32" s="30" t="s">
         <v>85</v>
       </c>
@@ -3003,54 +3003,54 @@
       <c r="A33" s="22">
         <v>14</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="75" t="s">
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="77"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
       <c r="M33" s="30" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="71"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="82"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="72"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="74"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="85"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
@@ -3063,14 +3063,14 @@
         <v>67</v>
       </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="61" t="s">
+      <c r="F41" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -3084,14 +3084,14 @@
         <v>70</v>
       </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="62" t="s">
+      <c r="F42" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -3125,12 +3125,12 @@
       <c r="G47" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H47" s="63" t="s">
+      <c r="H47" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="65"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="76"/>
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -3146,12 +3146,12 @@
       <c r="G48" s="20">
         <v>1</v>
       </c>
-      <c r="H48" s="66" t="s">
+      <c r="H48" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="68"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="79"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -3179,12 +3179,12 @@
       <c r="G50" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="63" t="s">
+      <c r="H50" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="65"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="76"/>
       <c r="M50" s="5"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -3192,12 +3192,12 @@
       <c r="G51" s="20">
         <v>1</v>
       </c>
-      <c r="H51" s="66" t="s">
+      <c r="H51" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="68"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="79"/>
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -3213,20 +3213,20 @@
       <c r="A55" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="57" t="s">
+      <c r="C55" s="61"/>
+      <c r="D55" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="59"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="64"/>
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -3236,42 +3236,42 @@
       <c r="M57" s="5"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="60" t="s">
+      <c r="B58" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60" t="s">
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60" t="s">
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="60"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="65"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="22">
@@ -3389,34 +3389,34 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
-      <c r="J68" s="70"/>
-      <c r="K68" s="70"/>
-      <c r="L68" s="71"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="81"/>
+      <c r="J68" s="81"/>
+      <c r="K68" s="81"/>
+      <c r="L68" s="82"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="72"/>
-      <c r="B69" s="73"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="73"/>
-      <c r="K69" s="73"/>
-      <c r="L69" s="74"/>
+      <c r="A69" s="83"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="85"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
@@ -3429,14 +3429,14 @@
         <v>67</v>
       </c>
       <c r="E72" s="9"/>
-      <c r="F72" s="61" t="s">
+      <c r="F72" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
+      <c r="K72" s="72"/>
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -3450,14 +3450,14 @@
         <v>70</v>
       </c>
       <c r="E73" s="9"/>
-      <c r="F73" s="62" t="s">
+      <c r="F73" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="G73" s="62"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="62"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="73"/>
+      <c r="I73" s="73"/>
+      <c r="J73" s="73"/>
+      <c r="K73" s="73"/>
       <c r="M73" s="5"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -3491,12 +3491,12 @@
       <c r="G78" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H78" s="63" t="s">
+      <c r="H78" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I78" s="64"/>
-      <c r="J78" s="64"/>
-      <c r="K78" s="65"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="75"/>
+      <c r="K78" s="76"/>
       <c r="M78" s="5"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -3512,12 +3512,12 @@
       <c r="G79" s="20">
         <v>1</v>
       </c>
-      <c r="H79" s="66" t="s">
+      <c r="H79" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="I79" s="67"/>
-      <c r="J79" s="67"/>
-      <c r="K79" s="68"/>
+      <c r="I79" s="78"/>
+      <c r="J79" s="78"/>
+      <c r="K79" s="79"/>
       <c r="M79" s="5"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -3545,12 +3545,12 @@
       <c r="G81" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H81" s="63" t="s">
+      <c r="H81" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I81" s="64"/>
-      <c r="J81" s="64"/>
-      <c r="K81" s="65"/>
+      <c r="I81" s="75"/>
+      <c r="J81" s="75"/>
+      <c r="K81" s="76"/>
       <c r="M81" s="5"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -3558,12 +3558,12 @@
       <c r="G82" s="20">
         <v>1</v>
       </c>
-      <c r="H82" s="66" t="s">
+      <c r="H82" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="I82" s="67"/>
-      <c r="J82" s="67"/>
-      <c r="K82" s="68"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="78"/>
+      <c r="K82" s="79"/>
       <c r="M82" s="5"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -3579,100 +3579,100 @@
       <c r="A86" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="56"/>
-      <c r="D86" s="57" t="s">
+      <c r="C86" s="61"/>
+      <c r="D86" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="E86" s="58"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="58"/>
-      <c r="K86" s="59"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="64"/>
       <c r="M86" s="5"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="56"/>
-      <c r="D87" s="57" t="s">
+      <c r="C87" s="61"/>
+      <c r="D87" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="58"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="58"/>
-      <c r="J87" s="58"/>
-      <c r="K87" s="59"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="63"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="63"/>
+      <c r="K87" s="64"/>
       <c r="M87" s="5"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="55" t="s">
+      <c r="B88" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="56"/>
-      <c r="D88" s="57" t="s">
+      <c r="C88" s="61"/>
+      <c r="D88" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="59"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="63"/>
+      <c r="K88" s="64"/>
       <c r="M88" s="5"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="55" t="s">
+      <c r="B89" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="56"/>
-      <c r="D89" s="57" t="s">
+      <c r="C89" s="61"/>
+      <c r="D89" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="59"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="63"/>
+      <c r="I89" s="63"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="64"/>
       <c r="M89" s="5"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="56"/>
-      <c r="D90" s="57" t="s">
+      <c r="C90" s="61"/>
+      <c r="D90" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="E90" s="58"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="59"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="63"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="64"/>
       <c r="M90" s="5"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -3693,42 +3693,42 @@
       <c r="M92" s="5"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="60" t="s">
+      <c r="A93" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B93" s="60" t="s">
+      <c r="B93" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="60"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60" t="s">
+      <c r="C93" s="65"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H93" s="60"/>
-      <c r="I93" s="60"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="60" t="s">
+      <c r="H93" s="65"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="65"/>
+      <c r="L93" s="65"/>
+      <c r="M93" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="60"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="60"/>
-      <c r="H94" s="60"/>
-      <c r="I94" s="60"/>
-      <c r="J94" s="60"/>
-      <c r="K94" s="60"/>
-      <c r="L94" s="60"/>
-      <c r="M94" s="60"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="65"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="65"/>
+      <c r="L94" s="65"/>
+      <c r="M94" s="65"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="22">
@@ -3984,34 +3984,34 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109" s="69" t="s">
+      <c r="A109" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B109" s="70"/>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
-      <c r="I109" s="70"/>
-      <c r="J109" s="70"/>
-      <c r="K109" s="70"/>
-      <c r="L109" s="71"/>
+      <c r="B109" s="81"/>
+      <c r="C109" s="81"/>
+      <c r="D109" s="81"/>
+      <c r="E109" s="81"/>
+      <c r="F109" s="81"/>
+      <c r="G109" s="81"/>
+      <c r="H109" s="81"/>
+      <c r="I109" s="81"/>
+      <c r="J109" s="81"/>
+      <c r="K109" s="81"/>
+      <c r="L109" s="82"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" s="72"/>
-      <c r="B110" s="73"/>
-      <c r="C110" s="73"/>
-      <c r="D110" s="73"/>
-      <c r="E110" s="73"/>
-      <c r="F110" s="73"/>
-      <c r="G110" s="73"/>
-      <c r="H110" s="73"/>
-      <c r="I110" s="73"/>
-      <c r="J110" s="73"/>
-      <c r="K110" s="73"/>
-      <c r="L110" s="74"/>
+      <c r="A110" s="83"/>
+      <c r="B110" s="84"/>
+      <c r="C110" s="84"/>
+      <c r="D110" s="84"/>
+      <c r="E110" s="84"/>
+      <c r="F110" s="84"/>
+      <c r="G110" s="84"/>
+      <c r="H110" s="84"/>
+      <c r="I110" s="84"/>
+      <c r="J110" s="84"/>
+      <c r="K110" s="84"/>
+      <c r="L110" s="85"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
@@ -4024,14 +4024,14 @@
         <v>67</v>
       </c>
       <c r="E113" s="9"/>
-      <c r="F113" s="61" t="s">
+      <c r="F113" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="G113" s="61"/>
-      <c r="H113" s="61"/>
-      <c r="I113" s="61"/>
-      <c r="J113" s="61"/>
-      <c r="K113" s="61"/>
+      <c r="G113" s="72"/>
+      <c r="H113" s="72"/>
+      <c r="I113" s="72"/>
+      <c r="J113" s="72"/>
+      <c r="K113" s="72"/>
       <c r="M113" s="5"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -4045,14 +4045,14 @@
         <v>70</v>
       </c>
       <c r="E114" s="9"/>
-      <c r="F114" s="62" t="s">
+      <c r="F114" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="G114" s="62"/>
-      <c r="H114" s="62"/>
-      <c r="I114" s="62"/>
-      <c r="J114" s="62"/>
-      <c r="K114" s="62"/>
+      <c r="G114" s="73"/>
+      <c r="H114" s="73"/>
+      <c r="I114" s="73"/>
+      <c r="J114" s="73"/>
+      <c r="K114" s="73"/>
       <c r="M114" s="5"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -4086,12 +4086,12 @@
       <c r="G119" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H119" s="63" t="s">
+      <c r="H119" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I119" s="64"/>
-      <c r="J119" s="64"/>
-      <c r="K119" s="65"/>
+      <c r="I119" s="75"/>
+      <c r="J119" s="75"/>
+      <c r="K119" s="76"/>
       <c r="M119" s="5"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -4107,12 +4107,12 @@
       <c r="G120" s="20">
         <v>1</v>
       </c>
-      <c r="H120" s="66" t="s">
+      <c r="H120" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="I120" s="67"/>
-      <c r="J120" s="67"/>
-      <c r="K120" s="68"/>
+      <c r="I120" s="78"/>
+      <c r="J120" s="78"/>
+      <c r="K120" s="79"/>
       <c r="M120" s="5"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -4140,12 +4140,12 @@
       <c r="G122" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H122" s="63" t="s">
+      <c r="H122" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I122" s="64"/>
-      <c r="J122" s="64"/>
-      <c r="K122" s="65"/>
+      <c r="I122" s="75"/>
+      <c r="J122" s="75"/>
+      <c r="K122" s="76"/>
       <c r="M122" s="5"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -4153,24 +4153,24 @@
       <c r="G123" s="20">
         <v>1</v>
       </c>
-      <c r="H123" s="66" t="s">
+      <c r="H123" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="I123" s="67"/>
-      <c r="J123" s="67"/>
-      <c r="K123" s="68"/>
+      <c r="I123" s="78"/>
+      <c r="J123" s="78"/>
+      <c r="K123" s="79"/>
       <c r="M123" s="5"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G124" s="20">
         <v>2</v>
       </c>
-      <c r="H124" s="66" t="s">
+      <c r="H124" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="I124" s="67"/>
-      <c r="J124" s="67"/>
-      <c r="K124" s="68"/>
+      <c r="I124" s="78"/>
+      <c r="J124" s="78"/>
+      <c r="K124" s="79"/>
       <c r="M124" s="5"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -4183,20 +4183,20 @@
       <c r="A127" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B127" s="55" t="s">
+      <c r="B127" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C127" s="56"/>
-      <c r="D127" s="57" t="s">
+      <c r="C127" s="61"/>
+      <c r="D127" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="E127" s="58"/>
-      <c r="F127" s="58"/>
-      <c r="G127" s="58"/>
-      <c r="H127" s="58"/>
-      <c r="I127" s="58"/>
-      <c r="J127" s="58"/>
-      <c r="K127" s="59"/>
+      <c r="E127" s="63"/>
+      <c r="F127" s="63"/>
+      <c r="G127" s="63"/>
+      <c r="H127" s="63"/>
+      <c r="I127" s="63"/>
+      <c r="J127" s="63"/>
+      <c r="K127" s="64"/>
       <c r="M127" s="5"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -4217,42 +4217,42 @@
       <c r="M129" s="5"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130" s="60" t="s">
+      <c r="A130" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B130" s="60" t="s">
+      <c r="B130" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C130" s="60"/>
-      <c r="D130" s="60"/>
-      <c r="E130" s="60"/>
-      <c r="F130" s="60"/>
-      <c r="G130" s="60" t="s">
+      <c r="C130" s="65"/>
+      <c r="D130" s="65"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H130" s="60"/>
-      <c r="I130" s="60"/>
-      <c r="J130" s="60"/>
-      <c r="K130" s="60"/>
-      <c r="L130" s="60"/>
-      <c r="M130" s="60" t="s">
+      <c r="H130" s="65"/>
+      <c r="I130" s="65"/>
+      <c r="J130" s="65"/>
+      <c r="K130" s="65"/>
+      <c r="L130" s="65"/>
+      <c r="M130" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A131" s="60"/>
-      <c r="B131" s="60"/>
-      <c r="C131" s="60"/>
-      <c r="D131" s="60"/>
-      <c r="E131" s="60"/>
-      <c r="F131" s="60"/>
-      <c r="G131" s="60"/>
-      <c r="H131" s="60"/>
-      <c r="I131" s="60"/>
-      <c r="J131" s="60"/>
-      <c r="K131" s="60"/>
-      <c r="L131" s="60"/>
-      <c r="M131" s="60"/>
+      <c r="A131" s="65"/>
+      <c r="B131" s="65"/>
+      <c r="C131" s="65"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="65"/>
+      <c r="J131" s="65"/>
+      <c r="K131" s="65"/>
+      <c r="L131" s="65"/>
+      <c r="M131" s="65"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="22">
@@ -4465,13 +4465,13 @@
       <c r="A141" s="22">
         <v>10</v>
       </c>
-      <c r="B141" s="78" t="s">
+      <c r="B141" s="56" t="s">
         <v>303</v>
       </c>
-      <c r="C141" s="78"/>
-      <c r="D141" s="78"/>
-      <c r="E141" s="78"/>
-      <c r="F141" s="78"/>
+      <c r="C141" s="56"/>
+      <c r="D141" s="56"/>
+      <c r="E141" s="56"/>
+      <c r="F141" s="56"/>
       <c r="G141" s="54" t="s">
         <v>336</v>
       </c>
@@ -4488,13 +4488,13 @@
       <c r="A142" s="22">
         <v>11</v>
       </c>
-      <c r="B142" s="78" t="s">
+      <c r="B142" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="C142" s="78"/>
-      <c r="D142" s="78"/>
-      <c r="E142" s="78"/>
-      <c r="F142" s="78"/>
+      <c r="C142" s="56"/>
+      <c r="D142" s="56"/>
+      <c r="E142" s="56"/>
+      <c r="F142" s="56"/>
       <c r="G142" s="54" t="s">
         <v>336</v>
       </c>
@@ -4511,14 +4511,14 @@
       <c r="A143" s="22">
         <v>12</v>
       </c>
-      <c r="B143" s="78" t="s">
+      <c r="B143" s="56" t="s">
         <v>305</v>
       </c>
-      <c r="C143" s="78"/>
-      <c r="D143" s="78"/>
-      <c r="E143" s="78"/>
-      <c r="F143" s="78"/>
-      <c r="G143" s="77" t="s">
+      <c r="C143" s="56"/>
+      <c r="D143" s="56"/>
+      <c r="E143" s="56"/>
+      <c r="F143" s="56"/>
+      <c r="G143" s="59" t="s">
         <v>183</v>
       </c>
       <c r="H143" s="54"/>
@@ -4534,13 +4534,13 @@
       <c r="A144" s="22">
         <v>10</v>
       </c>
-      <c r="B144" s="78" t="s">
+      <c r="B144" s="56" t="s">
         <v>307</v>
       </c>
-      <c r="C144" s="78"/>
-      <c r="D144" s="78"/>
-      <c r="E144" s="78"/>
-      <c r="F144" s="78"/>
+      <c r="C144" s="56"/>
+      <c r="D144" s="56"/>
+      <c r="E144" s="56"/>
+      <c r="F144" s="56"/>
       <c r="G144" s="54" t="s">
         <v>352</v>
       </c>
@@ -4557,13 +4557,13 @@
       <c r="A145" s="22">
         <v>11</v>
       </c>
-      <c r="B145" s="78" t="s">
+      <c r="B145" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="C145" s="78"/>
-      <c r="D145" s="78"/>
-      <c r="E145" s="78"/>
-      <c r="F145" s="78"/>
+      <c r="C145" s="56"/>
+      <c r="D145" s="56"/>
+      <c r="E145" s="56"/>
+      <c r="F145" s="56"/>
       <c r="G145" s="54" t="s">
         <v>352</v>
       </c>
@@ -4587,7 +4587,7 @@
       <c r="D146" s="54"/>
       <c r="E146" s="54"/>
       <c r="F146" s="54"/>
-      <c r="G146" s="77" t="s">
+      <c r="G146" s="59" t="s">
         <v>183</v>
       </c>
       <c r="H146" s="54"/>
@@ -4603,13 +4603,13 @@
       <c r="A147" s="22">
         <v>13</v>
       </c>
-      <c r="B147" s="78" t="s">
+      <c r="B147" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="C147" s="78"/>
-      <c r="D147" s="78"/>
-      <c r="E147" s="78"/>
-      <c r="F147" s="78"/>
+      <c r="C147" s="56"/>
+      <c r="D147" s="56"/>
+      <c r="E147" s="56"/>
+      <c r="F147" s="56"/>
       <c r="G147" s="54" t="s">
         <v>353</v>
       </c>
@@ -4626,21 +4626,21 @@
       <c r="A148" s="22">
         <v>14</v>
       </c>
-      <c r="B148" s="78" t="s">
+      <c r="B148" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="C148" s="78"/>
-      <c r="D148" s="78"/>
-      <c r="E148" s="78"/>
-      <c r="F148" s="78"/>
-      <c r="G148" s="75" t="s">
+      <c r="C148" s="56"/>
+      <c r="D148" s="56"/>
+      <c r="E148" s="56"/>
+      <c r="F148" s="56"/>
+      <c r="G148" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="H148" s="76"/>
-      <c r="I148" s="76"/>
-      <c r="J148" s="76"/>
-      <c r="K148" s="76"/>
-      <c r="L148" s="77"/>
+      <c r="H148" s="58"/>
+      <c r="I148" s="58"/>
+      <c r="J148" s="58"/>
+      <c r="K148" s="58"/>
+      <c r="L148" s="59"/>
       <c r="M148" s="23" t="s">
         <v>85</v>
       </c>
@@ -4649,14 +4649,14 @@
       <c r="A149" s="22">
         <v>15</v>
       </c>
-      <c r="B149" s="78" t="s">
+      <c r="B149" s="56" t="s">
         <v>310</v>
       </c>
-      <c r="C149" s="78"/>
-      <c r="D149" s="78"/>
-      <c r="E149" s="78"/>
-      <c r="F149" s="78"/>
-      <c r="G149" s="77" t="s">
+      <c r="C149" s="56"/>
+      <c r="D149" s="56"/>
+      <c r="E149" s="56"/>
+      <c r="F149" s="56"/>
+      <c r="G149" s="59" t="s">
         <v>183</v>
       </c>
       <c r="H149" s="54"/>
@@ -4672,21 +4672,21 @@
       <c r="A150" s="22">
         <v>16</v>
       </c>
-      <c r="B150" s="78" t="s">
+      <c r="B150" s="56" t="s">
         <v>322</v>
       </c>
-      <c r="C150" s="78"/>
-      <c r="D150" s="78"/>
-      <c r="E150" s="78"/>
-      <c r="F150" s="78"/>
-      <c r="G150" s="75" t="s">
+      <c r="C150" s="56"/>
+      <c r="D150" s="56"/>
+      <c r="E150" s="56"/>
+      <c r="F150" s="56"/>
+      <c r="G150" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="H150" s="76"/>
-      <c r="I150" s="76"/>
-      <c r="J150" s="76"/>
-      <c r="K150" s="76"/>
-      <c r="L150" s="77"/>
+      <c r="H150" s="58"/>
+      <c r="I150" s="58"/>
+      <c r="J150" s="58"/>
+      <c r="K150" s="58"/>
+      <c r="L150" s="59"/>
       <c r="M150" s="23" t="s">
         <v>85</v>
       </c>
@@ -4695,21 +4695,21 @@
       <c r="A151" s="22">
         <v>17</v>
       </c>
-      <c r="B151" s="78" t="s">
+      <c r="B151" s="56" t="s">
         <v>323</v>
       </c>
-      <c r="C151" s="78"/>
-      <c r="D151" s="78"/>
-      <c r="E151" s="78"/>
-      <c r="F151" s="78"/>
-      <c r="G151" s="75" t="s">
+      <c r="C151" s="56"/>
+      <c r="D151" s="56"/>
+      <c r="E151" s="56"/>
+      <c r="F151" s="56"/>
+      <c r="G151" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="H151" s="76"/>
-      <c r="I151" s="76"/>
-      <c r="J151" s="76"/>
-      <c r="K151" s="76"/>
-      <c r="L151" s="77"/>
+      <c r="H151" s="58"/>
+      <c r="I151" s="58"/>
+      <c r="J151" s="58"/>
+      <c r="K151" s="58"/>
+      <c r="L151" s="59"/>
       <c r="M151" s="23" t="s">
         <v>85</v>
       </c>
@@ -4718,14 +4718,14 @@
       <c r="A152" s="22">
         <v>18</v>
       </c>
-      <c r="B152" s="78" t="s">
+      <c r="B152" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="C152" s="78"/>
-      <c r="D152" s="78"/>
-      <c r="E152" s="78"/>
-      <c r="F152" s="78"/>
-      <c r="G152" s="77" t="s">
+      <c r="C152" s="56"/>
+      <c r="D152" s="56"/>
+      <c r="E152" s="56"/>
+      <c r="F152" s="56"/>
+      <c r="G152" s="59" t="s">
         <v>183</v>
       </c>
       <c r="H152" s="54"/>
@@ -4807,34 +4807,34 @@
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A158" s="69" t="s">
+      <c r="A158" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B158" s="70"/>
-      <c r="C158" s="70"/>
-      <c r="D158" s="70"/>
-      <c r="E158" s="70"/>
-      <c r="F158" s="70"/>
-      <c r="G158" s="70"/>
-      <c r="H158" s="70"/>
-      <c r="I158" s="70"/>
-      <c r="J158" s="70"/>
-      <c r="K158" s="70"/>
-      <c r="L158" s="71"/>
+      <c r="B158" s="81"/>
+      <c r="C158" s="81"/>
+      <c r="D158" s="81"/>
+      <c r="E158" s="81"/>
+      <c r="F158" s="81"/>
+      <c r="G158" s="81"/>
+      <c r="H158" s="81"/>
+      <c r="I158" s="81"/>
+      <c r="J158" s="81"/>
+      <c r="K158" s="81"/>
+      <c r="L158" s="82"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A159" s="72"/>
-      <c r="B159" s="73"/>
-      <c r="C159" s="73"/>
-      <c r="D159" s="73"/>
-      <c r="E159" s="73"/>
-      <c r="F159" s="73"/>
-      <c r="G159" s="73"/>
-      <c r="H159" s="73"/>
-      <c r="I159" s="73"/>
-      <c r="J159" s="73"/>
-      <c r="K159" s="73"/>
-      <c r="L159" s="74"/>
+      <c r="A159" s="83"/>
+      <c r="B159" s="84"/>
+      <c r="C159" s="84"/>
+      <c r="D159" s="84"/>
+      <c r="E159" s="84"/>
+      <c r="F159" s="84"/>
+      <c r="G159" s="84"/>
+      <c r="H159" s="84"/>
+      <c r="I159" s="84"/>
+      <c r="J159" s="84"/>
+      <c r="K159" s="84"/>
+      <c r="L159" s="85"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
@@ -4847,14 +4847,14 @@
         <v>67</v>
       </c>
       <c r="E162" s="9"/>
-      <c r="F162" s="61" t="s">
+      <c r="F162" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="G162" s="61"/>
-      <c r="H162" s="61"/>
-      <c r="I162" s="61"/>
-      <c r="J162" s="61"/>
-      <c r="K162" s="61"/>
+      <c r="G162" s="72"/>
+      <c r="H162" s="72"/>
+      <c r="I162" s="72"/>
+      <c r="J162" s="72"/>
+      <c r="K162" s="72"/>
       <c r="M162" s="5"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
@@ -4868,14 +4868,14 @@
         <v>70</v>
       </c>
       <c r="E163" s="9"/>
-      <c r="F163" s="62" t="s">
+      <c r="F163" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="G163" s="62"/>
-      <c r="H163" s="62"/>
-      <c r="I163" s="62"/>
-      <c r="J163" s="62"/>
-      <c r="K163" s="62"/>
+      <c r="G163" s="73"/>
+      <c r="H163" s="73"/>
+      <c r="I163" s="73"/>
+      <c r="J163" s="73"/>
+      <c r="K163" s="73"/>
       <c r="M163" s="5"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
@@ -4909,12 +4909,12 @@
       <c r="G168" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H168" s="63" t="s">
+      <c r="H168" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I168" s="64"/>
-      <c r="J168" s="64"/>
-      <c r="K168" s="65"/>
+      <c r="I168" s="75"/>
+      <c r="J168" s="75"/>
+      <c r="K168" s="76"/>
       <c r="M168" s="5"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
@@ -4930,12 +4930,12 @@
       <c r="G169" s="20">
         <v>1</v>
       </c>
-      <c r="H169" s="66" t="s">
+      <c r="H169" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="I169" s="67"/>
-      <c r="J169" s="67"/>
-      <c r="K169" s="68"/>
+      <c r="I169" s="78"/>
+      <c r="J169" s="78"/>
+      <c r="K169" s="79"/>
       <c r="M169" s="5"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
@@ -4963,12 +4963,12 @@
       <c r="G171" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H171" s="63" t="s">
+      <c r="H171" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I171" s="64"/>
-      <c r="J171" s="64"/>
-      <c r="K171" s="65"/>
+      <c r="I171" s="75"/>
+      <c r="J171" s="75"/>
+      <c r="K171" s="76"/>
       <c r="M171" s="5"/>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
@@ -4976,24 +4976,24 @@
       <c r="G172" s="20">
         <v>1</v>
       </c>
-      <c r="H172" s="66" t="s">
+      <c r="H172" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="I172" s="67"/>
-      <c r="J172" s="67"/>
-      <c r="K172" s="68"/>
+      <c r="I172" s="78"/>
+      <c r="J172" s="78"/>
+      <c r="K172" s="79"/>
       <c r="M172" s="5"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G173" s="20">
         <v>2</v>
       </c>
-      <c r="H173" s="66" t="s">
+      <c r="H173" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="I173" s="67"/>
-      <c r="J173" s="67"/>
-      <c r="K173" s="68"/>
+      <c r="I173" s="78"/>
+      <c r="J173" s="78"/>
+      <c r="K173" s="79"/>
       <c r="M173" s="5"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -5006,40 +5006,40 @@
       <c r="A176" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B176" s="55" t="s">
+      <c r="B176" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C176" s="56"/>
-      <c r="D176" s="57" t="s">
+      <c r="C176" s="61"/>
+      <c r="D176" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="E176" s="58"/>
-      <c r="F176" s="58"/>
-      <c r="G176" s="58"/>
-      <c r="H176" s="58"/>
-      <c r="I176" s="58"/>
-      <c r="J176" s="58"/>
-      <c r="K176" s="59"/>
+      <c r="E176" s="63"/>
+      <c r="F176" s="63"/>
+      <c r="G176" s="63"/>
+      <c r="H176" s="63"/>
+      <c r="I176" s="63"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="64"/>
       <c r="M176" s="5"/>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B177" s="55" t="s">
+      <c r="B177" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C177" s="56"/>
-      <c r="D177" s="57" t="s">
+      <c r="C177" s="61"/>
+      <c r="D177" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="E177" s="58"/>
-      <c r="F177" s="58"/>
-      <c r="G177" s="58"/>
-      <c r="H177" s="58"/>
-      <c r="I177" s="58"/>
-      <c r="J177" s="58"/>
-      <c r="K177" s="59"/>
+      <c r="E177" s="63"/>
+      <c r="F177" s="63"/>
+      <c r="G177" s="63"/>
+      <c r="H177" s="63"/>
+      <c r="I177" s="63"/>
+      <c r="J177" s="63"/>
+      <c r="K177" s="64"/>
       <c r="M177" s="5"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
@@ -5060,42 +5060,42 @@
       <c r="M179" s="5"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A180" s="60" t="s">
+      <c r="A180" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B180" s="60" t="s">
+      <c r="B180" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C180" s="60"/>
-      <c r="D180" s="60"/>
-      <c r="E180" s="60"/>
-      <c r="F180" s="60"/>
-      <c r="G180" s="60" t="s">
+      <c r="C180" s="65"/>
+      <c r="D180" s="65"/>
+      <c r="E180" s="65"/>
+      <c r="F180" s="65"/>
+      <c r="G180" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H180" s="60"/>
-      <c r="I180" s="60"/>
-      <c r="J180" s="60"/>
-      <c r="K180" s="60"/>
-      <c r="L180" s="60"/>
-      <c r="M180" s="60" t="s">
+      <c r="H180" s="65"/>
+      <c r="I180" s="65"/>
+      <c r="J180" s="65"/>
+      <c r="K180" s="65"/>
+      <c r="L180" s="65"/>
+      <c r="M180" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A181" s="60"/>
-      <c r="B181" s="60"/>
-      <c r="C181" s="60"/>
-      <c r="D181" s="60"/>
-      <c r="E181" s="60"/>
-      <c r="F181" s="60"/>
-      <c r="G181" s="60"/>
-      <c r="H181" s="60"/>
-      <c r="I181" s="60"/>
-      <c r="J181" s="60"/>
-      <c r="K181" s="60"/>
-      <c r="L181" s="60"/>
-      <c r="M181" s="60"/>
+      <c r="A181" s="65"/>
+      <c r="B181" s="65"/>
+      <c r="C181" s="65"/>
+      <c r="D181" s="65"/>
+      <c r="E181" s="65"/>
+      <c r="F181" s="65"/>
+      <c r="G181" s="65"/>
+      <c r="H181" s="65"/>
+      <c r="I181" s="65"/>
+      <c r="J181" s="65"/>
+      <c r="K181" s="65"/>
+      <c r="L181" s="65"/>
+      <c r="M181" s="65"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="22">
@@ -5213,34 +5213,34 @@
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A190" s="69" t="s">
+      <c r="A190" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B190" s="70"/>
-      <c r="C190" s="70"/>
-      <c r="D190" s="70"/>
-      <c r="E190" s="70"/>
-      <c r="F190" s="70"/>
-      <c r="G190" s="70"/>
-      <c r="H190" s="70"/>
-      <c r="I190" s="70"/>
-      <c r="J190" s="70"/>
-      <c r="K190" s="70"/>
-      <c r="L190" s="71"/>
+      <c r="B190" s="81"/>
+      <c r="C190" s="81"/>
+      <c r="D190" s="81"/>
+      <c r="E190" s="81"/>
+      <c r="F190" s="81"/>
+      <c r="G190" s="81"/>
+      <c r="H190" s="81"/>
+      <c r="I190" s="81"/>
+      <c r="J190" s="81"/>
+      <c r="K190" s="81"/>
+      <c r="L190" s="82"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A191" s="72"/>
-      <c r="B191" s="73"/>
-      <c r="C191" s="73"/>
-      <c r="D191" s="73"/>
-      <c r="E191" s="73"/>
-      <c r="F191" s="73"/>
-      <c r="G191" s="73"/>
-      <c r="H191" s="73"/>
-      <c r="I191" s="73"/>
-      <c r="J191" s="73"/>
-      <c r="K191" s="73"/>
-      <c r="L191" s="74"/>
+      <c r="A191" s="83"/>
+      <c r="B191" s="84"/>
+      <c r="C191" s="84"/>
+      <c r="D191" s="84"/>
+      <c r="E191" s="84"/>
+      <c r="F191" s="84"/>
+      <c r="G191" s="84"/>
+      <c r="H191" s="84"/>
+      <c r="I191" s="84"/>
+      <c r="J191" s="84"/>
+      <c r="K191" s="84"/>
+      <c r="L191" s="85"/>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
@@ -5253,14 +5253,14 @@
         <v>67</v>
       </c>
       <c r="E194" s="9"/>
-      <c r="F194" s="61" t="s">
+      <c r="F194" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="G194" s="61"/>
-      <c r="H194" s="61"/>
-      <c r="I194" s="61"/>
-      <c r="J194" s="61"/>
-      <c r="K194" s="61"/>
+      <c r="G194" s="72"/>
+      <c r="H194" s="72"/>
+      <c r="I194" s="72"/>
+      <c r="J194" s="72"/>
+      <c r="K194" s="72"/>
       <c r="M194" s="5"/>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
@@ -5274,14 +5274,14 @@
         <v>70</v>
       </c>
       <c r="E195" s="9"/>
-      <c r="F195" s="62" t="s">
+      <c r="F195" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="G195" s="62"/>
-      <c r="H195" s="62"/>
-      <c r="I195" s="62"/>
-      <c r="J195" s="62"/>
-      <c r="K195" s="62"/>
+      <c r="G195" s="73"/>
+      <c r="H195" s="73"/>
+      <c r="I195" s="73"/>
+      <c r="J195" s="73"/>
+      <c r="K195" s="73"/>
       <c r="M195" s="5"/>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.2">
@@ -5315,12 +5315,12 @@
       <c r="G200" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H200" s="63" t="s">
+      <c r="H200" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I200" s="64"/>
-      <c r="J200" s="64"/>
-      <c r="K200" s="65"/>
+      <c r="I200" s="75"/>
+      <c r="J200" s="75"/>
+      <c r="K200" s="76"/>
       <c r="M200" s="5"/>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
@@ -5336,12 +5336,12 @@
       <c r="G201" s="20">
         <v>1</v>
       </c>
-      <c r="H201" s="66" t="s">
+      <c r="H201" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="I201" s="67"/>
-      <c r="J201" s="67"/>
-      <c r="K201" s="68"/>
+      <c r="I201" s="78"/>
+      <c r="J201" s="78"/>
+      <c r="K201" s="79"/>
       <c r="M201" s="5"/>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
@@ -5369,12 +5369,12 @@
       <c r="G203" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H203" s="63" t="s">
+      <c r="H203" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I203" s="64"/>
-      <c r="J203" s="64"/>
-      <c r="K203" s="65"/>
+      <c r="I203" s="75"/>
+      <c r="J203" s="75"/>
+      <c r="K203" s="76"/>
       <c r="M203" s="5"/>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.2">
@@ -5382,24 +5382,24 @@
       <c r="G204" s="20">
         <v>1</v>
       </c>
-      <c r="H204" s="66" t="s">
+      <c r="H204" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="I204" s="67"/>
-      <c r="J204" s="67"/>
-      <c r="K204" s="68"/>
+      <c r="I204" s="78"/>
+      <c r="J204" s="78"/>
+      <c r="K204" s="79"/>
       <c r="M204" s="5"/>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G205" s="20">
         <v>2</v>
       </c>
-      <c r="H205" s="66" t="s">
+      <c r="H205" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="I205" s="67"/>
-      <c r="J205" s="67"/>
-      <c r="K205" s="68"/>
+      <c r="I205" s="78"/>
+      <c r="J205" s="78"/>
+      <c r="K205" s="79"/>
       <c r="M205" s="5"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
@@ -5409,40 +5409,40 @@
       <c r="A207" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B207" s="55" t="s">
+      <c r="B207" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C207" s="56"/>
-      <c r="D207" s="57" t="s">
+      <c r="C207" s="61"/>
+      <c r="D207" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="E207" s="58"/>
-      <c r="F207" s="58"/>
-      <c r="G207" s="58"/>
-      <c r="H207" s="58"/>
-      <c r="I207" s="58"/>
-      <c r="J207" s="58"/>
-      <c r="K207" s="59"/>
+      <c r="E207" s="63"/>
+      <c r="F207" s="63"/>
+      <c r="G207" s="63"/>
+      <c r="H207" s="63"/>
+      <c r="I207" s="63"/>
+      <c r="J207" s="63"/>
+      <c r="K207" s="64"/>
       <c r="M207" s="5"/>
     </row>
     <row r="208" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B208" s="55" t="s">
+      <c r="B208" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C208" s="56"/>
-      <c r="D208" s="57" t="s">
+      <c r="C208" s="61"/>
+      <c r="D208" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="E208" s="58"/>
-      <c r="F208" s="58"/>
-      <c r="G208" s="58"/>
-      <c r="H208" s="58"/>
-      <c r="I208" s="58"/>
-      <c r="J208" s="58"/>
-      <c r="K208" s="59"/>
+      <c r="E208" s="63"/>
+      <c r="F208" s="63"/>
+      <c r="G208" s="63"/>
+      <c r="H208" s="63"/>
+      <c r="I208" s="63"/>
+      <c r="J208" s="63"/>
+      <c r="K208" s="64"/>
       <c r="M208" s="5"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
@@ -5463,42 +5463,42 @@
       <c r="M210" s="5"/>
     </row>
     <row r="211" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="60" t="s">
+      <c r="A211" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B211" s="60" t="s">
+      <c r="B211" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C211" s="60"/>
-      <c r="D211" s="60"/>
-      <c r="E211" s="60"/>
-      <c r="F211" s="60"/>
-      <c r="G211" s="79" t="s">
+      <c r="C211" s="65"/>
+      <c r="D211" s="65"/>
+      <c r="E211" s="65"/>
+      <c r="F211" s="65"/>
+      <c r="G211" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="H211" s="80"/>
-      <c r="I211" s="80"/>
-      <c r="J211" s="80"/>
-      <c r="K211" s="80"/>
-      <c r="L211" s="81"/>
-      <c r="M211" s="60" t="s">
+      <c r="H211" s="67"/>
+      <c r="I211" s="67"/>
+      <c r="J211" s="67"/>
+      <c r="K211" s="67"/>
+      <c r="L211" s="68"/>
+      <c r="M211" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A212" s="60"/>
-      <c r="B212" s="60"/>
-      <c r="C212" s="60"/>
-      <c r="D212" s="60"/>
-      <c r="E212" s="60"/>
-      <c r="F212" s="60"/>
-      <c r="G212" s="82"/>
-      <c r="H212" s="83"/>
-      <c r="I212" s="83"/>
-      <c r="J212" s="83"/>
-      <c r="K212" s="83"/>
-      <c r="L212" s="84"/>
-      <c r="M212" s="60"/>
+      <c r="A212" s="65"/>
+      <c r="B212" s="65"/>
+      <c r="C212" s="65"/>
+      <c r="D212" s="65"/>
+      <c r="E212" s="65"/>
+      <c r="F212" s="65"/>
+      <c r="G212" s="69"/>
+      <c r="H212" s="70"/>
+      <c r="I212" s="70"/>
+      <c r="J212" s="70"/>
+      <c r="K212" s="70"/>
+      <c r="L212" s="71"/>
+      <c r="M212" s="65"/>
     </row>
     <row r="213" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="22">
@@ -5603,14 +5603,14 @@
       <c r="D217" s="54"/>
       <c r="E217" s="54"/>
       <c r="F217" s="54"/>
-      <c r="G217" s="75" t="s">
+      <c r="G217" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="H217" s="76"/>
-      <c r="I217" s="76"/>
-      <c r="J217" s="76"/>
-      <c r="K217" s="76"/>
-      <c r="L217" s="77"/>
+      <c r="H217" s="58"/>
+      <c r="I217" s="58"/>
+      <c r="J217" s="58"/>
+      <c r="K217" s="58"/>
+      <c r="L217" s="59"/>
       <c r="M217" s="23" t="s">
         <v>85</v>
       </c>
@@ -5757,13 +5757,13 @@
       <c r="A224" s="22">
         <v>12</v>
       </c>
-      <c r="B224" s="78" t="s">
+      <c r="B224" s="56" t="s">
         <v>311</v>
       </c>
-      <c r="C224" s="78"/>
-      <c r="D224" s="78"/>
-      <c r="E224" s="78"/>
-      <c r="F224" s="78"/>
+      <c r="C224" s="56"/>
+      <c r="D224" s="56"/>
+      <c r="E224" s="56"/>
+      <c r="F224" s="56"/>
       <c r="G224" s="54" t="s">
         <v>341</v>
       </c>
@@ -5780,13 +5780,13 @@
       <c r="A225" s="22">
         <v>13</v>
       </c>
-      <c r="B225" s="78" t="s">
+      <c r="B225" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="C225" s="78"/>
-      <c r="D225" s="78"/>
-      <c r="E225" s="78"/>
-      <c r="F225" s="78"/>
+      <c r="C225" s="56"/>
+      <c r="D225" s="56"/>
+      <c r="E225" s="56"/>
+      <c r="F225" s="56"/>
       <c r="G225" s="54" t="s">
         <v>341</v>
       </c>
@@ -5803,13 +5803,13 @@
       <c r="A226" s="22">
         <v>14</v>
       </c>
-      <c r="B226" s="78" t="s">
+      <c r="B226" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="C226" s="78"/>
-      <c r="D226" s="78"/>
-      <c r="E226" s="78"/>
-      <c r="F226" s="78"/>
+      <c r="C226" s="56"/>
+      <c r="D226" s="56"/>
+      <c r="E226" s="56"/>
+      <c r="F226" s="56"/>
       <c r="G226" s="54" t="s">
         <v>345</v>
       </c>
@@ -5826,13 +5826,13 @@
       <c r="A227" s="22">
         <v>15</v>
       </c>
-      <c r="B227" s="78" t="s">
+      <c r="B227" s="56" t="s">
         <v>313</v>
       </c>
-      <c r="C227" s="78"/>
-      <c r="D227" s="78"/>
-      <c r="E227" s="78"/>
-      <c r="F227" s="78"/>
+      <c r="C227" s="56"/>
+      <c r="D227" s="56"/>
+      <c r="E227" s="56"/>
+      <c r="F227" s="56"/>
       <c r="G227" s="54" t="s">
         <v>342</v>
       </c>
@@ -5849,13 +5849,13 @@
       <c r="A228" s="22">
         <v>16</v>
       </c>
-      <c r="B228" s="78" t="s">
+      <c r="B228" s="56" t="s">
         <v>314</v>
       </c>
-      <c r="C228" s="78"/>
-      <c r="D228" s="78"/>
-      <c r="E228" s="78"/>
-      <c r="F228" s="78"/>
+      <c r="C228" s="56"/>
+      <c r="D228" s="56"/>
+      <c r="E228" s="56"/>
+      <c r="F228" s="56"/>
       <c r="G228" s="54" t="s">
         <v>342</v>
       </c>
@@ -5872,13 +5872,13 @@
       <c r="A229" s="22">
         <v>17</v>
       </c>
-      <c r="B229" s="78" t="s">
+      <c r="B229" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="C229" s="78"/>
-      <c r="D229" s="78"/>
-      <c r="E229" s="78"/>
-      <c r="F229" s="78"/>
+      <c r="C229" s="56"/>
+      <c r="D229" s="56"/>
+      <c r="E229" s="56"/>
+      <c r="F229" s="56"/>
       <c r="G229" s="54" t="s">
         <v>345</v>
       </c>
@@ -5895,21 +5895,21 @@
       <c r="A230" s="22">
         <v>13</v>
       </c>
-      <c r="B230" s="78" t="s">
+      <c r="B230" s="56" t="s">
         <v>326</v>
       </c>
-      <c r="C230" s="78"/>
-      <c r="D230" s="78"/>
-      <c r="E230" s="78"/>
-      <c r="F230" s="78"/>
-      <c r="G230" s="75" t="s">
+      <c r="C230" s="56"/>
+      <c r="D230" s="56"/>
+      <c r="E230" s="56"/>
+      <c r="F230" s="56"/>
+      <c r="G230" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="H230" s="76"/>
-      <c r="I230" s="76"/>
-      <c r="J230" s="76"/>
-      <c r="K230" s="76"/>
-      <c r="L230" s="77"/>
+      <c r="H230" s="58"/>
+      <c r="I230" s="58"/>
+      <c r="J230" s="58"/>
+      <c r="K230" s="58"/>
+      <c r="L230" s="59"/>
       <c r="M230" s="23" t="s">
         <v>85</v>
       </c>
@@ -5918,21 +5918,21 @@
       <c r="A231" s="22">
         <v>14</v>
       </c>
-      <c r="B231" s="78" t="s">
+      <c r="B231" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="C231" s="78"/>
-      <c r="D231" s="78"/>
-      <c r="E231" s="78"/>
-      <c r="F231" s="78"/>
-      <c r="G231" s="75" t="s">
+      <c r="C231" s="56"/>
+      <c r="D231" s="56"/>
+      <c r="E231" s="56"/>
+      <c r="F231" s="56"/>
+      <c r="G231" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="H231" s="76"/>
-      <c r="I231" s="76"/>
-      <c r="J231" s="76"/>
-      <c r="K231" s="76"/>
-      <c r="L231" s="77"/>
+      <c r="H231" s="58"/>
+      <c r="I231" s="58"/>
+      <c r="J231" s="58"/>
+      <c r="K231" s="58"/>
+      <c r="L231" s="59"/>
       <c r="M231" s="23" t="s">
         <v>85</v>
       </c>
@@ -5941,13 +5941,13 @@
       <c r="A232" s="22">
         <v>15</v>
       </c>
-      <c r="B232" s="78" t="s">
+      <c r="B232" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="C232" s="78"/>
-      <c r="D232" s="78"/>
-      <c r="E232" s="78"/>
-      <c r="F232" s="78"/>
+      <c r="C232" s="56"/>
+      <c r="D232" s="56"/>
+      <c r="E232" s="56"/>
+      <c r="F232" s="56"/>
       <c r="G232" s="54" t="s">
         <v>345</v>
       </c>
@@ -5964,21 +5964,21 @@
       <c r="A233" s="22">
         <v>16</v>
       </c>
-      <c r="B233" s="78" t="s">
+      <c r="B233" s="56" t="s">
         <v>322</v>
       </c>
-      <c r="C233" s="78"/>
-      <c r="D233" s="78"/>
-      <c r="E233" s="78"/>
-      <c r="F233" s="78"/>
-      <c r="G233" s="75" t="s">
+      <c r="C233" s="56"/>
+      <c r="D233" s="56"/>
+      <c r="E233" s="56"/>
+      <c r="F233" s="56"/>
+      <c r="G233" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="H233" s="76"/>
-      <c r="I233" s="76"/>
-      <c r="J233" s="76"/>
-      <c r="K233" s="76"/>
-      <c r="L233" s="77"/>
+      <c r="H233" s="58"/>
+      <c r="I233" s="58"/>
+      <c r="J233" s="58"/>
+      <c r="K233" s="58"/>
+      <c r="L233" s="59"/>
       <c r="M233" s="23" t="s">
         <v>85</v>
       </c>
@@ -5987,21 +5987,21 @@
       <c r="A234" s="22">
         <v>17</v>
       </c>
-      <c r="B234" s="78" t="s">
+      <c r="B234" s="56" t="s">
         <v>325</v>
       </c>
-      <c r="C234" s="78"/>
-      <c r="D234" s="78"/>
-      <c r="E234" s="78"/>
-      <c r="F234" s="78"/>
-      <c r="G234" s="75" t="s">
+      <c r="C234" s="56"/>
+      <c r="D234" s="56"/>
+      <c r="E234" s="56"/>
+      <c r="F234" s="56"/>
+      <c r="G234" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="H234" s="76"/>
-      <c r="I234" s="76"/>
-      <c r="J234" s="76"/>
-      <c r="K234" s="76"/>
-      <c r="L234" s="77"/>
+      <c r="H234" s="58"/>
+      <c r="I234" s="58"/>
+      <c r="J234" s="58"/>
+      <c r="K234" s="58"/>
+      <c r="L234" s="59"/>
       <c r="M234" s="23" t="s">
         <v>85</v>
       </c>
@@ -6010,13 +6010,13 @@
       <c r="A235" s="22">
         <v>18</v>
       </c>
-      <c r="B235" s="85" t="s">
+      <c r="B235" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="C235" s="85"/>
-      <c r="D235" s="85"/>
-      <c r="E235" s="85"/>
-      <c r="F235" s="85"/>
+      <c r="C235" s="55"/>
+      <c r="D235" s="55"/>
+      <c r="E235" s="55"/>
+      <c r="F235" s="55"/>
       <c r="G235" s="54" t="s">
         <v>345</v>
       </c>
@@ -6054,6 +6054,240 @@
     </row>
   </sheetData>
   <mergeCells count="258">
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="G105:L105"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="G103:L103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="G104:L104"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="G99:L99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="G100:L100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="G101:L101"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="G98:L98"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:K87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:K88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:K89"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="G95:L95"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="G96:L96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="G97:L97"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:K86"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:F94"/>
+    <mergeCell ref="G93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="F72:K72"/>
+    <mergeCell ref="F73:K73"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="A68:L69"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="G64:L64"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:F59"/>
+    <mergeCell ref="G58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:K55"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="A37:L38"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A109:L110"/>
+    <mergeCell ref="F113:K113"/>
+    <mergeCell ref="F114:K114"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:K127"/>
+    <mergeCell ref="M130:M131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="G132:L132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="G133:L133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="G134:L134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="G135:L135"/>
+    <mergeCell ref="B130:F131"/>
+    <mergeCell ref="G130:L131"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="G141:L141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="G142:L142"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="A158:L159"/>
+    <mergeCell ref="F162:K162"/>
+    <mergeCell ref="F163:K163"/>
+    <mergeCell ref="H168:K168"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="G136:L136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="G137:L137"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="G138:L138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="G139:L139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="G140:L140"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="G154:L154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="G155:L155"/>
+    <mergeCell ref="H169:K169"/>
+    <mergeCell ref="H171:K171"/>
+    <mergeCell ref="H172:K172"/>
+    <mergeCell ref="H173:K173"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="D176:K176"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:F181"/>
+    <mergeCell ref="G180:L181"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="D177:K177"/>
+    <mergeCell ref="M180:M181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="G182:L182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="G183:L183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="G184:L184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="G185:L185"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="G186:L186"/>
+    <mergeCell ref="A190:L191"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="G143:L143"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="G144:L144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="G145:L145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="G146:L146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="G147:L147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="G148:L148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="G149:L149"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="G150:L150"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="G152:L152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="G153:L153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="F194:K194"/>
+    <mergeCell ref="F195:K195"/>
+    <mergeCell ref="H200:K200"/>
+    <mergeCell ref="H201:K201"/>
+    <mergeCell ref="H203:K203"/>
+    <mergeCell ref="H204:K204"/>
+    <mergeCell ref="H205:K205"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:K207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:F212"/>
+    <mergeCell ref="G211:L212"/>
+    <mergeCell ref="M211:M212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="G213:L213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="G214:L214"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="G215:L215"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="G216:L216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="G217:L217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="G218:L218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="G219:L219"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="G229:L229"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="G220:L220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="G221:L221"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="G222:L222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="G223:L223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="G224:L224"/>
     <mergeCell ref="B236:F236"/>
     <mergeCell ref="G236:L236"/>
     <mergeCell ref="B235:F235"/>
@@ -6078,240 +6312,6 @@
     <mergeCell ref="G227:L227"/>
     <mergeCell ref="B228:F228"/>
     <mergeCell ref="G228:L228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="G229:L229"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="G220:L220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="G221:L221"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="G222:L222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="G223:L223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="G224:L224"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="G215:L215"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="G216:L216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="G217:L217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="G218:L218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="G219:L219"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:F212"/>
-    <mergeCell ref="G211:L212"/>
-    <mergeCell ref="M211:M212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="G213:L213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="G214:L214"/>
-    <mergeCell ref="F194:K194"/>
-    <mergeCell ref="F195:K195"/>
-    <mergeCell ref="H200:K200"/>
-    <mergeCell ref="H201:K201"/>
-    <mergeCell ref="H203:K203"/>
-    <mergeCell ref="H204:K204"/>
-    <mergeCell ref="H205:K205"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D207:K207"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="G186:L186"/>
-    <mergeCell ref="A190:L191"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="G143:L143"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="G144:L144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="G145:L145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="G146:L146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="G147:L147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="G148:L148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="G149:L149"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="G150:L150"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="G152:L152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="G153:L153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="M180:M181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="G182:L182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="G183:L183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="G184:L184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="G185:L185"/>
-    <mergeCell ref="H169:K169"/>
-    <mergeCell ref="H171:K171"/>
-    <mergeCell ref="H172:K172"/>
-    <mergeCell ref="H173:K173"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="D176:K176"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:F181"/>
-    <mergeCell ref="G180:L181"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="D177:K177"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="G141:L141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="G142:L142"/>
-    <mergeCell ref="H124:K124"/>
-    <mergeCell ref="A158:L159"/>
-    <mergeCell ref="F162:K162"/>
-    <mergeCell ref="F163:K163"/>
-    <mergeCell ref="H168:K168"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="G136:L136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="G137:L137"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="G138:L138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="G139:L139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="G140:L140"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="G154:L154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="G155:L155"/>
-    <mergeCell ref="M130:M131"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="G132:L132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="G133:L133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="G134:L134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="G135:L135"/>
-    <mergeCell ref="B130:F131"/>
-    <mergeCell ref="G130:L131"/>
-    <mergeCell ref="A109:L110"/>
-    <mergeCell ref="F113:K113"/>
-    <mergeCell ref="F114:K114"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="H120:K120"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:K127"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="A37:L38"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:F59"/>
-    <mergeCell ref="G58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="G60:L60"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:K55"/>
-    <mergeCell ref="A68:L69"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="G64:L64"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="G62:L62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:K86"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:F94"/>
-    <mergeCell ref="G93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:K90"/>
-    <mergeCell ref="F72:K72"/>
-    <mergeCell ref="F73:K73"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="G98:L98"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:K87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:K88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:K89"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="G95:L95"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="G96:L96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="G97:L97"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="G105:L105"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="G103:L103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="G104:L104"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="G99:L99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="G100:L100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="G101:L101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6343,14 +6343,14 @@
         <v>67</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
       <c r="L3" s="50"/>
       <c r="M3" s="5"/>
     </row>
@@ -6366,14 +6366,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
       <c r="L4" s="50"/>
       <c r="M4" s="5"/>
     </row>
@@ -6455,12 +6455,12 @@
       <c r="G9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="50"/>
       <c r="M9" s="5"/>
     </row>
@@ -6478,10 +6478,10 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="68"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
       <c r="L10" s="50"/>
       <c r="M10" s="5"/>
     </row>
@@ -6518,12 +6518,12 @@
       <c r="G12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="50"/>
       <c r="M12" s="5"/>
     </row>
@@ -6537,12 +6537,12 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
       <c r="L13" s="50"/>
       <c r="M13" s="5"/>
     </row>
@@ -6580,20 +6580,20 @@
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="62" t="s">
         <v>279</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="50"/>
       <c r="M16" s="5"/>
     </row>
@@ -6628,42 +6628,42 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60" t="s">
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
@@ -6757,35 +6757,35 @@
       <c r="M25" s="50"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="82"/>
       <c r="M26" s="50"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="72"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="74"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="85"/>
       <c r="M27" s="50"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -6800,14 +6800,14 @@
         <v>67</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
       <c r="L31" s="50"/>
       <c r="M31" s="5"/>
     </row>
@@ -6823,14 +6823,14 @@
         <v>70</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="62" t="s">
+      <c r="F32" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
       <c r="L32" s="50"/>
       <c r="M32" s="5"/>
     </row>
@@ -6912,12 +6912,12 @@
       <c r="G37" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="63" t="s">
+      <c r="H37" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="65"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="76"/>
       <c r="L37" s="50"/>
       <c r="M37" s="5"/>
     </row>
@@ -6935,12 +6935,12 @@
       <c r="G38" s="20">
         <v>1</v>
       </c>
-      <c r="H38" s="66" t="s">
+      <c r="H38" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="68"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="79"/>
       <c r="L38" s="50"/>
       <c r="M38" s="5"/>
     </row>
@@ -6977,12 +6977,12 @@
       <c r="G40" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="63" t="s">
+      <c r="H40" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="65"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="76"/>
       <c r="L40" s="50"/>
       <c r="M40" s="5"/>
     </row>
@@ -6996,12 +6996,12 @@
       <c r="G41" s="20">
         <v>1</v>
       </c>
-      <c r="H41" s="66" t="s">
+      <c r="H41" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="68"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="79"/>
       <c r="L41" s="50"/>
       <c r="M41" s="5"/>
     </row>
@@ -7039,20 +7039,20 @@
       <c r="A44" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="57" t="s">
+      <c r="C44" s="61"/>
+      <c r="D44" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="59"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="64"/>
       <c r="L44" s="50"/>
       <c r="M44" s="5"/>
     </row>
@@ -7087,42 +7087,42 @@
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="60" t="s">
+      <c r="A47" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60" t="s">
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="60"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
@@ -7241,34 +7241,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:F20"/>
-    <mergeCell ref="G19:L20"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="A26:L27"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:K44"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:F48"/>
-    <mergeCell ref="G47:L48"/>
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="G52:L52"/>
     <mergeCell ref="B53:F53"/>
@@ -7280,6 +7252,34 @@
     <mergeCell ref="G50:L50"/>
     <mergeCell ref="B51:F51"/>
     <mergeCell ref="G51:L51"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:F48"/>
+    <mergeCell ref="G47:L48"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="A26:L27"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:F20"/>
+    <mergeCell ref="G19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7289,7 +7289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD90F54-04F9-2948-B228-7AEC85B49338}">
   <dimension ref="A3:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="G52" sqref="G52:L52"/>
     </sheetView>
   </sheetViews>
@@ -7311,14 +7311,14 @@
         <v>67</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
       <c r="L3" s="34"/>
       <c r="M3" s="5"/>
     </row>
@@ -7334,14 +7334,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="73" t="s">
         <v>258</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
       <c r="L4" s="34"/>
       <c r="M4" s="5"/>
     </row>
@@ -7423,12 +7423,12 @@
       <c r="G9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="34"/>
       <c r="M9" s="5"/>
     </row>
@@ -7446,12 +7446,12 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="68"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
       <c r="L10" s="34"/>
       <c r="M10" s="5"/>
     </row>
@@ -7488,12 +7488,12 @@
       <c r="G12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="34"/>
       <c r="M12" s="5"/>
     </row>
@@ -7507,12 +7507,12 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
       <c r="L13" s="34"/>
       <c r="M13" s="5"/>
     </row>
@@ -7550,20 +7550,20 @@
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="34"/>
       <c r="M16" s="5"/>
     </row>
@@ -7598,42 +7598,42 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60" t="s">
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
     </row>
     <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
@@ -7750,35 +7750,35 @@
       <c r="M26" s="34"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="71"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="82"/>
       <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="74"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="85"/>
       <c r="M28" s="34"/>
     </row>
     <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7793,14 +7793,14 @@
         <v>67</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
       <c r="L32" s="46"/>
       <c r="M32" s="5"/>
     </row>
@@ -7816,14 +7816,14 @@
         <v>70</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="62" t="s">
+      <c r="F33" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
       <c r="L33" s="46"/>
       <c r="M33" s="5"/>
     </row>
@@ -7905,12 +7905,12 @@
       <c r="G38" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="63" t="s">
+      <c r="H38" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="65"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="76"/>
       <c r="L38" s="46"/>
       <c r="M38" s="5"/>
     </row>
@@ -7928,12 +7928,12 @@
       <c r="G39" s="20">
         <v>1</v>
       </c>
-      <c r="H39" s="66" t="s">
+      <c r="H39" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="68"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="79"/>
       <c r="L39" s="46"/>
       <c r="M39" s="5"/>
     </row>
@@ -7970,12 +7970,12 @@
       <c r="G41" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H41" s="63" t="s">
+      <c r="H41" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="65"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="76"/>
       <c r="L41" s="46"/>
       <c r="M41" s="5"/>
     </row>
@@ -7989,12 +7989,12 @@
       <c r="G42" s="20">
         <v>1</v>
       </c>
-      <c r="H42" s="66" t="s">
+      <c r="H42" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="68"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="79"/>
       <c r="L42" s="46"/>
       <c r="M42" s="5"/>
     </row>
@@ -8032,20 +8032,20 @@
       <c r="A45" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="57" t="s">
+      <c r="C45" s="61"/>
+      <c r="D45" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="59"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="64"/>
       <c r="L45" s="46"/>
       <c r="M45" s="5"/>
     </row>
@@ -8080,42 +8080,42 @@
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60" t="s">
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60" t="s">
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="60"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
@@ -8211,26 +8211,14 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="G52:L52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="G50:L50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:F49"/>
-    <mergeCell ref="G48:L49"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="F4:K4"/>
     <mergeCell ref="A27:L28"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="A19:A20"/>
@@ -8242,14 +8230,26 @@
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="B19:F20"/>
     <mergeCell ref="G19:L20"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:F49"/>
+    <mergeCell ref="G48:L49"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="G51:L51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8259,7 +8259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C897490-27CA-B94E-89C9-9DC49B971AE2}">
   <dimension ref="A3:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -8280,14 +8280,14 @@
         <v>67</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
       <c r="L3" s="46"/>
       <c r="M3" s="5"/>
     </row>
@@ -8303,14 +8303,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="73" t="s">
         <v>244</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
       <c r="L4" s="46"/>
       <c r="M4" s="5"/>
     </row>
@@ -8392,12 +8392,12 @@
       <c r="G9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="46"/>
       <c r="M9" s="5"/>
     </row>
@@ -8415,10 +8415,10 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="68"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
       <c r="L10" s="46"/>
       <c r="M10" s="5"/>
     </row>
@@ -8455,12 +8455,12 @@
       <c r="G12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="46"/>
       <c r="M12" s="5"/>
     </row>
@@ -8474,12 +8474,12 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
       <c r="L13" s="46"/>
       <c r="M13" s="5"/>
     </row>
@@ -8517,20 +8517,20 @@
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="46"/>
       <c r="M16" s="5"/>
     </row>
@@ -8565,42 +8565,42 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60" t="s">
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
@@ -8650,22 +8650,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:F20"/>
-    <mergeCell ref="G19:L20"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:F20"/>
+    <mergeCell ref="G19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8675,7 +8675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB14FEB4-33E8-D841-8B65-9CED955CEC0D}">
   <dimension ref="A3:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
@@ -8696,14 +8696,14 @@
         <v>67</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
       <c r="L3" s="41"/>
       <c r="M3" s="5"/>
     </row>
@@ -8719,14 +8719,14 @@
         <v>70</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
       <c r="L4" s="41"/>
       <c r="M4" s="5"/>
     </row>
@@ -8808,12 +8808,12 @@
       <c r="G9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="41"/>
       <c r="M9" s="5"/>
     </row>
@@ -8831,10 +8831,10 @@
       <c r="G10" s="20">
         <v>1</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="68"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
       <c r="L10" s="41"/>
       <c r="M10" s="5"/>
     </row>
@@ -8871,12 +8871,12 @@
       <c r="G12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="41"/>
       <c r="M12" s="5"/>
     </row>
@@ -8890,12 +8890,12 @@
       <c r="G13" s="20">
         <v>1</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
       <c r="L13" s="41"/>
       <c r="M13" s="5"/>
     </row>
@@ -8933,20 +8933,20 @@
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="41"/>
       <c r="M16" s="5"/>
     </row>
@@ -8954,20 +8954,20 @@
       <c r="A17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57" t="s">
+      <c r="C17" s="61"/>
+      <c r="D17" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -9001,42 +9001,42 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60" t="s">
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
@@ -9153,35 +9153,35 @@
       <c r="M27" s="41"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="82"/>
       <c r="M28" s="41"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="72"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="74"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="85"/>
       <c r="M29" s="41"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -9194,6 +9194,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:L21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
     <mergeCell ref="A28:L29"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="G22:L22"/>
@@ -9201,20 +9215,6 @@
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:L21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9225,7 +9225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4805ACE8-3721-304D-9C9A-16E244B30454}">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
@@ -9243,14 +9243,14 @@
         <v>67</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
       <c r="L2" s="34"/>
       <c r="M2" s="5"/>
     </row>
@@ -9266,14 +9266,14 @@
         <v>70</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
       <c r="L3" s="34"/>
       <c r="M3" s="5"/>
     </row>
@@ -9355,12 +9355,12 @@
       <c r="G8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="76"/>
       <c r="L8" s="34"/>
       <c r="M8" s="5"/>
     </row>
@@ -9378,12 +9378,12 @@
       <c r="G9" s="20">
         <v>1</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="68"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="79"/>
       <c r="L9" s="34"/>
       <c r="M9" s="5"/>
     </row>
@@ -9420,12 +9420,12 @@
       <c r="G11" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="76"/>
       <c r="L11" s="34"/>
       <c r="M11" s="5"/>
     </row>
@@ -9439,12 +9439,12 @@
       <c r="G12" s="20">
         <v>1</v>
       </c>
-      <c r="H12" s="66" t="s">
+      <c r="H12" s="77" t="s">
         <v>230</v>
       </c>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="68"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
       <c r="L12" s="34"/>
       <c r="M12" s="5"/>
     </row>
@@ -9482,20 +9482,20 @@
       <c r="A15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
       <c r="L15" s="34"/>
       <c r="M15" s="5"/>
     </row>
@@ -9530,42 +9530,42 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60" t="s">
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
@@ -9728,45 +9728,44 @@
       <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="82"/>
       <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="72"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="74"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="85"/>
       <c r="M29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
     <mergeCell ref="A28:L29"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
@@ -9779,11 +9778,12 @@
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9793,7 +9793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB72114-158D-AC4B-9339-BCABDBF219D1}">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
@@ -9814,14 +9814,14 @@
         <v>67</v>
       </c>
       <c r="E1" s="9"/>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -9835,14 +9835,14 @@
         <v>70</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -9876,12 +9876,12 @@
       <c r="G7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="76"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -9897,12 +9897,12 @@
       <c r="G8" s="20">
         <v>1</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="68"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="79"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -9930,12 +9930,12 @@
       <c r="G10" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="76"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -9943,12 +9943,12 @@
       <c r="G11" s="20">
         <v>1</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="68"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9964,20 +9964,20 @@
       <c r="A15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -9987,42 +9987,42 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60" t="s">
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
@@ -10086,34 +10086,34 @@
       <c r="M22" s="25"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="71"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="82"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="74"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="85"/>
     </row>
     <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
@@ -10126,14 +10126,14 @@
         <v>67</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10147,14 +10147,14 @@
         <v>70</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="62" t="s">
+      <c r="F30" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -10188,12 +10188,12 @@
       <c r="G35" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="63" t="s">
+      <c r="H35" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="65"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="76"/>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -10209,12 +10209,12 @@
       <c r="G36" s="20">
         <v>1</v>
       </c>
-      <c r="H36" s="66" t="s">
+      <c r="H36" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="68"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="79"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -10238,12 +10238,12 @@
       <c r="G38" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="63" t="s">
+      <c r="H38" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="65"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="76"/>
       <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10251,12 +10251,12 @@
       <c r="G39" s="20">
         <v>1</v>
       </c>
-      <c r="H39" s="66" t="s">
+      <c r="H39" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="68"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="79"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -10272,20 +10272,20 @@
       <c r="A43" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="57" t="s">
+      <c r="C43" s="61"/>
+      <c r="D43" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="59"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="64"/>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -10295,42 +10295,42 @@
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60" t="s">
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60" t="s">
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="22">
@@ -10379,34 +10379,34 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="71"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="82"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="72"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="74"/>
+      <c r="A54" s="83"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="85"/>
     </row>
     <row r="57" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
@@ -10419,14 +10419,14 @@
         <v>67</v>
       </c>
       <c r="E57" s="9"/>
-      <c r="F57" s="61" t="s">
+      <c r="F57" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
       <c r="M57" s="5"/>
     </row>
     <row r="58" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10440,14 +10440,14 @@
         <v>70</v>
       </c>
       <c r="E58" s="9"/>
-      <c r="F58" s="62" t="s">
+      <c r="F58" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="62"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -10481,12 +10481,12 @@
       <c r="G63" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H63" s="63" t="s">
+      <c r="H63" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="I63" s="64"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="65"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="76"/>
       <c r="M63" s="5"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -10502,12 +10502,12 @@
       <c r="G64" s="20">
         <v>1</v>
       </c>
-      <c r="H64" s="66" t="s">
+      <c r="H64" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="68"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="78"/>
+      <c r="K64" s="79"/>
       <c r="M64" s="5"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -10535,12 +10535,12 @@
       <c r="G66" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H66" s="63" t="s">
+      <c r="H66" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="I66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="65"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="75"/>
+      <c r="K66" s="76"/>
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -10548,24 +10548,24 @@
       <c r="G67" s="20">
         <v>1</v>
       </c>
-      <c r="H67" s="66" t="s">
+      <c r="H67" s="77" t="s">
         <v>328</v>
       </c>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="68"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="79"/>
       <c r="M67" s="5"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G68" s="20">
         <v>2</v>
       </c>
-      <c r="H68" s="66" t="s">
+      <c r="H68" s="77" t="s">
         <v>331</v>
       </c>
-      <c r="I68" s="67"/>
-      <c r="J68" s="67"/>
-      <c r="K68" s="68"/>
+      <c r="I68" s="78"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="79"/>
       <c r="M68" s="5"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -10575,20 +10575,20 @@
       <c r="A70" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="56"/>
-      <c r="D70" s="57" t="s">
+      <c r="C70" s="61"/>
+      <c r="D70" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="59"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="64"/>
       <c r="M70" s="5"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -10598,42 +10598,42 @@
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="60" t="s">
+      <c r="A73" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="60" t="s">
+      <c r="B73" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60" t="s">
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="60"/>
-      <c r="L73" s="60"/>
-      <c r="M73" s="60" t="s">
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65"/>
+      <c r="M73" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="60"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="60"/>
-      <c r="L74" s="60"/>
-      <c r="M74" s="60"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="65"/>
+      <c r="L74" s="65"/>
+      <c r="M74" s="65"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="22">
@@ -10683,30 +10683,22 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="A25:L26"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="G76:L76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:F74"/>
+    <mergeCell ref="G73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="G75:L75"/>
+    <mergeCell ref="F58:K58"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:K70"/>
+    <mergeCell ref="H68:K68"/>
     <mergeCell ref="F57:K57"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:K43"/>
@@ -10718,22 +10710,30 @@
     <mergeCell ref="B49:F49"/>
     <mergeCell ref="G49:L49"/>
     <mergeCell ref="A53:L54"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="G75:L75"/>
-    <mergeCell ref="F58:K58"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:K70"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="G76:L76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:F74"/>
-    <mergeCell ref="G73:L74"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="A25:L26"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
